--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Twitter" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Web" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Twitter result" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Web result" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6451,4 +6453,5522 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RT @subyroy: Delhi has been filled with academic fraud in recent decades... https://t.co/zhkfw6baZs</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>STRATEGIC PLANNING SESSION
+Thursday, January 21, 2021 at 9:00 am
+IN CAMERA - STRATEGIC PLANNING… https://t.co/1z0PU43dWL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9999469518661499</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>@mamam0uh Kaso lang english ba yan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BRACING FOR THE FUTURE
+Elaborate #stainlesssteel bracing system used for the restoration of New York City’s Harlem… https://t.co/YpnkfB2JMn</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The TRCA Executive Committee meeting is being livestreamed through our website, starting at 9:30 am this morning. F… https://t.co/HT3otLkkT9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The COVID-19 pandemic has made the shutdowns of online civic space ever more consequential for exercising civil and… https://t.co/P5B1uKfWZh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mew limited lang English ko di pa pinapansin 😂</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9921795129776001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>#Rotorua #NouvelleZelande: The Crooners - Operatunity 19 Jan 2021 https://t.co/61H80aYWAz https://t.co/f6pl463cvr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>#Wellington #NewZealand: Gardens Magic 2021 - Might Righteous 19 Jan 2021 https://t.co/5sirjQyRvG https://t.co/voK28jPRUB</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9988827109336853</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>#Wellington #NewZealand: Gardens Magic 2021 - Bad Hagrid/Pashtag 20 Jan 2021 https://t.co/MxY6UJcg4Z https://t.co/ClkEJKHfKo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hastings #HawkesBay #NewZealand: The Crooners - Operatunity 21 Jan 2021 https://t.co/Ya3FKHBx0r https://t.co/3Q7iGjPVkW</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>#Auckland #NewZealand: The Leiermann Trio 21 Jan 2021 https://t.co/yOZdOydz6h https://t.co/bI05ccSFD6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tauranga #BayofPlenty #NewZealand: Good Habits UK alt-folk Concert and Worshop 21 Jan 2021 https://t.co/kKDXmWe9Ou https://t.co/H3W2O2K5Zm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9337559938430786</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://t.co/v2NxxuEyhO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>we're not mutuals but it's mostly because 2mb lang english ko sa isang linggo. https://t.co/Uj6N5Sf6Zz</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RT @NiagaraRegion: WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda: https://t…</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6540255546569824</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RT @NiagaraRegion: WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda: https://t…</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6540255546569824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RT @NiagaraRegion: WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda: https://t…</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6540255546569824</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RT @NiagaraRegion: WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda: https://t…</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6540255546569824</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RT @NiagaraRegion: WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda: https://t…</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6540255546569824</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RT @NiagaraRegion: WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda: https://t…</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6540255546569824</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://t.co/ZNLfOMQB5Q All the hits from this week in 2004 playing now on The Retro Top 40! Song list at https://t.co/viy1CaRSnp</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>"[W]e cannot have locally driven politics without a cosmopolitan sense of solidarity, nor can we have a meaningful… https://t.co/nc271vHPo3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WATCH: Budget Review Committee of the Whole this evening at 6:30.
+Livestream: https://t.co/yeAUyXpDXW
+Agenda:… https://t.co/wnfZZYCnMp</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9490113258361816</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>@imcraze22411 comments lang english hahahaha</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>This Saturday (16 January 2021) : 14h00 - 17h00 UK time (15h - 18h Berlin Time) :  GUS’S GOLDEN GROOVES - USA TOP 6… https://t.co/fWPk7QIylj</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9998999834060669</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Severe political polarization is tearing at the seams of democracies around the world, with dangerous consequences… https://t.co/xDttS0hqUO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9996713399887085</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>It remains undeniable, from a human rights perspective, that blasphemy laws are deeply problematic, writes… https://t.co/lic8K7y1KW</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>@ItsLenMontRiego HHAHAHAHA nababaw lang English na mamsh</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sometimes hindi lang english and tagalog magdagdag ka pa ng 3rd language depending on the person's local or provinc… https://t.co/X27LNtIViS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>46 seconds lang english ko, normal ba ito?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9920652508735657</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RT @OGR_EN: If AI and automation are not developed and applied in a gender-responsive way, they are likely to reproduce and reinforce exist…</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Here is the agenda for today’s CPRM Committee: https://t.co/FV7flgdSdK
+And a PDF version, if you prefer:… https://t.co/Ub6RfKqoZI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9708815813064575</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>@moongirry ganun talaga pag limited lang english vocabulary mo 😭😭😭😭😭😭😭😭😭</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Job Search - Cuso International (HR) https://t.co/KzwNeKklge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9973898530006409</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>@le_Modelle Lol I don tire for u o. Okay lemme try:
+Alphabet is like a standard set of symbols /graphemes etc that… https://t.co/CGreaorXNf</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9999269247055054</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>@ayeitsbyang oo wala pero ayos lang english naman eh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>If AI and automation are not developed and applied in a gender-responsive way, they are likely to reproduce and rei… https://t.co/6Fl9HFtgKr</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>its because limited lang english namin hnnggg https://t.co/m3oVvUAL3R</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Doctors Around the World Issue Dire WARNING DO NOT GET THE COVID VACCINE
+https://t.co/UMkNEINuyk https://t.co/tZrR61kkfv</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>#Auckland #NouvelleZelande: Come Together - Neil Young’s Live Rust 16 Jan 2021 https://t.co/C5yplIZ4ew https://t.co/7M81KI8VBO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9995710253715515</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nelson #Marlborough #NewZealand: Gypsy Pickers in Nelson 16 Jan 2021 https://t.co/K2NEGMLlMs https://t.co/fx2cPtAPb4</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kaiwaka #Northland #NewZealand: Jazz Festival 17 Jan 2021 https://t.co/kVwSrWugAx https://t.co/Luutrgruby</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8996899127960205</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>#Napier Hawkes Bay #NewZealand: Cori Gonzalez-Macuer 17 Jan 2021 https://t.co/C1uIHvNPXu https://t.co/ntmISVaAF1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7889629006385803</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>New Plymouth #Taranaki #NewZealand: Sunday Summer Sounds 17 Jan 2021 https://t.co/0ASs1MCIKX https://t.co/qmAK5LN1gb</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>#Auckland #NewZealand: Polytropos Live! Auckland 18 Jan 2021 https://t.co/lrkKIYjhRM https://t.co/VnAXQXcQXX</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9000416994094849</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Job opening 
+https://t.co/basQQg20O5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>brb tapusin ko lang english outputs ko leche 😫😫</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>@RealCandaceO Scientists are sounding the alarm. Will you listen to them? Click this link to listen to their concer… https://t.co/inAIBEbKsV</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>@troutwhispers Scientists are sounding the alarm. Will you listen to them? Click this link to listen to their conce… https://t.co/0twI6gytBI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9998220801353455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> With big battery, outstanding cameras largest screen ever iPhone, 12 Pro Max big phone energy.
+The iPhone 12 Pro Max largest screen ever iPhone.
+The iPhone 12 Pro Max ($1,099 Amazon) follows footsteps 7 Plus gets camera upgrades none iPhone 12 models have. At core iPhone 12 Pro Max, like phones iPhone 12 family (the iPhone 12, iPhone 12 Pro iPhone 12 Mini), bunch things going like new flat-sided design reminiscent iPhone 5 iPad Pro. It support 5G, OLED screen support HDR, ceramic shield covering, A14 Bionic processor, support MagSafe wireless charging submerged depth 6 meters (just 20 feet) 30 minutes. If want deeper assessment any these features, take look iPhone 12 12 Pro review.
+But starting price $1,099 (£1,099, AU$1,849), hundred dollars iPhone 12 Pro, question: Are camera upgrades 12 Pro Max worth extra money? The short answer yes, camera.
+If want largest screen any iPhone ever made, 12 Pro Max worth price. If value longest battery life any iPhone 12, 12 Pro Max seems like obvious choice. And yes, want get every last drop image quality photos videos, iPhone 12 Pro Max definitely worth earned CNET's Editors' Choice. 
+Despite only 2 grams heavier last year's 11 Pro Max, iPhone 12 Pro Max feels even solid well-built. The flat edges, matte-etched glass back stainless steel sides another level premium fit finish. The review unit I tested gold, polished sides looked like C-3PO his best day. But make mistake, big phone. If dropped someone there's chance they'd sustain serious injury.
+Defining premium bigness 6.7-inch OLED screen, larger 6.5-inch one found 11 Pro Max XS Max ($1,100 Boost Mobile). The new screen makes 12 Pro Max sliver taller and, along those flat edges, gives behemoth iPhone tight robust look.
+On back chonky phone camera bump that's thicker SD card. When 12 Pro Max back, there's noticeable gap phone surface on. I realize people going put case it, will level things out.
+When Apple announced iPhone 12 lineup little confusion phones camera. But here's breaks down. All four phones ultrawide angle selfie cameras. All four phones faster f1.6 aperture lens main wide angle camera. That said, wide-angle camera 12 Pro Max different, I'll get moment. The 12 Pro 12 Pro Max also lidar sensor, helps autofocus low-light photos, video slow motion well AR apps. Last, 12 Pro 12 Pro Max third rear camera telephoto lens, lens 12 Pro Max longer than one 12 Pro.
+At 65-millimeter equivalent, new telephoto lens 12 Pro Max 2.5x optical zoom. Compare 52-millimeter equivalent telephoto lens 12 Pro, 2x optical zoom. And 0.5x extra goes long way. It's definitely nowhere close 5x optical zoom Galaxy Note 20 Ultra, I glad have little reach iPhone.
+On back 12 Pro new wide angle camera, longer telephoto camera, ultrawide-angle wide a lidar sensor.
+Taking photos a lot light a weakness any camera. And smaller camera (like ones a phone) weakness amplified. The cameras iPhone 12 Pro Max seem built around singular goal taking outstanding photos videos medium low-light situations.
+One way Apple addressed give main wide-angle camera 12 Pro Max a larger sensor. Combined f1.6 lens, new sensor gets an 87% improvement low-light capability, according Apple. On paper that's impressive. To help things further, 12 Pro Max sensor-based optical image stabilization instead lens-based OIS found 12, 12 Mini 12 Pro. By stabilizing sensor, Apple claims gain equivalent a stop light, again, paper impressive.
+For part, these claims seem true. The Pro Max takes great photos low light, compared photos regular 12 Pro, differences jump right away. And that's less a strike the 12 Pro Max, an indication good the cameras the iPhone 12 Pro. We'll going much in-depth photos videos both phones an upcoming camera comparison.
+This a Night Mode photo the 12 Pro Max.
+The 2.5x optical zoom creates great natural-looking background blur photo an LED lamp.
+These next three photos each taken one the rear cameras the 12 Pro Max. This taken the main wide-angle camera.
+Here a shot taken the 2.5x optical zoom the 12 Pro Max's telephoto camera. It's impressive handles the backlight the sun.
+And the scene taken the ultrawide-angle camera. Look the drama the perspective adds.
+Night Mode the wide, ultra-wide front-facing camera. This a Night Mode selfie.
+This taken the phone's main wide angle camera.
+Here the lights 2.5x.
+Here another Night Mode shot taken the 12 Pro Max.
+This taken indoors mixed lighting the main camera. The white balance looks a bit off.
+This photo a building sunset taken 5x digital zoom.
+There a lot happening here. I used the 2.5x optical zoom take a backlit photo cactus. I like the way the light made the needles look. And the natural bokeh creamy soft.
+These trees backlit the sun really show the chops the 12 Pro Max's new wide-angle camera. It able capture the highlights the trees without blowing white. And minimal noise the shadows.
+If the fence the 12 Pro 12 Pro Max cameras, ask the additional size heft the Max is worth the benefits gain photography? For most people, they're probably not that's largely because the 12 Pro also has a great all-around camera system. But people like me, want the best image quality a photo video taken a phone, the 12 Pro Max is worth in pocket… fits.
+One feature I'm excited is Apple's new ProRAW photo file, provides the flexibility a raw photo file the smarts computational photography. Sadly, this feature come out until later this year.
+Like the rest the iPhone 12 family, the 12 Pro Max take advantage Apple's MagSafe charging accessories. Thanks magnets NFC, the phone get the most efficient wireless charge when attached a MagSafe charger. When the phone charger connect, is a satisfying slap.
+Apple also makes the MagSafe Duo Charger, which charge a phone an Apple Watch the same time. It costs $129, folds up into a handy travel size. And yes, seems expensive a charger even though was cool use. The Apple Watch charging portion angled up.
+But stop cases chargers? What if could connect an Apple Pencil an iPhone 12 Pro Max? Technically, thanks those magnets, can. But sticking the back the phone is much use you'll get since the 12 Pro Max, like iPhones, support the Apple Pencil. If there was ever an iPhone to use an Apple Pencil on, this one. 
+I wished Apple took more advantage the 12 Pro Max's 6.7-inch screen. iPadOS optimizes iOS the larger screens the iPad ($255 Back Market) lineup. What an "iOS Max" would allow to use iPad software features Split View the 12 Pro Max? Or support the use an Apple Pencil? An iOS took full advantage the Max's size would another benefit to set apart the iPhones Apple sells. And, seriously, a MagSafe Apple Pencil would be a killer accessory.
+The sleeper feature on the 12 Pro Max is its large battery. Apple say how big the battery is, during the week I the phone, made a day a half without a problem. Over the weekend, it made it all the way Friday, Saturday afternoon 1:30 p.m. it still 40% left.
+I ran a battery test the phone plays a looped video in airplane mode. Apple's website says the 12 Pro Max last 20 hours this. In my test, it lasted 19 hours, 52 minutes. So basically as expected. We'll be running more battery tests the coming weeks, bookmark this review updates.
+The iPhone 12 Pro Max is powered by the A14 Bionic chip. And peppy fast. The A14 chip is as much giving great performance now as it is about giving you great performance through years iOS updates. In benchmark tests performance the 12 Pro Max was on par with (not surprisingly) the iPhone 12, 12 Mini 12 Pro. All of the new iPhones hold the distinction of having the most powerful processors in the phones we've tested. 
+Stay up-to-date on the latest news, reviews advice on iPhones, iPads, Macs, services and software.
+First published Nov. 9.
+Be respectful, keep it civil and stay on topic. We delete comments violate policy, which we encourage you to read. Discussion threads can be closed at any time at our discretion.
+ </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9230296611785889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> We're used routine now: every year Apple puts newer, faster, iPhone better cameras. While iPhone 12 Pro Max particular ground-breaking terms what offers, newest, biggest, best iPhone money buy right – need lot money it.
+To put iPhone 12 Pro Max context, one four 5G-enabled iPhones launched October 2020: 5.4-inch iPhone 12 mini (starting US$699), 6.1-inch iPhone 12 (starting $799), 6.1-inch iPhone 12 Pro (starting $999), 6.7-inch iPhone 12 Pro Max we're reviewing (starting hefty $1,099). For Pro Max, color options Graphite (like review model), Silver, Gold, Pacific Blue.
+Aside screen sizes, key difference two Pro models extra rear camera lens enables optical zoom. All four models run iOS 14 software, same super-speedy A14 Bionic chip inside, that's important weighing iPhone 12 Pro Max – terms fundamentals doesn't whole lot iPhone 12 mini does, costs $400 extra.
+The best screen size really personal preference, thanks thin bezels, iPhone 12 Pro Max usable one hand, long your hands fairly big. There's design tweak iPhone 11 though, curved edges around sides giving way flatter look reminiscent latest iPad Pros (or iPhone 5).
+There's doubt gorgeous-looking phone – would expect 13th incarnation handset. It looks expertly crafted, feels like ultra-premium device hand, 6.7-inch, 1,284 x 2,778 pixel display really shines (even 60-Hz display refresh rate a long way best get market moment).
+It absolutely zips along, games, video editing, web browsing everything else. For last couple years, iPhones come processing power actually likely need, iPhone 12 models (including the Pro Max) continue trend. This a phone stay speedy responsive several years come, something else consider you're weighing how much want spend your next phone purchase.
+iOS 14 board well course, the introduction home screen widgets flexible ever before. While Android remains a better option terms customization, Apple's mobile OS wins terms overall polish. By we're assuming committed either the iOS Android camp though, probably going stick what know.
+As the cameras, the 12-MP + 12-MP + 12-MP array the back the iPhone 12 Pro Max get some impressive results, day night. Details crisp, colors well balanced, noise kept a minimum even minimal light available. The iPhone cameras evolved slowly year year, they're least equal the best Samsung Google offer.
+The introduction depth-sensing LiDAR technology the camera (on the Pro Pro Max) means portraits background blur better defined, augmented reality applications work even accuracy. Meanwhile, the iPhone 12 Pro Max stretches the optical zoom 2.5x, opposed 2x the iPhone 12 Pro, can really come handy need get closer the action.
+It's hard take a bad photo the iPhone 12 Pro Max, while are some good cameras attached mid-range phones like the Pixel 4a the OnePlus Nord, the jump quality expensive handset clear see most snaps. Whether worth the jump price really depends the budget you're working with.
+Battery life definitely impresses: Apple promises 20 hours video playback, two-hour video streaming test (at maximum brightness) the 3,687-mAh battery dropped 100 percent 92 percent, works well 20 hours total. Gaming saw the battery life drop more, 8 percent every half an hour, overall a phone that holds charge very well.
+In regular use the iPhone 12 Pro Max typically 40-50 percent left at the end a busy day our tests, although worth bearing mind that this a brand new phone a brand new battery, we do testing with the more intensive 5G capabilities. Even so, an impressive phone a battery life standpoint, you have worry about taking a charger with you the morning. Wireless charging supported, including Apple's new MagSafe magnetic charging attachments.
+In short, the iPhone 12 Pro Max a superb smartphone – may be the best smartphone the market at the moment, a pleasure use in our testing. It's incredibly powerful, beautifully designed, the battery life is much better than most phones, the triple-lens rear camera gets amazing results just about every time.
+There are only two reasons to seriously consider the iPhone 12 Pro Max: either you prefer Android, because you can't justify spending a four-figure sum on a smartphone (which is a perfectly reasonable stance). However, you've got the cash you want to spend it on the gadget you use more than other, this is just about the best smartphone there in 2020.
+Product page: iPhone 12 Pro Max
+ </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.978321373462677</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The iPhone 12 Pro Max probably easiest new iPhone 12 models review. It’s huge really, really great camera. Probably one best cameras ever smartphone, best. For coming iPhone “Max” “Plus” model already, it’s no-brainer. Get it, it’s fantastic. It’s got everything Apple offer year it’s even bit thinner iPhone 11 Pro Max. 
+For everyone else — potential upsizers — review single question answer: Do improvements camera screen size potentially battery life make worth dealing hit handling ergonomics slim thicc build?
+The answer? Yes, certain conditions. Let’s get it.
+Build
+I’m going spend ton time performance go feature-by-feature breakdown iPhone 12 Pro Max. I’ve published review iPhone 12 iPhone 12 Pro today published review iPhone 12 mini. You check baseline chat whole lineup. 
+Instead, I’m going focus specifically differences iPhone 12 Pro Max rest lineup. This makes sense Apple returned us place we haven’t since iPhone 8. 
+Though rest lineup provides pretty smooth arc choices, iPhone 12 Pro Max introduces pretty solid cliff unique features could pull people iPhone 12 Pro. 
+The larger size sets work Apple make iPhone 12 Pro look like jewel. Gold-coated steel edges laminated clear frosty back gold accent rings around cameras glossy logo. All screams posh. 
+Some may recall period time existed market ultra-luxury phone makers like Vertu use fine materials “elevate” usually pretty poorly implemented Symbian Android phones heart. Leather, gold, crystal even diamond were used craft Veblen goods über rich could stay “above” proles. Now, Apple’s materials science experimentation execution level high really can’t get anything level kind pure luxe manifestation piece consumer electronics anyone else, even “hand maker.” 
+To fair, Vertu makers didn’t die Apple got good gold, died good software needed invest life bejeweled golems. But Apple got better did faster could ever get good Apple does. 
+This great piece kit mentioned even thinner previous Max models size screen, it’s width (.3mm wider). And opinion, squared-off edges year’s aesthetic make phone harder hold, easier size. This essentially opposite effect smaller models. For phone size I’d imagine everyone going use case anyway, so that’s probably moot, it’s worth noting. 
+My feelings larger iPhones, I haven’t used daily driver since iPhone 8, remain unchanged: two-handed devices best used tablet even laptop replacements. If run life phones makes sense you’d want huge screen plenty real estate browser pip video chat generous keyboard once. 
+The differences 
+When we’re talking whether move beast I think it’s helpful list everything different, think might isn’t, iPhone 12 Pro. 
+Screen. The 6.7” iPhone 12 Pro Max screen resolution 2778×1284 458 ppi. That’s nearly identical slightly less iPhone 12 Pro’s 460ppi. So though difference, I’d count wash. The screen’s size, course, software support some Apple third-party apps take advantage increased real estate still factor. 
+Performance. The iPhone 12 Pro Max performs exactly you’d expect CPU GPU department, say exactly iPhone 12 Pro. It also 6GB RAM board. Battery performance comparable iPhone 11 Pro Max testing, say outlasted typical waking day, though I could probably nail long travel day. 
+Ultra-wide-angle camera. Exactly same. Improved iPhone 11 Pro massively due software correction addition Night Mode, across iPhone 12 Pro lineup.
+Telephoto camera. This tricky one uses same sensor iPhone 12 Pro, features new lens assembly results 2.5x (65mm equivalent) zoom factor. This means though capture quality same, achieve tighter framing same distance away your subject. As heavy telephoto user (I shot around 30% pictures last year iPhone 11 Pro’s telephoto) I love additional control slightly higher optical compression comes it. 
+The framing control especially nice portraits. 
+Though comes handy distant subjects well.
+There also one relatively stealthy (I cannot find website I verified true) update telephoto. It only lens other wide-angle across all iPhone 12 lineup also get the new optical stabilization upgrades allow make 5,000 micro-adjustments per second stabilize image low light shade. It still uses the standard lens-style stabilization, the new sensor-shift OIS used the wide-angle lens, goes 5x the amount adjustments make the iPhone 11 Pro even the iPhone 12 Pro. 
+The results this seen this shot, handheld indoor snap. Aside the tighter lens crop, the additional stabilization adjustments result a crisper shot finer detail even though the base sensor identical. It’s a relatively small improvement comparison the wide-angle, it’s worth mentioning worth loving you’re a heavy telephoto user.  
+Wide-angle camera. The bulk the iPhone 12 Pro Max difference right here. This a completely new camera pushes the boundaries what the iPhone capable shooting this point. It’s actually made three big changes:
+Sensor-shift OIS systems new, they were actually piloted the Minolta DiMAGE A1 back 2003. But phone cameras used lens-shift technology it common, vastly cheaper easier implement. 
+All three things work together deliver pretty stellar imaging results. It also makes the camera bump the iPhone 12 Pro Max a bit taller. Tall enough there actually additional lip the case meant it made Apple cover it. I’d guess this additional thickness stems directly the wide-angle lens assembly needing larger accommodate the sensor new OIS mechanism Apple unwilling let one camera stick out farther any other. 
+The iPhone 12 Pro Max a massive ISO range, enabled the wide angle. It pick anywhere 34-7,616 ISO, allows it snap candid shots wide apertures faster shutter speeds much surety the iPhone 12 Pro. This isn’t a huge deal some people, some the gain washed away depending what you’re shooting. But people kids shoot moving subjects less ideal conditions, it’s big. It be the difference a tack-sharp shareable a throwaway the right situation.
+These Night Mode samples, even there see the improvements brightness sharpness. Apple claims 87% light-gathering ability this lens, the right conditions it’s absolutely evident. Though won’t be shooting SLR-like images near darkness (Night Mode its limits tends get pretty impressionistic it gets dim) can absolutely see the pathway Apple get there it keeps making kinds improvements. 
+Wide-angle shots the iPhone 12 Pro Max display slightly better sharpness, lower noise better color rendition the iPhone 12 Pro, much improvement the iPhone 11 Pro. In bright conditions you be hard pressed tell the difference the two iPhone 12 models, you’re the lookout the signs there. Better stabilization handheld open shade, better noise levels dimmer areas slightly improved detail sharpness. 
+The iPhone 12 Pro already delivers impressive results year year, the iPhone 12 Pro Max leapfrogs it within the same generation. It’s the impressive gain Apple’s ever a model year, image wise. The iPhone 7 Plus the introduction Apple’s vision a blended camera array forward looking, even image quality pretty much parity the smaller models year. 
+A very significant jump this year. Can’t wait this camera trickle the lineup.
+Lidar. I haven’t really mentioned lidar benefits yet, I went extensively iPhone 12 Pro review, so I’ll cite them here.
+Lidar an iPhone 12 Pro iPhone 12 Pro Max-only feature. It enables faster auto-focus lock-in low-light scenarios as well as making Portrait Mode possible the Wide lens Night Mode shots. 
+First, the auto-focus insanely fast low light. The image what happening, invisibly, enable that. The lidar array constantly scans the scene an active grid infrared light, producing depth scene information the camera can use focus. 
+In practice, what you’ll see the camera snaps focus quickly dark situations you would normally find it very difficult get a lock all. The lidar-assisted low-light Portrait Mode very impressive, it only works the Wide lens. This means you trying capture a portrait it’s dark, you’ll get an on-screen prompt asks you zoom out. 
+These Night  Mode portraits demonstrably better looking the standard portrait mode the iPhone 11 those be shot the telephoto, meaning a smaller, darker aperture. They also not have the benefit the brighter sensor lidar helping separate the subject the background — something gets insanely tough do low light RGB sensors.
+As a note, the lidar features work great situations less five meters along Apple’s Neural Engine, produce these low-light portraits. Out beyond that it’s not much use light falloff. 
+Well-lit Portrait Mode shots the iPhone 12 Pro Max will still rely primarily the information coming through the lenses optically, rather lidar. It’s simply not needed the most part there’s enough light.
+The I buy it workflow
+I’m straight copying a couple sections you from my iPhone 12 Pro iPhone 12 mini reviews the advice applies across all these devices. Fair warning.
+In my iPhone 12/12 Pro review I noted my rubric selecting a personal device:
+And this the conclusion I came to at the time:
+The iPhone 12 Pro bested the camera department the iPhone 12 Pro Max, the biggest best sensor Apple yet created. (But its dimensions similarly biggest.) The iPhone 12 been precisely cloned a smaller version the iPhone 12 mini. By my simple decision-making matrix, either one those a better choice me either the models I’ve tested. If the object becomes to find the best compromise the two, the iPhone 12 Pro is the pick.
+But that I’ve time the Pro Max the mini, I’ve been able to work a little decision flow you:
+If you haven’t gathered it by now, I recommend the iPhone 12 Pro Max to two kinds people: the ones want the absolute best camera quality a smartphone period those who do the bulk their work a phone rather another kind of device. There is a distinct “fee” that you pay ergonomics to move to a Max iPhone. Two hands just plain needed some operations single-handed moves are precarious at best. 
+Of course, if you’re already self-selected the cult of Max then you’re probably just wondering if this new one is worth a jump from the iPhone 11 Pro Max. Shortly: maybe not. It’s great, it’s not light years better unless you’re photography on it. Anything older though you’re in for a treat. It’s well made, well equipped well priced. The storage upgrades are less expensive than ever it’s really beautiful. 
+Plus, the addition of the new wide angle to the iPhone 12 Pro Max makes this the best camera system Apple has ever made quite possibly the best sub compact camera ever produced. I know, I know, that’s a strong statement, but I think it’s supportable the iPhone is best in class it comes to smartphones, no camera company on the planet is doing the kind of blending and computer vision Apple is doing. Though larger sensor compact cameras still obliterate the iPhone’s ability to shoot in low-light situations, the progress time of Apple’s ML-driven blended system.
+A worthy upgrade, if you can pay the handling costs.
+ </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9391913414001465</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copyright © 2021, Quiller Media, Inc.
+ Contact Us | Privacy Policy
+The iPhone 12 Pro Max largest model 2020 iPhone collection, super-sized smartphone boasting better battery life even camera specifications improve iPhone 12 offers. 
+The external appearance iPhone 12 Pro Max matches rest iPhone 12 family, flat sides produce defined edges stainless steel body, well making closer style iPad Pro lineup. Along stronger chassis, Apple also employing toughened Ceramic Shield glass front back added durability, rear also sporting textured matte glass effect. 
+Continuing durability theme, Apple also improved water resistance previous generation, capable surviving depth six meters water 30 minutes. Previously, four meters half hour. 
+This year, there's four colors choose from, "traditional" silver, tweaked gold that's slightly lighter previous years, accompanied tweaked graphite instead space gray, well new Pacific blue. 
+At 6.33 inches tall 3.07 inches wide, device well within "phablet" territory, maintaining 0.29-inch thickness stablemate, iPhone 12 Pro. Its size also makes heaviest range 8.03 ounces. 
+This reviewer large hands, way one-hand iPhone. It's comfortable solid hold, big iPhone, there question it. We've passed around several colleagues friends, general consensus phone pretty good desk, something want walk around use.
+That bulk allows Apple slap big screen battery. The 6.7-inch Super Retina screen resolution 2,778 1,284, pixel density 458 pixels per inch. In theory, bigger screen makes better watch content, complete 2 million one contrast ratio 1,200 nits brightness HDR video driven use OLED. In actuality, though, extra quarter-inch diagonal versus iPhone 11 Pro Max give lot user, already provided slightly smaller device.
+Just iPhone 12 Pro, still True Tone Wide Color (P3) support, Haptic Touch, Apple's frequently-used oleophobic coating display. 
+The new phones less fingerprint magnets. Wipe clean microfiber cloth, even paper towel time time, fine. 
+Internally, there's little difference processing performance iPhone 12 Pro Max versions, uses powerful A14 Bionic chip iPhone 12 models. This means CPU six cores consisting two high-performance cores alongside four high-efficiency cores, latest 16-core Neural Engine capable 11 trillion calculations per second, improved four-core GPU, new image signal processor. 
+Ultimately, translates improvement roughly 20% A13 Bionic iPhone 11 Pro single-core Geekbench testing, multi-core performance ballpark 15% better last year's main effort. 
+While may necessarily see difference performance all time, mean iPhone 12 Pro Max zippier open resume apps, making extremely useful Camera app. How much actually matters varies, given iOS handles RAM open apps.
+But, power really matters handling processing tasks pushed way camera, HDR computational photography. 
+Like iPhone 12 Pro, iPhone 12 Pro Max benefits 6 gigabytes memory 4 gigabytes used non-Pro models. Another improvement Pro models expanded storage capacity range versus non-iPhone 12 Pro models. Storage capacities start 128GB 256GB 512GB models available. 
+While we're sure 1TB phone inevitable, given increasing shift away desktop laptop computers mobile devices primary computing tool, today. 
+As last years, camera array fairly large protrusion back phone. Not much changed —  either despise protrusion, care. Nearly every protective case almost every consumer buys shields bump levels back phone. 
+Like iPhone 12 Pro, iPhone 12 Pro Max three 12-megapixel camera sensors back, giving Ultra Wide, Wide, Telephoto coverage. 
+The Ultra Wide offers f/2.4 aperture 120-degree field view, Wide f/1.6 aperture. For Telephoto, aperture Max goes f/2.2 instead f/2.0 used Pro. 
+However, iPhone 12 Pro Max better overall optical zooming range, 2x optical zoom upgraded 2.5x model 2x Pro, along standard 2x optical zoom out. In real world, gives iPhone 12 Pro Max slightly better better optical zoom range 5x 4x Pro, well improving digital zoom 10x 12x. 
+The Wide camera iPhone 12 Pro Max also benefits upgraded optical image stabilization system called sensor-shift, physically moves sensor around inside camera similar manner Optical Image Stabilization (OIS) systems DSLR mirrorless cameras. By making 5,000 adjustments per second, Apple's system help produce steadier shots overall compared lens-shift system typically used smartphone OIS systems. 
+Apple also made Wide camera sensor better low-light photographs making 47% larger. As resolution remains same, means pixel sensor collecting light, makes efficient gathering light data shots. This visible change users see, photos shot iPhone 12 Pro Max versus model iPhone. 
+This top main new addition rear cameras 2020, use LiDAR sensor. Putting sensor rear enables iPhone autofocus six times faster low light situations, well making easier capture Portraits new Night mode. 
+That's even consider potential applications augmented reality. Apps using ARKit able take advantage extra data accurately depict virtual content real-world camera view. 
+All cameras benefit Deep Fusion, Apple also including night mode ultra-wide wide low-light photography. Smart HDR 3 help create vibrant images. 
+For still images, addition Apple ProRAW appealing photographers, providing benefits capturing RAW images also benefiting image processing Deep Fusion Smart HDR. In practice, means iPhone handle elements like noise reduction multi-frame exposure adjustments automatically, still enabling users refine elements white balance color. 
+This all fine good, realistically, aforementioned low-light situation, shooting iPhone, Camera app, normal settings, normal lighting almost nobody able see differences. We've doing long time, very hard see differences conditions iPhone 12 Pro Max, iPhone 11 Pro Max.
+So, called around some our professional photography friends. They pointed minute details images, specifically started shooting RAW, using applications like Halide.
+We'll delving differences fairly soon, say —  casual photographer, using default apps settings, going hard time telling camera apart iPhone 12 Pro, iPhone 11 Pro family devices. 
+Apple's Camera app good enough 99% population. It give excellent shots, nearly every environment, automatically. But get most upgraded sensor, iPhone 12 brings table, an inkling doing, get Halide, photography app choice, play around camera, really stretch out.
+The iPhone 12 Pro normal video recording modes cover 4K 60fps slo-mo 1080p 240fps. There's also extended dynamic range video, continuous autofocus, cinematic video stabilization, night mode time lapse, even ability take 8-megapixel photographs recording 4K video. 
+With iOS 14 conjunction iPhone 12 Pro line, Apple included support recording editing HDR content Dolby Vision 60fps. Footage TV shows movies usually mastered Dolby Vision not typically shot natively today, notable mobile device.
+But, camera, much comes shooting skill editing ability the videographer behind the lens —  say nothing having home media setup capable getting the most footage. Even without the additions Dolby Vision, again, the iPhone 12 Pro Max far, far exceeds anything 99% the users the device ever, ever need.
+To the front the 12-megapixel TrueDepth camera, provides the core functionality Face ID. Consisting an f/2.2 aperture camera added depth mapping data, offers the usual Portrait mode shooting selective bokeh controls, six Portrait Lighting effects, Animoji Memoji support. 
+Like the rear cameras, also Night mode, Deep Fusion, Smart HDR3, Dolby Vision HDR video capture, 30fps. It also capable 4K video recording up 60fps, extended dynamic range 30fps, 120fps slo-mo video, time-lapse video stabilization, Night mode time-lapse, automatic image stabilization, cinematic video stabilization up 4K. 
+As the biggest iPhone the range, stands reason the iPhone 12 Pro Max also the biggest battery capacity match size. This also gives the best battery life, Apple claiming last up 20 hours video playback, up 12 hours video playback streamed, up 80 hours audio playback. 
+Our battery testing bears Apple's claims the most part, more get the 5G discussion.
+If using 20W charger —  much already made supplied separately —  there's fast charge capability connected the Lightning port, allowing reach up 50% charge 30 minutes. 
+Using magnet array, MagSafe lightly affix charger the back the iPhone, lining up optimal energy transfers, can up 15 watts ideal conditions. This be fast most Lightning charging evolutions, it's still considerable leap forward Apple's wireless capabilities. 
+Some Qi charging bases more fidgety others. Some you can drop down, pretty good job alignment, multiple engineering choices made the pad. Some require very specific positioning, you get nothing.
+MagSafe eliminates the issue having repeatedly reposition the iPhone fidgety wireless charger get the right spot. With magnets guiding the way, makes placing the iPhone effortless. 
+Apple also extended MagSafe non-power accessories, its new cases extending the magnetic ring maintain its attraction, rather weakening the effect. The addition NFC chips cases also allows the iPhone recognize case attached, the point color-matched animated ring appears its display. 
+MagSafe also allows other accessories be attached the rear, the card holders wallets, docks mounts, practically anything else wants stick the back their mobile device. 
+Opinions MagSafe vary amongst the staff. Some quick embrace the accessory ecosystem, some, like reviewer not happy what's made available far. 
+Frankly, MagSafe wallet giant phone already challenge get most (men's) pants pockets really bad idea. Some preliminary testing found relatively easy scrape the device goes pocket, the wallet all the contained cards ending up the ground. But, isn't the case the smaller devices, the internal debates continue.
+A MagSafe adapter a car mount ships isn't a frame Apple's adapter inevitable, isn't today. That may change a our minds the subject.
+While we're discussing it, the cord the MagSafe charger way short. We'd really like see changed, without having resort an extension cable.
+A major feature year's iPhones support 5G connectivity, actually two different elements working together across cellular networks. The technology can provide high-speed communications technology covers a wide area, it's much more nuanced that. 
+The first element made up sub-6GHz bands provide blanket signal coverage a similar way 4G LTE functions. This allows 5G networks be widespread, this, would effectively be connection speeds comparable existing 4G LTE networks. 
+The second part, mmWave, promises the potential gigabit-level speeds users. However, mmWave isn't a resilient signal, work lower ranges easily disrupted, meaning really be deployed areas high population densities, areas a city. And even then, you'll need line sight the mmWave "tower" generally a box a telephone pole absolutely obstructions you —  including a window, tree leaves, a mesh window screen.
+That Apple includes support both high-speed high-resilience elements great consumers, be able benefit the connectivity it available, depending their carrier's rollout. 
+Apple also claimed its iPhones fall back 4G connections instances high amounts bandwidth not required. This help prolong battery life 5G connectivity a power-hungry technology operate, took the phone Washington DC testing, got seven eight hours operational battery life the phone hunting signal, it very rarely connecting the high-speed mmWave network.
+In short, today, mileage vary a great deal it comes 5G. We're glad the phone includes it the future, count big gains today.
+For wireless networking, the iPhone 12 Wi-Fi 6 support, equating 802.11ax, 2x2 MIMO. Bluetooth 5.0 also available connecting other devices, NFC offered a reader mode Apple Pay transactions. 
+Like the previous generation, Apple included an Ultra Wideband chip, it says spatial awareness. While previously would used more accurate AirDrop device detection, it also the potential other uses. 
+The HomePod mini uses UWB manage some its proximity detection capabilities, allowing it perform handoff transactions the iPhone content. For future uses, the often-rumored "AirTags" also believed use UWB transmitting its location, may also help finding the tags lost objects, well as managing HomeKit devices. 
+There's certainly potential UWB, it's largely up Apple how it expands the concept. 
+The iPhone 12 Pro Max indisputably the king Apple's iPhone lineup, as the highest-end iPhone every year. Much already been said the device, varying levels inflammatory headlines pricing, the lack an AC adapter, more.
+We spent a lot time figuring exactly say the iPhone 12 Pro Max, other it is, it can do. Through the entire evolution the thought process, we kept coming back one point —  a fantastically powerful computing device a stunning camera portable video studio, the time it much phone nearly every regard, nearly everybody.
+The iPhone 12 Pro Max a lot phone today. The camera far more nearly everybody will need the next several years, the processing power the device. The screen massive, unless tossing it a bag, suitcase, briefcase, putting it your pocket will be a problem most.
+Imagine a graph two lines time —  one a user needs get the job done, does climb, at a much gentler rate the imaginary quantification what Apple adds the devices year year. So, the annual upgrades, especially at the high-end, like the iPhone 12 Pro Max a larger gap what the user needs get the job done, versus what the phone has ever before.
+We don't know much about any our readers an individual level, we a pretty good idea the aggregate. We know you're demanding your hardware, other a few annual upgraders, you like keep things service well longer a year, retiring when you to.
+While I the incredible privilege able review these devices as a living year year facing the Internet the last decade, the annual replacement cycle not a chase I would be I review these you, need be able discuss a professional capacity. If I way, I'd turn personal devices every three years so, cascading what still works well folks could use older devices.
+I'm enjoying the iPhone 12 Pro Max, it will never be a day-to-day carry me. I like what it brings the table a computing perspective, I look forward what will trickle down to the rest the line as physics allow, like what the iPhone X heralded what's nearly the entire iPhone 12 family devices.
+But, unless you're replacing iPhone X older you got at launch, perhaps an iPhone XS Max that's got a few many miles drops it, I'm not sure needs to buy phone, versus the iPhone 12 Pro non-Max.
+If the iPhone 12 Pro Max the iPhone you always wanted, buy it without fear. It an incredibly solid device every front, will serve you well. It's just not everybody.
+Score: 4 5.
+AppleInsider has affiliate partnerships may earn commission products purchased affiliate links. 
+        These partnerships not influence our editorial content.
+Agreed.....iphone 12 pro think the perfect size a portable phone....just opinion 
+Agreed.....iphone 12 pro think the perfect size a portable phone....just opinion 
+AppleInsider said:
+Apple also employing its toughened Ceramic Shield glass to the front back [emphasis added]
+Is definitely correct? Yours the first review I’ve seen states this. I the impression the front glass the Ceramic Shield that the back glass an older generation Gorilla Glass.
+Is this definitely correct? Yours the first review I’ve seen that states this. I the impression that only the front glass the Ceramic Shield that the back glass an older generation Gorilla Glass.
+mr. h said:
+AppleInsider said:
+Apple also employing its toughened Ceramic Shield glass to the front back [emphasis added]
+Is this definitely correct? Yours the first review I’ve seen that states this. I under the impression that only the front glass the Ceramic Shield that the back glass an older generation Gorilla Glass.
+This what we've been told, other that, we no way to confirm it independently.The front back glasses mounted different substrates. The front laminate, that OLED display. The rear effectively glued to the metal back of the phone. That itself changes the behavior of the glass under different stressors.
+This what we've been told, other than that, we have no way to confirm it independently.The front back glasses mounted different substrates. The front laminate, that OLED display. The rear effectively glued to the metal back of the phone. That itself changes the behavior of the glass under different stressors.
+I have the 12 Pro Max it comfortably fits all of pants pockets. The bigger screen allows better game playing, viewing landscape mode is also a plus. 
+I have the 12 Pro Max it comfortably fits all of pants pockets. The bigger screen allows for better game playing, viewing landscape mode is also a plus. 
+I love my iPhone 12 Max Pro Extreme Ultimate Super Magnum Epic Monster Deluxe Supreme Edition.  I don’t mind the high price I’m planning on this a 4-year phone, like my 7 Plus was.   It’s literally only 0.10” taller than the 7 Plus is the same width with more screen the same area.  Weight?  It’s heavier, I need to workout more.   My 7 plus really getting loose in the lightning port I also bought the MagSafe charger for home overnight charging.    Cell signal is faster everywhere outside, at home, I’m in a 1-2 bar area home WiFi makes up for that.  I’m happy and now have a $40 phone payment for the next 30 months.   It’s what happens.   
+I love my iPhone 12 Max Pro Extreme Ultimate Super Magnum Epic Monster Deluxe Supreme Edition.  I don’t mind the high price I’m planning on this being a 4-year phone, like my 7 Plus was.   It’s literally only 0.10” taller than the 7 Plus is and the same width with more screen in the same area.  Weight?  It’s heavier, I need to workout more.   My 7 plus was really getting loose in the lightning port I also bought the MagSafe charger for home overnight charging.    Cell signal is faster everywhere outside, at home, I’m in a 1-2 bar area so home WiFi makes up for that.  I’m happy and now have a $40 phone payment for the next 30 months.   It’s what happens.   
+Apple App Store, Google Play boot social media app Wimkin user calls for violence
+Amazon, 'big five' book publishers sued for ebook price fixing
+Is AppleCare+ worth it for AirPods, AirPods Pro, or AirPods Max?
+Incoming Intel CEO demands better chips than 'lifestyle company in Cupertino'
+CES 2021 report, MacBook docking tips, Bluetooth problems on the AppleInsider Podcast
+TSMC 'on track' for testing 3nm Apple Silicon processors in 2021
+Apple TV+ review: 'Servant' is still creepy, returns diminishing
+MagSafe return &amp; better displays in 2021 MacBook Pro backed in new report
+ </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.963013231754303</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> * Impressive cameras* Vibrant display* Super-fast performance
+Kidney bechni padhegi
+Rated Apple iPhone 12 Pro Max Excellent
+ </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9777542948722839</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The overall rating based review our editors
+Apple iPhone 12 Pro Max officially released October 13, 2020.
+The phone powered new Apple A14 Bionic processor. The smartphone comes 6.7 inches Super Retina XDR OLED capacitive touchscreen, 2778 x 1284 pixels resolution HDR display, True Tone Wide color (P3) gamut.
+Additionally, screen the device protected a unique ceramic shield.  Along this, the screen features 1200 nits max brightness (advertised), Dolby Vision, HDR10+, Wide color gamut, True-tone, 120Hz refresh rate.
+The rear camera consists a 12 MP (wide) + 12 MP (telephoto) 5x optical zoom + 12 MP (ultrawide) also a LiDAR scanner night mode.
+The front camera a 12 MP (wide) + SL 3D (depth/biometrics sensor) camera sensor. The phone’s sensors include Lidar, Face ID, accelerometer, gyro, proximity, compass, barometer + Siri natural language commands, dictation.
+The smartphone fueled a non-removable Li-Ion battery + Fast charging 20W+ USB Power Delivery 2.0 + 7W Qi wireless charging 15W MagSafe Wireless Charging. The phone runs iOS 14 operating system.
+The Apple iPhone 12 Pro Max comes different colors like Graphite, Silver, Gold, Pacific Blue. It features 2.0, proprietary reversible connector.
+Necessary cookies absolutely essential the website function properly. This category includes cookies ensures basic functionalities security features the website. These cookies store personal information.
+Any cookies may not be particularly necessary the website function used specifically collect user personal data via analytics, ads, embedded contents termed non-necessary cookies. It is mandatory procure user consent prior running cookies your website.
+ </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.949889063835144</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> iPhone 12 Pro Max starts Rs. 1,29,900 India
+The iPhone 12 Pro Max Apple's ambitious iPhone yet, naturally commands steep premium too. In iPhone 12 Pro review, I mentioned even though smaller Pro model superb offering, probably smartest choice. If thinking going all-out iPhone purchase year, probably look spending bit getting iPhone 12 Pro Max instead. After using week, I think I right making assumption.
+We've already covered iPhone 12 Pro great detail, since 12 Pro Max similar, we'll focusing mainly what's different two models review. Let's begin.
+The iPhone 12 Pro Max available storage variants colours iPhone 12 Pro, starting 128GB Rs. 1,29,900, 256GB Rs. 1,39,900, 512GB Rs. 1,59,900. There's roughly Rs. 10,000 premium variants iPhone 12 Pro India. Apple sent Pacific Blue colour again, models also available Graphite, Silver Gold.
+One main differences iPhone 12 Pro Max iPhone 12 Pro their physical size. The iPhone 12 Pro Max Apple's largest iPhone yet, size seems amplified due flattened edges top bottom glass, flat frame. It's taller wider last year's iPhone 11 Pro Max, slimmer 7.4mm previous ‘Max' model. It's heavy phone too, weighing 226g. I think I moderately large hands, even me, iPhone 12 Pro Max felt bit large use comfortably first, I'm even talking one-handed use here.
+However, despite this, I kind grew accustomed while. In post-pandemic world, I would never think using everyday phone considering commute public transport. In current situation though, nearly everyone's working home, I think I accommodate size daily use. It's still going be bit uncomfortable carry around your pocket, even use case.
+The iPhone 12 Pro Max (left) considerably larger iPhone 12 Pro (right)
+The build quality fantastic, like iPhone 12 Pro. You get stainless steel frame running around sides, usual array buttons ports iPhone, frosted glass back panel.
+Thanks physical size, iPhone 12 Pro Max also largest display ever used iPhone. It's 6.7-inch OLED Super Retina XDR OLED panel, 6.5 inches last year's Max model. It also higher resolution 2,778x1,284 pixels compared iPhone 12 Pro, resulting slightly higher pixel density. However, everything else including brightness level, contrast ratio, colour gamut, etc identical. I really wish Apple used higher refresh rate panel least its Max model, I guess we'll wait till next year hope best.
+Next, let's jump cameras, Apple made major upgrades iPhone 12 Pro, paper anyway. The main rear camera new said 47 percent larger sensor, bigger (1.7 micrometer) pixels improved low-light performance compared iPhone 12 Pro. Apple also used sensor-shift stabilisation, means sensor move slightly its axes compensate hand shakes, instead lens moving (known OIS). It's first an iPhone, we've seen similar implementation Vivo X50 Pro recently.
+The iPhone 12 Pro Max (left) features larger main camera sensor compared 12 Pro
+Finally, Apple also gone new telephoto camera longer focal length (65mm vs 52mm), get 2.5x optical zoom 12x digital zoom, compared 2x optical 10x digital iPhone 12 Pro. A side-effect having longer optical zoom range similarly sized body 12 Pro telephoto camera's aperture be downgraded narrower f/2.2 f/2.0, Apple says made ways.
+Other these changes, rest camera features remain iPhone 12 Pro. All sensors still 12 megapixels, all support Deep Fusion, Night Mode, Night Portrait, Smart HDR 3. The iPhone 12 Pro Max also shoot Dolby Vision HDR videos 4K 60fps. I've compared all samples ones shot iPhone 12 Pro time, see much an impact new sensors lenses made.
+Tap see larger image
+Tap see larger image
+In daylight, differences detail two phones mostly negligible. Even magnify images pixel-peep, hard find many (if any) differences photos taken iPhone 12 Pro Max iPhone 12 Pro. This goes their ultra-wide cameras too, surprising since Apple changed anything latter.
+Tap see larger image
+The telephoto camera iPhone 12 Pro Max lets optically zoom bit iPhone 12 Pro, nice, again, I notice huge difference image quality daytime. Even digitally zooming all way 12x, image quality less same.
+Close-up photos taken good light looked great. Colours details spot on, exposure well balanced. Portrait mode works well too, whether use main camera the telephoto one. Again, the results I got similar what the iPhone 12 Pro achieve.
+The benefits the new sensor the iPhone 12 Pro Max's primary camera evident daylight shots, certainly helps low-light – though the way might imagine. The iPhone 12 Pro Pro Max the same f/1.6 apertures due the larger pixels the Pro Max's main sensor, need keep its shutter open long the 12 Pro order capture the same exposure. The iPhone 12 Pro Max often keep its shutter open whole second less, sometimes won't even need engage night mode all.
+Tap see larger image
+Tap see larger image
+In terms differences the two phones' sample shots, I noticed mildly better details one landscape shot captured the iPhone 12 Pro Max, others, including close-ups, virtually discernible difference. Due the shorter exposure time needed the Pro Max low light, much easier get sharper shots since keep your hands steady long.
+The wide-angle cameras both the 12 Pro Max 12 Pro capture noticeably weaker details compared their main cameras, still way ahead what the iPhone 11 Pro series could deliver. Night Portrait shots taken the iPhone 12 Pro Max also look great.
+Tap see larger image
+The selfie camera identical the iPhone 12 Pro, so unsurprisingly, the results similar once again. Portrait mode works well, low light, Night Mode helps produce good exposures.
+Videos shot 4K the day looked great, excellent colours details. Dolby Vision HDR videos look even better watched the iPhone 12 Pro Max's display. The new sensor-shift stabilisation effective, video recorded the Pro Max doesn't have noticeable jitter shooting daylight, something I notice the 12 Pro comparing videos shot both side-by-side. Videos recorded night had good details colours, there's little jitter walking about. The stabilisation slightly better the iPhone 12 Pro, whole lot. If were expecting gimbal-level stabilisation the iPhone 12 Pro Max, that's the case.
+The camera upgrades the iPhone 12 Pro Max the iPhone 12 Pro make easier capture low-light photos, get the benefit slightly higher optical magnification the telephoto camera well slightly better stabilisation videos. Overall though, the results huge leap ahead opinion.
+According third-party report, the iPhone 12 Pro Max features a 3,687mAh battery a lot higher the iPhone 12 Pro's battery capacity, a bit lower the iPhone 11 Pro Max. Nevertheless, I found battery life be excellent, the iPhone 12 Pro Max easily lasted up two full days one charge medium light usage. Gaming heavy use the cameras drained a bit quicker, the battery still enough carry through one full day, some. In HD video loop test, the iPhone 12 Pro Max ran 16 hours 52 minutes, was better the 12 Pro not as good as what we've seen many Android phones.
+You charge the iPhone 12 Pro Max quickly using standard USB Type-C Power Delivery charger. With the 18W charger that came the iPhone 11 Pro, I managed get 47 percent half an hour, 83 percent in an hour. You can use Apple's optional MagSafe wireless charger, be aware that heats up quite a bit it take longer charge the phone fully compared wired charging.
+The iPhone 12 Pro Max delivers much better battery life compared the iPhone 12 Pro
+The performance the iPhone 12 Pro Max very similar that the iPhone 12 Pro, I've left section for the very end. It uses the same Apple A14 Bionic SoC, there's 6GB RAM, 5G, all the other good stuff as an IP68 rating eSIM functionality.
+The iPhone 12 Pro Max a large heavy phone, you'll have use it both hands the time. If you like large smartphones then you might grow accustomed its unwieldy size. I still fear it falling my pocket riding a bike, other than that, the size started grow me about a week. Texting is easier, apps games feel immersive, videos are enjoyable. The display has also received high praise it comes colour accuracy contrast.
+iOS 14 runs very well, my experience was similar I used the iPhone 12 Pro. However, I wish that Apple would allow better multitasking options on the 12 Pro Max take advantage all screen space. Most popular video streaming apps run in picture-in-picture mode automatically you switch another app that's pretty much the extent what you can do. Reachability is also a bit an issue with a large display, thankfully, the old swipe-down gesture pull the screen's contents downwards the trick.
+Just like the iPhone 12 Pro, the iPhone 12 Pro Max runs very hot when gaming. Games such as The Pathless look fantastic, also cause the steel frame the rear glass get very hot, even just a few minutes. This cause a bit of a dip in the framerate in some games, as the system seems throttle the SoC a bit in order keep the temperature from going even higher. Without a case, the phone gets a bit uncomfortable hold a while.
+At the end of my iPhone 12 Pro review, I said that you probably look the 12 Pro Max instead you don't have any budget constraints, after reviewing it, I feel that it is indeed the better option. Yes, about Rs. 10,000 more than the iPhone 12 Pro matter storage variant you pick, you get a much bigger display, longer battery life, some improvements to the rear cameras. This model is certainly not for everyone, mainly due to its massive size, if you can get used to it, it definitely offers the best iPhone experience you can get this year.
+If looking for something more compact don't mind sacrificing a few features, the iPhone 12 even the iPhone 12 mini are also still great options cost way less.
+For the biggest CES 2021 stories and latest updates, visit CES hub.
+Advertisement
+04:34 
+08:53 
+08:16 
+06:26 
+01:36 
+Advertisement
+ </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6082342267036438</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The iPhone 12 Pro Max Apple's ambitious iPhone yet, naturally commands steep premium too. In iPhone 12 Pro review, I mentioned even though smaller Pro model superb offering, probably smartest choice. If thinking going all-out your iPhone purchase year, you probably look spending bit getting iPhone 12 Pro Max instead. After using week, I think I right making assumption.
+iPhone 12 Pro Max smartphone launched 13th October 2020. The phone comes 6.70-inch touchscreen display resolution  1284x2778 pixels a pixel density 458 pixels per inch (ppi). The iPhone 12 Pro Max supports wireless charging, well proprietary fast charging.
+ As far the cameras are concerned, the iPhone 12 Pro Max the rear packs a 12-megapixel primary  camera f/1.6 aperture; a second 12-megapixel  camera an f/2.4 aperture a third 12-megapixel  camera an f/2.2 aperture. The rear camera setup autofocus. It sports a 12-megapixel camera the front selfies, an f/2.2 aperture.
+iPhone 12 Pro Max based iOS 14 packs 128GB inbuilt storage. The iPhone 12 Pro Max a dual-SIM (GSM GSM) smartphone accepts Nano-SIM eSIM cards. The iPhone 12 Pro Max measures 160.80 x 78.10 x 7.40mm (height x width x thickness)  weighs 228.00 grams. It launched Gold, Graphite, Pacific Blue,  Silver colours. It features an IP68 rating dust water protection.
+ Connectivity options the iPhone 12 Pro Max include Wi-Fi  802.11 a/b/g/n/ac/Yes, GPS, Bluetooth v5.00, Lightning, 3G,  4G (with support for Band 40 used some LTE networks India). Sensors the  phone include  accelerometer,  ambient light sensor,  barometer,  gyroscope,  proximity sensor, and  compass/ magnetometer. The iPhone 12 Pro Max supports     face unlock 3D face recognition.
+As 15th January 2021, iPhone 12 Pro Max price India starts Rs. 129,900. 
+                    iPhone 12 Pro Max price India starts ₹ 129,900. The lowest price iPhone 12 Pro Max ₹ 129,900 Flipkart 15th January 2021.                
+Advertisement
+Advertisement
+ </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9990394711494446</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The new iPhone 12’s now, we’ve our hands them weeks, Apple’s news bombardment new Apple Silicon announcement release new Apple M1 Mac devices meant iPhones put back burner little while.
+Having already covered Apple’s new A14 architecture in-depth our coverage M1, it’s time fill missing pieces actual new generation iPhones.
+The new iPhone 12 generation devices mark new design restart Apple, moving away design started iPhone X late 2017. Re-gaining flat side-frame look originally found past iPhone generations 4, 4S, 5 &amp; 5S series, Apple making old new again.
+The new iPhone 12 series also Apple’s widest range release ever, total four new iPhones: iPhone 12 mini, new compact form-factor lower range, iPhone 12, “standard” iPhone part, continuing offer Pro models form iPhone 12 Pro 12 Pro Max. We’ll focusing iPhone 12 12 Pro today’s review.
+Starting innards, new iPhone 12 series powered Apple’s new A14 SoC. The new chip powered two high performance cores four power efficiency cores, well 4-core GPU. We’ll going bit details SoC later page, based our coverage Apple Silicon M1, should also familiar capabilities smaller A14 sibling.
+In terms DRAM, Apple fits iPhone 12 mini iPhone 12 4GB LPDDR4X, whilst Pro models getting larger 6GB pool. NAND storage generation hasn’t changed much lower-tier models sticking 64GB base, configuration upgrades 128 256GB, however Pro models start 128GB base model, larger configurations 256 512GB.
+The big new feature year’s new iPhones 5G connectivity. Thanks usage Qualcomm sourced modem, Apple enabling 5G connectivity across whole new range. It’s noted users most countries, still means sub-6GHz 5G NR mmWave antennas deployed US models. What’s also interesting seems these mmWave modules designed by Apple sourced Qualcomm – makes new iPhones first devices market non-Qualcomm antenna solution.
+In terms design, new iPhone 12 mix old new. What’s new all new devices their screens, “standard” sized models we’re reviewing having 6.06” 2532 x 1170 OLED displays. What’s particularly interesting course fact iPhone 12 shared almost display specifications iPhone 12 Pro, something couldn’t said last year’s iPhone 11 still came lower resolution LCD display generally different form-factor iPhone 11 Pro.
+The new iPhone 12’s only difference 12 Pro terms screen specifications doesn’t get bright Pro model, listed 625 vs 800 nits peak brightness.
+On back phones, although hard notice these white models, one thing note besides different camera setup Pro model comes frosted glass back cover whereas regular iPhone 12 still uses glossy glass finish.
+The new design quite bit departure past 3 years iPhones. Apple had noted they’ve reduced bezel screen still maintaining symmetric look all sides (besides notch course). This gives visual impression the new iPhone 12/12Pro narrower the iPhone 11 Pro, even though that’s actually true – though millimeters taller.
+I’m still too sure make Apple’s decision go back flat-edged frame older generation iPhones. To honest the first impression upon unboxing the new devices I had was horrible design a massive step backwards terms ergonomics. Although I noted the new phone’s width isn’t wider the iPhone 11 Pro, right angle edges, actually a larger circumference compared the rounded-off iPhones, translates a larger-feeling device even though they’re the exact same form-factors.
+That first bad impression isn’t quite prevalent a few weeks usage still somehow get used it, soon I go back the 11 Pro another rounded frame phone it’s immediately striking much better it feels the hand.
+In terms button layout, we’re seeing the same setup previous generation iPhones, two volume buttons the left side beneath a silent mode switch, the power button the right side – nothing inherently new there. It’s interesting even several years the first under-screen fingerprint sensors quite mature accurate implementations be competing vendors Apple still hasn’t attempted it the iPhone line-up – I think many would like see the return TouchID a manner, least option alongside FaceID.
+The iPhone 12 Pro comes a steel frame a special mirror finish, while the iPhone 12 comes a matte aluminium frame build. Apple been using steel frames quite time now the iPhone X designs, it hasn’t been quite striking the design the new 12 Pro series. It’s a highly subjective matter many may feel that the steel frame premium, I vastly prefer the aluminium variant due the fact that it’s nowhere near the fingerprint magnet – looking the 12 Pro I here the desk looks quite disgusting messy while the 12 least appears be clean.
+Another big difference the two phones the fact that the steel frame (alongside the added camera) the 12 Pro adds another 25g the weight the phone 189g vs 164g, a difference that very much immediately noticeable.
+While I prefer the matte frame the 12, the frosted glass the 12 Pro just simply much better feels much premium the regular glossy finish the 12 – again, fingerprints dirt.
+For the new iPhone 12 mini, 12 12 Pro, the main camera doesn’t appear change terms sensor versus the iPhone 11 series, although that’s still perfectly fine. It’s a 12MP sensor 1.4µm pixels full sensor dual-pixel coverage, however the new camera modules employ a larger f/1.6 aperture lens allows 27% light.
+For the iPhone 12 mini iPhone 12, the second camera module is the ultra-wide, again appears be the same the 11 series, featuring a 12MP sensor f/2.4 aperture a large 13mm equivalent 120° angle FOV. The novelties module year lie the software side things Apple now enabling various new features such computational night mode this camera well.
+For the iPhone 12 Pro, the third camera module is a telephoto unit again an apparently similar module last year, a 12MP sensor on an 52mm equivalent (2x optical magnification) optics f/2.0 OIS.
+The Pro models also receive Apple calls the LIDAR module, is essentially a ToF sensor coupled a structured IR light emitter, allowing 3D depth sensing.
+The iPhone 12 Pro Max a more interesting camera setup, however we’ll be reviewing this a later date.
+In general, impression design the iPhone 12 12 Pro two-fold, depending on the model.
+Starting with the 12 Pro, I generally don’t like the new design as the right-angle frame edges mirror finish are both very ergonomic also quite messy. It’s a highly subjective opinion it just doesn’t it for me at all, I vastly prefer the 11 Pro this, even with the larger screen bezels.
+Whilst I still don’t like the edges on the iPhone 12, it’s a lighter phone the general better feel the matte aluminium, it’s actually the phone I prefer this generation. I would liked the matte frosted glass on the back as well, I guess you can’t have everything. What’s important for the iPhone 12 is that this year it’s major upgrade terms display compared the iPhone 11, sporting a much higher resolution also switching from an LCD to an OLED. This was a major gripe mine with the 11 now the 12 essentially almost matches the display quality of the 11 Pro and 12 Pro devices, is something that can’t be understated.
+ </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9773645997047424</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+                                   By
+Jason Cipriani
+                                        |            November 24, 2020 -- 14:56 GMT (14:56 GMT)
+                                                                                    | Topic: Apple
+Apple's iPhone 12 Pro Max biggest most expensive option year's iPhone lineup. In fact, largest screen ever iPhone measuring 6.7-inches. But starting price $1,099, not cheap.  
+This phone also last four iPhone 12 models we'll reviewed ZDNet, previous reviews the iPhone 12 Mini, iPhone 12 and iPhone 12 Pro all coming effectively conclusion: iPhone users never many high-quality options.  
+Instead diving details design performance, I'll instead point my iPhone 12 Pro review Matthew Miller's iPhone 12 review. The entire iPhone 12 lineup uses same design, varying sizes displays, same core components performance.  
+Below nuanced aspects using iPhone 12 Pro Max daily basis. It's fun, impressive, not challenging times. Let explain.  
+The iPhone 12 Pro Max versus iPhone 12 Mini. 
+I feel like that's question Apple ask customers looking 12 Pro Max shopping new phone. Apple claims 12 Pro Max much larger last year's 11 Pro Max, paper, differences small. But hold 12 Pro Max, feels massive. Not big it's unusable, it's big enough there's definitely adjustment small increase size.  
+I've used Pro Max-sized version iPhone last years, overall size familiar. Yet, increase also makes one-handed use (for me, least) almost impossible. Reaching top screen thumb tap button swipe impossible. Heck, 12 Pro Max longer fits wireless charging pad car. The other phone happened Galaxy Note 20 Ultra.  
+With 6.7-inch display, able see everything. Videos clear crisp, cells spreadsheet visible, websites easier navigate. I truly enjoy larger display, comes cost usability me.  
+The 11 Pro Max 6.5-inch screen, an overall footprint measures 6.22 x 3.06 x 0.32-inches weighs 7.97 ounces. The 12 Pro Max its 6.7-inch display measures 6.33 x 3.07 x 0.29-inches weighs 8.03 ounces.  
+Again, size difference subtle, it's enough likely notice it. Is too big? That comes personal preference.  
+Battery life been nothing short phenomenal, based previous experience using biggest iPhone each release cycle, that's expected. Over past week, daily use ran 6 a.m. after 10 p.m., using 12 Pro Max throughout day common tasks like texting checking, well streaming video, listening music taking pictures. On two occasions, battery fell 50% end day, an average around five hours screen time use. And both those instances, stayed 40%.  
+It'd stretch, only small one, me get two full days battery 12 Pro Max. For someone constantly traveling, lives their phone, Pro Max's battery going huge benefit. That is, get size phone itself.  
+On paper, 12 Pro Max best camera entire iPhone 12 lineup. The 12 Pro close, Apple added some features 12 Pro Max boost its overall capabilities. There still three 12-megapixel cameras, wide, ultra-wide telephoto, there subtle differences. For example, the telephoto lens an f/2.2 aperture, compared the Pro's f/2.0. The Pro Max has 2.5x optical zoom, giving total 5x optical zoom range (going ultra-wide telephoto), compared 4x the Pro. That also translates 12x photo digital zoom, 6x video digital zoom, versus 10x 5x the Pro, respectively.  
+The wide camera -- the main shooter -- has sensor-shift optical image stabilization. That means the camera sensor is constantly stabilized frame shot, should lessen the number blurry shots take.  
+Most notably, the main camera benefits a new sensor that's exclusive the iPhone 12 Pro Max is 47% larger, therefore captures light. If take a lot photos capture videos low light situations, the iPhone 12 Pro Max undoubtedly provide the best results.  
+My experience the iPhone 12 Pro 12 Pro Max cameras both left me awe. Just this last weekend went took photos use Christmas cards plan sending family, instead packing my expensive camera lens, I opted take the 12 Pro Max. Truth told, I kept my photography skills outdoor settings, I really want have make the kids stand around wait I fiddled ISO, shutter speed focus areas order get the best shot.  
+I wanted something akin a point shoot, I confidence the iPhone 12 Pro Max would be good enough. A photos in, I decided look a photos make sure would be the case. Here, look this one: 
+It's a truly stunning photo, captured a phone things. 
+That's a portrait mode photo shot zero input tweaking my part. I switched portrait mode, let focus my son's face, tapped the button. If zoom look his curly hair, see the fake bokeh -- blurred background -- perfect, it's vastly improved the iPhone 11 line.  
+The rest the photoshoot similar results, me the entire time repeating myself my wife: People pay thousands dollars a camera can capture this kind photo. Simply unreal.  
+For it's worth, I borrowed my wife's iPhone 12 Pro snapped the same photo above it was nearly identical. The colors look a little more life-like the photo the Pro Max, point it comes personal preference.  
+All say: The camera the iPhone 12 Pro Max is easily the best smartphone camera I've ever used. That includes Samsung's Galaxy phones Google's Pixel lineup. Apple just slightly improve the camera setup on the 12 Pro Max, it took a major leap forward. And that's without Apple ProRAW, a special mode coming the 12 Pro 12 Pro Max a future update give users access the RAW, unaltered photo files.  
+For most, the camera differences the 12 Pro 12 Pro Max be negligible, unless you take a lot photos dark environments. Then you'll benefit the larger sensor on the Pro Max.  
+The entire iPhone 12 lineup. 
+The iPhone 12 Pro Max is the best iPhone 2020, it's almost prohibitively big expensive. The size cost, however, are a trade-off crazy battery life a camera that professionals are sure find truly stunning.  
+After using all four iPhone 12 models, I've decided order an iPhone 12 myself. Blue, be exact. I'm willing give the slightly better camera a phone that's easily pocketable can be used with a single hand.  
+That said, the iPhone 12 Pro Max is an amazing phone. One fans larger phones photogs surely love. Hopefully the new sensor other camera features trickle the iPhone 12S lineup next year. 
+                                   By
+Jason Cipriani
+                                        |            November 24, 2020 -- 14:56 GMT (14:56 GMT)
+                                                                                    | Topic: Apple
+Jackery Solar Generator review: A 1000-watt power station mobile office
+ILife A80 Max robot vacuum: no-nonsense cleaning this powerful, efficient robot
+HP EliteBook x360 1030 G7 review: A top-quality 13-inch 2-in-1 ultraportable
+Redmi Note 9T first take: MediaTek processor, 5,000mAh battery, 5G
+Please review terms service complete your newsletter subscription.
+By registering, you agree the Terms Use acknowledge the data practices outlined the Privacy Policy.
+You will also receive a complimentary subscription the ZDNet's Tech Update Today ZDNet Announcement newsletters. You may unsubscribe these newsletters at time.
+You agree to receive updates, alerts, promotions the CBS family companies - including ZDNet’s Tech Update Today ZDNet Announcement newsletters. You may unsubscribe at any time.
+            By signing up, you agree to receive the selected newsletter(s) you may unsubscribe at any time. You also agree to the Terms of Use and acknowledge the data collection and usage practices outlined in our Privacy Policy.
+© 2021 ZDNET, A RED VENTURES COMPANY. ALL RIGHTS RESERVED.
+                    Privacy Policy |
+                    Cookie Settings |
+                    Advertise |
+                    Terms of Use
+ </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6022717952728271</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+By
+Mark Spoonauer
+18 November 2020
+Our iPhone 12 vs iPhone 12 Pro Max comparison help decide phone best you
+If want one Apple's best iPhones, iPhone 12 Pro vs iPhone 12 Pro Max comparison makes lot sense. Yes, they're very powerful capable flagship phones, complete Apple's A14 Bionic processor 5G, they feel quite different actually put hand.
+As see iPhone 12 Pro review, regular Pro's 6.1-inch display makes easy use one hand. And iPhone 12 Pro Max review shows going big 6.7-inch display its benefits. But there's two two iPhones their sheet size difference.
+The iPhone 12 Pro iPhone 12 Pro Max also differ terms price, camera features especially battery life. Here's  you need know buy.
+The iPhone 12 Pro starts $999 128GB storage. Upgrading 256GB model costs $1.099, 512GB version costs $1,299. 
+Meanwhile, iPhone 12 Pro Max starts $1,099 128GB. The 256BG version costs $1,199 512GB model priced whopping $1,399 (or $100 MacBook Pro).
+If  you're fence iPhone 12 Pro iPhone 12 Pro Max, good know get double storage regular Pro cost entry-level Pro Max.
+If want iPhone that's easier use one hand, obvious choice iPhone 12 Pro. It features 6.1-inch display fairly compact design measures 5.78 x 2.82 x 0.29 inches weighs 6.6 ounces. 
+Meanwhile, iPhone 12 Pro Max beast handset. It packs 6.7-inch screen taller, wider heavier chassis comes 6.33 x 3.07 x 0.29 inches 8.03 ounces. This best those want immersive screen don't mind using two hands.
+Both iPhone 12 Pro iPhone 12 Pro feature sleek flat edges narrower borders, well Ceramic Shield Display that's designed offer four times better drop performance iPhone 11 series. And water resistance great models, too, IP68 rating allows submerged 6 meters water 30 minutes. 
+I also like matte glass back phones (which resists fingerprints) polished stainless steel band runs along outside handsets (which adds bit bling).
+The OLED displays 6.1-inch iPhone 12 Pro 6.7-inch iPhone 12 Pro Max simply among best find any phone. These panels bright, colorful accurate, though sheer size Pro Max may tempt enjoy watching videos go. The Pro Max's display also ideal reviewing documents.
+In lab tests, screens iPhone 12 Pro iPhone 12 Pro Max evenly matched terms color reproduction. The iPhone 12 Pro registered 115.6% sRGB color gamut 81.9% demanding DCI-P color space. By comparison, the iPhone 12 Pro Max hit 119.7% 84.8%, respectively.
+The iPhone 12 Pro proved bit brighter, its display averaged 742 nits based our testing, the iPhone 12 Pro Max reached 654 nits. Both screens plenty bright enough see direct sunlight.
+The iPhone 12 Pro iPhone 12 Pro Max offer triple rear cameras along Apple's computational photography upgrades, including Night Mode portraits Smart HDR 3 better photos tricky lighting. Plus, phones record Dolby Vision video 4K stunningly colorful footage.
+But notable camera differences here. The iPhone 12 Pro Max benefits larger main wide camera sensor, lets light, the larger iPhone also offers slightly more powerful zoom the iPhone 12 Pro. 
+Let's start the zoom both phones, The telephoto lens the iPhone 12 Pro optical zoom 2x digital zoom 10x. However, the iPhone 12 Pro Max delivers 2.5x optical zoom 12x digital zoom.
+As you see shot harvest decorations, the iPhone 12 Pro Max gets you closer subject the iPhone 12 Pro. It's dramatic difference, still a welcome upgrade.
+I also challenged both phones low light this close-up a Christmas tree. The iPhone 12 Pro Max a slightly better job capturing the gold ornament the left, you can see it's slightly sharper more focus. Same thing goes the icicle the center.
+I took this next photo a holiday sign near darkness Night mode engaged both phones. While the iPhone 12 Pro shot fairly bright, the iPhone 12 Pro Max image delivers much better texture detail the fabric the dresser the flecks paint the sign. The words better focus, too. 
+The iPhone 12 Pro iPhone 12 Pro Max share the same specs, they're both powered Apple's 5nm A14 Bionic chip 6GB RAM. So it's not a surprise they offer comparable performance.
+On Geekbench 5, measures overall performance, the iPhone 12 Pro notched a single-core score 1,585 a multi-core score 3,669. The iPhone 12 Pro Max scored a similar 1,603 single core hit an even higher 4,111 multi-core mark.
+We also transcoded a 4K video 1080p using the Adobe Premiere Rush app, the iPhone 12 Pro took 27 seconds. The iPhone 12 Pro Max right behind 28.5 seconds. 
+Lastly, ran the 3D Mark Wild Life graphics benchmark, both phones excelled. The iPhone 12 Pro registered 51 frames per second the Unlimited test the iPhone 12 Pro Max reached a slightly higher 54 fps.
+Other their sheer size, battery life the biggest difference the iPhone 12 Pro iPhone 12 Pro Max. The iPhone 12 Pro a 2,815 mAh battery, compared 3,687 mAh battery the iPhone 12 Pro Max.
+On the Tom's Guide battery test, involves continuous web surfing 5G 150 nits screen brightness, the iPhone 12 Pro lasted 9 hours 6 minutes. The iPhone 12 Pro Max lasted a much longer 10:53.
+The phones our best phone battery life list last 11 hours, keep in mind many those handsets 4G-only. 5G uses more power.
+Both the iPhone 12 iPhone 12 Pro Max ship without a charger. You'll need supply your own 20W ($19) charger if you want fast charging 50% in 30 minutes. The magnetic MagSafe charger one the best wireless chargers yet it's easy use, its 15W charging speed slower than wired charging. 
+We would generally avoid the Apple MagSafe Duo. It's pricey at $129 doesn't even come a power brick. Plus, offers 11W charging paired Apple's 20W charger.
+The iPhone 12 Pro iPhone 12 Pro Max both formidable flagship phones, they're great different types users. Apple's Pro phones very evenly matched display quality, performance photography, the regular iPhone 12 Pro best those want a compact device. 
+I personally prefer the iPhone 12 Pro Max its larger screen nearly 2 extra hours battery life. And the photography differences are subtle, the Pro Max's camera offered better results in Night Mode.
+Get instant access to breaking news, the hottest reviews, great deals helpful tips.
+Thank you for signing up to Tom's Guide. You receive a verification email shortly.
+There a problem. Please refresh the page try again.
+Tom's Guide part Future US Inc, an international media group leading digital publisher. Visit our corporate site.
+©
+Future US, Inc. 11 West 42nd Street, 15th Floor,
+New York,
+NY 10036. 
+ </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6471558809280396</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+By
+Adam Ismail
+05 January 2021
+The iPhone 12 sports gorgeous new design, full 5G support, great cameras even better performance. However, lack charger box limited base storage drawbacks.
+Price: $829 unlocked; $799 contract
+OS: iOS 14
+Display: 6.1-inch OLED (2532x1170)
+CPU: A14 Bionic
+Storage: 64GB, 128GB, 256GB
+Rear camera: 12MP wide (ƒ/1.6), 12MP ultrawide (ƒ/2.4)
+Front camera: 12MP (ƒ/2.2)
+Size: 5.78 x 2.81 x 0.29 in
+Weight: 5.78 oz
+The iPhone 12 kind product Apple releases — kind looks different, built fundamentally new technology, ultimately form basis future iPhones years come.
+It’s fortunate, then, new iPhone people probably buy also mostly success. The iPhone 12 attractive new design, straightforward complete approach 5G, good cameras even better performance.
+But iPhone trades master none, thus, iPhone 12 isn’t perfect, either. A low amount base storage lack charger included box means iPhone isn’t inexpensive may initially seem. Additionally, best features coming Android realm, like super-sharp digital zoom fast-refresh rate displays, missing action here.
+Nevertheless, shouldn’t sweat details. As iPhone 12 review notes, Apple’s latest relatively-affordable premium handset still fantastic around, spite bleeding-edge specs may lack. Where counts, remains one best phones buy today.
+You buy iPhone 12 Apple well number carriers. The phone starts $829 unlocked device 64GB storage ($799 buy on-contract Verizon, AT&amp;T T-Mobile); opting 128GB ($879) 256GB ($979) raises price. 
+You'll find iPhone 12 major wireless carriers well discount providers like Metro T-Mobile Visible. Xfinity Mobile sells phone, too, retailers like Best Buy Amazon.
+In U.K., iPhone 12 starts £799 64GB model, pay extra £50 get 128GB storage £849. The 256GB handset cost £949. However, older iPhone trade in, get £230 iPhone 12, providing eligible handset. 
+Because iPhone 12 came months ago, going run ton discounts, though carriers occasionally offer price breaks form bill credits get switch their service either trade-in device open new line service. Apple take much $250 iPhone 12 trade current phone. We're tracking iPhone 12 deals Apple's latest models.
+As may already heard, Apple isn’t shipping charging adapter headphones box iPhone 12, even gone far remove iPhone 11, iPhone XR iPhone SE going forward. For it’s worth, though, still get Lightning-to-USB-C cable troubles.
+Apple rarely alters physical design iPhone generation generation, thus change — matter small — typically received enthusiasm. You chalk iPhone 12’s new flat-edge aesthetic one modest revisions.
+Sure, flat edges look nice enough offer much appreciated change pace last several consecutive years rounded iPhones. What’s more, improve iPhone 12’s durability tandem Apple’s new Ceramic Shield material, rounded frames previous iPhones actually made fragile.
+We conducting drop tests, Ceramic Shield display held well EverythingApplePro's torture test YouTube. Both iPhone 12 iPhone 12 Pro crack hip shoulder height dropped, display regular iPhone 12 even crack 10 feet, though back did. 
+All said, I can’t say hands really taken sharper design. Few smartphones employ flat sides days, iPhone 12 reminds why. The edges dig palm, make entire device bit harder grip. For example, iPhone 12 measures 0.29 inches thick — perceptibly identical 0.31-inch-thick Pixel 5. However, Pixel 5 feels slender hand, naturally fits curvature palm.
+Additionally — I won’t blame dismissing nitpick — longtime iPhone 11 Pro user, I can’t help feel 6.1-inch iPhone 12 hair taller really needs be. I find 5.8-inch size perfect compromise display real estate pocketability, iPhone 12 series, Apple left form factor die. Now, desire compact device choice go 5.4-inch iPhone 12 mini. And though I commend Apple making small flagship phone year lord 2020, I can’t help feel 5.4-inch display might bit tiny modern users.
+Nevertheless, I’m generally smitten iPhone 12’s design. I like Apple’s shaved bezels considerably compared iPhone 11 XR, though slightly reduced notch would appreciated. And I’m huge fan new blue color — I find sort navy bit dull — I like mint green offer, I especially like elegant simplicity design. The iPhone 12 comes three colors — black, white red.
+The iPhone 12 feels substantial premium, necessarily less luxurious iPhone 12 Pro. You even get caliber IP68 water resistance Pro (20 feet 30 minutes) far exceeds handsets market, well aforementioned crystal-infused Ceramic Shield material protecting display, Apple estimates four times less likely shatter dropped — claim look forward testing soon.
+While miracle magnets continues baffle world’s top minds, Apple made fundamental aspect iPhone 12’s design. A ring magnets centrally placed back iPhone 12 enable Apple’s new MagSafe ecosystem accessories, wireless chargers cases wallet attachments simply snap off.
+There’s nothing inherently unique Apple’s brand wireless charging here. The company’s $30 MagSafe charging puck uses Qi standard wireless charger phone — incorporates magnets, too. Your iPhone 12 still compatible whatever wireless chargers Qi accessories already have, though get peak 15-watt speeds, need first- third-party solution incorporates MagSafe.
+The bad news MagSafe slower Apple's 20W wired charger. Much slower. In third-party charging test, iPhone 12 charges 50% full 28 minutes using 20W fast charger. The 15W MagSafe charger took an hour.
+Still, that’s not discredit philosophy behind MagSafe, makes lot sense. The magnets help localize iPhone 12 chargers makes accessory attachment convenient. And it’s surely easier top your phone setting down puck instantly aligns perfectly, rather fumbling around your bedside plug tiny Lightning connector.
+I think it’s going take third-party involvement experimentation really see MagSafe reach full potential. Case point, Apple’s leather wallet attachment. It’s clever idea, I doubt iPhone owners love it. But magnets within iPhone 12 aren’t quite strong enough keep wallet rigidly attached instances. In fact, friction pulling iPhone 12 jeans pocket enough knock wallet center few occasions, doesn’t evoke Apple-like design.
+The iPhone 11’s LCD display unquestionably Achilles' heel Apple’s entry-level premium iPhones recent years, iPhone 12 alleviates that. It’s thanks new 6.1-inch Super Retina XDR OLED display matches get iPhone 12 Pro.
+This panel packs 2532x1170 resolution, making dramatic increase clarity on-screen content compared iPhone 11’s dated 1792x898 display. It’s also HDR10 rated, allowing watch any videos recorded device’s Dolby Vision-equipped rear camera way intended seen.
+Watching trailer upcoming Monster Hunter film really looks though never made, I least came away fidelity scales, horns teeth Black Diablos, glinting desert sun. The black smoke an explosion also contrasted heavily otherwise bright daylight scene way wouldn’t looked nearly alluring iPhone 11’s LCD panel, inability display true black.
+The iPhone 12’s screen still isn’t perfect, reason clear anyone used recent Galaxy, Pixel OnePlus phone any length time. Following months rumors suggesting opposite, Apple decided forgo high refresh-rate displays entire iPhone 12 line, actually become quite common flagship smartphone space past year.
+As result, animations aren’t smooth taps scrolls don’t respond immediacy Apple’s latest handsets do on, say, 90Hz Pixel 5 120Hz Galaxy S20. Even though iPhone 12 powerful those devices — we’ll soon see later review — feels slower use times, simply display isn’t athletic. And that’s something Apple surely attempt rectify time iPhone 13 becomes reality.
+In terms brightness, light meter iPhone 12 topped 569 nits highest setting, actually falls considerably short Apple’s 625-nit estimate. It able render 114.5% sRGB color space — shy 122.8% Samsung Galaxy Note 20 — indicating slightly restrained natural hues, rather oversaturation.
+Looking Delta-E color accuracy test, iPhone 12 scored result 0.29, surprisingly bit worse iPhone 11’s 0.22 result. (Numbers closer zero indicate accurate hues.) Nevertheless, colors seemed appropriate my eye, switch OLED alone makes massive leap compared previous generation, generally speaking.
+Judging outside, wouldn’t think whole lot changed camera department iPhone 12. The dual-lens rear shooters arranged similar fashion they last year, both wide ultrawide optics backed 12-megapixel sensors.
+Don’t let your eyes deceive you, however, upgrades made. The primary camera particular benefits new 7-element design an ƒ/1.6 aperture, largest yet an iPhone. The upshot both these changes 27% improvement low-light performance, which, coupled advancements Smart HDR Deep Fusion, translate detail even least favorable conditions.
+So let’s begin, then, couple Night Mode shots illustrate year’s worth improvements done iPhone’s low-light performance. Both these photos make dramatic, stunning night scenes, iPhone 12’s rendition slightly sharper across board, lifelike hues inside shadow-clad brick better sensitivity specular highlights, evident way brick picks light lamps above. Still, iPhone 11 Pro doesn’t lose much all newer handset.
+That said, Apple’s got work do. Google looks upper hand night, judging iPhone 12’s best work compares Pixel 5’s example above. While Apple’s software emboldens object boundaries, giving everything frame tinge depth, Google’s algorithms deliver universally visible result, tandem far less overall noise. There’s ugly vignetting going around edges iPhone 12’s shot plainly isn’t Pixel’s shot.
+In daylight, iPhone 12’s main camera gives little complain about. While Note 20 painted idyllic lakeside scene bit sharply, particularly within distant trees, I largely prefer iPhone 12’s attempt its realistic treatment colors, deep blue mid-afternoon sky yellows, oranges greens encircling water. Samsung went overboard post-processing here, habit doing.
+When zoom fountain right, though, iPhone 12’s limitations become painfully obvious. There’s optical zoom offer iPhone 12 — that, spend iPhone 12 Pro Pro Max. But even then, wouldn’t get crystal clarity provided by Note 20’s 3x hybrid zoom, nails beads water, ripples lake’s surface wall trees background.
+Here see same lake, viewed ultrawide lenses iPhone 12 $749 OnePlus 8T. Both these shots fall astray different respects; the iPhone 12 bungles the white balance, producing green cast the water clouds, the OnePlus 8T’s photo isn’t sharp enough all, heavily distorts the image along the perimeter.
+Rounding fall-themed photo op pair portraits my colleague Jesse, taken the iPhone 12 Pixel 5. Interestingly, the iPhone 12 defaults pulled-out perspective portraits the Pixel 5, automatically applies cropping.
+Still, the iPhone 12’s version still looks bit sharper my eye, better treatment Jesse’s skin tone, Smart HDR deftly managing the contrast the deep shadows blanketing right shoulder the rest his hoodie. The iPhone 12 also applies precise bokeh around Jesse’s hair ears, often the challenge simulated shallow depth-of-field portraits like these.
+To test the capabilities Apple’s Deep Fusion mode, favors scenes granular details medium-light scenarios, I used the iPhone 12 Pixel 5 grab a shot a painting canvas. Deep Fusion designed composite various exposures different lengths optimal sharpness, I surprised find Google’s handset actually generated the precise output here, drawing the hatchwork texture the canvas a crispness the iPhone 12 couldn’t quite match. However, I think the iPhone’s treatment colors large — the warmth lends the reds, whites the neutral-toned background — ultimately results a more appealing image.
+A better example Deep Fusion work may selfie I took the sun going down, the iPhone 12 rendered the individual fibers my sweater richness nuance compared the Note 20’s blurry output. The iPhone 12’s 12MP front-facing camera unsurprisingly captures more detail the Note 20’s 10MP sensor, Apple’s algorithms also don’t uncannily overbrighten shadows drain contrast my face like Samsung’s do. If I forced post one these Instagram, the choice wouldn’t difficult.
+Overall, the iPhone 12 lands among the top tier its price bracket camera performance concerned, it’s not the best every scenario. For night shots, I’d still rather a Pixel, paint the same challenging scenes less noise. And I working a distance, I’d rather have the Pixel 5 well its superior digital Super Res Zoom, one Samsung’s devices — either the Galaxy S20 FE the Note 20 — their 3x optical hybrid zoom systems.
+Apple gone all 4K HDR video recording the iPhone 12 line. Like the iPhone 12 Pro Max, the regular iPhone 12 (and the smaller iPhone 12 mini) record Dolby Vision video, albeit 30 frames per second the Pro models’ 60. Dolby Vision a type HDR encoding goes beyond the standard HDR10 format provide superior color depth, ensuring a consistent visual presentation closely aligned the source material possible, matter the content viewed.
+It may hard visualize, trust us this one — the difference immediately clear observing the same content side-by-side HDR SDR. I recorded a short video a park the sun descended behind the trees, the gap contrast each instance eye-opening. For one, the sky markedly brighter the Dolby Vision capture, I could actually make individual leaves trees reflecting the sun. These aspects were faded, washed obscured the SDR take, someone who been using an iPhone 11 Pro video the better part a year, I idea I’d been missing.
+Now, fair, the iPhone 12 far the smartphone shoot HDR video. However, the Dolby Vision-certified one, I definitely say HDR video I’ve shot Galaxy S20 Plus never looked anywhere near good unedited the iPhone 12 churns by default.
+Lots smartphones today support 5G, don’t even really need pay more the privilege anymore. However, Apple’s philosophy toward 5G distinguishes the iPhone 12 all 5G phones.
+Whereas the vast majority 5G handsets support one kind 5G not another, the specific bands necessary work a certain network, the iPhone 12 goes all out. It built run the most bands any 5G phone, means a greater chance 5G coverage, especially these spotty early days the technology. What’s more, the iPhone 12 works both sub-6GHz 5G — the nationwide 5G formed the backbone T-Mobile AT&amp;T’s service yet — addition much faster shorter-range millimeter-wave 5G, like what Verizon focused deploying America’s cities.
+This dual-pronged approach 5G critical, means 5G eventually become ubiquitous, your 5G-capable iPhone won’t hamstrung a modem only supports networks not others. Mind you, day could far the distance; AT&amp;T’s network a Pennsylvania suburb, I tended see downloads the neighborhood 85 Mbps iPhone 12 while pulling a two-bar signal. That’s serviceable, only third as quick as the fastest LTE Advanced networks we’ve tested.
+5G increase demand the iPhone’s battery, however, so end, Apple has developed Smart Data Mode. This feature intelligently switches LTE 5G depending whether not the device really needs the extra speed. For example, you’re simply streaming music Spotify the screen off, your iPhone 12 may elect remain 4G save power. But the second you begin actively web browsing attempting a FaceTime HD call, 5G kick full effect. Smart Data Mode totally optional; you'd rather have 5G firing all times, you deem so the phone’s settings.
+Armed the first 5-nanometer processor ever embedded a smartphone — Apple’s new A14 Bionic — the iPhone 12 delivers best-in-class performance never wavers. The A13 Bionic chip the iPhone 11 series already faster Qualcomm’s latest greatest silicon, the Snapdragon 865 Plus, the A14 extends gap still. (Qualcomm just unveiled the Snapdragon 888, a few months we see phones run new improve silicon.)
+Most phones need a minute more complete our video encoding test, a short 4K video transcoded 1080p using Adobe’s Premiere Rush app. The iPhone 11 Pro needed 46 seconds complete this task; the Galaxy Note 20 Ultra, 1 minute 16 seconds. The iPhone 12, though? Just 26 seconds.
+The Geekbench 5 test, measures overall system performance, shows a similar advantage Apple’s newest CPU. Here, the iPhone 12 set a blistering pace a score 3,859 the multicore portion the benchmark. The fastest comparable Android phone, the 865 Plus-powered Asus’ ROG Phone 3, could muster no more 3,293 points.
+And Apple hasn’t skimped the graphics side things, either. Apple says the GPU inside the A14 Bionic 50% faster the one the A13. While the latest mobile games don’t always take full advantage phone makers’ rapid innovation, I can say Asphalt 9 Legends — a game can occasionally chuggy higher-end Android phones — felt smooth sharp the iPhone 12. (Of course, a faster refresh-rate display would have heightened the illusion responsiveness immersion, that’s another issue.)
+A better measure performance 3DMark’s Wild Life graphics benchmark, tasks devices rendering complex, taxing scenes real-time. The Galaxy Note 20 Ultra tops 24.9 fps this test, an overall score 4,164. The iPhone 12 hit 39 fps our testing, 6,562 points.
+Apple never reveals battery capacity figures its devices, makes challenging glean any insights regarding longevity a spec sheet. A recent teardown suggests the iPhone 12 could be working a 2,815-mAh unit, translates roughly 200 mAh less capacity the iPhone 11 Pro its disposal. 
+Nevertheless, larger screen iPhones tend perform decently our custom battery test, devices continuously surf the web cellular at 150 nits screen brightness.
+For a bit perspective, the iPhone 11 tallied 11 hours 16 minutes this test, we deem anything the 11 hour mark be good. The iPhone 12, however, averaged 8 hours 25 minutes the same test, would appear be a significant decrease.
+However, there a deeper story here. Like the iPhone 11, Apple rates the iPhone 12 an identical 17 hours video playback, along 65 hours audio. However, the iPhone 11 didn’t have 5G contend with. And we ran our test again 5G switched favor LTE, the iPhone 12 performed better — a lot better.
+The iPhone 12 lasted 10 hours 23 minutes 4G — two hours longer its 5G time. If we had guess, the culprit could be that 5G consumes more power, that the limited span 5G networks makes it difficult the iPhone 12 maintain a consistent 5G connection, forcing it switch back forth 5G 4G. It could very well be a combination both factors, as we noticed switching our testing, ultimately it’s early conclusively say what the culprits are.
+The battery story gets a bit worse as we approach the elephant the room — Apple’s decision forgo a charging brick wired headphones every iPhone going forward.
+Say what you like how much this can be chalked Cupertino’s environmental initiative, the fact the matter that this will leave prospective iPhone buyers without the fastest-charging solution the iPhone 12 unless they shell an additional $20 Apple’s 20-watt USB-C adapter. And, add insult injury, the Lightning-to-USB-C cable that Apple pack in the iPhone 12 won’t work older chargers, won’t be much use you unless you buy a new brick.
+The charger situation is the same U.K. buyers, Apple wanting £39 the MagSafe charger £19 the wired 20-watt charging block.
+In our testing, the new 20-watt adapter got the iPhone 12 empty to 57% in 30 minutes. That exceeds Apple's own 50% estimate, though you assuredly won’t see that kind speed you depend your old 5-watt brick from iPhones yore to charge your new device. The iPhone 12 can also charge wirelessly at a peak speed 15 watts, is noticeably better Apple’s lethargic old 7.5-watt mandate.
+Like every new iPhone, the iPhone 12 launches iOS 14 — Apple’s latest update to its long-running mobile platform that adds some very intriguing long-awaited features, like true widget support, a new scheme app organization, picture-in-picture video, improvements to basic privacy more.
+It’s a great update, you can take a look at our iOS 14 review a deeper look what it brings. However, what’s arguably better iOS 14 is Apple’s commitment to keep old iPhones to date the latest software, many more years its Android counterparts ever see. Google’s latest Pixels guaranteed only three major software updates; meanwhile, the iPhone 6S, launched in 2015, received iOS 14 alongside the iPhone 11 range just last month.
+I’m of two minds the iPhone 12. There’s no question this is a great phone overall, many of the changes Apple has made to its most popular iPhone for the better. The new Super Retina XDR panel is a phenomenal improvement the disappointing LCD panels in previous models at this price, even it lacks a high refresh rate. And the fresh new design, MagSafe system excellent dual-camera system all earn the iPhone 12 high marks.
+But Apple’s resistance to change in key areas is still disappointing, to put it mildly. Practically every major phone maker has stopped stingy base storage — even Google offers 128GB on the $349 Pixel 4a, for crying loud. The fact the iPhone 12 still only starts 64GB is borderline criminal. Equally frustrating, Apple has committed the only sin worse packing horrendously slow charging bricks with its phones — it’s stopped including altogether (though it seems like phone makers now following suit with their latest models).
+Factor in extra storage a charger for your new iPhone 12, that initially enticing $829 base price balloons to $900.
+These aren’t compromises the competition forces you to make — certainly not OnePlus, for example, offers its OnePlus 8T with 65-watt charging of the box, at nearly $100 less the iPhone 12. But you have to consider that there certain aspects to the iPhone experience you won’t find anywhere else, like comprehensive 5G support, or that unrivaled A14 chip all those years of guaranteed iOS updates.
+Indeed, the iPhone 12 is still very much worth buying, clearly more compelling its predecessor ever was. Had Apple gone a little further, though, I can’t help feeling it would have been perfect. We'll see how well the iPhone 12 holds against the most anticipated phones of the new year, including the soon-to-arrive Galaxy S21.
+Get instant access to breaking news, the hottest reviews, great deals helpful tips.
+Thank you for signing to Tom's Guide. You will receive a verification email shortly.
+There a problem. Please refresh the page and try again.
+Tom's Guide is part of Future US Inc, an international media group and leading digital publisher. Visit our corporate site.
+©
+Future US, Inc. 11 West 42nd Street, 15th Floor,
+New York,
+NY 10036. 
+ </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9890662431716919</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+By
+Amy Davies
+01 December 2020
+With iPhone 12 Pro, Apple delivers excellent smartphone, cameras capable producing top-notch images. But true last year’s iPhone 11 Pro, too. While model undeniably brilliant, it’s likely upgrades (such 5G, larger screen, storage) tempts part cash, rather major upgrades onboard camera. If want see difference, might need fork (slightly) expensive iPhone 12 Pro Max.
+This year, Apple introduced four different models iPhone 12 series. As well iPhone 12, iPhone 12 Mini, iPhone 12 Pro iPhone 12 Pro Max. 
+In review, we’ll taking look iPhone 12 Pro, arguably likely most interested photographic capability smartphone eye on. It’s cheapest range, most expensive, offering flexibility thanks triple-lens set up.
+Last year’s iPhone 11 Pro featured camera setup larger screened sibling, iPhone 11 Pro Max. This year, however, Apple played slightly differently, equipping larger model slightly better camera.
+• iPhone 12 Pro vs Max
+Not much changed terms camera set compared last year’s iPhone 11 Pro. We still triple lens setup, include 26mm (equivalent) standard lens, 13mm (0.5x) ultra-wide optic, 52mm (2x) telephoto lens. A key difference iPhone 12 Pro iPhone 12 Pro Max latter’s telephoto lens slightly longer 65mm (equivalent), standard lens larger sensor behind it.
+Further improvements include addition LiDAR scanner, used measure distance also improve autofocusing speed, particularly low light. Software tweaks, addition Night Mode portraits also make better overall image quality. One biggest new updates addition Apple’s ProRAW format, photographers asking Apple enable long time. Sadly, available launch, we’ve unable test time being.
+• iPhone 12 Pro iPhone 11 Pro: Which buy?
+4K recording 60p available iPhone 11 Pro, there’s also Dolby Vision HDR video recording Night-Mode time-lapse give specs bit boost. Dolby Vision HDR force record High Efficiency format, meaning you’ll need compatible device want view somewhere phone.
+Other updates compared iPhone 11 Pro largely come shape non-camera related alterations. That includes larger screen - 6.1-inches, compared older version’s 5.8-inch, it’s got Ceramic Shield front promises 4x better equipped drop it. 
+Perhaps biggest news addition 5G connectivity, super-fast download (and upload) speeds. There’s also tweaks minimum storage capacity offered 128GB, instead 64GB.
+Pricing starts $999 / £999 Apple iPhone 12 Pro, it’s worth noting due “environmental reasons”, phone longer ships charging adapter headphones. Apple says most people already possession items since they’re likely upgrading older iPhone, you’re (or defecting iPhone Android), make sure add basket checkout too. A positive note base storage option starts 128GB, twice amount found iPhone 11 Pro’s 64GB base model.
+Apple turned its design iPhone 4 iPhone 12 Pro. Gone rounded edges the last models, the squared-off edges corners have made comeback. Whether like individual choice, it’s quite striking look.
+The size the iPhone 12 Pro’s screen increased compared the iPhone 11 Pro, the overall size the phone only couple millimetres taller, impressively it’s actually thinner its predecessor. It’s also almost the same weight, being 1g lighter than the iPhone 11 Pro.
+As all previous iPhone generations, the native camera app straightforward affair. That’s great being easy use, continues frustrate advanced photographers would love have settings play with. Apple tried placate types users the introduction “ProRAW”, that’s feature that’s still available even few weeks launch. 
+Most the time, you’re likely using the standard “Photo” app. With shoot any the three lenses, also switch few options - flash “Live Photos” off. If swipe up, you’ll see few options, including the ability alter aspect ratio dial positive negative exposure compensation. That’s advanced control you’ll get the iPhone 12 Pro. 
+A new feature appeared the iPhone 11 Pro the ability look “outside the frame” composing images. We find here also the iPhone 12 Pro, uses the cameras you’re using show what’s happening either side shooting frame. This be useful certain circumstances. You also choose capture same information, keeping reserve should want adjust composition later date via the phone’s inbuilt editing options - default, extra information only kept 30 days though. 
+Another feature been around few iPhone generations Portrait mode. Despite its name, use any subject, still life pets. You choose aperture effect, well Lighting mode - happily, also change these effects the fact you don’t like them.
+ Once again Apple produced smartphone ranks near the top comes image quality. Although you don’t have much control the settings yourself, it’s capable delivering fantastic images you can easily forgive it. 
+Images display lovely vibrant colours fantastic amount detail, particularly viewing images the phone’s screen itself. Some detail doesn’t appear quite impressive examining closely large computer screen - unless you’re pixel peeping the extreme, that’s unlikely be a problem. 
+Low-light shooting more a mixed bag. While Night Mode continues impress - the addition Portrait Mode a good bonus - really depend lens you’re using. The best results come the standard lens, the larger sensor behind it. The telephoto lens produces reasonable results, the wide-angle lens far the weakest. Still, it’s a good overall performance really shows far smartphone technology come recent years.
+Video recording has long-been impressive the iPhone series, Apple has made much the fact you can use it as a professional tool. The addition HDR Dolby Video an exciting step forward anybody wants use their phone advanced content creation. Although the average user might notice a huge difference everyday ordinary videos, this tool available a pocketable device as your phone great news that do.
+If compare videos side side Dolby HDR switched off, the difference fairly striking. In those HDR enabled, can see a much broader dynamic range movies appear “sing” the screen the iPhone 12 Pro. That said, the difference is only quite obvious viewing videos next each - look a non-HDR video isolation you’ll likely be impressed as it is.
+Update: Having a chance shoot raw files the iPhone 12 Pro by downloading the public beta iOS 14.3, are additions we’d like make this review.
+For the moment least, there’s way record a simultaneous JPEG/HEIF file the same time as a RAW (DNG) file is captured. That means that apps, notably Instagram, refuse accept a raw file shot the phone, unless you edit/convert it first. It could be that either Apple tweaks its software allow two files be recorded the same time, or Instagram updates recognise DNG files.
+In use, the DNG files allow additional information be extracted the file, making editing much easier, especially certain conditions. The files are quite robust, allowing you make quite big changes, but, considering well the iPhone gets it right most situations, how frequently you want use the raw setting is questionable - especially if you don’t want take too much space your iPhone. 
+Overall, it’s good have the functionality, as be some situations you might require it, hopefully be some extra tweaks made its usability.
+Video sample: 4K standard video 30fps
+Video sample: 4K standard video 60fps
+Video sample: 4K Dolby HDR video 30fps 
+Video sample: 4K Dolby HDR video 60fps
+There’s denying that the iPhone 12 Pro delivers excellent results - as we’d expect the latest iPhone. 
+However, whether it delivers extra performance when compared the 11 Pro - at least camera wise - is more debatable. It’s perhaps a slight improvement, one is small enough be unnoticeable the vast majority users. Dolby HDR creates impressive videos, unless you’re a dedicated video content creator, that’s unlikely be motivation enough pay the latest model.
+That said, are plenty reasons upgrade the iPhone 12 Pro, have nothing to the onboard camera - particularly 5G.
+We’ve also had chance to evaluate the iPhone 12 Pro Max, see how it stacks against its smaller sibling. While there are some key differences paper the two, reality, the resulting images are very similar. If you’re keen to save money (and pocket space) you shouldn’t be disappointed the iPhone 12 Pro. If you want to know more about the differences, see iPhone 12 Pro vs iPhone 12 Pro Max piece, as well as full iPhone 12 Pro Max review.
+In short, the iPhone 12 Pro camera is a worthy upgrade anyone shooting with an iPhone X or older, those possession last year’s model (and aren’t interested in the other non-camera related upgrades) might do better to wait the iPhone 13 maximum value for money! 
+Read more
+Apple iPhone Pro 12 Max review
+Best iPhone 12 Pro cases
+Best iPhone for photography: the iPhone 7 Plus to 11 Pro
+Best camera phone: which is the best smartphone for photography?
+Best phablet 
+Best phone cases: protect your camera phone in style
+Get the best camera deals, reviews, product advice, competitions, unmissable photography news more!
+Thank you for signing to Digital Camera World. You will receive a verification email shortly.
+There a problem. Please refresh the page try again.
+Digital Camera World is part of Future US Inc, an international media group and leading digital publisher. Visit our corporate site.
+©
+Future US, Inc. 11 West 42nd Street, 15th Floor,
+New York,
+NY 10036. 
+ </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9836329817771912</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The iPhone 12 Pro Max expensive largest device Apple’s 2020 iPhone line-up. Like models it, too, features new design language, received various improvements well storage upgrade starting price last year. With launch model, the iPhone 11 Pro Max been officially discontinued.
+Prices go $1,399 highest storage-tier model, AppleCare+ adds another $199 adding total $1,599. That lot money smartphone, LiDAR sensor nighttime photography AR applications, new MagSafe connector, Apple’s RAW HDR formats, support fast 5G connectivity quite benefits professionals thrown in.
+Let’s take closer look smartphone order find whom expensive iPhone really made for.
+Top 10 LaptopsMultimedia, Budget Multimedia, Gaming, Budget Gaming, Lightweight Gaming, Business, Budget Office, Workstation, Subnotebooks, Ultrabooks, Chromebooks 
+under 300 USD/Euros, 500 USD/Euros, 1.000 USD/Euros 
+Best Displays, University Students
+Top 10 SmartphonesSmartphones, Phablets, ≤5-inch, Camera SmartphonesThe Best Smartphones Less Than 160 Euros
+The camera module large notch top display prominent similarities predecessor, iPhone 11 Pro Max. Apart Apple’s new design language return iPhone models yore, new devices feature sharp squared edges. In humble opinion renders devices even premium unique rounded edges previous generations.
+As always, Apple’s Pro models come rather discreet selection colors. This year’s color selections include Graphite, Silver, Gold, Pacific Blue. The iPhone 12 Pro Max’s ever slightly taller predecessor also ever slightly narrower return. At 228 g smartphone remains fairly heavy contender continues require rather large hands used comfortable due width.
+At front find Apple’s “Ceramic Shield” ceramic glass covering display. Drop tests performed internet showed indeed surprisingly strong smaller iPhone models. However, larger iPhone 12 Pro Max still requires protective case protruding bezel around display glass break much easily. The true glass rear, require replacing entire case shatter.
+Considering great visual impression combination matte rear glass shiny metal frame make truly shame hide iPhone 12 Pro Max protective case, without doubt highly recommended nevertheless.
+Just like last year year’s case waterproof. In addition, Apple releases environmental report every one products allowing customers get glance true environmental impact each every device. In case iPhone 12 Pro Max Apple claims use 98 % recycled rare earth elements well other recycled material claims avoid using various potentially harmful substances.
+The good news year customers get storage price before, least opting lowest storage tier entry-level model. The following storage tiers available:
+All SKUs equipped 6 GB RAM. While may seem fairly low compared various Android competitors previous Apple smartphones never exhibited performance deficits whatsoever it.
+All 2020 smartphones Cupertino come Nano SIM slot well integrated eSIM, used simultaneously.
+A new feature magnetic ring rear referred MagSafe. It connects various accessories supports charging.
+iOS 14 contains variety new features supports iPhones far back 5-year-old 6S. Thus, rest assured iPhone 12 Pro Max continue receive security software updates many years come.
+New features include app management. For example, prohibit apps permanently accessing location restrict apps access certain selected photos instead entire photo library. If need specific widgets specific times day, example work, rotate swap automatically. The App Library groups apps automatically gives improved overview installed applications.
+Preloaded third-party software applications traditionally thing Apple smartphones, year’s devices different. Instead, devices come various Apple in-house apps preloaded, Apple’s office suite, iMovie edit movies, GarageBand create edit audio tracks.
+For first time ever Apple’s iPhones support fast 5G connectivity. Unfortunately, extremely fast mmWave technology available European iPhone models thus far limited devices sold US Canada. This may huge deal right due lack mmWave-compatible European 5G networks become issue those travel frequently.
+Apple specify LTE modem’s maximum transfer rates states supports 4x4 MIMI Gigabit LTE, much faster currently available LTE networks capable delivering. In tests, iPhone 12 Pro Max’s connectivity good, often showed 3/4 even bars inside buildings. Other smartphones perform similar level some, OnePlus 8 Pro, reached half similar circumstances.
+Wi-Fi 6 supported well, iPhone 12 Pro Max better job its predecessor albeit issues receiving data. When connected Netgear Nighthawk AX12 reference router data rate fluctuated immensely good enough last place similar iPhone 11 Pro Max. Granted, 575 Mbps anything slow fast enough networks it has noted other premium smartphones perform much better test offer much higher Wi-Fi speeds. All hunky-dory transmitting data though, iPhone 12 Pro Max secured place somewhere middle pack.
+Supported GNSS services include GPS, Glonass, BeiDou, QZSS, Galileo. The device also comes digital compass well barometer determining altitude based ambient air pressure.
+Just like every device test iPhone 12 Pro Max prove outdoor bicycle tour around block compared its GPS tracking accuracy professional Garmin Edge 520 satnav. All things considered iPhone performed well, its location accuracy high even rather difficult circumstances. We noticed minor dropouts, iPhone placed us wrong side road crossing bridge, overall accuracy good iPhone 12 Pro Max highly recommended exact accurate GPS data required.
+Apple’s telephony app features four tabs direct access contacts, favorites, recents, dial pad. Calls third-party applications Skype show recents list well, app always open tab active it last closed. If, example, using favorites tab often see time launching app.
+Call quality earphone okay, however conversational partner always clear maximum volume, found voices slightly dampened minor hum. Quality improved noticeably lowering volume, voices remained slightly distant, nevertheless. Our voice recorded well iPhone’s microphones regardless whether speaking loudly quietly. The overall soundscape similar speakerphone, microphones continued perform high level.
+When compared its predecessor, iPhone 12 Pro Max’s camera updates seem fairly minor first glance. It continues feature three 12 MP lenses rear. The main camera’s aperture increased improved light sensitivity, LiDAR sensor added triple-camera array improved portrait mode photos low-light situations. The night mode available ultra-wide angle lens well, telephoto lens’s aperture lower iPhone 12 Pro.
+The iPhone 12 Pro Max’s main camera continues create extremely detailed well-exposed photos, even zoomed in. When subjected low-light situations single light source creating high contrast light dark areas iPhone continued create well-exposed photos high level details even dark areas. The wide-angle lens takes photos high dynamic range, its photos sharp main camera’s zoomed in.
+Videos recorded 4K 60 FPS, hybrid zoom wide-angle main camera supported various small steps even recording. Apple also promises ability use telephoto lens zoom. However, this feature available situations decent amount light available. Even rooms average lightning phone reverted light-sensitive main camera used digital zoom instead.
+There one feature exclusive iPhone 12 Pro Max. Its new optical image stabilizer longer stabilizes lens rather the sensor array magnets allowing 5,000 adjustments per second compared 1,000 adjustments the older system. However, unable notice differences the iPhone 11 Pro Max the lens-mounted OIS the iPhone 12 Pro Max its new sensor-mounted OIS, neither taking photos videos shaky hands. In cases optical image stabilization worked well, the image remained smooth long shake much. The way tell the stabilizer make adjustments via minor flicker the light recording videos.
+The front-facing camera features 12 MP sensor. It takes well-exposed selfies high focus supports background blurring via portrait mode. This worked well looked natural despite resort software-enabled background blurring. A night mode improve photos taken low-light situations noticeably. Portraits taken low light benefit the main camera’s LiDAR sensor turn pretty well overall. However, the iPhone 12 Pro Max cannot operate complete darkness requires minimum light order take photos.
+Apple’s default camera app lacks features settings professionals would love see. Instead, it geared much towards automatic image improvements allowing everybody take good photos. You can find great selection professional camera apps the app store allow set parameters shutter speed manually.
+Image Comparison
+Choose scene navigate within the first image. One click changes the position touchscreens. One click the zoomed-in image opens the original new window. The first image shows the scaled photograph the test device.
+When subjected normalized conditions our lab the camera took sharp photos minor loss focus towards the edges. Colors slightly distorted, sometimes bit dark, sometimes bit light (e.g. blacks).
+With very little light available the iPhone 12 Pro Max managed take well recognizable photo acceptable level grain the details.
+Starting this year’s generation Apple longer includes a charger a headset iPhones. According Apple, steps taken purely environmental reasons. After all, users already a matching 20-Watt power supply. Truth be told find this rather doubtful. First all, Apple only started including the fast charger its previous generation iPhones, devices make the slow 5 W charger. In addition, Apple could passed the savings resulting the smaller package the missing power supply its customers lowered the iPhone’s price $20, happens be the premium Apple charges aforementioned 20 W charger.
+Alas, the only things find the box addition the phone the usual paperwork a USB-C Lightning cable well a SIM tool. By default, Apple devices come a 1-year limited manufacturer warranty. Keep mind EU customers get enjoy a total 24 months limited seller warranty. However, six months the burden proof the defect existed the device purchased lays upon the user. An additional $199 get two years AppleCare+, including accidental damage protection a per-case fee.
+Without a doubt, the highlight third-party accessory companies Apple’s new MagSafe connector. It even strong enough safely secure the iPhone 12 Pro Max car mounts without the help plastic brackets along the sides. At the time writing MagSafe accessories few far limited protective cases, a MagSafe charger, a small magnetic wallet attaches the back the phone. However, expect a huge variety additional third-party accessories become available the near future.
+The iPhone 12 Pro Max’s touchscreen very quick react, responsive, very accurate. Hardware buttons located sides the device. They clearly palpable easy use. In addition, a hardware slider the left-hand side serves the iPhone’s traditional hardware mute switch.
+The fact the display only supports 60 Hz impacts usability insofar the system’s responsiveness suffers slightly therefore subjectively slower systems high refresh rate displays.
+Biometric security features include Apple’s Face ID technology, infrared-supported face detection feature using the front-facing camera. It very accurate works the dark, thus tamper-proof reliable.
+Apple’s displays traditionally lag behind competitors regard resolution. Keep mind though their displays also slightly longer. Native 4K not supported, turn not really a thing other high-end smartphones either would probably not make a whole lot sense a display this small. By large the Super Retina XDR display very detailed supports HDR.
+According Apple’s specifications, the iPhone 12 Pro Max’s display peak 800 nits, exceeded a significant margin our tests. Numbers even higher measuring only a small area the display, common HDR content.
+Overall brightness distribution fairly even balanced, colors pretty accurate. Keep mind may want disable TrueTone require utmost display color accuracy Apple’s ambient light-based color adjustment feature can distort colors quite a bit.
+* ... smaller better
+The display backlight flickers 238 Hz (Likely utilizing PWM) . 
+The frequency 238 Hz relatively low, sensitive users likely notice flickering experience eyestrain the stated brightness setting below.
+In comparison: 51 % tested devices not use PWM dim the display. If PWM detected, average 9725 (minimum: 5 - maximum: 142900) Hz measured.
+Given Apple’s smartphone display based OLED technology PWM almost impossible avoid. We found average PWM frequency 238 Hz, PWM always present soon display brightness dimmed. We would thus advise users sensitive display flicker closely inspect the iPhone 12 Pro Max’s display making purchasing decisions.
+Given that the iPhone 12 Pro Max’s display’s refresh rate just 60 Hz animations subjectively not as smooth as they other high-end smartphones.
+Outdoors, the display truly shines. It remained well readable even bright environments. Direct sunlight can be issue due the display’s reflectiveness should thus be avoided possible, order protect your eyes.
+Viewing angles superb, found almost color distortions only a minor drop brightness looking the display the sides.
+Apple’s A14 Bionic another self-designed Apple SoC. It comes a total six cores, two high-performance four efficiency cores less demanding tasks. This differentiation helps improve energy efficiency.
+Compared its predecessor, the iPhone 12 Pro Max’s processing performance means a huge leap. In some benchmarks, both devices scored almost identically. And it least possible that future software updates improve upon the A14 Bionic's performance a bit we would advise not base your purchasing decision expected noticeable performance improvements.
+Despite all this the iPhone 12 Pro Max continued wipe the floor its Android competitors, its graphics performance improved a bit. Those improvements were, however, quickly nullified the 12 Pro Max’s slightly higher display resolution the iPhone 11 Pro Max.
+Browsing performance continues be excellent, the iPhone 12 Pro Max again dominates its competition. It leaps bounds ahead all benchmarks, translates quickly loading websites images as well as smooth instant scrolling the real world.
+* ... smaller better
+As expected, Apple’s largest iPhone well-suited gaming. Its display supports HDR offers very fine details, its touch input very reliable, the device offers enough performance even the most demanding mobile games.
+In all three our game benchmarks, we managed achieve a less consistent 60 FPS, most likely limited the iPhone 60 Hz refresh rate; a pity ambitious gamers. Frame rates recorded using GameBench.
+At the rear top, the iPhone 12 Pro Max’s surface temperatures peaked 44 °C our tests. It remains isolated hot spot though, temperatures significantly lower just a few centimeters away. The front remained more comfortable the touch. Overall, the iPhone not get particularly hot, it might just get hot enough warmer environments become uncomfortable hold hand gaming.
+But what performance? While it may decrease a bit load the worst drop we saw running our GFXBench battery test around 5 %, so it should not be too much issue.
+The iPhone 12 Pro Max comes a set stereo speakers: A dedicated speaker the bottom the earphone itself. Sound okay overall, it became obvious our tests that the speakers not the most powerful maximum volume. Lowering volume by one two clicks significantly improved sound quality. Bass not particularly present at least low mids well pronounced. All things considered the soundscape decent, does not mean not better smartphone speakers there.
+Connecting analog 3.5-mm audio equipment requires a Lightning 3.5-mm headphone jack dongle. Alternatively, can also connect Bluetooth headphones wirelessly. Unfortunately, the iPhone lacks support wireless high-resolution audio codecs, require wired headphones instead. The audio signal flawless both cases, wired wireless.
+(±) | speaker loudness average good (81.2 dB)Bass 100 - 315 Hz(-) | nearly bass - average 15.8% lower median(±) | linearity bass average (10% delta prev. frequency)Mids 400 - 2000 Hz(+) | balanced mids - only 4.9% away median(+) | mids linear (6.4% delta prev. frequency)Highs 2 - 16 kHz(±) | higher highs - on average 7.9% higher median(±) | linearity highs average (8% delta prev. frequency)Overall 100 - 16.000 Hz(±) | linearity overall sound average (19.2% difference median)Compared same class» 12% all tested devices this class better, 8% similar, 79% worse» The best a delta 13%, average 24%, worst 65%Compared all devices tested» 39% all tested devices better, 7% similar, 53% worse» The best a delta 3%, average 21%, worst 65%
+(+) | speakers can play relatively loud (85.8 dB)Bass 100 - 315 Hz(-) | nearly bass - on average 15.4% lower median(±) | linearity bass average (10.3% delta prev. frequency)Mids 400 - 2000 Hz(±) | higher mids - on average 5.7% higher median(+) | mids are linear (5.9% delta prev. frequency)Highs 2 - 16 kHz(±) | higher highs - on average 8.8% higher median(+) | highs are linear (3.5% delta prev. frequency)Overall 100 - 16.000 Hz(±) | linearity overall sound average (18.9% difference median)Compared same class» 11% all tested devices this class were better, 7% similar, 82% worse» The best a delta 13%, average 24%, worst 65%Compared all devices tested» 37% all tested devices were better, 7% similar, 55% worse» The best a delta 3%, average 21%, worst was 65%
+Apple’s A14 Bionic turned out be a major improvement its predecessor it comes energy efficiency. The new iPhone was more efficient than all its Android competitors under maximum load.
+Wireless charging supported via Qi 7.5 W MagSafe up 15 W. Keep mind that order charge an iPhone 12 wirelessly up 15 W using MagSafe you meet a number requirements, as various reports been able confirm. For example, you need use Apple’s power supply, charging at maximum wattage is only available the case crosses a certain temperature threshold.
+As before, you can also use a cable charge the phone. Unlike previous generations, the 2020 iPhone longer comes with a charger, though.
+* ... smaller is better
+At 3,687 mAh the iPhone 12 Pro Max’s battery is slightly smaller than its predecessor’s. Nonetheless, its battery life was improved slightly previous models, the new iPhone ran almost exactly 16 hours our Wi-Fi test. Its battery life is thus excellent, other high-end smartphones are often incapable keeping up despite larger batteries. Apple’s power optimization efforts software optimizations a select number SoCs seem to have paid off.
+Wired charging using Apple’s own power supply charge the phone with up to 20 W. The phone will charge near empty to full between 1:30 2 hours.
+Yes, Apple’s iPhone 12 Pro Max remains one the most expensive smartphones money can buy. You get a lot return, though. We liked the new case design, plenty long-time Apple users will get that unmistakable retro tingling. Apple continues to maintain an excellent build quality offer plenty performance.
+Despite a smaller battery the iPhone 12 Pro Max’s battery life not suffer noticeably, the display’s color accuracy was great. Furthermore, the new iPhone now supports modern 5G connectivity, brings its support cellular standards up to speed again. Thanks to a wide range frequencies, it should work as intended worldwide.
+Thanks to various innovative new features, as ProRAW (not yet available at the time of writing scheduled to arrive with an update in the near future), HDR3, DolbyVision support recorded videos the “Pro” moniker seems to be well justified. Photo video editing professionals will certainly benefit these new features.
+Apple’s iPhone 12 Pro Max is expensive, no doubt. However, it remains a superb device great tool professionals ambitious hobbyists.
+The fact that Apple publishes an environmental report every one of its devices deserves praise in and by itself. Granted, marketing and PR played an important role in this decision, and the report conveniently glances and omits potential problems. Nevertheless, it allows users to get an idea of the impact their purchasing decisions have on the environment, is more than most other OEMs choose to reveal about their products.
+Apple iPhone 12 Pro Max - 2020-12-0312/03/2020  v7Florian Schmitt
+ </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8499194383621216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This year's new iPhone announcement brought us one, four different models. Designed appeal different customers, terms specs, best quartet iPhone 12 Pro Max, number appealing camera features. 
+In previous years, 'Pro' model 'Pro Max' model featured camera setup, year, Apple diverted little usual path bring different setup larger model. 
+Compared iPhone 12 Pro, Max brings larger sensor main camera, 2.5x zoom lens (as opposed 2x lens), course, Max, much bigger screen overall size. We think likely iPhone 12 Pro common device bought average consumer, photographers looking best best, they'll probably wondering whether should consider spending little bit get Max model. 
+So give little bit detail cameras; get standard (1x) lens offering equivalent 26mm, f/1.6 aperture, alongside telephoto (2.5x) offering - 65mm equivalent, f/2.2 aperture, ultra-wide angle lens (0.5x) - 13mm equivalent, f/2.4 aperture. It's important note behind 26mm lens, there's larger sensor found iPhone 12 Pro, also benefits sensor-shift optical image stabilisation, standard version offer. 
+Other key features iPhone 12 Pro include Portrait mode, Panorama mode, Night mode portraits introduction Apple ProRAW. This function available standard time writing, access raw shooting installing Apple's public beta iOS 14.3, suggests full release fairly imminent. 
+As well features, there's number improvements compared last year's iPhone 11 Pro / Max. Two camera improvements include addition Dolby Vision HDR video recording 60fps, plus LiDAR scanner, said improve portraits taken Night mode, well boost speed focusing low light scenarios. 
+There improvements worth considering last year's 11 Pro Max, little do camera. The biggest those addition 5G compatibility, gives super fast downloads, plus high-quality streaming. You need use phone an area has 5G coverage, well provider includes part SIM/contract deal. 
+In terms size, iPhone 12 Pro Max larger iPhone 12 Pro, compared iPhone 11 Pro Max, couple mm taller predecessor, narrower slimmer. It weighs older model. The screen also includes Ceramic Shield front, designed 4x better withstanding drops - good news anyone clumsy disposition. It's also slightly water resistant before, too. 
+The as-standard storage capacity iPhone 12 Pro Max has increased last year's models. You get minimum 128GB (compared 64GB last year). You also purchase 256 512GB models - remember Apple products, there's way physically increase storage capacity. 
+Those new Apple products might want consider charging cable headphones no longer included box buy phone. Apple says reduce waste, since many people buying product already these items - something consider either new lost/damaged existing chargers/headphones. A Lightning - USB C cable included box, means don't even get 'standard' USB charger, either. 
+At time writing, iPhone 12 Pro Max price £100 standard iPhone 12 Pro, starting £1099 128GB version, rising £1,399 512GB version. There four different colours choose from; Graphite (black), Silver, Gold Pacific Blue.
+Although iteration iPhone may slightly different terms aesthetics, Apple tends keep designs fairly similar year year. The biggest news iPhone 12 series re-introduction squared / angular design, means edges flat, rather rounded off. This gives utilitarian appearance, - perhaps unintended - benefit photographers balance camera side sturdy surface. 
+As Max model, course expect iPhone12 Pro Max large. Whether consider good thing bad thing likely depend personal preference. It's great viewing photos, using apps watching videos etc, less ergonomic doing things texting calling - especially smaller hands. It's also quite difficult fit iPhone 12 Pro Max small jeans pocket - may may deal breaker depending point view (or size pockets). 
+In terms using iPhone 12 Pro iPhone 12 Pro Max, two devices largely same. The phone's native camera app launched directly lock screen, simply holding camera icon. 
+If already unlocked phone, tap camera icon found bottom right hand corner screen, or, hold camera icon, option choose number different options; Take Portrait Selfie (shoot front-facing camera, portrait mode enabled), Take Portrait (portrait mode, rear-facing camera), Record Video Take Selfie (the front facing camera standard mode). By default, native app launch standard mode. 
+If find often using particular mode, particular settings enabled, head iPhone's main menu set camera remember last-used settings. For people, they'll probably find photos taken the standard Photo mode, though. 
+Apple well-known the simplicity its native camera app, options would found few years ago, still relatively simple affair. That considered good thing, means there's lots different settings get grips with, advanced photographers find little frustrating greater control. 
+If that's problem have, rectify quite easily large number different advanced camera apps available give control - be able access those apps directly the home screen quick shooting. 
+Despite its simplicity, there's number different features take note understand. You move the various shooting modes swiping left right the screen - alternatively, tap the words represent the different modes. You'll find the stills modes the right Photo; Portrait (shallow depth field effect) Pano (panorama). To the left the video options, Video, Slo-Mo (slow motion), Time-Lapse. 
+In the standard Photo mode, see the different iPhone lenses choose between, displayed the bottom the screen. There's 0.5, 1 2. Whichever lens have selected add an x the number, well turn the lettering yellow. At the top the screen, see few icons, including flash icon set off, the Live Photo icon, looks like bullseye. 
+If switch setting on, record short video clip every still image take. If shooting low light, the Night mode icon also appear - something manually select, appears the phone believes there's enough light the scene. 
+A new feature the iPhone 12 Pro mode the addition raw format shooting. You first need enable the format the iPhone main menu. The format options also give the choice 'most compatible' (JPEG) 'High Efficiency' (HEIF), non-raw files. 
+It's worth switching most compatible think likely be exporting sharing your files regularly, High Efficiency good those like take lot shots - always convert individual files JPEGs necessary. By enabling Apple ProRAW, the phone capture DNG files give greater scope edit post-production. 
+Going back the camera app, have raw shooting enabled, now also see RAW icon the top the screen. By default, raw switched - indicated line the word 'RAW'. 
+You'll need remember switch want create raw file. This perhaps bit faff, saves taking lots space your phone taking ordinary snaps record shots. 
+Once activate raw shooting, Live Photos automatically be switched - have make decision prefer. It's also worth noting the phone only records one type file a time - raw JPEG/HEIF simultaneously. The knock-on effect applications work images taken - Instagram.
+ It's possible that issue be rectified the full version the iOS software released and/or Instagram updates its app accept DNG files. If want upload an image Instagram, need convert JPEG first. 
+In the middle the top the screen, see a small arrow. You either tap this, swipe upwards the main screen be shown extra settings adjust. There's flash here, gives control set 'Auto', 'On' 'Off', as well as the same options Live Photos. You also choose a different aspect ratio the standard 4:3, 16:9 1:1 options also available. 
+A relatively new addition exposure compensation - also available older iPhones running the latest iOS. There's a timer option, allows set a self-timer either 3 seconds 10 seconds, finally there's an option adding different filters your images. 
+If are shooting Night mode, a Night mode icon also appear - here, an adjust the length time the phone shoot - perhaps selecting longer have way steady the phone. If got RAW enabled, also see the raw option too. 
+When comes focusing, either let the iPhone decide itself wants focus, tap around the screen select a different focus point. Tapping different points also affect metering, it's useful presented a high-contrast scene need find the point the light balanced most pleasingly. 
+You also lock metering holding your finger the screen, choose a different focus point - most useful you're shooting close-ups, a different focus point is most useful. 
+After tapping a focus point, you also see a sun icon appear. When does, sliding your finger the screen adjust exposure, making the scene darker lighter - it's essentially a quicker / different way access the exposure compensation option the pull-up menu. 
+A particularly useful feature first made an appearance the iPhone 11 series is the ability show you what's outside the frame that you're shooting. The phone this making use whichever lenses you're not shooting the time.
+ For example, using the 1x lens, use the 0.5x lens display what's going either side your composition. The same happens you're shooting 2.5x, the 1x lens used show you either side the frame. You see anything shooting the 0.5x lens, since obviously the camera can't get wider. This setup is particularly handy you're trying avoid people your shot, example. 
+You also set the phone record this extra data keep ready adjusting your photos the editing section the phone - the data will only be kept 30 days as standard unless you use it. 
+Portrait mode is something we've iPhones a few generations now, each version promising be a little better than the last. Despite its name, you use other subjects - varying results. You use either the 1x 2.5x lens your portraits, with the 1x option being most useful including the subject's background / context. 
+If you activate the swipe menu, get a few extra options choose ,including flash, exposure compensation, timer, filters, the choice a different aperture (effect). The widest available is f/1.4, the narrowest f/16. If you don't make a choice, the phone will automatically select one you. 
+Different 'Lighting' effects also be activated, you have Natural Light, Studio Light, Contour Light, Stage Light, Stage Light Mono High Key Light Mono. These are all worth trying you have a particular fondness that type effect. 
+A new addition Portrait mode, the iPhone 12 series, is the ability combine it with Night mode. Once again, this is not something that you choose manually control, rather something that will automatically activate the phone believes is not enough light the scene. 
+Once taken your Portrait, you can edit it playback. This gives you the option choose a different aperture, a lighting effect. This is very useful it's not quite come the way you want it - it's not possible choose a different focus point, however, which is perhaps a little disappointing. 
+Other editing options are available - Portrait shots otherwise - including the ability adjust exposure, contrast, highlights so on. More basic edits, as rotating, cropping adding filters are also there. If you have been shooting raw format, these edits are available the phone itself, you can course use something like Photoshop your computer make edits. 
+If been shooting with Live Photos enabled, are further editing options available, which can be useful. You can choose a different frame, if perhaps the one you chose the time of editing quite you hoping for. You can also create special effects, as the effect of a Long Exposure, which is created blending together several frames from a Live Photo. 
+When using the Video mode, are fewer shooting options available. You can switch the flash on (or set it auto in the swipe menu), you can also add some exposure compensation. Frame rates resolution can be set the top of the screen - tap 4K, it'll switch to HD, vice versa. 
+If you tap the number (60), it'll flip the different frame rates available - 24, 30 60 4K, just 30 60 HD. If for some reason you want to shoot in 720p, that's something have to switch on from the phone's main menu. Any of the three lenses can be used to record video, and you can also switch them while recording. 
+In order to activate Dolby HDR video recording, again, you'll need to head the phone's main menu. Dolby HDR can only be viewed on compatible devices, such as other iPhones, and Macs running the Catalina OS later. It's therefore worth considering whether not you want to switch it on - perhaps just switch it on for certain videos. 
+If you're shooting Slo-Mo, you can either shoot HD 720p, at either 240 or 120fps. Once again, the different options can be accessed tapping at the top right hand corner of the screen.
+Home ·
+Camera Reviews
+·
+Lens Reviews ·
+Photography News ·
+How-To
+Best Digital Cameras
+Best Digital Cameras
+·
+Best DSLRs
+Best DSLRs
+·
+Best Compact Cameras
+Best Compact Cameras
+Search ·
+Advertise ·
+About ·
+Privacy ·
+Contact Us
+				© Copyright 2003-2021 Photo 360 Ltd. 
+Kemp House, 152-160 City Road, London, EC1V 2NX, United Kingdom.
+ </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9792948365211487</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+                    We respect privacy.
+                    All email addresses provide used sending story.
+If you’ve looking smart reasons upgrade phone, Apple's new models—the iPhone 12, 12 Mini, 12 Pro, 12 Pro Max—have plenty offer.
+They don’t quite rise top tight smartphone ratings, Consumer Reports’ testers say they're excellent overall, receiving top marks improved cameras, OLED displays, and fast performance.
+And, you’ve probably heard, they’re also first Apple models include hardware needed 5G, next step wireless connectivity, common phones made Samsung, OnePlus, LG.
+Apple made big changes iPhone’s refueling process, too. The new MagSafe charger, sold separately $40, doubles amount wattage wirelessly transfer phone, making wireless charging process much faster. 
+But take full advantage convenience, connect phone 20-watt power adapter (aka plug), costs $20 Apple Store.
+In fact, even don’t go wireless, need own plug charge phone. In departure years past, Apple longer includes one—or pair wired headphones, matter—in box latest models.
+That’s one area experts say iPhone 12 models fall short. Because wall adapter included, measured long took charge phones 5-watt adapter, long standard phones adheres routine procedure labs testing model without charger. The results unimpressive.
+All four models posted significantly slower charging speeds compared optional 20-watt wall adapter. And combined their middle-of-the-road battery life, iPhone 12, 12 Mini, 12 Pro ended subpar marks battery charging, ultimately costing top spots smartphone ratings.
+The iPhone 12 Pro Max, lasted industry leading 41 hours our testing, lone exception, though score still hurt slow charging speed.  
+In end, though, there's good news wallet. Many new features premium iPhone 12 Pro 12 Pro Max also available iPhone 12 12 Mini.
+A year ago, example, buy 11 Pro 11 Pro Max get display OLED technology found TVs known generating blacker blacks almost unlimited viewing angles. But Apple installed supersharp OLED screens iPhone 12 12 Mini.
+The new phones sleek look feel. The Pro models wrapped elegant, though smudge-prone, stainless steel frame. The iPhone 12 12 Mini encased modest aluminum. All ditched rounded edges found recent iPhones favor flat sides reminiscent models long past.
+For change, also get wide selection prices year, based part size. An iPhone 12 Mini 64 gigabytes storage cost $700. The slightly larger iPhone 12 $800.
+The 12 Pro, starts 128GB—marking Apple’s first storage increase since iPhone 8—costs $1,000, price last year's iPhone 11 Pro. And iPhone 12 Pro Max set back $1,100. (That’s without cost power adapter.)
+Here's closer look four phones our testing.
+According telecommunications experts, 5G speeds—five times faster 4G connections peak performance—will eventually allow download feature-length movie 5 seconds.
+Proponents technology say 5G could also pave way instantaneous response times required safely perform robotic surgery help cars communicate vehicles road infrastructure improve safety efficiency. Those sophisticated applications still way off, though.
+When technology first launched, compatible phones, mostly superpremium models from Samsung LG. But carriers expanded their 5G networks, hardware required 5G access entered mainstream phones.
+At moment, access—and technology’s optimum speeds—still hinge live carrier use. That’s changing rather quickly, though, making good time think purchasing 5G phone, especially you’re spending upward $1,000.
+The new iPhones, least models sold U.S., contain hardware needed pick 5G signals. That includes slower reliable low midband 5G signals, well speedy millimeter waves often impeded walls other obstructions.
+But it’s still premature expect significant results phone accessing nation’s 5G networks.
+For example, sitting desk Consumer Reports’ headquarters Yonkers, N.Y., I picked Verizon 5G signals download speeds ranging 63 156 megabits per second. That’s pretty lackluster, even considering I connected Verizon’s slower Nationwide Network, faster Ultra Wideband signal, uses millimeter waves.
+For comparison, I put same SIM card back my old iPhone 11 Pro Max, only LTE, ran same tests. The download speeds ranged 102 143 Mbps, pretty much same 5G.
+In location, least, 5G wasn’t better older 4G network. It certainly didn’t make want rush buy 5G phone.
+Henry Parra, CR’s head phone testing, had better luck midtown Manhattan, has zones covered Verizon’s faster Ultra Wideband network. Using same speed tests, went three different spots within line sight Verizon 5G towers got varied results. In one location, captured speeds 237 250 Mbps.
+Keep mind Parra testing near-ideal conditions people network. A passing car even tree branch enough stop 5G millimeter wave signal. 
+He ran same tests 5G phones made Samsung LG. Results those phones also varied greatly, though Samsung Galaxy Note20 Ultra posted fastest download speed day, reaching 328 Mbps one location. 
+Occasionally, phone testers see 5G speed many times high—going well beyond gigabit per second. But says lot inconsistency 5G. If happen live tent base best 5G tower around, may experience shockingly fast downloads.
+But time, people these phones expect rely 4G perhaps 5G operating 4G-like speeds.
+Apple’s smartphone cameras have traditionally performed well our testing, ones these phones exception. 
+The 12 Pro Max received highest Overall Score our ratings camera setup, 12 Pro finishing hair behind it. The 12 12 Mini, feature two cameras back instead three, essentially tied sixth overall.     
+The rear cameras four phones excelled recording video, sweeping top spots our best video-quality rankings. 
+In terms features, Apple’s big promise cameras new models produce better results low-light situations. They have bigger sensors let light and, theory, brighten photo might otherwise dark fuzzy. 
+Our testers found be true. In our labs, compared images taken using iPhone 12 12 Pro images taken using iPhone 11 11 Pro, discovered photos taken using newer models were significantly better.
+But Artur Pietruch, CR’s test lab photography expert, recommends use tripod sturdy perch get best results low-light situations, regardless phone model use.
+To harness extra light, camera’s shutter remains open longer, making shot susceptible slight movements blur images.
+Pietruch says new cameras stand comes progressive blur photos, popular technique subject appears sharp focus objects background get less focused the farther the camera. In general, tough thing smartphone cameras do, says.
+And according Pietruch, the phones’ ultrawide cameras work exceptionally well. He didn’t detect much “fisheye” effect, where the corners the photos distorted.
+He also gives high marks the 2x telephoto lens the 12 Pro, says takes photos noticeably less blurry those other telephoto smartphone cameras.
+If buy 12 Pro Max, get a slightly more advanced 2.5x camera, allowing get a smidge closer subject.
+Apple says the phones’ new A14 Bionic chip, designed 5G mind, the company’s fastest yet, our testing confirms that. All four the phones received Excellent ratings performance.
+We also ran standard benchmark tests the iPhone 12 12 Pro, stressing the main graphics processors making carry a series operations. For comparison’s sake, ran the same tests the iPhone 11 11 Pro.
+The iPhone 12 posted a 25 percent improvement the 11, the 12 Pro 30 percent better the 11 Pro (and 3 percent faster the regular 12).
+But much really benefit extra power?
+The real upside may show until 5G network coverage improves begin see more graphic-intensive, real-time gaming, applications augmented virtual reality other processor-sucking features conceived the next years.
+So might need the equivalent a Ferrari, might find the extra horsepower comes handy the road want process truckloads data without slowing down.
+The OLED display the iPhone 11 Pro earned Excellent rating our testers. And four iPhone 12 models now feature comparable screens. 
+For the iPhone 12, the shift OLED the LCD display the iPhone 11 a big step forward, according Claudio Ciacci, heads TV testing CR.
+Any good OLED provides very deep black levels nearly unlimited viewing angles. Performance-wise, though, the one the iPhone 12 nearly matches the more expensive 12 Pro, Ciacci says; there’s a slight difference brightness. The 12 reach 625 nits displaying typical content, the 12 Pro climb 800 nits, like the 11 Pro model. 
+That’s important a bright screen is easier see you’re outside a sunny day.
+It also help take advantage HDR, high-dynamic range, video (a hallmark modern TVs). When done well, HDR make a video look more vibrant, colorful, lifelike, lots detail both the dimly lit bright parts the image. Think the shadows a nighttime scene the intricate shapes bright clouds.
+Apple says its new phones reach 1,200 nits small sections HDR picture, the glint an airplane wing. We didn’t evaluate claim.
+Ciacci notes that the black levels the iPhone 12 deep expected an OLED display. “I wish the TVs test would look as good as this,” he adds. While the resolution falls a little short 4K, consumers won’t notice screens small.
+As you’d expect, when take that into account, the displays all four phones received Excellent ratings our testers, scoring the same as the iPhone 11 Pro Pro Max last year.
+And you’re wondering Apple’s new Ceramic Shield may affect display quality, our testers found that didn’t change any the viewing aspects the screen. The new tech has tiny ceramic crystals embedded the glass. The crystals smaller the wavelength light, which makes the material highly transparent.
+As durability, the phones produced mixed results. The Ceramic Shield covering the front all four phones made through the equivalent of 100 drops our specialized tumbler. The metal frames sustained minor bumps scratches.
+But 100 drops, the glass covering the rear camera the iPhone 12 broken, leaving the camera unusable. The camera coverings the other three models survived fine.
+Needless say, any phone price, really invest a good protective case. If nothing else, buy you a little peace of mind.
+As we noted earlier, the $20 fee a wall adapter the so-so battery life are the main reasons Apple’s new phones don’t make into our top 10.
+In fact, all four models score a bit lower the iPhone 11 Pro Max, though that’s big surprise the 12, 12 Mini, 12 Pro given that the extra-large body the 11 Pro Max provides ample space a bigger battery.
+While the similarly sized iPhone 12 Pro Max lasted 30 minutes longer the 11 Pro Max—logging an outstanding 41 hours our battery life testing—it hurt the slower charging speed, lowering the Overall Score enough place the phone lower last year's version our very tight standings.
+If battery life is a big concern, you may also want think twice the 12 Mini, which made it 28.5 hours our testing, a bit less the 32.5 hours get the regular-sized iPhone 12 the 34 hours provided the 12 Pro.  
+But all four of these phones are great. With the wireless charging features 5G compatibility, the iPhone 12, 12 Pro, 12 Pro Max take a leap forward their predecessor, too.
+That alone enough justify opening wallet. But you’re ready a new device, not invest a phone that’s built serve you years come? All of these models deliver that promise.
+The major carriers are serving some good deals the new iPhones right now, too. If you have an eligible device good condition trade in, the swap can save you up to $700.
+And options like that, not? After all, with everything going on the world right now, doesn’t need a pocket-sized OLED TV fit streaming your favorite Netflix series in bed?
+                    We respect your privacy.
+                    All email addresses you provide be used just for sending this story.
+Bree Fowler
+I write all things "cyber" your right to privacy. Before joining Consumer Reports, I spent 16 years reporting for The Associated Press. What I enjoy: cooking learning to code with my kids. I've lived in the Bronx for more a decade, as a proud Michigan native, I will always be a die-hard Detroit Tigers fan no matter how much my family I get harassed Yankee Stadium. Follow on Twitter (@BreeJFowler). 
+Be the first to comment
+ </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9975997805595398</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Apple left lot potential buyers confused iPhone 12 series unprecedented four devices. However, one phone series clear target audience iPhone 12 Pro Max. After reviewing base iPhone 12, smaller iPhone 12 Mini middle ground iPhone 12 Pro, reached largest phone series aimed clearly Pros — professionals, pro users progressives.
+iPhone 12 Pro Max specs: 6.7 inch Super Retina XDR OLED (1284 x 2778p, ~458 ppi) | Apple A14 Bionic (6GB RAM 128GB/256GB/512GB) | 12 MP, f/1.6, 26mm (wide) + 12 MP, f/2.2, 65mm (telephoto) + 12 MP, f/2.4, 120˚, 13mm (ultrawide) + TOF 3D LiDAR scanner (depth) + 12 MP, f/2.2, 23mm (wide) front camera | Li-Ion 3687 mAh battery | 228 g
+The iPhone 12 Pro Max large phone. In fact, larger iPhone 11 Pro Max centimetres. This means better screen-to-body ratio well slightly better resolution. However, weighs almost last version despite ceramic coating steel frame.
+The flat edges make design stylish. Remember, Apple phone large last used flat edge design iPhone. But flat edges could make bit difficult grip phone times, especially cold. So I recommend investing good cover protects phone offers good grip times.
+The iPhone 12 Pro Max changes camera department. For instance, larger telephoto lens 12x zoom instead 10x before. Even iPhone 12 Pro can’t do this. Also, camera shoot Dolby Vision HDR 60fps, iPhone 12 can’t. Then there Lidar sensor gives camera sense depth.
+Read iPhone 12 reviews: Apple iPhone 12 Pro review | Apple iPhone 12 review | Apple iPhone 12 mini review |
+One thing keep mind iPhone 12 Pro Max smaller battery its predecessor about 10 per cent, though I notice much change battery life.
+The iPhone 12 Pro Max clearly pinnacle smartphone technology. The best processor business packaged professional-grade camera units, stunning display stylish design. So want tell world arrived, phone buy year.
+Apple past couple years ensuring its phones year same processor. And guarantee similar performance across price points something unique Apple moment. However, experience clearly different go value chain, phone like Pro Max has more tools make use A14 Bionic processor.
+So UI/UX all iPhone 12 series phones same, Pro Max offers premium camera experiences phones cannot. For instance, Dolby Vision HDR recording 60fps good most DSLRs offer moment. This phone buy shooting video professional level not always using DSLR. This phone buy you avid photographer, not one needs carry large camera prove that. This truly professional smartphone camera.
+I tried range video settings, low normal light camera great keeping subtle changes colour even keeping track subject. I rue fact phone has come time I can’t really step shoot much, I managed recreate a lot scenarios I could do. And trust me camera it.
+A post shared Nandu79 (@nandagopalrajan)
+The details you try record 4K HDR 60fps almost cinematic. The Dolby Vision HDR default mode, you need California visages see what phone capable of, not smoggy Delhi skies.
+A post shared Nandu79 (@nandagopalrajan)
+Where iPhone really steps up video recording. Stuck home another Covid-19 surge Delhi, I not much options push camera capabilities phone. However, I try colourful Diwali lights middle night you see the results yourself. In video, you see despite the dark settings, the phone offers smooth image stabilisation all times. You see the subtle changes the lights even the glows different hues.
+You see camera prowess even clicking regular photos, night day. I clearly think the camera faster processing night shots what used take 3 seconds earlier now captured less time.
+Like the Pro, the Pro Max has a Lidar sensor the camera rig. While primarily meant offer a better AR experience, clearly improves some shots dramatically. For instance, compare two shots the Buddha taken the iPhone 11 Pro Max the iPhone 12 Pro Max without the portrait mode active, at f16 settings. You see the iPhone 12 Pro Max sharper the subject almost popping a 3D effect. Also, the iPhone 12 Pro Max offers a 2.5x optical zoom portrait the 2x its predecessor.
+I have over the past years abandoned camera favour iPhone, the iPhone 12 Pro Max Apple has pushed one level up. You now shoot high-end video edit the phone. A 30-second 4K clip I shot could edited processed under a minute, retaining all the detail. The phone not even whimper this.
+The battery life the iPhone 12 Pro Max almost the same last year’s iPhone 11 Pro Max. It able safely see you back home a full charge a active day. However, it seems the battery this time (3687 mAh) smaller last year’s 3969 mAh cell. Since the phone has actually become larger last time it a bit hard me understand this reduction needed. My fear this will start showing up the phone its battery ages, especially those using the phone 5G. Indian’s lucky don’t have 5G drain new iPhones. Again, the fast charging the iPhone now is among the best the industry will come the rescue you drained odd places.
+There is no denying the fact the iPhone, iPhone, is a premium device. However, the price jump the new iPhone 12 Pro Max model needs be justified better. Even we consider the fact the base model now has 128GB the earlier 64GB, the price differential is significant. While I would think this is the cost 5G, in India becomes a bit a future-proofing tax.
+Also, it will be a small thing a person buying a phone this expensive, you will have spend a few extra thousand rupees get either a regular charger the new MagSafe charger as this phone comes in a slim box does not have space one these.
+Yes, the iPhone 12 Pro Max is a great buy those professional workflows that involve a phone. These could be anything the need a stellar display a top-end processing professional-grade video recording. However, you using an iPhone that came out in the last two years, it is too early upgrade this one. For anyone using an older iPhone, it is time to move. For others, you jump ship for the best camera experience and a processor that could well be powering next PC as well.
+As Cupertino would say, this is the best iPhone Apple has made. I can only agree.
+📣 The Indian Express is now Telegram. Click to join our channel (@indianexpress) and stay updated the latest headlines
+For all the latest Technology News, download Indian Express App.
+Nandagopal RajanNandagopal Rajan is Editor New Media. He writes on technology, gadgets... read more
+ </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8219533562660217</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sign daily newsletter
+header-social
+Secondary menu
+Image 1 16
+The best iPhone buy equipped superb set cameras large
+ As occasional reviewer smartphones, I’ve become accustomed testing big handsets like Apple iPhone 12 Pro Max. Most flagship phones pretty beefy days it’s possible get used anything given time. At 6.7in, however, iPhone 12 Pro Max absolute behemoth. It’s larger 11 Pro Max I’ve using 2020 feels like one biggest phones I’ve ever pocket.
+If I’m honest, I prefer smaller size iPhone 12 Pro. It’s simply practical: lighter, easier slip jeans pocket I feel less like I’m going drop every time I use it. I’m torn, however, this, respects, very best phone Apple makes.
+That’s because, instead keeping features largely consistent across iPhone Pro models, two distinctly different year, it’s iPhone 12 Pro Max gets goodies.
+Pay attention fine details you’ll discover that, addition enormous 6.7in screen – 0.6in bigger 12 Pro – 12 Pro Max superior camera system. Not main camera larger sensor also new type optical image stabilisation system: sensor shift. Both upgrades improve image quality conditions.
+READ NEXT: Read guide best smartphones money buy 
+The iPhone 12 Pro Max also slightly reach telephoto lens – it’s 2.5x zoom rather 2x get iPhone 12 Pro – helps get closer subject create flattering portraits.
+Otherwise, iPhone 12 Pro Max match smaller 12 Pro across board. It comes four colours – silver, dark grey, gold blue – uses stainless steel frame ceramic shield glass front, employs same 5nm A14 Bionic processor.
+ Image 6 16
+Image 6 16
+With increase size superior feature set, perhaps inevitable Apple iPhone 12 Pro Max most expensive 2020 iPhones. Given it’s significantly better iPhone 12 Pro, though, added cost isn’t much I’d expected.
+Prices start £1,099 iPhone 12 Pro Max 128GB storage, £100 expensive smaller 12 Pro. Those prices rise £1,199 256GB model £1,399 512GB variant. As iPhones, can’t expand storage choose carefully splashing out.
+Which phones buy £1,099 aren’t made Apple, then? Well, can’t currently recommend Huawei P40 Pro Mate 40 since ban using Google apps Play Store still place, whittles rivals one: superlative Samsung Galaxy Note 20 Ultra 5G.
+At RRP £1,179, Samsung Galaxy Note Ultra impressive handset paper. It’s touch cheaper price iPhone 12 Pro Max (when compared equivalent 256GB model) plus, comes powerful 5x optical zoom telephoto camera, even larger 6.9in display active S Pen stylus stows neatly away phone’s slim body.
+There two big new design changes 2020 iPhones carry iPhone 12 Pro Max. First, edges now flat instead curved. This isn’t much an improvement, per se – new iPhones little easier grip result – still look rather nice.
+The bigger change glass front rear phone tougher last year’s models. Apple claims, fact, new iPhones four times drop resistant before and, I’m personally reluctant test out, I tell that, far, Ceramic Shield glass iPhone 12 Pro I’ve using month yet show single scratch. 
+The bigger test long-term use; phone can resist scratches whole year, I’ll seriously impressed phone I’ve ever used an extended period ever managed do that. Time tell, far, good.
+ Image 7 16
+Image 7 16
+Other details familiar most, even don’t an iPhone. As 2019 iPhone 11 Pro models, 12 Pro Max finished textured, frosted back stainless steel frame that’s polished high shine. On rear, there’s triple-camera system arranged triangle, surrounded turn raised square camera bump.
+The dark grey, “graphite” model photos looks wonderful good blue version iPhone 12 Pro I reviewed recently, gold model iPhone looks like real thing ever. Such shame my paranoia dictates I’ll pop straight case I finish taking photographs thing, though.
+The iPhone 12 Pro slightly bigger predecessor, iPhone 11 Pro Max difference noticeable degree I hadn’t expected, especially given apparently small 0.2in difference screen size.
+Here’s quick table comparing size iPhone 12 Pro Max iPhone 11 Pro Max, Samsung Galaxy Note 20 Ultra iPhone 11 Pro:
+Width (mm)
+Thickness (mm)
+Height (mm)
+iPhone 12 Pro Max
+78.1
+7.4
+160.8
+iPhone 11 Pro Max
+77.8
+8.1
+158
+iPhone 12 Pro
+71.5
+7.4
+146.7
+Samsung Galaxy Note 20 Ultra 5G
+77.2
+8.1
+164.8
+Between iPhone 12 Pro Max predecessor, there’s 2.8mm comes height 0.3mm width but, somehow, small margins seem matter a phone already huge.
+Elsewhere, though, it’s business usual. The iPhone 12 Pro Max IP68 protection dust water. That means (if you’re brave) can submerge 6m water 30 minutes. Come rain shine, even odd accidental dunking bath, should be okay.
+As ever, main means unlocking phone FaceID via True Depth camera front, works brilliantly – wear a facemask, is, point you’ll revert using PIN.
+ Image 9 16
+Image 9 16
+And phone’s physical controls located exactly the same places been years. That means the volume buttons do-not-disturb switch the left edge towards the top, the power button the right, towards the top, the Lightning socket charging data transfer the bottom edge, flanked oddly asymmetrical speaker grilles.
+Perhaps the thing cover section remind the iPhone 12 Pro Max, like all the iPhone 12 models, does come a charger headphones. All get a Lightning USB-C cable. That may be a problem serial iPhone purchasers going be first iPhone, you’ll need budget even extra purchase a compatible charger cable.
+ Image 8 16
+Image 8 16
+Normally point a smartphone review, I’d jump straight the display section, I’m going focus instead the cameras that’s the basket Apple placed all the iPhone 12 Pro Max’s metaphorical eggs.
+First, a recap. Like the rest the iPhone 12 range, the 12 Pro Max shoots 12MP images all its cameras, including the True Depth camera the front. The main “wide” camera an aperture f/1.6 the same seven-element lens the iPhone 12 Pro.  The two key differences the image stabilisation different, the iPhone 12 Pro Max adjusting its sensor compensate hand movement instead the lens, the sensor larger, 1.7um pixels versus the 1.4um pixels the 12 Pro.
+ Image 3 16
+Image 3 16
+The impact these two changes images depends what you’re shooting but, general, they do lead significant improvements across the board.
+In good light, the larger sensor provides superior dynamic range richer, bolder colours. In low-light, night mode disabled, delivers images noticeably brighter colours lower visual noise. 
+With night mode turned on, however, get a similar quality difference – lower visual noise, expertly captured colours – the additional benefit shorter capture times. Dynamic range is, again, better across the board low light the iPhone 12 Pro Max producing pleasing results the 12 Pro. 
+This holds true the 2.5x telephoto camera. As well offering 0.5x better magnification the iPhone 12 Pro, photographs captured the zoom camera better contrast dynamic range before. 
+It’s worth noting, though, the zoom nowhere near impressive the Samsung Galaxy Note 20 Ultra, offers a 5x optical zoom, nothing like the 50x hybrid zoom phone offers.
+Video shows similar improvements both the wide telephoto cameras. Plus, course, like the iPhone 12 Pro, can shoot Night Mode portraits the main rear camera thanks the LiDAR sensor – perfect indoor, winter portraits. Finally, don’t forget, the iPhone 12 Pro, can also shoot 10-bit 60fps Dolby Vision HDR footage, fully stabilised all the rear cameras. You won’t find phone able do that right now, although need a suitable display which view the footage.
+The 12 Pro Max’s screen pretty good, too. At 6.7in across the diagonal, it’s truly colossal scale. It employs AMOLED technology, the contrast effectively perfect, a resolution 2,778 x 1,284, a pixel density 458ppi supports both sRGB DCI-P3 colour gamuts.
+Unlike most Android phones, the iPhone switch these two colour spaces automatically, depending the content there’s need delve the settings when want watch an HDR film Netflix, switch back sRGB browsing the web.
+ Image 2 16
+Image 2 16
+Colours look balanced all times testing the sRGB colour space, the phone performed brilliantly. Brightness reaches 788cd/m2 automatic brightness mode peaks 1,130cd/m2 HDR content playing. Colour accuracy within sRGB excellent, too, delivering an average Delta E 1.1, meaning there’s essentially difference colours displayed on-screen what they should look like real life.
+In short, the iPhone 12 Pro Max’s display fabulous and, although iPhones been reported a slight yellow tint, this something I observed testing. The only thing it does lack the high refresh rate that has become popular recent times Android phones. I’d wager the iPhones catch next year, though, much they caught 5G 2020.
+With the 5nm hexa-core Apple A14 Bionic chip, backed 6GB RAM, the iPhone 12 Pro Max exhibits problems whatsoever performance. This a phone that just happy playing back 4K HDR video it editing rendering it iMovie.
+The extra screen size makes it great creatives, particularly those putting together sequences action cameras GoPro, Insta360 the like, the power on offer means rendering videos once they’re finished doesn’t take much time all.
+And, this year’s iPhones, Apple has kept up its annual record pumping out the best benchmark scores the mobile phone industry. The iPhone 12 Pro Max monstrously powerful will be more up any task care throw it:
+The one caveat this that the highest frame rate you’ll get on any game restricted the refresh rate the display. It’s a shame the GFXBench results the graph suggest the integrated GPU on the A14 capable frame rates far in excess 60fps:
+Finally, come battery life, which the iPhone 12 Pro Max’s weakest point. In basic video rundown test found that, even with a pretty big 3,687mAh battery in place, the iPhone 12 Pro Max lasted only 16hrs 26mins, which roughly the same amount time the regular iPhone 12 a long way behind last year’s iPhone 11 Pro Max.
+Interestingly, the 12 Pro Max down on capacity on the 11 Pro Max nearly 300mAh, so this result is, perhaps, hugely surprising. It is, however, a fairly substantial retrograde step that’s not a good thing.
+When you’re spending £1,000 on a phone, discovering that anything isn’t good it on the previous model is going be a little disappointing, especially the phone is the largest Apple has ever built.
+And are other things that disappoint, – things you’d expect a flagship handset in 2020 that the iPhone 12 Pro Max lacks. The telephoto camera doesn’t have the reach top-end Android rivals, instance, the display is limited 60Hz. 
+Otherwise, however, the phone is very impressive and, certainly, the best iPhone can currently buy. The main camera telephoto are both a step-up the iPhone 12 Pro, thus justifying the £100 premium, they’re a further leap forward the iPhone 11 Pro Max.  That larger screen will certainly help enjoy your home movies photographs well it’s the most powerful phone can buy, too.
+So, if you have the money an Apple handset is absolutely the only phone you’ll consider, then the iPhone 12 Pro Max is what you should get. It’s the best iPhone by a country mile there’s simply no need look anywhere else. Is it good enough persuade Android fans choose it over the Samsung Galaxy Note 20 Ultra, though? Not quite.
+ Image 4 16
+Image 4 of 16
+Best webcam: HD 4K cams £37
+The best printers buy £67
+Best mid-range phone: Great, affordable smartphones
+The best pay as you go SIM deals including January deals 
+The best 4K HDR TVs you can buy
+The best student laptops buy
+HDMI vs DisplayPort vs DVI vs VGA vs USB-C
+The best stands your laptop
+Best Samsung phone 2021: Galaxy bargains this Boxing Day
+Best Android phone: The best budget, mid-range high-end
+The best budget smartphones: The best cheap phones in the UK
+Samsung Galaxy A21s review: The ‘s’ stands sensational
+Best laptop: The finest Windows, Apple Chrome OS laptops
+Best tablet: Top tablets Apple, Amazon and Samsung
+Samsung Galaxy A51 review: A minor change to the mid-range
+Motorola Moto G9 Power review: Big battery, small price
+Google Pixel 4a 5G: The middle child excels
+Samsung Galaxy A51 review: A minor change to the mid-range
+Realme X50 5G review: A real rival to the OnePlus Nord
+How much is 1GB of data?
+Samsung Galaxy S21 preview: Iterative innovations
+Samsung Galaxy S21 Plus preview: Should you spend more?
+Samsung Galaxy S21 Ultra preview: A justifiable expense?
+Best kids' phone: Which handset is best for your child?
+The best Wi-Fi extenders to buy £35
+Copyright © Dennis Publishing Limited 2021. All rights reserved.  Expert Reviews™ is a registered trade mark.
+ </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8354031443595886</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Note: This review first published 10 Nov 2020.
+When Apple released first “Pro” phones last year, were identical apart size their displays. This year, however, two “Pro” phones different display sizes camera systems. This caused consternation amongst many looking upgrade new iPhone year. And mainly, one problem weighs heavily their minds.
+Is iPhone 12 Pro Max better iPhone 12 Pro?
+If reading review, probably thinking I empathise. These expensive phones want extract maximum value hard-earned dollars. There’s genuine fear one might missing opted iPhone 12 Pro instead supposedly superior iPhone 12 Pro Max. Furthermore, budget already allows iPhone 12 Pro, what’s another $150 get iPhone 12 Pro Max?
+First world problems, FOMO, whatever want call it, concerns real. So, let’s try answer question today.
+All new iPhones announced last month share aesthetic design language I already wrote length my iPhone 12 iPhone 12 Pro review I urge read there.
+Distilled its essence, iPhone 12 Pro Max an iPhone 12 Pro larger display, bigger battery, better camera system (more battery camera later). What’s worth mentioning, however, highly shiny gold finish model I created using special high-power impulse magnetron coating process. It sounds fancy it’s supposed create finish that’s highly resistant wear. It may well tough shiny reflective finish an absolute fingerprint magnet. If can’t stand sight smudges, you’ll need put phone case. The true Pro iPhones, it’s impossible keep finish looking pristine.
+The iPhone 12 Pro Max all features iPhone 12 Pro here highlights:
+At 226g, the iPhone 12 Pro Max hefty phone. It’s also large phone. And combined its considerable weight, it feels like slab metal could purpose weapon find sticky situation. There some tricks like the one-handed keyboard help make the phone easier use just one hand, mostly, phone that’ll operate both hands – even reaching the opposite side the screen your thumb challenge. Admittedly, cumbersome times – picture trying key your passcode do SafeEntry check-in carrying groceries trying keep your toddler running away the same time – the same can said large phone. If you want large phone, something you going put with.
+The iPhone 12 Pro Max’s 6.7-inch display 0.2 inches larger last year’s iPhone 11 Pro Max. It’s noticeable you juxtapose the two. It’s Super Retina XDR display, means it’s using an OLED panel that it has very high resolution 2,778 x 1,284 pixels (458 PPI). Contrast ratios brightness ratings are identical the iPhone 12 Pro also the iPhone 11 Pro Max.
+It’s great display outstanding sharpness, clarity, colours. My complaint is that refresh rates are limited 60Hz. This isn’t necessarily a dealbreaker most flagship Android devices displays that have a 90 120Hz refresh rate they look feel noticeably fluid. Still, the iPhone 12 Pro Max’s display is easily one the best I have seen any smartphone.
+The large display doesn’t proffer any technical benefits the smaller iPhones. The home screen still shows six rows icons apps look function the same whether portrait landscape orientation. However, since there’s a lot real estate, everything is larger. Icons text are easier read the keys the virtual keyboard enjoy a higher hit rate. And if you like watching your favourite shows YouTubers big-screen TVs, the iPhone 12 Pro Max is the closest mobile equivalent.
+The other benefit having a larger body is a fuller sound the stereo speakers. With a bigger chassis acting a sounding board, the iPhone 12 Pro Max’s speakers sound weightier, wholesome, less bright hollow. It’s also noticeably louder. All all, it’s very impressive a smartphone’s built-in speakers to be powerful usable.
+Have feedback the article the editorial team? You can reach to here.
+Find how you can make use of GetVan’s reliable transport services
+Trending Topics
+Our Sections
+AWARDS &amp; ACCOLADES
+We thank all our supporters have helped us garner prestigious media awards in the industry!
+ </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.959193229675293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It best camera smartphone offer, Apple’s new design philosophy arguably best display among smartphones, tooIf budget isn’t bar you, Apple iPhone 12 Pro Max certainly worth considering
+Of four new iPhones year, iPhone 12 Pro Max really no compromise phone Apple. The company really cares “Pro" moniker Pro Max squarely aimed movie makers, creators “Pro" users. It best camera smartphone offer, Apple’s new design philosophy arguably best display among smartphones, too.
+On paper, iPhone 12 Pro Max camera setup 12 Pro—a wide, ultrawide telephoto, 12MP sensors. However, primary camera where see difference. As Pro, Pro Max also wider aperture last year, also larger sensor go it. As result, phone performs noticeably better low light photography.
+In practice, difference noticeable perhaps life changing people shoot photos sharing social media alone. The 12 Pro Max uses LIDAR focus fast low light conditions, like Pro, also uses larger sensor shoot shorter exposure times. As result, get avoid motion blur shooting using Apple’s Night Mode.
+Speaking Night Mode, get across three cameras now, something couldn’t get iPhone 11 series. That’s true 12 series iPhones though.
+The 12 Pro also achieves higher ISO ratings, something matter Pro users. It uses something Apple calls Sensor Shift stabilization mitigate hand shakes other aberrations, too. This essentially way move sensor itself, instead doing electronically optically. In practice, does work, again enhances low light photography.
+While camera iPhone 12 Pro Max indeed Apple’s best, factor price phone (starts Rs129,900), gains aren’t great. But Apple knows that, that’s it’s “Pro" device. For film-makers others want use professional photography, many 12 Pro Max’s features make sense. In fact, consider fact costs Rs10,000 12 Pro, added features make big difference many creators justify cost too.
+The iPhone 12 Pro Max’s camera versatile other smartphone camera today. It takes good photos almost every light condition use it in, something phones today claim.
+There’s one hitch Pro Max’s camera though, fact its telephoto sensor pales comparison others. It longer zoom, it doesn’t function well low light the main camera would expecting.
+But camera aside, the iPhone 12 Pro Max huge phone. If don’t like phones don’t fit pocket look like big slab glass metal, definitely you. Apple’s new design aesthetic great the iPhone 12 12 Pro, the iPhone 12 Pro Max remains unwieldy difficult carry around. It’s meant people want big phones.
+On the other hand, the 6.7-inch OLED display among the best get today, too. Colour tones more accurate pretty much every phone today. It’s big unwieldy phone, you like consume content the best quality possible, display is certainly among the best today.
+The phone’s size also allows for a larger battery, meaning is the best iPhone you can buy year terms battery life. While the iPhone 12 12 Pro last 10-12 hours best, the Pro Max can easily more than 14 hours each charge. In fact, makes it one the best phones terms battery life.
+But despite all its plus points, the iPhone 12 Pro Max lacks a high refresh rate display, offering 60Hz refresh rates. This won’t matter you unless you’ve used phones have 90 120Hz displays, it’s definitely a feature phones adapt future. Remember though, Apple took years use 1080p displays Android makers made it the norm, we won’t surprised if we don’t see iPhones high refresh rates the next years so.
+In sum, the Apple iPhone 12 Pro Max really is the best smartphone the market today. That doesn’t change the fact it’s expensive though, it’s unlikely it will take many takers India. If budget isn’t a bar for you though, is certainly worth considering.
+Click read the Mint ePaperMint is now Telegram. Join Mint channel your Telegram stay updated with the latest business news.
+Log website save your bookmarks. It'll just take a moment.
+Oops! Looks like you have exceeded the limit to bookmark the image. Remove to bookmark this image.
+Your session expired, please login again.
+You are now subscribed to our newsletters. In case you can’t find any email our side, please check the spam folder.
+ </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9737449288368225</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amy Davies reviews Apple iPhone 12 Series, including 12 Pro 12 Pro Max. Find two premium Apple iPhones compare, how cameras perform real life.
+Apple produced two excellent phones iPhone 12 Pro series, giving option choose two models depending size prefer. The larger phone (iPhone 12 Pro Max) may technically better camera - paper - practice, differences minimal. The smaller model (iPhone 12 Pro) picked cheaper price, easier use fit pocket. Both produce fantastic images video, making best iPhones yet.
+This year, Apple announced four new iPhone models its keynote back October. This review focus two “Pro” models, iPhone 12 Pro iPhone 12 Pro Max, think likely appeal photographers. There’s also iPhone 12, iPhone 12 Pro Mini, cheaper those Pro series, don’t come advanced camera features.
+ADVERTISEMENT
+Check Nikon's latest launches, two new full frame powerhouses their award-winning mirrorless Z-Series range cameras lenses.
+Introducing NEW Nikon Z 6II &amp; Z 7II
+Check Nikon's latest launches, two new full frame powerhouses their award-winning mirrorless Z-Series range cameras lenses.
+Both iPhone 12 Pro models feature triple-lens setup, giving wide angle, ultra-wide angle telephoto lens. On paper, iPhone 12 Pro Max better performer, photographically, number advantages smaller model.
+A good example, although feature 26mm f/1.6 lenses “main” camera, iPhone 12 Pro Max’s sensor larger iPhone 12 Pro. It also features sensor-shift optical image stabilisation (wide), iPhone 12 Pro uses Dual optical image stabilisation (wide telephoto). Both these specifications make Max better shooting lower light conditions, produce smoother video.
+Another divergence telephoto lens. The iPhone 12 Pro 2x zoom lens, giving 52mm f/2.0 equivalent. Meanwhile, iPhone 12 Pro Max 2.5x zoom, 65mm f/2.2 equivalent. Whether consider one better personal preference - could say getting closer your subject advantage longer lens.
+As well triple lens set up, also LiDAR scanner, help judge distance make autofocus quicker. On front phones 12 megapixel f/2.2 selfie camera - it’s same both phones.
+Other notable features iPhone 12 Pro - camera point view - 4K video recording 60p. Dolby Vision HDR new feature iPhone 12 Pro series, ability shoot raw format various shooting modes, including Portrait Mode Night Mode. Perhaps biggest piece non-camera related news addition 5G connectivity, first iPhones. This means enjoy faster download upload speeds - compatible sim card / contract.
+The base memory level iPhone 12 Pro series 128GB, also get 256GB 512GB variants. Prices start £999 128GB version iPhone 12 Pro, £1099 128GB version iPhone 12 Pro Max.
+Available two sizes, iPhone 12 Pro series both premium models. The iPhone 12 Pro the smaller the two, the iPhone 12 Pro Max very large almost approaching “phablet” territory. Which prefer likely come personal preference, those smaller finds might find the Max difficult use certain scenarios, texting emailing. It’s also difficult fit the Max smaller pockets (such tight jeans), something consider. On the plus side, viewing images, videos apps the larger screen the Pro Max great, might worth the trade-off reason.
+Both models “Ceramic Shield” front, mean resistant scratches, Apple claiming they 4x better “drop performance” their predecessors the iPhone 11 Pro range. Apple also gone back squared-off edge design, as we saw older models like the iPhone 4. This gives the phones utilitarian type appearance, they remain quite striking.
+One feature appears both models the “notch” the top the screen, the front-facing camera is found. This cuts quite significantly the screen, can’t switched off. Still, apps designed mind shouldn’t present much problem most scenarios. Apple uses Face Detection unlock the phone, set first switch the phone. Alternatively, use pin code unlock the phone, there’s fingerprint sensor here.
+iPhones always known their simplicity when comes the native camera app. We’re starting see little advanced control compared very early models, there’s still nothing the way a professional mode gives access deeper settings. While may frustrating enthusiast users, the plus side is a simple straightforward experience allows concentrate getting the shot.
+The native app launched directly the lock screen holding the camera icon. By default, launch Photo mode, whereby you’ll able take ordinary shots. There modes swipe to, including video Portrait modes. The standard Photo app gives the option change exposure, aspect ratio, add a digital filter, set a timer shoot “Live Photos” (where a short video is recorded alongside a still image). A new feature the iPhone 12 Pro series is the ability record raw format (DNG). You’ll need enable the main menu first, which, the option shoot raw appear the top the app screen.
+You three different lenses choose from, whichever iPhone 12 Pro model have. For the iPhone 12 Pro, there’s a 1x lens, a 0.5x lens a 2x lens. You select one want use tapping the icons the bottom the camera app (or the side you’re holding landscape format). If the iPhone 12 Pro Max, the telephoto lens is a 2.5x optic instead. Alternatively, also pinch outwards the phone screen zoom - though you go beyond 2/2.5x, you’ll activating digital zoom.
+Portrait mode is creating shallow depth field effects can used any type subject - just people, although the results will always better you’re photographing something a more defined outline. Video mode allows you shoot 4K, at frame rates 60fps. You can also shoot Dolby Vision HDR, note videos recorded format can only be viewed compatible devices - such as other iPhones, Macs running OS Catalina later.
+Apple’s Night Mode is something can be manually selected, rather something will automatically appear should the phone detect that there’s not enough light the scene. Once it appear, you can control how long it shoots - switch it off altogether you prefer. It works essentially shooting a number short exposures merging together.
+It’s worth noting that although the iPhone 12 Pro series phones come a Lightning cable, they don’t come a battery adapter. According Apple, is most buy an iPhone already an adapter, reduce environmental waste, it’s longer included the box. If you don’t have a battery adapter, you’ll need buy one separately. For the same reasons, Apple not include headphones the box either. Wireless charging (up to 7.5W) is possible the iPhone 12 Pro series, as we saw the iPhone 11 Pro. You can also charge via a “Magsafe” charger, attaches magnetically to the phone charges wirelessly (up to 15W) - again, it is sold separately.
+Battery life - Apple does not disclose the physical specifications its batteries, however it does give an indication battery performance. The iPhone 12 Pro boasts up to 17 hours video playback, 11 hours streamed video, up to 65 hours audio playback. The iPhone 12 Pro Max meanwhile offers 20 hours video playback, 12 hours streamed video 80 hours audio playback. Both phones are fast-charge capable, which means you can get up to 50% charge around 30 minutes a 20W adapter higher (sold separately).
+If going to be away from a power source, we'd recommend getting a portable power bank just in case. 
+Support this site making a Donation, purchasing Plus Membership, shopping with one affiliates:
+Amazon UK,
+Amazon US,
+Amazon CA,
+ebay UK
+Don't forget Nikons Instant Savings promotion ends 10th January 2021. Save on a selection Nikon products including D780, Z 5 Z 7!
+You must be a member to leave a comment.
+ePHOTOzine, the web's friendliest photography community.
+Join For Free
+Upload photos, chat with photographers, win prizes much more.
+Get the latest photography news straight to your inbox signing up to newsletter.
+Visit Competitions Forum, you'll find our monthly competition other external competitions to enter.
+Search for all the latest photography gear and services in our dedicated photography directories.
+Calibrate your monitor you can see 16 different shades :
+Magezine Publishing |  Top
+ </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8502355813980103</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Straight inbox
+6.7 inches
+Display size
+2778 x 1284px
+128GB, 256GB, 512MB
+Internal storage
+12MP + 12MP + 12MP
+Rear camera
+            We’re reader-supported may paid visit links partner sites.  We don’t compare products market, we’re working it!
+ A multi-award winning journalist, Alex written consumer technology 20 years. He written edited virtually every Australian tech publication including Gizmodo, CNET, PC Magazine, Kotaku more. He also Editor Gizmodo Australia, PC Mag Australia, CNET.com.au Tech Telco section Finder. Alex Bachelor Arts University New England serious passion retro gaming.
+There really two core reasons might want buy iPhone 12 Pro Max. It's Apple's largest iPhone 2020, favour large-screened device, that's factor, albeit one Apple quite make enough use of.
+That leaves extended camera features iPhone 12 Pro Max promise Apple's new ProRES format key selling point iPhone 12 Pro Max. You've got weigh hefty price point, making phone small niche users.
+Like 2019's iPhone 11 Pro Max, defining design aesthetic iPhone 12 Pro Max size. At 160.8x78.1x7.4mm 228 grams, one seriously hefty phone hold hand. This accentuated Apple's design motif 2020, throwback older iPhone 4 design style solid edges every iPhone 12 model.
+When make phone large iPhone 12 Pro Max, feeling accentuated, smaller hands like larger phone use, iPhone 12 Pro Max really you. At technical level, features superb OLED display 1284x2778 pixel resolution, although Apple make particular considerations larger display size terms iOS features. More directly.
+In colour terms, like iPhone 12 Pro, get choice four hues: Graphite, Silver, Gold Pacific Blue stainless steel finishes. The Gold model I've testing looks much like gold previous iPhone models, save exterior band noticeably shiny last year's model.
+Like iPhone 12 phones already available, front phone, find Apple's special "Ceramic Shield" glass, company claims 4x drop resistant. The larger size iPhone 12 Pro Max actually lend falls you'd think. It's slipped pockets few times testing fumbly fingers, far, good.
+Keep mind Apple says screen glass resistant, there's expansion warranty cover respect. You break it, pay it, words.
+That's maxim still also applies water resistance iPhone 12 Pro Max, gets upped IP68, good immersion 6 metres 30 minutes. I've dropped iPhone 12 Pro Max deliberately water still kicking along, again something push Apple's warranty actually cover water immersion damage. It's little easier testing review phone supplied Apple, all.
+The iPhone 12 Pro Max big phone, like rest 2020 crop, Apple keeps box relatively thin dint including either headphones charger box. All get USB-C Lightning cable, mean it'll plug modern MacBooks ease. The flip side you've got older USB-A style charger, need adaptor charge iPhone 12 Pro Max.
+The single clear way Apple differentiates Apple iPhone 12 Pro Max iPhone 12 Pro camera set-up, notice simply looking rear each phone. Both phones feature triple 12MP sensor array, case iPhone 12 Pro Max, looking primary 12MP f/1.6 sensor, secondary 12MP f/2.4 tertiary 12MP f/2.2 2.5x optical zoom lens.
+There's interesting technical trade-off play 12 Pro 12 Pro Max. The iPhone 12 Pro Max largest zoom distance 2.5x compared 2x iPhone 12 Pro, smaller Pro model larger aperture f/2.0, could make better performer low-light situations.
+It's complicated Apple's choices comes internal sensor sizes, iPhone 12 Pro Max claiming largest individual pixel sensor sizes iPhone date, including similar iPhone 12 Pro. It also benefits – benefit – sensor-shift stabilisation, places stabilisation module sensor itself, rather lens. That's kind feature typically associated pro-level DSLR equipment smartphone cameras.
+What add shoot iPhone 12 Pro Max? It depends shooting.
+Apple's default camera app really making choices you, suits folks just want snap get pleasing photo time. In respect, intelligent relatively rapid post-processing fast focusing thanks inbuilt LIDAR sensor rear camera, Apple iPhone 12 Pro Max shoots well, matter lens using.
+Just anything mid- high-range shoot well good conditions days, low light area Apple struggled keep pace best Android phones past couple years.
+It's clearly matter taken seriously iPhone 2020 generation features best low-light shooting I've ever hit Apple phones date. The issue real-world testing situations, differences those larger sensor sizes may always apparent.
+To test out, I took iPhone 12 Pro Max, iPhone 12 Pro, iPhone 12, iPhone 12 Mini iPhone SE 2020 – every single iPhone Apple released 2020, words – local park late one night pit relative low-light shooting capabilities each other.
+The iPhone SE 2020 compare well, that's expected, given basically iPhone 6 much better processor engine hood:
+Moving price ranks, the iPhone 12 Mini acquits well shows far Apple come:
+The iPhone 12 shares the lens the iPhone 12 Mini, shot slightly better the night:
+Stepping the ranks, the iPhone 12 Pro shoots little better again:
+And finally, come the iPhone 12 Pro Max
+The differences end being subtle – there's less noise the sky example, the shot can't convey the fact the iPhone 12 Pro Max focused faster any phone test, including the iPhone 12 Pro.
+On the telephoto side, the 2.5x optical give scope close-up photography, area Apple's still lagging behind the competition shifted periscope style optical lenses 5x better magnification. The iPhone 12 Pro Max shoots well telephoto better the iPhones this year – there's still scope Apple improve further.
+Apple's iPhone lines have long leading the top pack video shooting, the iPhone 12 Pro Max continues standard, support Dolby Vision HDR video shooting 60fps 10-bit 4K HDR. Impressively, shoot edit the phone wish, although hard imagine most folks shooting level wanting use external apps displays check everything exactly want be. Video shooting one way clearly chew battery life heat the iPhone 12 Pro Max, however.
+The other trick up the iPhone 12 Pro Max's sleeve that's yet emerge Apple's new ProRAW standard. It's intended merge the flexibility RAW the computational power Apple's post-image processing the one package format. The standard iPhone camera app shoot regular RAW – although third-party apps let – once it's available, ProRAW available the camera app could significantly boost the iPhone 12 Pro Max's camera capabilities.
+However, given it's yet available, I can't really "review" it. Apple's track record improving cameras post-launch pretty good, there's lot promise ProRAW, always, I review device I'm reviewing it.
+Apple's gone conformity iPhone 12 line, dropping new A14 Fusion processor inside every model the tiny iPhone 12 Mini the way up the super-sized iPhone 12 Pro Max. That's good news terms performance the lower-cost iPhones, create the rather interesting scenario there's really much perceptible gap between iPhone that's just $1,000 one easily tip the scales $2,000 depending internal memory configuration.
+Still, the iPhone's A14 Processor remains the processor the rest the industry beat, it's really even close CPU level. The iPhone 12 Pro Max slightly outclassed siblings Geekbench's CPU test, may relate the 6GB RAM the Pro models enjoy over the 4GB regular iPhone 12 devices. I've included Samsung's otherwise remarkable Galaxy Note 20 Ultra give perspective much lead Apple's got this regard right now:
+There's little variance comes graphics performance, although I still really need 3DMark Wild Life figures complete cross-platform comparison:
+I've made this observation every single one my iPhone 12 reviews far, holds true the iPhone 12 Pro Max well. The power the A14 Bionic quite remarkable, the reality outside very niche cases, on-device 4K video editing, there's not much really pushes the processor its limits just yet.
+In some ways, feels worse the iPhone 12 Pro Max it's got lovely large screen simply uses four-column row icons, same any other iPhone. Uniformity nice, pushing large display such a capable processor, it'd great see a tablet-style focus a phone one time would have been called a "phablet" simply due its size.
+The other big sales point the iPhone 12 Pro Max the inclusion 5G, although again, there's a big difference unfairly disadvantages Australian iPhone buyers. Actually, it's buyers any iPhone 12 Pro Max outside the USA the international models support slower sub-6Ghz 5G while the US models support sub-6GHz mmWave 5G.
+At a premium price point like the iPhone 12 Pro Max commands, can't help feel miserly Apple cut 5G support this way. Right there any mmWave networks Australia, there be, phones never able access full speed, even though Apple's totally capable making iPhone will.
+It's also odd step Apple given typically gone a single "international" iPhone model outside China, making repairs replacements easier across the globe. Presumably it saves Apple some money – why consumers accept like business decision?
+If were keen a more future-proof model, one option would import iPhone 12 Pro Max; here's guide look importing iPhone 12 5G.
+A larger phone always allows designers more space accommodate larger batteries, that's certainly Apple's done the case the iPhone 12 Pro Max. While it never talks absolute battery capacities itself, external teardowns the iPhone 12 Pro Max reveal it's packing a 3,687mAh battery.
+That's the largest any iPhone 12 model, it's not the largest Apple's ever dropped inside iPhone. That award goes 2019's Apple iPhone 11 Pro Max, a phone I adored its exceptional battery endurance. So the drop the 3,969mAh battery the iPhone 11 Pro Max the 3,687mAh battery the iPhone 12 Pro Max do its battery life?
+Pretty much exactly what you'd expect. I ran the iPhone 12 Pro Max standard battery endurance test, streaming a Full HD YouTube video hour at maximum brightness moderate volume, the iPhone 12 Pro Max fell short the benchmark set last year's iPhone, although it still managed outpace every other iPhone model Apple's released this year:
+What I typically look phones retain 90% their battery capacity, the iPhone 12 Pro Max certainly do that. Under all the heaviest loads, a single day's usage easily achievable, it's odd see Apple step backwards terms power its biggest most expensive handset.
+Apple has stuck using its proprietary Lightning connector this year's iPhones, it feels a touch retrograde when consider the Pro line iPads all USB-C connected.
+Charging still at least swift, it also supports up 15W wireless charging, including the use Apple's new "MagSafe" chargers magnetically connected products. The one caveat the iPhone 12 Pro Max specifically connected devices look tiny the rear the iPhone 12 Pro Max, especially the MagSafe connected wallet.
+Apple's long the issue the price its biggest phones a significant barrier many consumers leap over. Typically, what it's done pack the house many additional features benefits offset cost problem.
+Does the iPhone 12 Pro Max justify its price? Only really if want higher-end camera array, I can't help feel this might only truly reveal once Apple's new ProRAW format available more pro-level photographers take advantage it.
+The fact that performance really isn't hugely improved over the iPhone 12 makes that the iPhone buy 2020, the iPhone 12 Pro Max the luxury option, but not the best.
+Images: Alex Kidman
+To ask a question simply log via email create account.
+Click cancel reply.
+You post a question finder.com.au:
+Subscribe me Finder’s free weekly newsletter budgeting tools, timely news savings essentials take control your finances
+Level 10, 99 York St,
+Sydney, NSW, Australia 2000
+Optional, only if you want us follow up with you.
+Our goal create the best possible product, your thoughts, ideas suggestions play a major role helping us identify opportunities improve.
+finder.com.au one Australia's leading comparison websites. We compare a wide set banks, insurers product issuers. We value editorial independence follow editorial guidelines.
+finder.com.au has access track details the product issuers listed sites. Although provide information the products offered a wide range issuers, don't cover every available product service.
+Please note that the information published site should not be construed personal advice does not consider your personal needs circumstances. While site provide you with factual information general advice help you make better decisions, it isn't a substitute professional advice. You should consider whether the products services featured our site appropriate your needs. If you're unsure anything, seek professional advice you apply any product commit any plan.
+Products marked as 'Promoted' 'Advertisement' prominently displayed either as a result of a commercial advertising arrangement highlight a particular product, provider feature. Finder may receive remuneration the Provider if you click the related link, purchase enquire the product. Finder's decision show a 'promoted' product is neither a recommendation that the product is appropriate you an indication that the product is the best in its category. We encourage you to use the tools information provide to compare your options.
+Where our site links to particular products displays 'Go to site' buttons, may receive a commission, referral fee payment when you click on those buttons apply a product. You learn more about how make money here.
+When products grouped in a table list, the order in which they are initially sorted may be influenced a range of factors including price, fees discounts; commercial partnerships; product features; brand popularity. We provide tools so you can sort filter lists to highlight features that matter to you.
+We try to take an open transparent approach provide a broad-based comparison service. However, you should be aware that while are an independently owned service, our comparison service does not include all providers all products available in the market.
+Some product issuers may provide products offer services multiple brands, associated companies different labelling arrangements. This can make it difficult consumers to compare alternatives identify the companies behind the products. However, aim to provide information to enable consumers to understand these issues.
+Providing obtaining an estimated insurance quote through us does not guarantee you can get the insurance. Acceptance by insurance companies is based on things like occupation, health lifestyle. By providing you with the ability to apply for a credit card loan, we are not guaranteeing that your application be approved. Your application for credit products is subject to the Provider's terms conditions as well as their application lending criteria.
+Please read our website terms of use privacy policy for more information about our services our approach to privacy.
+ </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9902495741844177</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+by
+Karen Haslam, Editor
+| 01 Dec 20
+If want great camera, best battery life iPhone date, mind awkward shape, iPhone you.
+Price comparison 24,000 stores worldwide View prices
+Apple four new iPhones 2020. Normally iPhone Pro Pro Max models lot separate size battery life, 2020 Pro Max model number features Pro lacks.
+The question whether additional features good enough justify additional cost, extra bulk much bigger handset. Of course bigger handset may what after, equally could disadvantage feel comfortable using it. In review address questions, well examine most impressive features iPhone 12 Pro Max - flagship iPhone 2020-2021.
+We also comparison iPhone 12 Pro Pro Max might interest you.
+If, like me, initially sold impressive feature set iPhone 12 Pro Max, get phone hands may shocked gigantic is. Used size iPhone XR (which similar size iPhone 12 Pro), I think iPhone 12 Pro Max would lot bigger. But placed side-by-side Pro Max lot taller: 9.9mm taller XR, 14.1mm taller iPhone 12 Pro. Width-wise difference slightly less: 2.4mm XR. 6.6mm wider Pro. Note camera lens still protrude, that's included measurement.
+There less difference iPhone 11 Pro Max iPhone 12 Pro Max, 2019 model 2.8mm shorter 0.3mm narrower 2020 iPhone. However, iPhone 12 Pro Max, fact iPhone 12 models, thinner last year's model.
+These measurements matter want able use phone comfortably, even want use one-handed. This phone use one handed unlikely thumb able reach lot screen. To give idea, here's much iPhone 12 Pro Max reach thumb. Your hands may bigger ours.
+This hardly problem unique iPhone 12 Pro Max - reach whole iPhone XR's screen either - mean need hands use it. This sort thing matters often stand commuter train baby arms. If sounds like probably consider smaller iPhone 12 Pro: gives many features without bulk.
+Of course people want bigger phone - whom large 6.7in display main selling point iPhone 12 Pro Max. It's biggest screen ever iPhone fact Apple's achieved without making dimensions lot bigger iPhone 11 Pro Max astonishing.
+If want watch video, look photos, read books, see webpage social media feed, big screen bonus. For example, reading text iBooks see five lines per page (alternatively could make text bigger, handy eyes good were).
+One last thing say dimensions iPhone 12 Pro Max weight. The iPhone 12 Pro Max weighs iPhone 11 Pro Max (again, impressive considering got bigger screen), comparison iPhones, 226 grams 39g heavier 187g iPhone 12 Pro, 32g heavier 194g iPhone XR, 64g heavier 162g iPhone 12.
+Aside differences dimensions, design iPhone 12 Pro Max differ iPhone 12 Pro.
+Both phones available standard issue gold silver, well Graphite Pacific Blue. Product Red (which includes charity donation) option iPhone 12 12 mini. The finish pro models metallic 12 12 mini.
+This typically Apple distinguishes Pro models standard iPhones: get 'Professional' look classy materials pro iPhones. The standard models offer colour.
+My colleague reviewed iPhone 12 iPhone 12 Pro say design differences - specifically colour finishes: "The 12 12 mini interesting compromise garishness 11 XR, sobriety Pro models." Adding that: "They've got vibrancy silver, gold black offered 12 Pro".
+We gold model review. The sides shiny gold - well stainless steal gold finish - back we'd describe beige. We wish could give better name negative connotations beige something akin Karen days, but, attractive pearlescent finish - like it.
+We less sure glass finish back front. The entire iPhone 12 series offers new new Ceramic Shield glass front, supposed increases hardness resistance. So tougher less likely smash, back phone still Gorilla Glass. Gorilla Glass supposed hardy, we've smashed glass back iPhone we're sure again, case necessity unless made money. We round best cases iPhone 12 Pro Max
+The fact protection front reassurance give many cases cover front iPhone, we'd still recommend screen protector particularly clumsy (of children might get hands device).
+One thing favour iPhone 12 Pro Max (and fact iPhone 12 models) new design, straight rather curved edges, less likely slip hand. But careful anyway.
+Those edges reminiscent iPhone 4, launched back 2010 - that's ten years ago. Some described new design retro reason. The iPhone curvaceous since arrival iPhone 6 2016 probably time change. It's an unattractive design would say that, least terms iPhone 12 Pro Max, straight edges make particularly comfortable hold. If bothered probably get case.
+If love photograph camera probably what sells iPhone Pro Max you. As said above, normally camera iPhone Pro Pro Max models same, this time difference capabilities two cameras, we'll summarise below:
+I'm really impressed camera iPhone 12 Pro Max, I've using an iPhone XR, offers ƒ/1.8 aperture 5x digital zoom. If making similar leap cameras capabilities no doubt draw. But moving the iPhone 11 Pro Max, also offered three apertures 10x zoom, much smaller difference - might think.
+The iPhone 12 Pro Max gives choice three apertures - ƒ/2.4, ƒ/1.6 ƒ/2.2 (the latter ƒ/2.0 the iPhone 12 Pro the iPhone 11 Pro Max). When framing shot see three indicators: 0.5x, 1x, 2.5x, allows switch the three cameras their apertures. The iPhone 12 Pro 2x zoom like predecessor. 2.5 corresponds 65mm focal length 2x zoom 52mm. You increase the zoom the way 12 the 12 Pro only goes 10x.
+To the uninitiated switching 0.5x, 1x, 2.5x like changing the zoom level, that. The aperture also an impact much light let take the shot - result better low light photos. Conversely choose 2.5x zoom the 12 Pro Max actually smaller aperture the iPhone 12 Pro does, theory could mean less light intake, Swedish colleagues could see difference terms photo quality low light.
+There features only the Pro Max offers benefit low light photography. Specifically, the main sensor the iPhone 12 Pro Max larger - 47 percent bigger fact - uses 1.7-micron pixels. With area per pixel get higher light sensitivity. The sensor may 12MP like the other iPhones, the same.
+This sensor one reason Apple claim an 87% improvement low-light performance compared the 11 Pro Max. I 11 Pro Max compere unfortunately (due the complexities everyone working home pandemic), colleagues Macworld Sweden did. They said: "According Apple, the Pro Max 87 percent better shooting the dark the other iPhone 12 models. What "better" means shrouded obscurity, state significantly faster Night Mode. The end result an image details dark parts result think line what we see reality." (The photographs took below).
+There also improved lens-based 'sensor shift' stabilisation the Pro Max, provide faster stable autofocus akin what get DSLR. This stabilisation adjusts the position the sensor itself, rather compensating the lens movement, compensating motion digitally. This technology be a real benefit night photography.
+That's all: the iPhone 12 Pro Max also improves the Night Mode feature introduced the iPhone 11 models. For example, the Pro Pro Max offer Night mode portraits Night mode the selfie camera. I find the Night Mode Portraits a bit hit miss, part the problem I taking photos children won't stay still.
+The new Lidar sensor, shares the 12 Pro, also an impact your photography thanks the addition depth scanning. That Lidar sensor come apps make possible scan real world items make 3D copies them, map a 3D representation your living room. As what it bring your photography, it should improve the accuracy speed focusing - particularly low light the Lidar's use infrared create a representation what's front it be use. If want know read: What LiDAR, what it for?
+I impressed the night photography, I've said before, an iPhone XR user I'm getting a first taste the feature already benefiting iPhone 11 owners. In comparison the iPhone XR focusing much faster, less a delay taking the photo, a real benefit. The only thing I'd say the resulting picture a lot better lit what I saw my eyes (the lights off the room dark I took the image below).
+This all great, enough a difference the camera the iPhone 12 Pro Max the Pro model warrant the upgrade? In theory yes, practice the images my colleagues around the world got the iPhone 12 Pro superb anyway - it's as it's a big disadvantage. My colleagues Macworld US noted they couldn't get a better low-light photo the Pro Max, claiming both phones produced good results.
+There's much say the cameras the 2020 iPhone, including the fact record Dolby Vision HDR. This really a feature the average consumer though.
+In conclusion I'd suggest buy the Max the camera officially better. On paper it all looks impressive, practice it's a huge difference, don't want a huge phone it isn't worth it.
+Aside the cameras the other significant difference the two Pro handsets the size the screen. On the iPhone 12 Pro Max the screen huge: 6.7 inches measured diagonally. This the largest screen ever an iPhone.
+The gigantic display great viewing videos photos playing games. As well as reading webpages iBooks. I used read books an iPad, time I've doing an iPhone, reading this phone great (my eyes what they were, being able fit text the page a reasonable size great).
+Other the size the display (and the number pixels as a result that) there any difference the 12 Pro Max the 12 Pro display. The screen specs the as previously: DCI-P3 colour gamut, TrueTone, 800 nits max brightness (up 1,200 nits max brightness HDR), 2,000,000:1 contrast ratio, on. These figures better the iPhone 12 though, only sees 625 nits max brightness.
+We've already mentioned the fact the display a Ceramic Shield front, which, according Apple, offer "4x better drop performance". We're sure Apple tested this we're going test how many times we can drop the phone it breaks. It should mean the screen less likely get scratched cracked though, has be a good thing.
+There's been some criticism the fact the 2020 iPhones introduce the higher 120Hz frame rate, sticking 60Hz. Especially since some Android phones already offering 120Hz displays. This the refresh rate: a 60Hz screen refreshes 60 times a second, 120Hz refreshes 120 times a second. A faster refresh rate could be a benefit gaming, there disadvantages, as decreased battery life. If really keen getting a 120Hz iPhone the rumours suggest it will arrive the 2021 iPhones.
+Here's another difference the iPhone 12 Pro Pro Max: the battery. One benefit a bigger iPhone there room a larger battery can be larger. The iPhone 12 12 Pro a 2,815 mAh battery compared the Max's 3,687 mAh battery. The 12 Pro Max need a bit more power large screen, not a lot more, so the extra battery capacity extends the operating time. Apple claims 20 hours battery life the 12 Pro Max (the as the 11 Pro Max), the iPhone 12 Pro offers 17 hours battery life.
+Apple's measurement based video playback (where the video was stored the device). You can expect more less battery life different circumstances.
+To get a feel how much better the battery we tested using the Geekbench 4 battery test the display set 200 nits. It took 10 hours 20 minutes the battery run down, was considerably  longer the 12 Pro managed the best score we've ever seen an iPhone.
+The processor inside the iPhone 12 Pro Max the same as inside the 12 Pro, 12 12 mini, however the share A14 Bionic processor mean all four phones offer the same terms performance.
+Compared the 12 the 12 mini the Pro models feature more RAM, will a benefit. But, addition, the fact the iPhone 12 Pro Max has a larger chassis should result improved performance due it being able distribute the heat the processor better. If were really pushing the iPhone, a heavy duty application a graphics intensive game, might find things slow order avoid overheating. The bigger phone should be able avoid this longer.
+We ran the Geekbench 5 benchmark see how the new iPhones compare. In the CPU Multi-core test the iPhone 12 Pro Max scored 3,795 the iPhone 12 Pro's 3,797, so pretty close. The iPhone 12 scored 3,746. To be honest scores all close, what's more significant the iPhone 11 series scores were lower, so can expect an improvement compared any previous generation. The iPhone 12 series blazingly fast, whichever handset buy.
+Do need the speed? There's certainly nothing the iOS App Store right would push the 12 series beyond its limits, the future new technologies will no doubt come play will. For that reason we'd suggest that the processor the iPhone 12 series a future proofing exercise rather something need right away.
+As graphics, the results are below:
+Which brings us the other aspect the iPhone 12 series that more about futureproofing the now. 5G.
+If watched Apple unveil the 5G iPhones its event October be forgiven thinking 5G a big deal that are missing not having a 5G capable device.
+If you live a major city, 5G might offer practical benefits right away. The tech will mean you can expect connection speeds around 50 100% higher 4G LTE.
+But the reality that 5G only just starting arrive in the UK (and that matter around the world). If you are based in a big city you may have access 5G some networks, you are based in the countryside we don't like your chances. That said, 5G rolling around the country, so it's likely that 2021 will be the year 5G starts make an impact. If you are in the UK you can check your 5G coverage here.
+If you want be ready when 5G arrives you live getting a 5G-ready phone is a good idea. In the meantime you'll be able use it the 4G network as expect, when 5G arrives you will need only upgrade your contract your network provider (and maybe pay a little more the privilege having access to 5G).
+Incidentally, who have 5G available locally are reporting that the new standard is likely to drain your battery faster.
+For many us this is a question future-proofing, anyone buying a new smartphone in late 2020 should really be looking 5G support if they have any plans all to keep it multiple years.
+So, are all features worth the price?
+The iPhone 12 Pro Max costs £1,099/$1,099 the 128GB model, £1,199/$1,199 the 256GB model £1,399/$1,399 the 512GB model. In case the iPhone 12 Pro would cost £100/$100 less. This means that in many ways its a choice the extra features of the Max the extra storage.
+We'd always choose features over storage because we rely iCloud for all our storage needs (we are only using 60GB of the 256GB available on our iPhone XR). Should you just save £100/$100 skip extra features though?
+If you don't mind the size of the handset you are a lover of photography this is the iPhone for you. When you are spending this much money £100 is a small price to pay for a superior iPhone.
+But if you are assuming that you would be getting second best if you save your money avoid hand strain by opting for the iPhone 12 Pro you'd be wrong. The iPhone 12 Pro is still an excellent option for lovers of photography. Don't feel bullied buying the big iPhone.
+On paper there is some impressive tech associated with the camera inside the iPhone 12 Pro Max, the iPhone 12 Pro camera is so good though that unless you really want the bigger display and slightly longer battery life, I'd suggest that the iPhone 12 Pro would be more satisfactory.
+You either really want a big handset, in which case the camera improvements are a bonus, or you have to accept a handset that it bigger you really want in order to benefit from the better camera. If you are in the latter group then I'm just not sure it's worth the disadvantage.
+Note: We may earn a commission when you buy links on our site, no extra cost to you. This affect our editorial independence. Learn more. 
+An ex-Apple PR, Karen's career highlights include interviewing Apple's Steve Wozniak and discussing Steve Jobs’ legacy on the BBC. Her focus is Mac, she lives and breathes Apple.
+Price comparison from over 24,000 stores worldwide View more prices
+© Copyright 2021 IDG Communications Ltd. All Rights Reserved.
+ </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9158567786216736</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> End-to-end encrypted messenger
+How move group chats Signal
+Evolution 
+Crocodiles developed perfect body haven't evolved last 200 million years
+Tushar BurmanJan 04, 2021 16:13:17 IST
+₹149,900
+tech2 rating
+4.5/5
+avg. user rating
+0/5
+Build Design
+4.5
+Display
+5
+Software OS
+4.5
+Performance
+5
+Camera
+4.5
+Battery-life
+3
+4.5/5
+overall rating
+the good
+Camera unique LiDAR sensor
+Fresh design acceptable trade-offs
+Performance
+the bad
+Battery life
+Lens flare
+Still uses Lightning port
+the bottom line
+If can’t decide 12 series phone get, afford it, get one.
+2020 was, charitable, unexpected. But stuff thrown balance, working home turned blessing us digital content game. Covering tech space, turns out, actually got easier less busy.
+By now, know Apple it’s annual iPhone reveal September, iPads March Macs November. This year, things got pushed bit due COVID pandemic, still got shiny (very shiny) new iPhones month later. It turns wasn’t significant Apple announcement year (that honour goes M1 MacBooks), we one two, four distinct variants iPhone 12s year.
+iPhone 12 Pro
+For who’s rather read 2600 words make buying decision, here’s TL;DR what’s new:
+Personally, last iPhone I bought myself prices still 60k flagship device. Despite part iOS ecosystem since OG iPhone, I decided then: more. If throwaway electronics cost ridiculous vintage motorcycle, something change. Fast-forward 2020, review unit Apple sent us iPhone 12 Pro “Pacific Blue” 512gb storage costs dizzying Rs 1,49,900. Thankfully, Apple filled lineup other models relatively accessible, want hottest thing, get Pro Max model that’s larger, better camera, battery higher price.
+The price alone make think twice, bears mentioning various reasons actually might want latest-gen iPhone:
+At point, know you’ll get go spend future car down-payment new iPhone – predictability, refinement, performance, kidney jokes. And I cannot promise desist flogging price jokes rest review, I would recommend new iPhone 12 series anyone previous generation device (with caveats), comfortable ecosystem afford it.
+One must also bear mind we longer live world Apple devices far expensive. Flagship Android devices getting rather close days. The Samsung Note20 Ultra 5G tops Rs 1,04,999, instance.
+Okay, words. The new iPhone 12 series 5G. We don’t 5G India, mass rollout time away. This feature carry significant weight buying decision.
+Apple soldiered design language adopted iPhone 6 way back 2014. It persisted 7, 8 series carries updated 2020 iPhone SE. We saw new designs X 11, 12, they’ve gone back arguably best design all: iPhone 5.
+The shiny frame 12 Pro polarising, begins pick ugly smudges moment take box.
+With squared-off metal frame replacing rounded borders previous iPhones, iPhone 12 series feels (to me) secure hold somehow compact. At launch, I thought Mini would one I’d like most, considering reading glasses new form factor, I find regular 12 Pro be nice compromise size practicality. I sometimes miss ease typing reading larger iPhone 11 Pro Max (Review), it’s hard go back properly pocket-able phone.
+With new design come slightly larger dimensions. The new iPhones hair larger outgoing ones, hand, feel nicer. The 12 12 Pro exactly same size, differ material frame – Aluminium vs stainless steel. The shiny frame 12 Pro been polarising, begins pick ugly smudges very moment take box. The beautiful “Pacific Blue” colour review unit lost case I covered immediately. In sense, regular iPhone 12 nice, matte-finished Aluminium frame looks cleaner, – eye – premium.
+With hair, larger size comes hair larger screen. This time, it’s OLED panel entire range, it’s still 60hz unit, eschewing 120hz many Android phones sporting days. It’s still great screen, you’ve ever used high-refresh rate panel, tell difference. The screen also protected Corning’s “Ceramic Shield” tech, fuses glass ceramic make screen much durable before. It’s also flush frame, there’s less chance chips.
+To me, stand-out feature iPhone 12 Pro (not much 12). Apple put LiDAR sensor iPad Pro models really be – iPhone. It really made sense they put iPad first place. LiDAR, Light Detection And Ranging, greatly improves iPhone camera judges depth. You know every Android phone north 10k four cameras? One usually depth sensor, counts “camera” we get four.
+Click see camera samples:
+The LiDAR sensor sensitive enough make ‘Measure’ app iPhone accurate centimetres. In fact, point person, almost instantly responds subject’s height, I found be accurate. The idea make augmented reality apps much useful. While may be everybody’s idea good time, one application benefits people: portrait mode. You see, creamy blurred background portrait shots the result shallow depth field. Cameras large sensors – mirrorless, DSLR – fast lenses able naturally; phone camera sensors too small the effect be visible. Portrait mode artificially blurs the background, requires sense depth. The LiDAR sensor provides spades.
+I found Apple’s portrait mode be subtle, general, superior the modes I’ve seen competing flagship phones. It accurately masks the subject often not, pleasing fall-off focus behind the subject. More aggressive portrait modes I’ve seen look very strange; the subject tack-sharp, everything else – even the bench they’re sitting – blurred beyond recognition. That’s real life looks like.
+The LiDAR sensor officially claimed enable portrait mode night, I feel like it’s already contributing better portrait shots general.
+In terms the camera hardware, the specs unremarkable: there’s the 12mp f/1.6 primary wide module, 12mp f/2.0 telephoto 12mp f/2.4 ultra-wide. Our test shots give idea what expect. The iPhone longer carries the flag the top smartphone camera. Companies DxOMark ranked few Android flagships higher terms performance. Despite all the measuring, there’s fair bit subjectivity judging what photos pleasing. MKBHD’s annual smartphone camera blind test seems suggest the secret sauce rather mundane: bright, punchy images judged be better subtle ones. Evidently, the human eye doesn’t believe technical superiority.
+The iPhone continues err the side natural rendition, though evident even Apple decided play the gallery, least little. I found the general tone be bit warmer I remember the 11 series phones, pleasing. Shots around sunset seem golden syrup-y look them, hard complain about. The ultra-wide sensor now ‘night mode’, nice cityscapes such, still lacks the resolving ability the primary camera. Zoom in, it falls apart. The telephoto remains solid, though 2x max optical zoom, it’s winning drag races. It’s good portrait mode want maintain social distancing.
+For video, it’s hard beat the iPhone. This one area Apple retained their lead. You the option 120/240fps slow-motion, 4K recording – new the 12 Pros – Dolby Vision HDR recording. Apple claims be the first camera the world be able record format. However, the only way actually play back footage all glory is, well, iPhone 12. For people want share videos social media, it’s probably safer keep the HDR video mode avoid unusual colours.
+Video stabilisation continues be excellent, microphone pickup quality seems improved the past few generations iPhones.
+As iOS 14.3, Apple has introduced the ability shoot ProRAW the iPhone 12 Pro Pro Max. ProRAW Apple’s flavour the RAW image format includes all the smart computational photography tricks otherwise gets left out. Here’s what it means the average user: bit work get perfect image, much bigger files. Apple pegs average ProRAW image 25MB, compared typical JPEG 3MB.
+iOS 14
+Why all the extra space? Because you’re storing uncompressed, raw data the image sensor, along all the cool stuff Apple able thanks its fast processor – automatic HDR stacking, ‘Deep Fusion’ AI-based adjustments such. If load ProRAW file an app like Lightroom mobile, are able play highlights, shadows, colour (12-bit colour, those care) noise a far greater degree a regular image, far less loss. If you – like me – like take photos an editing app tweak, adjust apply presets, ProRAW may be worth your while.
+I’ll keep short: performance very good. There no app situation I’ve encountered thus far has caused the iPhone 12 Pro stutter, slow misbehave. I’ve the occasional hang Lightroom, I’m pretty sure that’s the app. Games run buttery-smooth you edit 4k Dolby Vision footage real-time the iMovie app. You can’t even do smoothly a high-end PC! This be no surprise, really. The A14 Bionic the basis the M1 chip Apple uses its new MacBook Air Pro, it's hard find fault their performance. For the benchmark nerds, here are some screenshots:
+The iPhone 12 Pro isn’t perfect, the list things I don’t like quite small, manageable. Chief among the relatively poor battery life. For the past year, I’ve been using the iPhone 11 Pro Max daily driver, it an absolute battery beast! For me, it lasts much as Android flagship a 4000mAh battery greater. And I don’t use it much, I sometimes forget charge it. I’ve gotten used an anxiety-free existence the 11 Pro Max. I can live my life without wondering if I have a Lightning charge cable handy.
+Not so the 12 Pro. I’m back packing charging cables wherever I go. I can generally get a working day the 12 Pro, if I’ve a working day – admittedly rare the pandemic – I’m power-saving mode the evening. If I have a long commute back home, I need a top-up. It’s unmanageable, the sheer freedom walking the door knowing your phone be alive when you get back, is something I miss.
+Somewhat related is the poor performance the MagSafe charger. One the interesting features the new 12 series is the magnetic MagSafe system the back, attaches various accessories, including the wireless MagSafe charger. It’s supposed be a 15 W fast charge the 12 Pro, I wasn’t able get anywhere near satisfactory charging speeds it. In fact, I kept it charge I setting the 12 Pro, an hour so, it actually lost 2% charge.
+MagSafe charger. Image: Apple
+Later, setup complete, I tried managed get ten percent an hour. Apple even sent out a replacement MagSafe unit, doesn’t seem do any better. In essence, if I want a charge a reasonable amount time, I use the Lightning cable. If I’m my desk my phone, I keep it the MagSafe charger whatever it’s worth.
+Additionally, the fact the MagSafe charger needs be plugged Apple’s new 20W charger actually even achieve 15W charge is a problem. Because it is included one must buy it. I was initially okay Apple not including a charging brick the iPhone box, having cables terminated USB-C defeats the purpose, as most people are going have buy a regular USB-A cable, or go out buy a USB-C charger. Environment unsaved.
+Another bit weirdness you’re sure notice at some point is the lens flare seems show in photos point towards a light source. For me, there’s always a green flare somewhere in the image, it can be multiple spots flare, depending the conditions. You can probably ignore them as aesthetic artefacts, it’s not a common occurrence smartphone cameras.
+The iPhone 12 Pro is probably my pick in the current crop iPhones available. I say without using the Mini or the Max, with a year’s experience using the 11 Pro Max. I think the camera capabilities are only going better, look forward to interesting uses the LiDAR sensor.
+You are unlikely to find a competing flagship smartphone can deliver this kind performance. But when phones go north Rs 1 lac (our review unit is listed at Rs 1,49,900), you must ask if you need kind performance. Most people don’t would do perfectly fine with a high-value Android range-topper, are many.
+If you’re already in the Apple ecosystem, don’t want to bother switching dealing with missing files, contacts WhatsApp backups, this is the best iPhone you can buy. My ‘value’ pick, the one most comfortable my hands, would be the iPhone Mini. For those on an even tighter budget, try the 2020 iPhone SE. My primary complaint remains the battery life, which is a physical limitation nobody has been able to get around. That would make the best, next “one more thing”.
+Find latest upcoming tech gadgets online on Tech2 Gadgets. Get technology news, gadgets reviews &amp; ratings. Popular gadgets including laptop, tablet mobile specifications, features, prices, comparison.
+General
+Display
+Camera
+Technical
+Connectivity
+Extra
+latest videos
+The Story Of haiVaan | 1Up Gaming Interviews
+haiVaan plays the Valorant Pop Quiz
+The Story haiVaan | Coming Soon...
+Stream Sniping Challenge | 1Up Gaming
+1Up Reviews | Cyberpunk 2088 Finally On Mobile
+1Up In The House | Team24 takes another Chicken Dinner?
+1Up In The House | Final Circle 1v3 by MorTaL OP?
+1Up Gaming | First Valorant Custom Room
+1Up In The House | Search&amp;Destroy 4v5 (PLAYER DISCONNECTED)
+1Up In The House | PUBGM KR Version + Valorant Announcement
+TWS earbuds
+TWS Earbuds Rs 5,000: Oppo Enco W51, Zebronics Zeb Sound Bomb Q Pro Review Snapshots
+Realme Watch S Pro
+Realme Watch S Pro Review: An affordable fitness watch with limited useful features
+Mi QLED TV 4K 55 Review
+Mi QLED TV 4K 55 Review: The best Xiaomi TV to date in terms performance and UI
+Xiaomi Mi 10i Review
+Xiaomi Mi 10i Review: Ticks most boxes
+TWS Earbuds
+TWS Earbuds Rs 8,000: Soundcore Liberty 2, Soundcore Liberty Air 2 Review Snapshots
+Apple
+Apple says that executives' yearly bonuses depend on social and environmental values
+Ocean Acidification
+Some octopus species appear to be coping well with increase in ocean acidity, now
+The Universe
+Scientists witness the death a galaxy 9 million light-years away unfold, in a remarkable first
+Covid-19 Vaccines
+Disappointing results Chinese CoronaVac trial pose a setback for developing nations
+Megalodon Sharks
+Megalodon shark fossils suggest that newborns larger than adult humans: Study
+Copyright © 2021. Firstpost - All Rights Reserved.
+Terms of usePrivacyCookie Policy
+ </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8812415599822998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Digital video, photography, television film, covered
+Cutting assembling raw footage, adding music, dubbing colour correction, sound effects more
+Sound design, mixing, recording, microphones, audio correction
+Keep informed latest apps, tools, software, devices latest tech news
+Easy follow tutorials levels across topics
+Advertisement
+  iPhone 12 Pro Max. Image: Apple.
+The iPhone 12 Pro Max Apple’s flagship model, boasting improved specs smaller iPhone 12 Pro. We look depth ProRAW, new range really points possibly profound camera specifications.
+I’m going say loud right start, iPhone later X, probably don’t need iPhone 12. Phones like X still incredibly capable devices laptop style processing power. And cases due technology like Neural Engine, still things laptop can, indeed mirrorless camera.
+That said, current iPhone's battery wane amount time I use typing emails taking photos, particularly reviews RedShark I deemed upgrade larger screen worth it, least phone still worth useful amount trade-in soften blow. It's still easy decision make, especially right now. But integral part work life.
+The iPhone 12, paper least, doesn’t match rival flagship Android phones comes outright camera specifications. At 12MP iPhone many people would consider low resolution compared 40-108MP seeing elsewhere. The reality 12MP good resolution have, considering phone photos never adorning wall A0 size, instead either going social media, web general, being shown mates. With iPhone megapixel counts distraction one thing no smartphone currently match Apple’s A series processing power.
+A glance Geekbench Mobile scores shows Apple devices first top 20 slots, without manufacturer even getting look in. The iPhone 12 Pro Max scores whopping 1585 multi-core benchmark, fastest non Apple device, OnePlus 8, comes 887, still lower two year old XS, scores around 1109.
+Benchmarks one thing, know real world performance quite often something different. However scores still telling, yet still don’t account dedicated specialist processing 's offer 16-core Neural Engine. But I get new features iPhone 12 Pro Max means us, let start beginning. Opening box.
+Taking 12 Pro Max box first time, I struck less gargantuan I expecting. I admit I ordered I wondered I made mistake size. I went 12 Pro Max mainly I end quite bit work RedShark phone, larger screen helps hugely that. I also use phone lot review images, improvements added versatility camera would useful me.
+The packaging commended consideration environment, could frustrating users. There’s no shiny new headphones there’s even charging cable, case annoying my old one split. I ordered third party one braided covering, last longer OEM version. It’s situations like call question iPhone hasn’t moved TB3/USB-C style interface. I ton load those types cables lying around doing nothing!
+Build wise I feel 12 Pro Max easy hold due slab sides rather soap dish style curves. But I always find bare phone feels hand largely irrelevant I don’t think I’ve ever seen anyone use device like without case!
+I always find ironic much time spend crooning amazing industrial design blocking view forever inside ugly outer casing. Yes, I could Apple’s new MagSafe clear case, you’ve ever seen much crud accrues inside average phone case you’ll quickly make realisation bad idea transparent case is.
+That said, design beautiful. Given what I’ve said cases. It’s largely irrelevant. As fact phone’s three cameras jut body. Once case it, ceases sort issue.
+The new construction iPhone 12 series theoretically mean need case diminished. I seen tests front screen instance survived torture tests barely mark it. Not repeated my phone article I might add. And since I like trade my old phones I want keep one good condition I can, inside case goes.
+Turn phone on, screen becomes encompassing wow factor. It impressive behold. Yes, phones market huge screens, my first large screen smartphone least allow purely personal moment being impressed!
+The famous ‘notch’ still exists, yes still annoying, although it’s difficult see how Apple could ditch altogether. The sensors camera need go somewhere.
+Transferring settings my old iPhone new one, always, went without hitch, aside waiting all apps download, totally seamless. Once done I what self respecting tech writer does, I installed latest beta iOS. The primary reason I I wanted try phone’s new ProRAW photo format, was another factor my purchase decision.
+Yet another factor my decision process was added lenses photography flexibility my previous phone. The wide angle lens would very useful me, would slightly extra throw 2.5x telephoto.
+Some questioned 2.5x telephoto cameras much longer focal lengths. All I suggest Apple hasn’t figured decent way optical zoom lens yet. It could made 4x 5x telephoto, fixed focal length would long used general purpose portrait lens. So option future phones either fourth camera, genuine zoom, possibly periscope style design.
+I ever take raw photos my phone via app like Halide Firstlight, even I’m taking general snaps, my focus camera behaviour use, ProRAW images editing.
+ProRAW available iPhone 12 Pro models, least iOS 14.3 released full. It not, would ordinarily expect, proprietary format, instead widely readable DNG image. This means ProRAW photo take immediately edited any software takes DNG files. So what’s special it’s DNG file?
+Well, ProRAW images aren’t just raw sensor data. The DNG output ProRAW enabled image uses Neural Engine processing normal iPhone images, Deep Fusion, captures multiple bracketed frames fraction second, Night mode functions, creates final raw file that. It gives what phone thinks good starting point image, all information there ready edit like any raw file baked in. At least is. You can't undo noise reduction example, see exceptional its quality.
+In beta iOS 14.3 ProRAW isn’t enabled default. It first switched option within camera app settings, need press “Raw” icon within camera app itself. If turned raw within camera app leave lock phone, option have disengaged time go back app. It turns there’s another setting within app preferences “Preserve Settings” menu specifically tell keep raw engaged rather automatically reset JPEG HEIC.
+LiDAR used assist autofocus low light, fact overall camera focusses incredibly quickly. I’ve noticed none hunting I’ve my previous phones. On iPhone 12 Pro everything just snaps extremely quickly. It also appears lock track humans animals much better before, should mean much reliable capturing spontaneous moments events.
+Switching cameras extremely quick responsive. The telephoto lens much improved older phones, allowing far closer minimum focus distance before, enables almost macro style shots. I haven’t used iPhone 11 Pro may well ability was present there, iPhone users coming devices prior this, something else might useful an added brownie point decision list.
+The 120 degree ultra-wide angle lens really useful, just landscapes create unique perspectives. There’s loss sharpness edge edge, its usefulness final effect far important here. What’s even better Night mode enabled both normal wide lens now, making subject matter like astrophotography very real possibility. Even better Night mode also compatible ProRAW output, means the already good astrophotography possibilities now even better.
+As I mentioned earlier, ProRAW images edited any software takes DNG files. Within Apple’s Photos app included the phone, initially see an image the phone thinks the best result. As you’d expect, what the phone thinks the ideal result what I think good result quite often two different things. Primarily the phone always employs far much detail enhancement.
+As result this, first go the Photos app look lovely ProRAW image you’d forgiven thinking “Is it?!” However, click “Edit” the app then load the unenhanced ProRAW file adjust. The difference the two stark seen the two images below. Note the edited raw file much natural realistic skin tones.
+You might left wondering what the real differences raw ProRAW images are. Below I have shown two examples. One raw file taken within Halide, the other ProRAW file. Both taken almost total darkness, save the moonlight. I’m afraid the time writing since the UK lockdown my images are the Rocky Mountains the Utah desert monolith, so my car bonnet driveway have suffice particular example. As see the differences are, pardon the pun, night day, particularly reference noise.
+Whilst possible use the noise reduction Lightroom reduce its effects the Halide image, simply cannot anywhere near accurately the ProRAW image processing can. Once there’s fine detail involved common all garden standard raw image doesn’t stand a chance full the brim noise. In the Halide image much the detail already lost, never recovered.
+Quite how the ProRAW processing producing low noise images open speculation, however I would perhaps put my bets the image analysis looking how the noise moves image image looking the constant detail. I could course totally wrong, the way ProRAW reduces the noise levels without destroying the detail suggests form deep image analysis. Some have suggested the ultra clean look looks too digital. If some reason want noise always add it.
+The iPhone knows mounted onto a still object as a tripod. When detects this automatically enable longer exposures, tune manually. One thing note, Night mode purportedly works the telephoto lens, however it appear the phone switches back the wide lens then creates a ‘digital zoom’ the image match the angle view the telephoto. This certainly odd behaviour given the telephoto camera not only image stabilisation. But it could related why Night mode portrait mode uses the wide lens not the usual telephoto one.
+Taking a night portrait can produce some good results, although subject need remain as still as possible the output not ProRAW. The image was taken Night Portrait mode handheld then one the Photo app’s preset looks applied.
+The way ProRAW works regard using Deep Fusion is important note comparing the iPhone 12 Pro other phones. The ability use Night Mode a raw format that uses the neural engine Deep Fusion processing drastically reduce noise keep detail gives the iPhone 12 Pro something that no other phone can currently. It be interesting see how other manufacturers respond, phone camera comparisons only look the highly processed compressed the box output, which is only really relevant casual users. Once a feature like ProRAW is engaged, the game changes.
+Lastly, Night mode ProRAW also work the selfie camera, enabling lowlight reverse shots be taken then fully edited a full 12MP. As I mentioned ProRAW not work any the Portrait modes, either the front rear cameras. All is not lost, though, since apps like Focos an incredible job, sometimes better the built software, creating shallow DOF photos existing deep focus image.
+The Google Pixel 4 an astrophotography mode it some time, producing some pretty amazing results. Although can take a while process. On the iPhone 12 Pro Max 30 second exposures had merged made an editable ProRAW photo around a second after the capture had completed.
+One the most significant additions the iPhone 12 Pro is LiDAR. When I think back only a handful years a basic LiDAR system a drone could set back around £10k required cloud based analysis your data the number crunching a subscription price £1k a year. Now have LiDAR a phone, there may well be much this app developers simply have an additional toy play with.
+I’ve been playing around various LiDAR scanning apps, care can produce some absolutely stunning results, full 3D reproductions the room are in, an object. It isn’t the most accurate LiDAR around, this is a phone, it repercussions both this future devices.
+Now, the implementation LiDAR on the iPhone could be a precursor the rumoured Apple glasses, since augmented reality benefits hugely it. Apple could be trialling the system on its current devices iron any issues even build apps that utilise LiDAR enhanced augmented reality that could maximise available software the glasses once released.
+The inclusion LiDAR both the mobile phones potentially the rumoured glasses could mean big things applications as mapping. Apple already 3D views the most populated areas on its newly revamped Maps app, if a large group people opted it would be possible create extremely detailed street level 3D views on a crowd sourced basis.
+All that is conjecture, I think it is quite likely that as the phones improve, so the LiDAR accuracy. And the long game it means Apple a head start it likely play a longer term strategy. LiDAR a lot possibilities yet untapped. More accurate LiDAR potential much, much better depth mapping computational DOF effects, as well as object removal photos indeed video. You could, example, take a photo a person walking front it. The photo could be taken an instant, the LiDAR could run a bit longer, enabling full removal the person the image.
+No, the LiDAR the current phone isn’t accurate enough this, as no doubt someone the comments point out. But that’s not the point. It’s the future possibilities we’re talking here. And someone tells me that LiDAR a mobile device will never be accurate enough, at one point the past I was told that LiDAR in a phone wouldn’t be possible, now look we are.
+For photography on the move, the new iPhone 12 Pro Pro Max are going change things. Yes, I know that other phones as the Pixel have some pretty paper busting specifications, as well as exceptionally good night modes their own. But the clincher is the iPhone is using night mode ProRAW Deep Fusion all together. Unlike ProRAW Rival phones do not create a raw file out the final night mode computation. To do that you need take the individual raw files (which the phones can be made give you) then process merge yourself.
+By definition the use ProRAW include the application of Deep Fusion the Neural Engine, it is important emphasise the fact that this combination really mean that currently at least, the iPhone 12 Pro an advantage its rivals even if it can’t match telephoto overall pixel count. Particularly it comes the sheer speed at which it computes puts everything together. This is the groundwork that been laid, once Apple does feel it time increase the number of pixels it will have an extremely solid computational photography foundation which to build things.
+The question then is whether you should upgrade from your current iPhone to the new one. From the perspective of the 12 Pro Max, frankly most people don’t need this device. The 12 Pro will give you an equal photographic experience save sacrificing a small amount of telephoto. If you don't need telephoto then the standard iPhone 12 will more than suffice. The Pro Max has slightly better stabilisation, in the grand scheme of things it probably won’t make a huge difference to you day-to-day. I mainly bought the Max the standard sized Pro due to the amount of reading typing I need to do, for that a bigger screen is better.
+If you already an X or an XS your main decider will be whether you really want ProRAW. If you are currently happy with the raw results from those cameras you can perhaps wait a little longer next year. For phones previous to the X however, there will be a marked difference in quality ability for you.
+In the next part I’ll look at video capability.
+Tags:
+Technology
+Editor
+Review
+Written Simon Wyndham
+Advertisement
+Advertisement
+Advertisement
+RedShark is a multiplatform online publication for anyone with an interest in moving image technology and craft. With 50 contributors worldwide, full-time developers, editorial, sales and marketing staff, it is the go-to site for informed opinion and know-how for the quickly changing video, film and content creation industries.
+RedShark 2020 @ All rights reserved.
+ </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9925321936607361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I wish I never used iPhone 12 Pro Max.
+It bad device. The opposite, fact: It’s good iPhone I want use every day except fact it’s fucking massive. This isn’t bad thing I reading watching videos composing emails. It’s I tote around I remember Pro Max is, well, max. Everything extra hell: The 6.7-inch display huge phone stainless steel frame heavy—a full ounce half heavier iPhone 12 Pro. I can’t use one-handed basically task, I cling dear life morning runs outside flat edges make feel like I’m drop it, even cased. It fits absolutely none clothing pockets—though I acknowledge women’s clothes not, fact, designed useful any way, it’s surprising Max doesn’t fit Levis (front back).
+Look, battle I’ve lost. Phones big now. And I’m going dock 12 Pro Max being sizable. Compared Samsung’s 6.9-inch Galaxy Note 20 Ultra, Max positively petite (and way easier grip beast, besides).
+On paper, iPhone 12 Pro Max best iPhone. In practice, it’s best iPhone. But whether iPhone actually want buy depends whether get size, heft, price. I’m close being all three, I’m little mad it.
+Apple's biggest flagship iPhone
+Starts $1,100
+Lengthy battery life, beautiful design, incredible display, best performance we've seen any smartphone.
+This phone really gigantic, cameras impressive enough warrant splurge iPhone 12 Pro.
+I’ve already reviewed iPhone 12 (the best iPhone people), iPhone 12 Pro (the almost perfect iPhone), I’m process reviewing iPhone 12 Mini (by far cutest iPhone), I’ll spare rehash what four common. We’ve redesign harkens back iPhones yore, we’ve talked promises pains 5G, we’ve put A14 Bionic paces, we’ve explored MagSafe charging’s ease limitations. What sets iPhone 12 Pro Max apart, aside size, its cameras its battery life.
+Like 12 Pro, Pro Max sports wide, ultra-wide, telephoto lens, LiDAR scanner. The difference wide (or standard) telephoto lenses: The Pro Max’s wide-angle primary lens 47% larger sensor, what Apple calls sensor-shift optical image stabilization, meant reduce shakiness allow shoot low-light images less exposure time. I found true—nighttime shots require 3-second exposures iPhone 12 12 Pro required two seconds 12 Pro Max. I noticed slight dramatic difference Night Mode shots 12, 12 Pro, 12 Pro Max, see shot hibiscus bush distant streetlamp light source. The flowers leaves less detailed 11 Pro Max, Pixel 5's Night Sight turned blurry shot, despite fact I totally still holding breath.
+The LiDAR scanner makes 12 Pro 12 Pro Max capable Night Portraits, where things get interesting. As see portraits front porch below, lit front light living room behind office building street, 12 Pro Max resulted perfectly decent, warmly lit photo, iPhone 12 holds its own. The 12's portraits zoomed its use wide ultra-wide-angle lens, both light bokeh effect around hair natural. The Pixel 5's night portraits also good, though artificially smooth. The 11 Pro Max’s night portrait grainy mess, see, iPhone’s cameras been dramatically improved year-over-year.
+Aside changes wide-angle lens’s sensor, Apple also lengthened the Pro Max’s telephoto lens the 52mm f/2.2 found the 12 Pro 65mm f/2.0. This means get 2.5x optical zoom the Max, opposed the 2x optical zoom the Pro. The improved lens results clearer, zoomed-in photos, can see the shots the Hollywood sign Runyon Canyon few miles away. The iPhone 12 Pixel 5's digital zooms match an optical zoom. But Samsung’s Galaxy Note 20 Ultra the clear winner its 5x optical zoom, results incredibly detailed photos. (Too bad it’s also $1,300 freakin’ monster phone.)
+But challenging shot light reflecting the Pacific Ocean beyond Century City, the Note 20 Ultra’s optical zoom didn’t result amazing shot, lose lot detail the skyline. (The 12 Pro my favorite the five this instance.)
+Though the Pixel 5 takes great portraits, even night, the Galaxy Note 20 Ultra’s 5x optical zoom *chef’s kiss* the perfect light, the iPhone 12 Pro Max the best smartphone camera most situations. But the 12 Pro almost good, the 12 holds its own—except need zoomed-in shots.
+Is the iPhone 12 Pro Max worth spending an extra $100 over the Pro slightly better night photos slightly better telephoto lens? No. But the cameras good! My issue the issue I every iPhone: damn  green lens flare occasionally occurs light refracts the camera (as can see the Portrait Mode shot the last slide below). Of course never notice you take the shot you can again. It’s after—when you pinch zoom notice a giant dot turtleneck—do you curse audibly. But I digress.
+The 12 Pro Max’s gigantic size means room a bigger battery. This important 5G can suck the life your device—if you ever come near a millimeter-wave node stuck a building a cell tower somewhere. That’s the only way you’ll get the gigabit speeds Apple hyped its iPhone event October. But that’s OK, the 12 Pro Max’s bigger battery meaningful right now, even 5G isn’t quite much.
+The 12 Pro Max lasted 16 hours 31 minutes our video rundown test—that’s two hours longer both the iPhone 12 (14:20) 12 Pro (14:10), easily tops the Note 20 Ultra (14:23) the entire S20 lineup (which range 14:40 15:56). Google’s Pixel 5 eked an extra 18 minutes but nowhere near fully featured the 12 Pro Max any department.
+Not only does the 12 Pro Max last longer its little siblings the iPhone 12 lineup, it also the top-performing phone the four. Every iPhone 12 has an A14 Bionic processor, the 12 Pro Max makes the most it—in synthetic benchmarks like Geekbench 5, the 12 Pro Max’s multi-core score (4,261) rivals the fourth-gen iPad Air (4,264), also packs an A14 Bionic. Samsung’s Galaxy Note 20 Ultra, sports Qualcomm’s Snapdragon 865 chip, pales comparison a multi-core score of 3,299, does, well, literally every smartphone the market. There’s no competition here.
+And I credit Apple the Pro Max’s design—while it looks like a 12 Pro larger, I can’t deny the gold version gleaming trim matte champagne-hued back glass both gorgeous impressive the bigger size.  The 6.7-inch Retina XDR display makes the 12 Pro Max a touch bigger the 11 Pro Max, which, again, annoying because this phone so large, it really a dream work on. As I ventured Runyon Canyon shoot photos, I found the top of a hill incoming Slack messages pinging me edits. I able quickly log Kinja, edit two news blogs, publish them, change status our editorial tracking system, Airtable, with just a couple bars of 5G signal. If I doing work the go, I the Before Times, the Pro Max would a serious contender.
+Some remarked the 12 Pro Max’s 60 Hz display competing Android flagships have bumped 90 Hz even 120 Hz. Look, I love Samsung’s screens. I think they’re the best in the business. But I don’t think most people buy a new iPhone think themselves: “This scrolling could be so much smoother.” Would it be nice to have? Sure, it’s not such a dramatic improvement it feels like Apple missed the boat.
+I really like the iPhone 12 Pro Max, I’m still stuck its size. I’m mainly working home, when I do venture outside, I want to be able to stick my phone in my pocket, grab my mask, get the door. The Pro Max makes that a little more difficult, least me.
+If you a tall, large-handed person with literal deep pockets, this is the iPhone you. It’s better than the iPhones 12 in just every way. But it’s not so much better you a smaller person for whom comfort ease of use a priority when choosing a smartphone. You shouldn’t sacrifice things. The iPhone 12 Pro is much more manageable, the cameras are almost good.
+Consumer tech editor, Gizmodo.
+I got my Mini today and, although it’s definitely far from perfect, I stunned how long its been since I a phone this compact. It’s going to take my thumbs a bit to get used to it after years on the 6/7/8 and then X/S/11 form factors, this thing is almost small as my old 5S. It’s a marvel. 
+I’m sure the Pro Max is great for people like beefcake phones I’m glad there’s least a reasonably good small phone again. 
+ </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5927301645278931</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+By
+What Hi-Fi?
+14 December 2020
+The iPhone 12 delivers impressive picture sound quality premium smartphone package
+Although new Apple products undoubtedly evolution revolution, iPhone 12 sports brand-new design, new screen, powered new processor, capable performing new party tricks including, first time, 5G support.
+But it’s also gained expensive price tag lost couple things box along way (namely charger pair EarPods). Does iPhone 12 still deliver all-round ability performance-per-pound value made predecessor, iPhone 11, brilliant buy?
+As you’d expect, given premium standing, iPhone 12 isn’t cheapest smartphone around. It’s actually £100 ($100) expensive iPhone 11 across its different storage sizes.
+The 64GB iPhone 12 £799 ($799, AU$1349), 128GB version comes £849 ($849, AU$1429), top-of-the-range 256GB handset set back £949 ($949, AUS$1599).
+This still puts bit distance itself flagship iPhone 12 Pro Pro Max, start £999 ($999, AU$1699) £1099 ($1099, AU$1849) respectively. However, boast 128GB entry-level storage size, topping 512GB. It’s shame standard iPhone 12 doesn’t offer similar.
+That fancy new design isn’t quite new Apple might like believe. We’ve seen flat edges before, iPhone 4 2010, there’s doubt flat sides aerospace-grade aluminium enclosure gives iPhone impressively premium look feel, especially Product Red finish review sample (the finishes available are: white, black, blue green).
+Screen size 6.1in
+Type OLED
+Resolution 2532 x 1170
+Operating system iOS 14
+Finishes x5
+Battery life 17hrs video, 65hrs audio
+Dimensions (hwd) 14.7 x 7.2 x 0.7cm
+Weight 164g
+It’s solidly built slightly easier grip iPhone 11’s curved chassis, although arguably doesn’t feel nice. This also might fact iPhone 12 little trimmer, millimetres shaved all round.
+The new iPhone also feels light in-hand. This because iPhone 12 weighs 164g, 30g lighter iPhone 11. It doesn’t sound like lot, definitely feel difference swapping one other.
+Besides design tweaks, big headline news iPhone 12 relates its screen. Gone 6.1in Liquid Retina HD LCD display iPhone 11; its place 6.1in OLED Super Retina XDR display resolution 2532 x 1170 pixels pixel density 460ppi.
+It’s still True Tone Wide colour display there’s proper HDR support built HDR10, Dolby Vision HLG content. This boosts potential maximum brightness phone 1200 nits (it's 625 nits SDR content). The screen switch big obvious upgrade iPhone 12 one immediately makes its presence felt.
+The iPhone 12 display also sports Apple calls Ceramic Shield front cover, claimed give extra durability make display less prone cracking smashing previous iPhones.
+The big changes go deep screen too, debut Apple’s A14 Bionic chip next-gen Neural Engine. According Apple, it’s fastest chip inside smartphone both GPU CPU performance can supposedly complete 11 trillion operations per second.
+That’s something can measure, way iPhone 12 works Apple’s iOS14 operating system shows this one speedy customer. The phone breeze navigate, whether you’re firing Netflix quick binge multitasking number different apps. It’s smooth operator never seems get bogged down daily use. We find quicker iPhone 11 comes booting video music streaming services, it’s a huge difference.
+On camera front, still get a 12MP dual-lens set-up back, a few subtle tweaks hood allow better pictures low-light. As a daytime snapper, there isn’t much grumble about, iPhone 12 producing nicely balanced pictures even colours a fine sense realism. It’s worth noting, though, unlike Pro Pro Max models, there’s telephoto lens and, consequently, optical zoom iPhone 12.
+The iPhone 12 can, however, record video Dolby Vision at 30 frames per second, could come handy those using their phone occasional vlog. Battery life close the iPhone 11 (Apple doesn’t quote the size the batteries), at around 17 hours video 65 hours audio playback. Some Android rivals boast bigger batteries last longer, still find a full day average use doesn’t prove a problem. It disappointing, though, see the iPhone charger been jettisoned the box (you only get a USB-C Lightning cable).
+The lack EarPods less frustrating. We’ve never been huge fans Apple’s out-of-the-box earbuds, if don’t already a pair headphones hand, would recommend invest AirPods a decent pair alternatives.
+The iPhone 12 also sees the introduction MagSafe wireless charging (up 15W) compatibility a new line-up accessories attach a ring magnets the rear the handset.
+The iPhone 12 supports Dolby Atmos Apple’s spatial audio processing, available enjoy the AirPods Pro the recently announced AirPods Max.
+The speakers the iPhone 12 sound good they the iPhone 11 – the balance good enough watch the occasional YouTube video play a few seconds your favourite Tidal track. It’s nicely balanced smartphone speaker standards, decent separation detail, though you’d expect there’s a huge amount bass weight offer.
+Hook a pair wired headphones via Apple’s 3.5mm Lightning dongle partner the iPhone a pair quality wireless headphones you’ll get a better idea the iPhone’s strengths.
+Apple got the habit producing some the best-sounding smartphones the market the iPhone 12 picks where the iPhone 11 left off. It’s a case more the the smartphone delivering enthusiasm musicality spades. The iPhone works well across multiple genres keeps entertained right the last second every track.
+Play Michael Jackson’s Man In The Mirror there’s plenty sparkle those highs during those opening seconds. The iPhone picks plenty detail texture Jacko’s voice its ability handle dynamics aplomb means feel the full impact the vocal switches sounding delicate the verses punchier more direct the chorus, reinforced the backing the gospel choir.
+Switch a classical track, Time the Inception soundtrack, the iPhone 12 continues impress. The tone timbre the strings expertly judged, the weight impact the drums form a powerful undercurrent drive the track along. A lack background noise allows the drama emotion the track come the fore.
+The switch the new OLED screen brings immediate results the iPhone 12. You’re greeted with a clean clear picture boasts impressive depth realism. There’s a sense polish pristineness the picture the LCD display the iPhone 11 simply can’t match.
+Add the inherent strengths OLED technology, as black levels viewing angle, this is a picture draws you in. Staring the outer space Star Trek Discovery on Netflix, can’t help be impressed the inky black canvas the iPhone paints. Stars appear as tiny pinpricks bright white light there’s bleeding the rest the picture. Each star shimmers its space.
+Detail levels excellent whether it’s the stunning CGI the characters’ faces costumes. As the Discovery reaches warp speed, the flurry bright flashes the galaxy backdrop make the picture pop a way that its predecessor can’t match. The extra brightness punch the OLED screen delivers becomes even more obvious you place it next the iPhone 11’s LCD display, too.
+The iPhone 12 is another model we can add a successful line smartphones Apple. The addition of that excellent OLED display elevated picture performance another level helps justify the slight price hike its predecessor. Sound quality is as good as it’s ever been, too. All positives combined make a highly tempting typically Apple package.
+SCORES
+MORE:
+Read guide the best smartphones
+Read Apple iPhone 11 review
+iPhone 13: release date, news what expect
+Best smartphones 2021: best phones for music movies on the move
+Best iPhones 2021: the best budget premium iPhones
+Best iPads 2021: big, small, budget premium
+Sign below to get the latest What Hi-Fi?, plus exclusive special offers, direct to your inbox!
+Thank you for signing to What Hi-Fi?. You receive a verification email shortly.
+There a problem. Please refresh the page try again.
+What Hi-Fi? is part of Future plc, international media group leading digital publisher. Visit our corporate site.
+©
+Future Publishing Limited Quay House, The Ambury,
+Bath
+BA1 1UA. All rights reserved. England Wales company registration number 2008885. 
+ </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9077591896057129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This post contains references products one advertisers. We may receive compensation click links those products. Terms apply offers listed page. For explanation Advertising Policy, visit page.
+The annual “iPhone day” come gone.
+On Oct. 13, Apple introduced latest mobile devices. This year, company released four distinct models ranging entry-level iPhone 12 mini top-of-the-line iPhone 12 Pro Max.
+Now, ever, there’s iPhone everyone. Depending features value, odds you’ll find device fits needs budget.
+But you’re traveler, there’s little question model pick: Pro Pro Max. And although 2020 might be year extravagant trip, iPhone 12 Pro also great around house.
+The Pro launched Friday, Oct. 23. After receiving device, I packed bags, headed New York-JFK spent 48 hours Southern California putting Pro test.
+As Friday, Nov. 13, 12 mini 12 Pro Max available purchase well, completing year’s lineup iPhone devices. Read find I’m heading new year 12 Pro Max.
+For TPG news delivered morning inbox, sign for our daily newsletter.
+Every iPhone 12 model features latest 5G network technology.
+5G designed deliver blazing fast speeds better performance, especially congested networks. In theory, notice massive improvement areas airports, stadiums downtown city centers.
+While Apple joining 5G bandwagon (which already available phones like Samsung Galaxy S20), wireless carriers still some serious catching do. There simply aren’t many 5G towers spread across country (or world). Plus, spectrum limitations wireless carriers need address unlocking full power 5G.
+I use Verizon, fortunately, carrier gradually started deploy what calls ultra-wideband 5G. The problem is, it’s available just few blocks select major cities.
+That didn’t stop checking coverage map find ultra-wideband tower. When iPhone managed connect, I blown away speeds. I sat bench streamed show speeds faster wired internet connection New York City.
+The future wireless 5G — just need carriers catch device manufacturers.
+When you’re move, phone takes beating. That’s one reason why travelers especially love year’s iPhone models.
+All four versions 12 sport what’s called Ceramic Shield glass display. Apple claims helps deliver four times better drop performance.
+While I wasn’t purposely drop brand-new device (there plenty YouTubers living), first time I’ve felt comfortable going “naked” — using phone without case screen protector. I’m pleased report my phone still intact three days. But (OK, fine, when) I drop it, I’m hopeful it’s durable Apple promises. (Since I purchased phone credit card extra insurance, I coverage even it’s durable promised.)
+In terms design, new Pro models bit larger their predecessors. The rounded form-factor, however, incredibly comfortable hand pocket.
+Plus, 12 Pro less tenth ounce heavier 11 Pro. In fact, I actually prefer look feel 12 compared 11. (And you’re even portability, check 12 mini.)
+Though 12 Pro only slightly bigger last year’s 11 Pro, screen size jumps 5.8 inches 6.1 inches. Apple added nearly third an inch screen trimming bezels. (The 12 Pro Max 6.7-inch display, compared last year’s 6.5-inch 11 Pro Max model.)
+The Super Retina XDR display specs 11 Pros, expect same display quality upgrading.
+In terms battery life, Apple claims new 12 Pro last as long as previous-generation 11 Pro. I two long days full usage — snapping pictures, downloading large files, uploading Instagram, directing maps — my phone about die dinner nights. But, could adjust settings (think: switching data- power-saving mode) squeeze bit charge.
+Perhaps coolest travel-friendly feature latest models one can’t see — access without purchasing an additional accessory.
+A series magnets called MagSafe built back every iPhone 12 model. These magnets help cases snap place perfect orientation. There’s also leather wallet Apple sells $59 magnetically attaches back phone keep important cards within reach.
+Apple also debuted an optional $39 MagSafe charger juices your phone faster traditional Qi wireless chargers, there’s bifold MagSafe duo charger both iPhone Apple Watch coming soon. Once released, quickly become staple my backpack, since will allow pack one less cord my travels.
+Last year, Apple introduced Night Mode iPhone 11. This year, company boosted low-light performance.
+If you’re familiar, Night Mode allows take low-light photos without tripod, creating sharper images finer details limited noise, without using flash.
+On iPhone 12 Pro, Night Mode comes both ultra-wide front camera (in addition standard wide camera, like last year). Also, Pros sport LiDAR scanner helps enable Night Mode portraits, improves autofocus night, makes augmented reality apps even realistic more.
+I tested Night Mode my two-night trip California thought quality the images improved the 11 Pro. My shots weren’t perfect though.
+While ultra-wide shots captured Night Mode should look just fine you’re planning share your pictures social media, I found details be exceptionally soft reviewing images 100%, as you see the inset samples below. 
+So I wouldn’t necessarily consider using images poster-sized print, I wouldn’t hesitate include TPG flight review post my Instagram, like the ones below.
+Many travelers take videos upload Instagram TikTok. But year’s iPhone features video upgrades would even make the professionals jealous.
+That’s Apple enabling Dolby Vision recording editing directly the Pro model iPhones. While it’s easy get bogged the details, you’ll notice the biggest boost the color your videos.
+Like the still photos above, recording video using the ultra-wide camera quite noisy. However, the colors appeared vibrant those recorded the iPhone 11 Pro.
+Apple’s adding even more improvements its largest phone date, the 12 Pro Max. When launched Friday, the 12 Pro Max immediatelyly replaced the regular 12 Pro my pocket.
+In addition offering larger 6.7-inch Super Retina display bigger battery, the Max’s camera system even more powerful than the 12 Pro.
+For one, the 12 Pro Max offers a new 2.5x telephoto camera, addition ultra-wide wide (standard) cameras. The wide camera also gets a boost compared the 12 Pro — it has a 47% larger sensor larger pixels.
+Finally, the 12 Pro Max adds sensor‑shift stabilization. With technology, your pictures videos the 12 Pro Max will be steadier; perfect safaris other off-road adventures. In October, I went dune bashing Dubai immediately wished I could’ve fast-forwarded a month capture the action the 12 Pro Max.
+As a traveler, I’m always looking the best all-in-one device. Building the strong performance the iPhone 12 Pro, the Pro Max this year’s flagship.
+Each year, many travelers, included, ask whether it’s worth upgrading the latest iPhone.
+In 2020, things look different. We’re the midst a pandemic, travel largely grounded there’s widespread economic uncertainty. Ordering a fancy new gadget may be a priority many travelers right now.
+Still, didn’t stop Apple introducing a show-stopping device the iPhone 12 Pro 12 Pro Max. With 5G, MagSafe, camera video improvements, so much more, upgrading would be obvious — a normal year.
+But this year anything normal. Regardless, one thing’s certain — the iPhone 12 Pro (or Pro Max) deserves a spot your holiday wish list.
+If you do decide to splurge, check detailed guide to maximizing your iPhone purchase for ordering tips, credit card coverage scoring the biggest return.
+All photos Zach Griff/The Points Guy
+Welcome to The Points Guy!
+WELCOME OFFER: 60,000 Points
+TPG'S BONUS VALUATION*: $1,200
+CARD HIGHLIGHTS: 2X points travel dining, points transferrable to over a dozen travel partners
+*Bonus value an estimated value calculated TPG the card issuer. View our latest valuations here.
+Editorial Disclaimer: Opinions expressed the author’s alone, those any bank, credit card issuer, airlines hotel chain, have reviewed, approved otherwise endorsed any these entities.
+Disclaimer: The responses provided commissioned the bank advertiser. Responses have been reviewed, approved otherwise endorsed the bank advertiser. It is the bank advertiser’s responsibility to ensure posts and/or questions are answered.
+Many the credit card offers appear the website are credit card companies from which ThePointsGuy.com receives compensation. This compensation may impact products appear this site (including, example, the order in which appear). This site include credit card companies all available credit card offers. Please view our advertising policy page more information.
+Editorial Note: Opinions expressed are the author’s alone, not those any bank, credit card issuer, airlines hotel chain, have not been reviewed, approved otherwise endorsed any these entities.
+Welcome to The Points Guy!
+The credit card offers that appear the website are from credit card companies from which ThePointsGuy.com receives compensation. This compensation may impact and products appear on this site (including, example, the order in which appear). This site not include all credit card companies all available credit card offers. Please view our advertising policy page more information.
+Editorial Note: Opinions expressed are the author’s alone, not those any bank, credit card issuer, airlines hotel chain, and have not been reviewed, approved otherwise endorsed any these entities.
+ </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9112479686737061</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A leading-edge research firm focused digital transformation.
+Subscriber
+Account active
+              since
+                   Free subscriber-exclusive audiobook!
+                   “No Rules Rules: Netflix Culture Reinvention”
+                         Get now Libro.fm using button below.
+When buy links, may earn money affiliate partners. Learn more.
+Apple making super-sized versions smartphone since 2014, getting another significant bump size year $1,100 Phone 12 Pro Max.
+The recently launched top-of-the-line iPhone 6.7-inch display, largest screen any iPhone ever. That also makes little inch shy size 7.9-inch iPad Mini. 
+While sheer size may striking thing iPhone 12 Pro Max, characteristics separate smaller siblings well.
+Its bigger build also means longer battery life, camera zoom lens that's capable getting closer shot versions iPhone 12. That's addition extras get standard iPhone 12 Pro well, LiDAR sensor telephoto camera.
+Overall, iPhone 12 Pro Max right phone those want gigantic screen long battery life. Although sophisticated camera iPhone 12 models, need splurge Pro Max get iPhone's best new photography features.
+        The iPhone 12 Pro Max (left) iPhone 12 Pro (right)
+          Business Insider/Lisa Eadicicco
+Simply put, iPhone 12 Pro phone stands out. Its size alone draws attention, also shiny, surgical-grade stainless steel edges matte textured glass back give (and smaller iPhone 12 Pro) premium look regular iPhone 12.
+For phone costs $1,100, nice see Apple upgrade Pro Max's design. Samsung's Galaxy S20 Ultra, hand, costs $1,400 really any design flourishes distinguish cheaper siblings terms aesthetics. 
+Like rest Apple's new iPhones, iPhone 12 Pro Max also generally refreshed design flat edges, echoing vintage iPhone 5's look, new color choices. 
+          Business Insider/Lisa Eadicicco
+But, course, really stands iPhone 12 Pro Max massive screen. Big phones nothing new; companies like Apple, Samsung, Motorola, many others been releasing large-screened devices years. In fact, Samsung's Galaxy S20 Ultra even larger 6.9-inch screen.
+However, phone makers like Apple offering choice ever comes size pricing, make buying decision challenging.
+The iPhone 12 Pro Max's gigantic screen makes ideal those truly everything their phone. If type person spends morning commute rifling inbox, frequently watches movies long flights, perhaps spends every night reading books phone bed, probably want biggest screen possibly get. 
+The justification large-screened portable device difficult pandemic, many us home surrounded ideal screens work (laptops) entertainment (TVs). But, I've been using iPhone 12 Pro Max sort in-between device around house, much like tablet.
+In terms screen quality, iPhone 12 Pro Max's Super Retina XDR OLED display capable displaying rich, vibrant colors crisp detail. But, images look quite sharp, colorful, bright Samsung's Galaxy S20 Ultra, crams pixels per inch iPhone (511 ppi versus 458 ppi). 
+But, I've said iPhone reviews, disappointing see Apple adopted useful features found Android phones, like fingerprint sensor always-on display. Embedding fingerprint sensor power button would been practical move given many us wearing face masks time leave house likely time. 
+          Business Insider/Lisa Eadicicco
+It's bigger screen separates iPhone 12 Pro Max rest Apple's new iPhone lineup. It also zoom lens that's slightly capable iPhone 12 Pro.
+The Pro Max 2.5x optical zoom, 5x optical zoom range, 12x digital zoom, compared iPhone 12 Pro's 2x optical zoom, 4x optical zoom range, 10x digital zoom. 
+You definitely notice difference. But, small discrepancy it's probably useful professionals photo enthusiasts may seeking very specific shots, rather casual photographer.
+Samsung's Galaxy S20 Ultra, however, has 100x digital zoom 10x optic zoom, giving much closer perspective. Zooming 100x may be very useful since lose lot sharpness point, still get crisper closer zoom S20 Ultra iPhone.
+Take look photos see difference. 
+Apple iPhone 12 Pro
+          Business Insider/Lisa Eadicicco
+Apple iPhone 12 Pro Max
+          Business Insider/Lisa Eadicicco
+Samsung Galaxy S20 Ultra
+          Business Insider/Lisa Eadicicco
+Otherwise, iPhone 12 Pro Pro Max share many same features, including ability take Portrait Mode photos night thanks its LiDAR sensor (more later) support Apple ProRAW. That latter feature, be launching later year, lets photographers edit raw elements photo still getting benefits Apple's computational photography their images. 
+All Apple's new iPhones also shoot Dolby Vision video support Night Mode cameras. In terms general camera performance, standard iPhone 12 sometimes outshines competitors like Samsung Galaxy S20 Ultra Google Pixel 5 capturing richer color. But, scenarios, taking selfie Night Mode, fell short, shown original review iPhone 12. 
+The iPhone 12 Pro Max, like Apple's compact Pro, comes LiDAR sensor, stands light detection ranging. That means the sensor measure depth detecting long takes light reflect back object.
+The biggest way LiDAR helpful the Pro Pro Max enabling the phones take Portrait Mode photos make the subject appear crisp slightly blurred background even dark scenarios, shown iPhone 12 Pro review. In my experience, the iPhone 12 Pro able take brighter portrait shots Night Mode compared the Samsung Galaxy S20 Ultra, although the photos both phones impressively sharp.
+The iPhone 12 Pro Pro Max's LiDAR sensor also useful helping augmented reality apps perform faster, particularly digital measurement apps use phone determine the dimensions nearby surfaces. I wish I found using AR often the iPhone, I haven't found an app that's compelled regular basis yet.
+But, Apple clearly already thinking how make LiDAR useful the iPhone. The company recently launched new feature called People Detection enable the visually impaired detect people may be nearby using the iPhone's LiDAR sensor.
+        The iPhone 12 Apple's MagSafe charger
+          Lisa Eadicicco/Business Insider
+If battery life biggest priority, the iPhone 12 Pro Max the longest-lasting new iPhone, offering similar battery life last year's iPhone 11 Pro Max. The iPhone 12 Pro Max lasted full day — 15 hours — still a decent amount juice left (38%) the time I ready head bed. The smaller iPhone 12 Pro, comparison, just 13% its battery left 16 hours use.
+Apple claims the iPhone 12 Pro Max last 20 hours playing back video, people just watching video their phones day. So I tested the iPhone 12 Pro Max using the way I expect people would — streaming video a little two hours, streaming music a little than two hours, otherwise checking email, taking notes, reading the news, browsing social media apps like Facebook Twitter. 
+All Apple's new iPhones also compatible the company's new MagSafe accessories, snap the back iPhone using magnets. Apple has launched some cases wallets using system, the compelling case MagSafe far probably Apple's wireless charger, quickly connects your iPhone similar the way the Apple Watch's charger the company's smartwatch. It brings a bit more convenience the charging experience, a nice bonus certainly a strong enough reason it's justify an upgrade.
+There is, however, one battery-oriented feature found some Android phones I think would been useful the iPhone 12 Pro Max: reverse wireless charging. As its name implies, feature makes possible charge accessories resting the back your phone.
+It's a feature I've used much Android certainly one I'd usually call a deal breaker. But, a device like the iPhone 12 Pro Max comes such a large size offers such long battery life, I could imagine reverse wireless charging being useful topping your AirPods Apple Watch a pinch. 
+          Business Insider/Lisa Eadicicco
+Apple framed 5G being the headlining attraction its new iPhone, upgrading just 5G worth it stage. If you're already buying a new phone other reasons, going a 5G model ensures your new phone will stay relevant years come existing networks become more advanced. 
+The 5G networks widespread today all much faster than strong 4G LTE networks, I experienced testing 5G speeds 4G LTE performance my reviews the iPhone 12 iPhone 12 Mini. Ultra-fast networks that run millimeter wave spectrum found very small areas — like specific street corners a select number cities — since they limited reach struggle penetrating buildings.
+          Business Insider/Lisa Eadicicco
+The biggest benefits get choosing the iPhone 12 Pro Max its much roomier screen compared the other iPhone 12 versions longer battery life. It also offers a closer zoom than Apple's other phones, many Apple's compelling camera features are available other models too.
+You could argue that the iPhone 12 Pro Max doesn't stand the rest the lineup enough justify its $1,100 price, especially since the cheapest edition the iPhone 12 starts $700.
+But, it's ultimately a good thing that Apple requiring pay for the pricier models get the iPhone 12's most important updates, like Night Mode across all three cameras, 5G support, a more vibrant OLED screen — the latter which previously only available on its Pro models. 
+That said,  it would been nice see Apple throw extras like reverse wireless charging further differentiate the Pro Max the rest the lineup, especially since its battery life size makes the Pro Max ideal for such a feature.  
+All told, the iPhone 12 Pro Max the iPhone get care having a giant screen long battery life. But, just want the newest model don't care about those extras, perhaps also have an iPad so don't need the biggest iPhone, the standard iPhone 12 iPhone 12 Pro are better options.
+Pros: Long battery life; Bigger screen without increasing the size the phone that much; Excellent camera; Elegant design
+Cons: Screen quite vibrant Samsung's; Samsung offers a better zoom lens; Missing useful features found on Android like a fingerprint sensor reverse wireless charging
+Subscribe our newsletter.
+You purchase syndication rights this story here.
+                Disclosure: This post brought the Insider Reviews team. We highlight products services might find interesting. If buy them, get a small share the revenue the sale our commerce partners. We frequently receive products free charge manufacturers test. This not drive our decision whether not a product featured recommended. We operate independently our advertising sales team. We welcome your feedback. Email us reviews@businessinsider.com.
+Subscribe our newsletter.
+You can purchase syndication rights this story here.
+                Disclosure: This post brought you the Insider Reviews team. We highlight products services you might find interesting. If you buy them, get a small share the revenue the sale our commerce partners. We frequently receive products free charge manufacturers test. This not drive our decision whether not a product featured recommended. We operate independently our advertising sales team. We welcome your feedback. Email us at reviews@businessinsider.com.
+Subscribe our newsletter.
+You can purchase syndication rights this story here.
+                Disclosure: This post brought to you the Insider Reviews team. We highlight products services you might find interesting. If you buy them, get a small share the revenue the sale our commerce partners. We frequently receive products free charge manufacturers to test. This not drive our decision as to whether not a product featured recommended. We operate independently our advertising sales team. We welcome your feedback. Email us at reviews@businessinsider.com.
+Subscribe to our newsletter.
+You can purchase syndication rights to this story here.
+                Disclosure: This post brought to you by the Insider Reviews team. We highlight products services you might find interesting. If you buy them, get a small share the revenue the sale from our commerce partners. We frequently receive products free charge from manufacturers to test. This not drive our decision as to whether not a product is featured recommended. We operate independently from our advertising sales team. We welcome your feedback. Email us at reviews@businessinsider.com.
+ </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9894412755966187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sahil Gupta
+Let’s spin wheel go back last 14 years going designs Apple unleashed iPhone — admit new iPhone 12 models come top three. When look big boy, iPhone 12 Pro Max, intents Rolls-Royce smartphones you’re looking biggest iPhone Apple claims fastest iPhone alongside best battery life iPhone alongside best camera outfitted.
+Honestly, never such complete iPhone, even though one last year came close ones 2013, 2011 2010 considered among best — iPhone comes close smartphone perfection phone. It also indicative fact we approaching ceiling traditional smartphone form factor design. But iPhone 12 Pro Max, Apple extracts ever done argued any smartphone maker. It charges hella lot coin comes “spirit ecstasy” motif — pays level quality, fit, finish, finesse also longevity. I don’t use words lightly, comes using phone good 14 odd days gives fair idea what do. And lot, any Android phone’s figment imagination. So, I talk phone good...
+Let’s look what do: 
+A return iconic design
+One enchanting things iPhone 12 Pro Max design cocktail geometric symmetry iPhone 5/5S design 2012/13 fused edge edge modernity iPhone XS Max iPhone 11 Pro Max. It feels precise, massive subtly brilliant thanks polished stainless-steel rails matte back. It also looks astonishingly good both pacific blue new gold finish.
+It's slim 7.4 mm substantial 228 grams. You know holding something sophisticated beastly. It's everyone fit every pocket, feel like table tennis racquet; impossible use single hand unlike antithesis iPhone 12 mini. But lot work go, one obvious choice you.
+On back phone, also get magnet hidden behind frame MagSafe charger.
+Brains faster most PCs
+I listed 12 things phone everything beyond underpinned A14 Bionic world’s first 5 nm chip. It packs massive 11.8 billion transistors 6-core design 4-core GPU coupled 16-core neural engine 11 trillion operations per second. It also dual machine learning accelerators brand-new ISP propels advanced camera system Pro Max.
+If look benchmarking applications performance system chip rivals 16-inch MacBook Pro single-core tasks eclipses many computers multi-core tasks. All achieved being ruthlessly frugal memory use battery life. Teardowns revealed iPhone 12 Pro Max 6 GB DDR4x RAM highest ever seen iPhone matching iPad Pro. It's also fused processor die itself, unlike Android phones, albeit one abnormally large phone 88 mm. This makes system inherently efficient.
+The prodigious computational capability A14 Bionic gives iPhone ability things simply smartphone do. It gives iPhone ability things most computers can't do form factor utterly mobile within power envelope that's never imagined before.
+This why iPhone 12 Pro Max breezes intense video editing 4K. It why, gadget gadget world ability shoot, slice consume 4K HDR Dolby Vision content 10-bit colour.
+Its GPU also unlocks gaming potential that's perhaps going seen years developers grapple catch up. But examples already shine light serenity iPhone pack. Stela Apple Arcade exclusive looks cinematic, immersive subtle touches around giving one glimpse handheld gaming could possible future. For many, point may moot cloud gaming would appeal like Microsoft, Google Amazon prepare get platforms iOS via browser one way other.
+But grunt always applies browser cuts many tabs like ninja fast Wi-Fi network can load webpage faster Chrome AMD Ryzen powered desktop.
+Its 5 nm manufacturing process thermal management system also one reasons why phone sips battery. Considering size battery gone iPhone 11 Pro Max yet, can give 2-day battery experience — gains efficiency feel substantial.
+The neural engine kicks so many apps offloading processing AI-based tasks even include sophisticated Face ID scanner front phone Apple using since iPhone X. And yes, unlocks faster this time around thanks advances iOS 14.
+I can keep going comparing smoothness iPhone 12 an iPhone 11 year-on-year fully fair apps yet fully leverage potential. Part reason so much firepower Apple wants ensure any iOS update throws, this phone endures gracefully so ages 3-4 years, something see Android phones operate like appliances.
+Pro camera system
+Three cameras plus LiDAR form basis camera system iPhone 12 Pro Max that's simplifying things great degree. For first time since iPhone XS Max, iPhone big-boy iPhone received superior camera system standard-sized iPhone Pro model.
+To precise, I'm talking larger 12-megapixel primary sensor f/1.6 47% larger one iPhone 12 Pro takes 87% light. It gets massive 1.7um sub-pixels big deal low light performance. It also gets new 7-element lens Apple designed.
+It also gets sophisticated optical stabilisation system called sensor-shift stabilises sensor instead the heavier optics. It can make 5,000 corrections second gives an almost gimbal-like quality.
+The telephoto lens also different superior. It gets 62 mm field view peak optical zoom 2.5x. It takes slightly lesser light f/2.2. This lens also optically stabilised. Then the 120-degree wide-angle camera the same the three iPhone 12 models.
+On the software side, Apple improved smart HDR processing, deep fusion multi-frame tech indoor medium-light situations night mode ultra-low light situations. Apple also deploying Apple ProRaw a software update soon. These updates trickling the selfie cameras makes even effective.
+For video, Apple elevated the stabilisation system also added support Dolby Vision real-time 4K 60 frames per second something high-end DSLRs can't do.
+All this also benefits the LiDAR enables faster autofocus low light elevates portrait photography computationally pipped via the ISP the A14 Bionic chip.
+A lot happening obvious Apple thrown the gauntlet comes photography so ever the history the iPhone.
+It simplistic call the iPhone 12 Pro Max the best smartphone camera. It classic peak Apple — an interplay measured hardware updates tuned precisely the software.
+In daylight predictably, this an excellent camera — fast, easy use reliable. It always takes attractive photos blends a better balance the oversaturated look one gets modern Samsung phones the super contrast heavy look the Google Pixel phones. The pictures the iPhone look realistic. They also leave heaps headroom editing, something Apple extend releases Apple ProRaw.
+The magic happens medium low-light situations most phones take great photos given good light. The iPhone 12 Pro Max also pulls ahead iPhone 12 siblings thanks the bigger sensor, the accurate optical stabilisation system also the LiDAR. But pulls away subtle ways — obvious ways. You'll need do a side side comparison understand.
+For example, low light situations, the Pro Max sometimes not engage the night mode the standard Pro will. This need it. It the bigger sensor so takes the light naturally, not computational pyrotechnics. And sometimes, will engage the night mode a shorter interval often the difference a blurred shot not especially motion involved. It pulls ahead extreme conditions. When manually forced do things a third-party app like Halide the hands a trained lensman can do things you'd expect range finder cameras do?
+For instance, the 62 mm crop the telephoto lens certainly the attractive frame. Its 2.5x zoom also desirable considering a decent bump. What people much the digital zoom the iPhone admittedly inferior the super zoom tech the Pixel remains superior the lossless zoom is many Android manufacturers tout using oversampling techniques?
+As things like night mode — the iPhone 12 Pro Max certainly takes among the best low light photos I've seen 2020. It is likely the best purely the terms fidelity, ease use reliability. Apple also extended this the wide-angle camera makes even more delightful. This makes the iPhone 12 models the best low light wide-angle camera.
+It also now takes the best portrait photos I've seen a smartphone, the Pixel 4a included. The Pixel 4a, however, remains better taking portraits product photography, a fringe use case that's particular interest someone like posts photos the latest gadgets.
+Interestingly, also need use portrait mode often the f/1.6 aperture the main camera provides great natural bokeh. Add this, the telephoto lens also provides great opportunities macro photography.
+As the video, phones doing things beyond DSLRs computationally. Apple extends lead the video. The audio capture the iPhone is also quite spectacular though any professional is best paired a Shure MV88 microphone kit. But you're going be bootlegging a concert the future, the iPhone microphone will more than suffice.
+No Pro Motion who cares
+The biggest controversy the iPhone 12 Pro iPhone 12 Pro Max is the fact have a high refresh rate screen popularised Android phones the last two years. It's worth noting though despite absence DisplayMate has rated the screen the iPhone 12 Pro Max the best panel a mobile phone today.
+Apple one the first adopt high refresh rate screens back 2017 the third-generation iPad Pro. Apple called Pro Motion. And since then, years have been rumours the tech would come the iPhone. With its wide adoption Android phones, Apple expected make the jump. But several logistical functional reasons, Apple avoided it.
+And I think was a good move who cares. People love the tech Android phones those phones have very responsive user interfaces. iOS is silken comparison. It flies. It matter simultaneously, would suck a buck ton battery.
+Perhaps, games would be able utilise the average iPhone customer, particularly the one who is buying the Pro Max, battery life would be a bigger concern especially markets that have 5G connectivity.
+When throw all that poppycock the window, you're left a screen is a visual treat. It has a peak brightness upwards 1200 nits can ramp aggressively depending needs. HDR video Dolby Vision shines through viscerally stupendous viewing angles. It is good everything the Pro Max, you don't even notice the notch much.
+It even gets a ceramic shield, a technology that most people even talking about. Apple’s claim 4x better shatter resistance is the difference buying a tempered glass not, though admittedly on testing didn't prove enhance scratch resistance.
+But almost perfect
+There are things that the iPhone limits just doesn't do well — these are minor quibbles. But quibbles are this is a phone that starts ₹129,000.
+Its size is a problem compounded the gorgeous new design. On one side, it is too big a phone a case on the other side, the straight lines on the spine make it a little uncomfortable hold even though the phone has become thinner.
+Charging speeds ideal modern standards. It peaks 20-watts can be through Apple’s new brick you have buy it you don't have an old iPhone USB type C to lightning brick. Yes, there is charging brick in the box. MagSafe is a cool idea charging, it works elegantly but again it is expensive pretty slow 15-watts. The iPhone still doesn't support reverse wireless charging.
+A 120Hz screen even it is not needed is going to be needed next year sure. Aside that the display looks dated because of the huge Face ID notch should be reduced. Apple, in the wake of the virus, also considered a fingerprint scanner — this phone recognise your face when a mask is on. Perhaps something next time.
+iOS 14 is a lovely update. It makes the iPhone more adaptable functional. It makes it customisable but the one thing it doesn't do is tune the operating system a 6.7-inch screen.
+And perhaps, the biggest deterrent in India is the starting price. ₹129,900, ₹159,900 for the unit I'm testing. This is a lot of money. This year the iPhone is even more expensive than last year that too ₹20,000. But despite the increase which is more due to the inflation of the dollar the rupee increased taxation for fully imported smartphones in India, it is a steep ask.
+              Subscribe to Moneycontrol Pro at ₹499 for the first year and get access to exclusive offers. Use Code: PRO2021. Limited period offer. *T&amp;C apply
+Data is a real-time snapshot
+©TV18 Broadcast Limited. All rights reserved. 
+ </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9310891628265381</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The iPhone 12 Pro Max so close perfect smartphone. Shame Apple make one big sucky mistake.
+The iPhone 12 Pro Max almost perfect smartphone, quite.
+For last decade so, I almost totally content Android flagship smartphone user. My particular poison love affair Samsung plus-size models. I not, however, take obvious upgrade path Galaxy Note 10+ 5G Note 20+. Instead, I jumped operating system ship entirely bought iPhone 12 Pro Max. Another smartphone leaves almost totally content.
+Let's start reason sticking Samsung. Two words: fractured ecosystem. The hardware gorgeous, doubting that. The operating system also almost every way. Without wishing enter kind mobile OS battlefield, much Android I found wanting. Apart updates. 
+Both significant next-generation Android updates slower arrive Samsung London buses Sunday afternoon importantly security updates. Theoretically, are distributed every month that's on receiving end. As security guy, quite important you. 
+I live waiting many months latest UI, I appreciate kept waiting weeks something fixes critical security threats device data. 
+Yet someone did, indeed, wait weeks security update finally push device, I one lucky ones. My delay only two three weeks as rule thumb, far long leave attack window open better getting update all. 
+Which where many users find courtesy combination manufacturer, handset network provider. The Android ecosystem fatally fractured; always been. As someone lives breathes security business, I put longer. 
+Apple, walled-garden approach things, suffer problem. When update available, available all. Well, almost all; obviously truly ancient devices could likely find left out.
+But more just security updates attracted right an iPhone user more. Privacy matters also held magnetic attraction, especially release iOS 14: that, hardware. I'm used big phones; Galaxy Note 10+ bigger (though not heavier) the iPhone 12 Pro Max I ended buying. I like big screen, I'm not one-handed user thumb-typist. I also like the superior camera, yes I know such things are open debate, the night mode particular pull.
+There's one thing I like the iPhone 12 series though, prevents being what should my perfect smartphone. 
+And, surprise anyone, security-related. 
+This is where gets a bit weird: the feature sucks excels is Face ID. When works, works better any Android handset facial recognition I've experienced. Better terms speed recognition, integration across everything I better the recognition itself. 
+When doesn't work, my iPhone 12 Pro Max really sucks. In fact, sucks elephants a straw.
+The problem being, course, doesn't work I'm wearing a protective face mask. 
+And, I care others enough not want risk spreading a killer disease, means the time I'm not home. 
+Would it too much ask this already large expensive device could found the room, both physically financially, a fingerprint sensor? I really think so. 
+Apple a perfectly good one uses the power button, all. The combination Touch ID Face ID would made this the perfect smartphone, me, without any doubt. 
+The lack Touch ID may well lead upgrading 12 rather than 24 months, although hopefully, the Covid-19 vaccine may mean that the face mask issue isn't so pressing then. 
+In the meantime though, I regret leaving my Galaxy Note behind all. Apart from when I'm a queue having fumble around entering my rather long passcode unlock a flagship Apple device...
+I'm a three-decade veteran technology journalist have a contributing editor PC Pro magazine since the first issue 1994. A three-time winner the BT…
+I'm a three-decade veteran technology journalist have a contributing editor PC Pro magazine since the first issue 1994. A three-time winner the BT
+I'm a three-decade veteran technology journalist have a contributing editor PC Pro magazine since the first issue 1994. A three-time winner the BT Security Journalist the Year award (2006, 2008, 2010) I also fortunate enough be named BT Technology Journalist the Year 1996 a forward-looking feature PC Pro called 'Threats the Internet.' In 2011 I honored with the Enigma Award a lifetime contribution IT security journalism. Contact me confidence davey@happygeek.com you have a story reveal research share.
+I'm a three-decade veteran technology journalist and have been a contributing editor PC Pro magazine since the first issue 1994. A three-time winner the BT Security Journalist the Year award (2006, 2008, 2010) I also fortunate enough to be named BT Technology Journalist the Year 1996 a forward-looking feature in PC Pro called 'Threats to the Internet.' In 2011 I was honored with the Enigma Award a lifetime contribution to IT security journalism. Contact me in confidence at davey@happygeek.com you have a story to reveal research to share.
+ </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9999127388000488</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+By Jason Cross
+							Staff Writer, 
+Macworld |
+Today's Best Tech Deals
+Picked Macworld's Editors
+Top Deals On Great Products
+Picked Techconnect's Editors
+The iPhone 12 Pro Max big. Just slightly taller wider iPhone 11 Pro Max (which already handful), certainly who insist one-handed operation.
+If big phone kind person, probably find Max version iPhone 12 Pro worth $1,099 starting price. While new camera tiny bit better, expansive display incredible battery life make worth every penny price premium.
+The iPhone 12 Pro Max essentially larger iPhone 12 Pro. It's exactly phone colors thickness style, display, A14 chip, LiDAR, same MagSafe support... stretched beautiful 6.7-inch display.
+It's lot phone. If like really big phones, feel right home, if insist one-handed operation be overwhelmed almost tablet-like slab.
+The iPhone 12 Pro Max quite bit larger iPhone 12 Pro.
+Along larger size comes larger battery, makes really big difference. To measure battery life calibrate display 200 nits run battery full empty using Geekbench 4 battery test. In test, iPhone 12 Pro Max lasted 26 percent longer 12 Pro—over 8.5 hours! It's far longest battery life we've ever measured iPhone.
+The iPhone 12 Pro Max lasted considerably longer any iPhone we've ever tested.
+Other performance metrics track right along iPhone 12 iPhone 12 Pro. There infinitesimal benefits larger size Max reducing thermal throttling A14 chip, you'd never notice it.
+Outside battery life, iPhone 12 Pro Max performs like every iPhone 12—blazing fast.
+There one small hardware change iPhone 12 Pro 12 Pro Max, beyond obvious size battery capacity. In change last year's iPhone model lineup, Max version year slightly different camera hardware.
+The camera module may look same iPhone 12 Pro, two these cameras little different.
+The standard wide-angle lens still 12 megapixels the sensor 47 percent larger. This larger sensor stabilized sophisticated sensor-shift image stabilization system rather the lens-based stabilization the cameras. The result supposed be detail less noise low-light environments.
+In addition, the telephoto lens little bit telephoto. The iPhone 12 Pro 2x telephoto (equivalent 52mm focal length), the Max variant 2.5x (about 65mm).
+There's lot talk the difference the new wide sensor will make low-light photography, try I might, I could produce convincingly better shots than the iPhone 12 Pro. Apple's multi-exposure computational photography good I hard time distinguishing shots the old sensor the new one.
+I took lot low-light Night Mode shots trying get the iPhone 12 Pro Max look lot better. It never really happened.
+You find edge cases matters, even you'll zoom pixel-peep spot the slight improvement detail texture the Max's improved sensor. What I notice the Max regularly takes Night Mode shots shorter exposure times, shots low light without Night mode have somewhat faster shutter speeds higher ISO settings.
+That means easier hold steady, you're likely get good shot subject that's moving. Even so, not night-and-day difference.
+The longer telephoto useful, produces slightly grainier shots low light.
+You'll immediately notice the telephoto lens bit longer, though. When shooting Portrait Mode shots have a choice 2.5x 1x, instead 2x 1x the non-Pro model, that closer crop creates a totally different feel. But being longer, the telephoto lens a narrower aperture, means a bit grain noise use it low light.
+The longer telephoto definitely changes the character Portrait Mode shots. Charlotte never looked glamorous.
+If were considering the iPhone 12 Pro Max Pro its superior camera, I bother. There a difference, minuscule; Apple done an amazing job iPhone 12 Pro photography that it's not worth lugging around a huge phone (if don't want to) just get a slightly better shot some particular situations.
+The iPhone 12 Pro Max costs $100 than the iPhone 12 Pro. If like really big phones, it's totally worth it. The expansive 6.7-inch display makes videos pop, games immersive, web pages easier read. Most all, the absolutely epic battery life alone worth a 10 percent increase price. That battery life alone could convince some users to carry around a bigger iPhone.
+But the improved camera not a reason to buy this model. Simply put, the improvements the iPhone 12 Pro so seldom seen, usually so minute, that it be a factor in deciding to purchase. Think the improved camera a nice little bonus top a phone crazy performance battery life.
+It's an iPhone 12 Pro, only bigger. The super-long battery life the real draw here, the improved camera offer much benefit the already-fantastic iPhone 12 Pro.
+Jason written professionally technology for over 20 years. His goal to figure how complicated technology works explain it in a way anyone understand.
+Macworld is your best source for all things Apple. We give the scoop what's new, what's best and how to make the most of the products you love.
+Visit IDG sites:
+Copyright © 2021 IDG Communications, Inc.
+ </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9140235185623169</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The best category. We highly recommend it.
+How score
+The Engadget Score unique ranking products based extensive independent research analysis our expert editorial research teams. The Global Score arrived curating hundreds, sometimes thousands weighted data points (such critic user reviews).
+In old days, COVID, I review big phones — I used almost exclusively. They're especially helpful New York, never knew train get held up. There’s nothing like big screen noise-canceling headphones help feel like you’re anywhere crowded subway car. Needless say, things changed. These days I spend nearly my time home, need carry enormous phone around isn’t nearly strong used be.
+Going review, I fairly sure I'd prefer new iPhone 12 mini, I testing time. I wrong. Ultimately, allure iPhone 12 Pro Max proved hard ignore: It far away Apple’s best big iPhone, well worth splurge handle outsized dimensions.
+Apple's iPhone 12 Pro Max lot common smaller sibling. Think: new design, expansive 5G network support amazing performance, name few. Because they're similar, think smaller iPhone 12 12 Pro better options people, handle enormous screen, Pro Max's better battery life flexible cameras make Apple's capable new model, all-around fantastic smartphone.
+If considering Apple's iPhone 12 Pro Max, decisions make. The first whether need phone big, especially since smaller iPhone 12 Pro already packs 6.1-inch screen. Once sorted, storage
+128GB: $1,099
+256GB: $1,199
+512GB: $1,399
+(It's worth noting that, unlike regular iPhone 12, Pro Max costs regardless whether want unlocked model buy directly carrier.)
+Like rest iPhone 12 lineup, Pro Max cuts striking figure next last generations iPhones. Inspired part Apple's redesigned iPad Pro, Pro Max sleek angular flat, stainless steel edges that, eye-catching, quick pick fingerprints. (They're especially noticeable my gold review unit.) Not everyone appreciate Apple's design choices year, new look evokes fan-favorites like iPhone 4 5 gives Pro Max distinctive feel compared rest year’s premium smartphones.
+It's also important note iPhone 12 Pro Max slightly thinner last year's big iPhone. If break calipers, difference seems minimal, trust — every fraction millimeter counts we're talking large devices going hold throughout day. That said, also little heavier iPhone 11 Pro Max, point people would make fuss. On whole, Apple's nipping tucking means 12 Pro Max comfortable use last year's model, that’s big deal.
+Aside that, 12 Pro Max shares lot iPhone 12 Pro. Its stainless steel body frosted glass back repels grimy fingerprints makes less prone sliding around. It IP68 rating water dust resistance, shatter-resistant CeramicShield covering display. Just remember, “shatter-resistant” “scratch-proof”. At point my testing, screen picked pronounced gouge right edge display, I life me tell happened. In case, I'm sure last accident. 
+The Pro Max also supports full swath MagSafe accessories, though most forgettable. Apart neat cases, most notable example Apple's MagSafe wireless charging puck. Charging rates top 15W, double you'd get standard Qi wireless charger. Honestly, though — I'll probably elaborate another story — wireless charging still inefficient me fully embrace. Yes, convenient, there's notable body evidence suggesting widespread use wireless charging could negative effect environment. The jury still extent impact, rumors true Apple really plan make portless iPhone, expect lot subject. 
+Apple also gets credit managing squeeze an even bigger display. At 6.7 inches, Super Retina XDR screen biggest Apple’s ever packed an iPhone, gorgeous little daunting. The gorgeous part self-explanatory: It's plenty bright outdoor use, OLED display ramps brightness even 1,200 nits displaying HDR video. 
+The one real knock that, unlike basically every half-decent Android phone, screen refreshes 60Hz. Leaks published Apple's big event strongly suggested 12 Pros hardware need actually — don't. Maybe prolong battery life company's first 5G phone, maybe something else. Apple bet people miss largely true, if experienced faster screens, hard go back. 
+As thing daunting, well, look it. A people I've spoken already think 6.1-inch iPhone 12 gotten big, Pro Max offers even screen navigate. Yes, thing little easier handle new design, Pro Max obviously going way much phone people.
+On flip side, Apple's continued insistence flat screens means Pro Max less prone accidental touches edge display stretching reach something thumb. This might mostly "me" problem, it's common high-end Android devices curved displays, it's annoying. All told, unless really care camera performance (more soon), smaller iPhone 12 Pro enough most people.
+The last maybe most important thing Pro Max shares rest year's new iPhones Apple's new A14 Bionic chipset. This fourth time I'm testing phone using A14, some might know drill: Apple's new chipset packs significantly faster CPU, GPU Neural Engine compared last year's A13, itself crazy fast. I note that, like smaller 12 Pro, Pro Max also 6GB RAM, just 4GB year's non-Pro models. There’s huge performance difference compared regular iPhone 12, extra RAM gives 12 Max headroom iOS apps grow complex. 
+And that’s point. Very little do going throw thing loop: gaming, multitasking, whatever. You're covered. As I said our iPhone 12 review video, level performance get overkill 2020 standards, it's saying something Apple reportedly using souped-up version chipset first Apple Silicon Macs. It’s easy take phone's performance granted — new iPhone run insanely fast beginning? — really appreciate years road.
+The Pro Max also plays nice just US 5G networks, I'm going dwell here. High-end 5G phones aren’t terribly new, how good experience depend carrier use it. I've tested Pro Max T-Mobile Verizon's nationwide 5G networks, exceptions, performance dramatically different what I noticed non-5G phones. 
+There are, course, exceptions: T-Mobile's mid-band 5G Manhattan noticeably faster I popped SIM an LTE iPhone, if live city Verizon rolled its mmWave 5G, occasionally find pockets extremely fast connectivity. For now, might see much improvement, expect change time networks mature grow reach. (Reminder: Verizon owns Engadget, control what publish.)
+Meanwhile, battery life pretty great. In fairness, I've also living the iPhone 12 mini week, anything better feels like an improvement. Overall, I've able use the Pro Max full workdays still quite a bit left the tank the following morning. Full disclosure: Rather setting phone new, I restored a backup the way many iPhone users do. Apple said previously background processes related device restoration continue a days the fact, it's possible battery life could improve a bit time. Anyway, I sweat it: Even a restore, the Pro Max will still get through a long day a little extra left the next one.
+So far, all — great performance, better battery life — feels typical a big iPhone. What's distinctive the 12 Pro Max's cameras. For the first time a years, Apple just use the setup across its high-end iPhones. Because room play — possibly justify its existence the regular 12 Pro bigger — Apple got a little ambitious. 
+The ultrawide camera the the 12 Pro, the same goes the LiDAR array; makes AR apps run better helps focusing low-light, I think we've seen its full value yet. The two cameras a different story.
+For one, the standard wide camera — i.e., the one probably use the most — a larger 12-megapixel sensor actually moves around inside body, better image stabilization. Apple says new system make 5,000 micro-adjustments per second, crisper looking photos less shaky video. This going mean a lot some others. Almost all the photos I take purely handheld, I see a huge difference compared the regular iPhone 12s. The difference a little apparent I shooting video. You'll still see a telltale bob, some the natural jerkiness comes handheld shooting smoothed out. 
+This camera also the same f/1.6 aperture the smaller iPhone 12 Pro, basically lets light hit the sensor But there's a twist: The pixels on the sensor physically bigger, they capture even light on the smaller Pro phone. In daylight, I think you'll see much a difference; mostly means some cases, the camera won't automatically fire Night Mode frequently, doesn't need run as long does. I've testing the iPhone 12 mini alongside the Pro Max, I've seen happen a few times. The resulting photos look surprisingly similar, impressive consider the mini had combine multiple exposures a single photo. 
+And there's the telephoto camera, still captures 12-megapixel stills, offers a slightly longer range — it's a 65mm focal length, works a 2.5x optical zoom, from the 2x zoom the smaller 12 Pro. I've said the past I'm a huge telephoto person that's still true, these things obviously their uses. My favorite shot far been this gorgeous sunset, managed keep this tiny plane looking relatively sharp as I tried track through the sky.
+The extra range get the Pro Max definitely helpful, though Samsung still has the edge — the Note 20 Ultra I've been shooting comparison shots has a 5x optical zoom, plus if willing go hinky Space Zoom territory. 
+As usual, the cameras only half the story. Apple also made some under-the-hood improvements its Smart HDR image processing, the most notable the way uses machine learning selectively tweak different parts the same photo. The resulting pictures have a little more verve them compared last year. Colors are typically a bit warmer, skies look more dramatic, the point they almost look Samsung-y — is, nicer than what you actually see your eyes. 
+Overall, though, Apple's image processing still skews toward the realistic. I really like the Pixel 5's contrasty photos the Note 20 Ultra's super-saturated everythings, the Pro Max good splitting the difference. Whether yields exactly the photos you prefer is, well, up to you.
+That's not to say everything perfect here. You'll occasionally see big shifts color temperature you switch the main camera the others, the way Apple tends to process colors vary pretty dramatically if moving from subject to subject. Sometimes it even happens when you're just standing there. Check these two photos, shot within moments each — I didn’t move change settings the vibe completely different them.
+I also have to say, it would nice if Apple introduced a specific Pro camera mode, like we've seen on plenty of high-end Android phones. I get ease of use Apple's whole deal, if you're going to market something as a "Pro" device, there's nothing wrong offering more control the people who do want it. Apple sort of gets this, why the 12 Pros are getting support the new ProRAW format later this year. I'll cover update when it goes live.
+We also have to talk video, for the most part, we're looking at the same great performance I noted our iPhone 12 Pro review. By default, this thing set to shoot Dolby Vision HDR video, which means two things: One, your footage going to look fantastic, especially on this Super Retina XDR display. And two, working even viewing footage is gonna tricky sometimes. Some of our reviewer friends have noted elsewhere that it be difficult to mix iPhone HDR video footage taken our cameras in some editing programs, while many new TVs play nice DolbyVision videos, older ones may run compatibility issues.
+All told, these updated cameras aren’t exactly game-changers, though I stress I’m definitely not a pro photographer video producer. I’ve learned how to take pretty good pictures of phones, that's about it. With that in mind, I still appreciate Apple's extra work here: The Pro Max's cameras give you some flexibility that just available from other models, it sets an important precedent for bigger camera differences iPhones the road. If you don't mind living with a big phone, this is well worth the $100 premium the smaller 12 Pro. 
+So, you buy this thing? I can answer that a few ways. If you're a big-phone person, or you care about camera performance all, the Pro Max is the one you should be looking at. It's a fantastic device, the blend of power and battery life and cameras makes it easy to overlook some of the things Apple left this year. Like I said earlier, I've turned a small-phone guy quarantine, this is still the iPhone I'd buy for myself.
+ </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8802610635757446</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tomorrow different. Let's reshape today
+Let's get smarter money
+#TougherTogether
+Hunt brightest engineers India
+Apple, its virtual 'Hi, Speed' event, unveiled four new iPhones equipped technology support new 5G wireless networks.In addition new variants iPhone 12, priced $700 $1100, Cupertino-based tech giant also launched smaller cheaper version its HomePod speaker.Apple also said won't including earbuds power adaptors newest iPhones, since customers already these. That reduce manufacturing make boxes lighter ship.
+The company's environment policy chief Lisa Jackson said move part Apple's efforts "to cut waste use less materials."
+Apple's iPhone 12, successor top-selling iPhone 11, comes display 6.1 inches. The smartphone powered Apple's A14 Bionic processor dual-camera, using company called "computational photography," digital technology get best images all conditions.The tech giant said the iPhone 12 use "smart data mode" assess 5G needs balance speed battery life automatically.
+The iPhone 12, available 5 colours: Black, White, Red, Green Blue,  priced Rs 79,900. It go sale October 30.
+The iPhone 12 Mini, Apple calling the "the smallest, thinnest, lightest 5G smartphone the world," comes 5.4-inch display. It Apple's "Super Retina XDR" display colour management, water resistance wireless charging.The device come five colour options packs the latest Bionic A15 iOS 14. Priced Rs 69,900, be available Apple.com through Apple Authorised Resellers October 30.
+Apple also launched two Pro models the iPhone. While the iPhone 12 Pro sports 6.5 inches screen, the Pro Max features 6.7 inches Retina display. Both powered A14 Bionic chipset, come deep fusion camera feature.The iPhone 12 Pro includes seven-element lens an ultrawide angle feature giving a 120-degree field view, along a 52 mm focal length telephoto lens. iPhone 12 Pro be able record videos Dolby Vision HDR also edit the Photos app itself.iPhone 12 Pro iPhone 12 Pro Max will be available 128GB, 256GB, 512GB models Graphite, Silver, Gold, Pacific Blue starting Rs 119,900 Rs 129,900, respectively, October 30.
+Apple also announced a HomePod Mini smart speaker take similar offerings Amazon Google. The smart speaker comes an Intercom feature allows send a message one HomePod another.  The feature also works iPhones, iPad Apple Watch. The device priced $99.
+Trending Now
+Popular Categories
+Hot Web
+In Case missed it
+ET Verticals
+More network
+Other useful Links
+services
+Find comment offensive?
+Choose reason and click the Report button. This will alert our moderators take action
+Reason reporting:
+Your Reason been Reported to the admin.
+Log In/Connect with:
+Will be displayed
+Will be displayed
+Will be displayed
+ </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5253342986106873</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9999545812606812</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ireland's National Public Service Media
+Meáin Náisiúnta Seirbhíse Poiblí na hÉireann
+Business Editor
+Delays caused Covid-19 meant Apple released iPhone 12 12 Pro number weeks ago, wasn't ready also start selling iPhone Pro Max iPhone 12 mini. 
+However, delays since overcome company began shipping biggest smallest devices iPhone 12 range mid-November. 
+We previously reviewed iPhone 12  and 12 Pro detail considerable overlap shared features between two devices 12 Pro Max 12 mini, won’t writing full review them well. 
+But also differences handsets. Here main ones.
+DESIGN &amp; DISPLAY 
+The 12 Pro Max 12 mini carry same updated look 12 12 Pro, the stainless steel band around outside, akin found old iPhone 5. 
+But big differences comes dimensions. 
+The 12 Mini dinky little handset really appeal anyone small hands likes compact device. 
+It same decent Super Retina XDR display get the entire iPhone 12 range, including 12 Pro Max. 
+But case mini, just 5.4" size, making it 20% smaller iPhone 12 even smaller older iPhone SE. 
+If used using larger phone, find very small, although Apple maximised screen real estate keeping bezels bare minimum. 
+But is definitely a market compact devices like been served recent times. 
+There’s market though huge phones, this 12 Pro Max comes in. 
+It 6.7" display, making big daddy range handful. 
+That extra size though, aren’t put it, enable lot comes browsing web, editing images video watching video back. 
+It won’t everyone though, particularly who like use phone one handed.
+A discrete pocket phone really not.
+CAMERA 
+When comes imaging setup also variation iPhone 12 Pro Max 12 Mini compared 12 12 Pro. 
+On 12 Pro Max you get same triple camera set do 12 Pro, slightly improved optical zoom range 5x compared the 12 Pro’s 4x.
+It also boasts the LiDAR scanner that the 12 Pro has to help faster autofocus, portrait snaps using Night Mode Augmented Reality experiences. 
+The wide-angle camera chip 47% larger, providing better performance low light, less noise reducing the need use Night Mode much. 
+The optical image stabilisation the 12 Pro Max also revamp, the stabilisation moved the lens the sensor the first time smartphone, giving impressive results. 
+The 12 mini on the hand basic two camera unit. 
+You get the ultra wide and wide lenses, telephoto.
+That means when it comes optical zooming get 2x range. 
+It can only record Dolby Vision HDR video 30fps, rather the 60fps offer bigger brothers. 
+The Apple ProRAW option, allows raw images captured using unedited data, also available the mini. 
+There’s also no LiDAR scanner the mini, ruling the possibility using the bokeh Portrait effect Night Mode, but perhaps that’s something most users can live without now. 
+But aren’t getting much the imaging department get the bigger more expensive handsets in the range, the quality the camera set you are getting still solid. 
+PERFORMANCE 
+All four devices the iPhone 12 range are powered by the new A14 Bionic chip and next-generation Neural Engine.
+So you won’t notice massive variation processing capacity speed across the devices. 
+But you will notice difference with battery life. 
+Given its huge size, the Pro Max boasts much bigger battery, Apple claims will give you a substantial 20 hours video playback. 
+In everyday testing we found it typically lasted a full day heavy use with still around a third the battery intact.
+Contrast that with the other end the range, where the iPhone mini, a smaller shell means a smaller battery, a result the equivalent benchmark 15 hours video playback. 
+You'll still get a day's average heavy use it, it last long as the Pro Pro Max.
+The mini also offers less the way storage capacity, ranging 64GB up 256GB, where as the Pro Max ditches the 64GB offering adds a 512GB choice the top end. 
+CONCLUSION 
+Of course the biggest difference the iPhone 12 Pro Max, mini the other two handsets the middle the range cost. 
+The smaller mini carries a commensurate lower price tag, starting at €815. 
+At the other end the scale, the Pro Max starts €1,258, rising eye-watering €1,600 the largest capacity 512GB version. 
+But the latest iPhones remain among the most expensive premium handsets available the market, Apple cannot be accused failing give buyers choice. 
+In fact, when you factor that its still possible to buy an iPhone SE, 11 XR new Apple, there arguably more choice ever across the iPhone range. 
+So as always, your heart set on a new iPhone rather a good alternative Android device, it boils to is you need, you want ultimately what you are willing to pay. 
+Business Editor
+Follow&amp;commatwillgoodbody
+© RTÉ 2021. RTÉ.ie is the website Raidió Teilifís Éireann, Ireland's National Public Service Media. RTÉ is not responsible for the content external internet sites.
+ </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.593769907951355</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pre-order next Galaxy S21 get discount!
+Pre-order next Galaxy S21 get discount!
+Nov 13, 2020
+6.7 inches
+2778 x 1284 pixels
+12 MP (Triple camera)
+12 MP front
+Apple A14 Bionic
+6GB RAM
+128GB, expandable
+3687 mAh
+iOS 14.x
+        The iPhone 12 Pro Max a 6.7-inch screen (slightly larger the 6.5" the iPhone 11 Pro Max), its base price set $1,100. It arrives the choice colors: silver, graphite, gold the new blue option, it also offered the storage capacities: 128GB, 256GB, 512GB.
+            The Apple iPhone 12 Pro Max most commonly compared these phones:
+LET US KNOW.
+Featured stories
+Popular stories
+Hot phones
+Samsung Galaxy S21+
+Samsung Galaxy S21 Ultra
+Samsung Galaxy S21
+Apple iPhone 12 Pro
+Apple iPhone 12 mini
+Google Pixel 5
+Samsung Galaxy Note 20 Ultra
+Apple iPhone 12 Pro Max
+OnePlus Nord
+Samsung Galaxy Z Fold 2
+Samsung Galaxy Note 20
+Google Pixel 4a 5G
+ </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7220907807350159</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  By    Alex Walker-Todd, Consumer Tech Editor       | 19 Dec 2020  
+One greatest iPhones date, packing best smartphone camera, outlandishly good performance cutting-edge features like 5G Dolby Vision, too many issues undermine otherwise excellent experience.
+Price comparison 24,000 stores worldwide View prices
+Apple's given us four phones choose year - previous generation - order so, stretched latest iPhone blueprint accommodate diminutive-yet-capable 12 Mini, right gargantuan 12 Pro Max.
+Perhaps even last year's Pro Max, generation's take definition 'peak iPhone'. It's unapologetic defining characteristics, underpinned A14 Bionic chip rest range every facet, bigger, better both.
+If market big phone, there's little reason read on; there's convincing anyone iPhone 12 Pro Max anything wrong side pocketable - that, standard iPhone 12 Pro literally makes better fit.
+This biggest, heaviest iPhone date, unsurprising consider also packs largest display sizeable rear camera module iPhone too. So long comfortable particular truths though, I'll press on.
+Its imposing scale set Apple's classic minimalist aesthetics makes impactful overall look, I really mean 'classic' here. From engineering standpoint, return flat sides - last seen iPhone 4 5 series - gives Apple room work internally, visually, add phone's sense power precision - qualities 'Pro' moniker undoubtedly designed illicit.
+While Midnight Green last year's Pros little divisive, four colourways 12 Pro Pro Max likely appeal broader range tastes, including generation's signature colour - Pacific Blue.
+On first impressions, polished stainless steel sides camera accents serve nice contrast textured matt glass back, functionally come couple trade-offs compared aluminium frames found 12 Mini standard iPhone 12, well last year's iPhones.
+For one, mirror shine quickly gives way fingerprints smears, either prepared live forever-marred finish, wear kid gloves (or actual gloves), keep buffing cloth times simply bite bullet dress phone case deem worthy enough complement phone's geometry whatever finish remains visible.
+This newly-squared form factor, paired Pro Max's extensive dimensions also presents ergonomic challenge. In essence, harder hold 11 Pro Max - rounded metal frame - issue exist last time particular design language play iPhone, devices used leagues compact.
+One way alleviate feeling discomfort come frame digging sides fingers palms is, again, clad 12 Pro Max case, fixing issue, do also make phone even bigger. If can, try get hands device get feel proportions shape buy (so long do safe, COVID-averse manner).
+90% time 12 Pro Max two-handed phone larger hands, well-mounted pop socket sheer brazen confidence use without mitts keeping sizeable form check.
+Despite size, hardware controls (isolated volume buttons left power/sleep/wake key right) nicely-positioned comfortable operation, alert slider further left side.
+While review sample take dip, Apple also continues promise offering best water resistance business, IP68 certification actually rated withstand immersion six metres fresh water 30 minutes without issue. By comparison, Samsung's IP68-certified smartphones tested endure 1.5m metres immersion within time frame.
+Technically, 12 Pro Max boasts highest resolution display ever iPhone, 458 pixels per inch last two predecessors, sharpness actually any better here, despite model's unique bragging rights.
+Much like year's Sony Xperia 1 II, Apple chose ensure fundamentals 12 Pro Max's Super Retina XDR OLED panel rock solid moving onto adding high refresh rate visuals.
+On one hand, lot complain similarly-specced screen used 11 Pro Max same true here; fact panel even larger (and flatter), without drop pixel density, good thing media lovers mobile gamers considering 12 Pro Max.
+On other, hard argue - least paper - 60Hz cut mustard top-shelf 2020 device. In Android land, rivals sell phones 90Hz, 120Hz even 144Hz high refresh rate displays, flagship phone asking flagship money display tops 60Hz work particularly hard justify omission (see aforementioned Xperia 1 II).
+Thankfully, software touch responsiveness, gap 60Hz visuals higher refresh rates rival devices seems much smaller iPhones concerned, absence 90Hz (and up) sting quite much, particularly every aspect viewing experience Pro Max good.
+Considering paying Pro Max money, frustrating Apple implement 120Hz ProMotion technology device that's perhaps characteristically Apple move designed showcase noticeable leap forward next year's iPhones. We'll wait see.
+Beyond viewing experience, Pro Max also among first generation iPhones feature Apple calling Ceramic Shield, manifests ceramic-impregnated cover glass that's supposedly "tougher any smart­phone glass" apparently four times drop-resistant (when paired phone's new flat-faced design).
+While I wasn't prepared toss Pro Max flight stairs find out, reports put tech test suggest - might expect - shatter shock resistance increases, scratch resistance concedes.
+Apple makes mention "dual ion-exchange process" combat wear tear matter much ceramic nanoparticles sit within phone's glass front, still partially made glass appears scratch such. As such, pick screen protector want truly shield one fragile parts premium purchase.
+It come surprise markets Pro Max comes without headphones any form audio adapter in-box. As such, prepared dig old Lightning-laden EarPods, invest 3.5mm adapter splash Bluetooth cans buds.
+Apple makes some pretty compelling TWS (true wireless) Bluetooth buds offer tightest integration moolah picking Pro Max, wider TWS market matured greatly since original AirPods first launched, meaning nab all-manner alternatives various sound qualities, feature sets price points suit tastes.
+There's also Max's stereo speaker setup praise, offers outstanding clarity - despite intentional bass bias down-firing speaker - pleasing consistency across loudspeakers surprisingly-defined stereo separation.
+While aren't likely replace portable Bluetooth speaker, 12 Pro Max's sheer size, paired such well-engineered components make one best-sounding stereo speaker setups phone right now.
+Unveiled ahead iPhone 12 line's debut, iOS 14 - 12 Pro Max runs box - is, part, iterative update, there handful changes additions worth shouting about.
+Widgets been properly implemented release Apple's mobile OS; able resized offer direct access compatible apps' features functions one home screens. Google's search bar widget particularly useful entrant complements iOS' light dark themes, make seamless transition moving Android.
+The process browse add app widgets seamless Android - lot time practice - what's more, behave differently old widgets lived iOS' Today View past.
+App Clips another new feature lifted Android's playbook, snippets apps may installed, running self-contained instances bring additional functionality, need it. You'll likely seldom encounter these whilst using Max day-to-day know least supports feature enough benefit right.
+Perhaps biggest departure how apps reside home screens. While make place every app each home screen nest apps within folders your design, before, that's longer compulsory part iOS experience. Now, swiping left your last standard home screen uncover App Library, populated smart folders apps, automatically grouped iOS logical categories.
+This means make room every app downloaded - resulting cleaner home screen potentially faster app-finding experience. You also option view every app installed your device alphabetised list can scroll search using dedicated field top screen.
+There whole host smaller tweaks, lead iOS 14 article tips &amp; tricks feature cover, including pinning chats Messages more, actual surface-level user experience iOS feel markedly different those coming any home button-free iPhone, beyond addition App Library.
+It already be clear time, likely find handling Max two hands those occasions option, iOS still really make many concessions comfortable one-handed use across 6.7in display.
+Zoomed view within Display Zoom setting make icons text little bigger, there accessibility tools like Reachability AssistiveTouch offer help navigation no proper one-handed mode hand shrink entirely UI temporarily, enjoyable experience trying reach top display balancing phone precariously one hand.
+There's also fact despite additional screen real-estate 12 Pro Max brings table, beyond bigger visuals enjoying media gaming, iOS really go its way capitalise Max's mammoth screen.
+iOS 14 may already cribbed features Android probably lifted more, equally expansive phones like Samsung's Galaxy Note 20 Ultra making far better use its big display including resizable split-screen floating window multitasking, one-handed mode stylus support (here's looking Apple Pencil).
+Speed fore iPhone 12 line's marketing, not least first generation benefits support 5G data speeds.
+In US, likely notice whole range appears be side-mounted TouchID sensor, however, still rely FaceID like devices sold every market. Instead, little pill-shaped insert actually mmWave antenna, place help leverage upper limits current 5G networking Stateside.
+In markets, sub-6 5G infrastructure robust faster, compared what's offer US, either way, every iPhone 12 model gets browse, stream download data faster any previous-generation.
+5G perhaps valuable 12 Pro Max any member year's lineup its bigger display facilitates productivity media consumption on-the-go readily its siblings (provided can actually 'go' anywhere, is).
+Alongside 5G connectivity, speed also manifests latest A14 Bionic chip. It's first Apple's mobile silicon (and one first mobile SoCs outright) be built smaller, energy-efficient 5nm process. It packs six cores (two high-performance four high-efficiency cores) a quad-core GPU, both Apple claims deliver 50% greater compute graphical capability respectively, compared competing chips.
+Doubling number cores A14's Neural Engine (to 16) also means a huge uptick AI machine learning performance too. However, such a fundamental upgrade make apparent developers leverage additional headroom Apple's created.
+Pulling back performance general though, clear now, A14 should be the power need, a good few years.
+Benchmarking the 12 Pro Max reflects pairing's speed ability, the highest Geekbench 5 score we've ever recorded, the promise top-notch GPU performance manifests scores really matched members the iPhone 12 family (all drive less-demanding, lower-resolution displays, accounting the Max's fractionally lower frame rates some instances).
+The phone's efficient processor countered a slightly smaller battery compared last year's Max, however, the 3687mAh cell still offers superb overall performance.
+Artificial benchmarking places the Pro Max's longevity ahead the rest the iPhone 12 clan somewhere the middle the pack compared rival Android devices, real-world use a consistent 7.5 8 hours screen-on time translates almost two days use per charge without worry; deliver our hopes considering the sheer size the phone new 5nm chip its helm.
+The intriguing aspect the 12 Pro Max comes recharging. Apple flexed its green credentials proudly announced the 12 series would launch without a charger (cutting packaging thus emissions) and, sure enough, despite the biggest iPhone date, comes impressively small box.
+Aside the phone the standard gamut paperwork (including bigger Apple stickers you'd find the 12 Mini's box because, know, Max) Apple gives a USB-C-to-Lightning cable.
+The conversation Apple refuses move Lightning perhaps best situated within this review seem odd the choice lead Apple chose include in-box. The assumption already a Lightning-based charger so the absence one the phone really undermine your ability charge it, however, the included lead likely only serve the minority those upgrading newer phones, not the majority older devices.
+The older your existing iPhone, the likely you upgrade considering only last year Apple chose include PD chargers in-box feature a USB-C port place USB-A, the included lead likely be any use unless you also possess a laptop USB-C connectivity something. Instead, those who want make the the 12 Pro Max's supported charging speeds don't have a compatible charge have fork top the phone's already high asking price.
+With this conundrum mind, I tested recharging the 12 Pro Max the iPhone charger likely have - a standard 5W adapter (mine came iPhone X box), well a modern 27W PD charger, paired the included USB-C-to-Lightning lead.
+At 5W, the 12 Pro Max's sizable battery refilled absolute crawl, reaching 14% charge half an hour (a rate continued charge about the 80% mark) a full charge taking four hours complete.
+By comparison, the 27W PD charger, refilled the iPhone full 1 hour 45 minutes, the Max reaching a respectable 56% 30 minutes 88% an hour. It's important note whatever wattage PD charger you plug the Pro Max into, the phone tops 20W - the fastest wired charging ever an iPhone - even it still lags behind the competition several leagues.
+There's also the matter MagSafe iPhone consider this year. iPhones already supported standard Qi wireless charging you can buy one an assortment MagSafe iPhone wireless chargers, magnetically align attach the back the phone offer 15W fast wireless charging (on 12 models except the Mini, least).
+As wireless speeds go, that's still notably slower than some Apple's biggest competitors there's an odd addendum the MagSafe element the iPhone's feature set. Apple making MagSafe iPhone an accessory standard; so cases, wallets mounts can already be had MagSafe built-in.
+The issue there's no real benefit this modular system - partly the magnets aren't strong enough reliably support add-ons like the wallet third-party accessory makers like Mous already offered what arguably robust reliable systems.
+If you want faster wireless charging your Pro Max though, the time being, buying a certified MagSafe charger your only option.
+There's was little distinction last year's Pro models beyond the obvious larger size subsequent battery capacity screen resolution bumps afforded the Max model; this year's pairing differentiated a little nuance; the most prominent divergence falling squarely their camera systems.
+Both 12 Pro Pro Max feature rear 12Mp triple sensor setups; comprised a wide, ultrawide telephoto snapper. They're the first iPhones integrate a TOF 3D LiDAR scanner depth-sensing augmented reality (as first seen 2020's iPad Pro). They're the world's first phones boast native 10-bit Dolby Vision video capture also showcase Apple's new ProRAW image standard, along the latest take Deep Fusion Smart HDR 3. All pretty impressive stuff, say the least.
+Where the Max sets apart a physically larger, even advanced photographic setup compared the smaller 12 Pro. The ultrawide sensors the same the other two cameras differ numerous ways.
+The Max's telephoto snapper opts a fractionally dimmer lens (with an ƒ/2.2 aperture place the 12 Pro's ƒ/2.0 aperture tele) achieves an even greater 65mm focal length (compared 52mm - an equivalent 2.5x optical zoom versus 2x the 12 Pro). Then there's the primary 12Mp sensor, which boasts a physically larger sensor bigger pixels (1.7µm versus 1.4µm the 12 Pro), supported sensor shift OIS (optical image stabilisation); leading the promise significantly improved low light performance.
+While practically every other OIS system a phone, including the Pro Max's telephoto sensor, shifts the lens help stabilise a shot, the sheer size the Max allowed Apple fit a robust sensor-shift stabilisation system, the whole image sensor moves counter image shake.
+In a sense, reviewing the 12 Pro Max's camera system easy - the best smartphone camera you can buy right now, so that's what after, you can stop looking. As the the best, requires a little explanation.
+In essence, it takes the crown its consistency across its three rear sensors, its excellent image processing - including outstanding noise reduction - brilliant low light performance across both stills video.
+In well-lit environments, have a hard time picking the best image the iPhone 12 family the best Android camera phones the business: devices like Google's Pixel 5 Huawei's Mate 40 Pro. Once the lighting drops down, however, the advantages shooting using the 12 Pro Max's camera system become clearer.
+It consistently captures shots more detail, greater dynamic range, better white balance notably less noise than Android rivals, which have rely more heavily computational photography tricks achieve similar results.
+The 12 Pro Max's camera isn't infallible sometimes the differences so slight wholly a matter personal taste empirical image superiority, however, there's a consistency the high fidelity the images 12 Pro Max captures other phones struggle replicate.
+As well the aforementioned Deep Fusion Smart HDR 3 tuning also being made available the phone's 12Mp front-facing TrueDepth camera, it's its video capture capabilities serve the other notable highlight shooting the 12 Pro Max.
+Apple already held the title best video capture a smartphone qualities like superior detail, dynamic range impressive noise reduction, praised its still shots, all carry shooting video too; especially leaning the new Dolby Vision 8.4 HDR standard.
+Dolby Vision footage retains even more detail the darkest brightest areas frame shooting HDR switched off, at this early stage the phone's release, however, it's important bear in mind you intend work your footage capture.
+Support the iPhone's Dolby Vision footage is growing, right now - outside a handful specialist apps software - you're likely to run compatibility issues you hope to throw it straight your camera roll to the likes Instagram.
+A more practical consideration to acknowledge is the 12 Pro Max's camera module is huge - probably the largest any phone in the past few years, jutting out in a stepped fashion the top left the phone's back. As one the phone's most precious assets, it's yet another reason why I'd recommend adding a case to your shopping basket picking up the Pro Max.
+The large, flat sapphire crystal lens covers do a great job protecting the delicate imaging components within also contribute to notable glare ghosting shooting video; most prominently when point light sources come frame - something else to be aware if you intend to use the 12 Pro Max serious pocket videography.
+Chances if made it this far, you're already aware the demanding pricing typically comes Apple's best brightest smartphones; unlikely deterred the four-figure asking price this year's Pro Max.
+Despite the technical improvements made over last year's model, the iPhone 12 Pro Max is actually marginally less expensive compared to its predecessor, starting at £1,099/US$1,099 the 128GB SKU.
+That's only a £100/$100 step up the standard iPhone 12 Pro if you require more internal storage, the 256GB model cost a further £100/$100 (coming in at £1,119/$1,119), the top-spec 512GB build is £200/$200 more on top (totalling £1,399/$1,399).
+Despite a shared announcement, 2020's iPhone line saw a staggered launch, the iPhone 12 12 Pro arriving first on 23 October, the contrasting 12 Mini 12 Pro Max were made available slightly later on 13 November.
+You can, course, spec your iPhone 12 Pro Max up directly Apple's (UK US) site buy one any number other retailers SIM-free. It's available from the likes Amazon, John Lewis Currys PC World off-contract in the UK.
+Stateside, if you don't buy direct from Apple likely have to purchase the phone a carrier plan, with offerings available via the likes Amazon Best Buy.
+There's a certain assumption that those considering buying an iPhone 12 Pro Max already know that along with being the best brightest Apple can muster in a smartphone, it also comes with a unique set compromises niche features.
+It's an undeniably powerful, expertly-finished handset with the best camera in the business performance that competing Android phones yet to match, at the same time, its size paired with iOS' inability to make the most that additional display real-estate undermines one the main reasons investing in a larger-screened device like this in the first place.
+There a collection other niggles that detract from the 12 Pro Max's otherwise clear appeal too. The current state of MagSafe iPhone the odd challenges the omission of an in-box charger present, the awkward ergonomics underwhelming specs like the display's pedestrian refresh rate the battery's lacklustre fast charging speeds all undermine the value the asking price otherwise justifies.
+There are few phones that get much right in a single package as the iPhone 12 Pro Max but there are equally a number of phones that will prove a better fit a lot of people for one reason another. From a usability standpoint, Samsung's Galaxy Note 20 Ultra is a superior large-screened device, if you want a great camera without handing your money over to Apple Google's Pixel 5, the OnePlus 8 Pro or the Oppo Find X2 Pro are all suitable shoo-ins as well.
+Note: We may earn a commission when you buy links on our site, at no extra cost to you. This doesn't affect our editorial independence. Learn more. 
+Alex has covered every phone, tablet and wearable worth shouting about over the past eight years. Look out for on Tech Advisor’s YouTube channel.
+© Copyright 2021 IDG Communications Ltd. All Rights Reserved.
+ </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9716794490814209</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> News Corp network leading companies worlds diversified media, news, education, information services.
+BIGGER better, least iPhone 12 Pro Max anything go by.
+I've testing Apple's top mobile week – it's proper powerhouse.
+The first part review covers main differences iPhone 12 Pro iPhone 12 Pro Max. A tweaked version earlier iPhone 12 Pro review pasted that, due numerous similarities.
+If like tiny phones, leave – iPhone 12 Pro Max absolute giant.
+It’s got frankly enormous 6.7-inch screen, I adore it.
+I’ll never understand obsession small phones gargantuan OLED iPhone screen looks ruddy good.
+For me, it’s worth extra £100/$100 extra 0.6 inches versus standard Pro.
+But that’s trick Pro Max sleeve.
+For start, battery life also better – Apple citing additional 3 hours usage.
+In practice, Pro Max easily last day, I’m too fussed, it’s great know bonus capacity there.
+For people, real advantage Pro Max upgraded camera system.
+The Pro Max largely camera regular Pro, key tweaks.
+There’s different wide-angle camera 47% larger sensor – albeit lens.
+It means get improved low-light performance, already good begin with.
+Night Mode sees significant improvements Pro Max – I’ve impressed seemingly well-lit photos taken near total darkness.
+The Pro Max pick colours even eyes aren’t seeing it’s dark, still keeping “night” aesthetic image.
+Apple also changed telephoto lens, 65mm focal length versus shorter 52mm Pro.
+It means get closer subjects, 2.5x optical zoom – 5x factor ultra-wide angle zoom-out.
+And ultra-wide same as regular Pro, generous 120-degree field view. It’s cracking camera captures huge amounts scene.
+At £1,099/$1,099, isn’t cheap iPhone, certainly isn’t default option people get.
+The iPhone 12 offers largely similar specs (but smaller screen worse camera) £799/$799.
+But you’re proper geek, iPhone 12 Pro Max unmatched.
+This high-end computer, TV camera system shrunken smartphone size, price fairly reflects that.
+The Sun says: Probably best smartphone buy today – hack price. 5/5
+In October 2020, Apple unveiled four new iPhone 12 models – support 5G internet.
+There’s iPhone 12 Mini, iPhone 12, iPhone 12 Pro iPhone 12 Pro Max.
+The iPhone 12 Pro powerful, expensive, massive 6.7-inch display.
+And it’s really aimed people want their iPhone, particularly comes photography.
+Apple went back drawing board year’s iPhone cohort.
+Gone curved edges, back popular squared-off sides used iPhone 12.
+It feels easier grip, yet somehow manages seem thinner lighter too.
+The entire device IP68 water-resistant, means it’s survived 6-metre dunking 30 minutes.
+I’d still careful chucking new iPhone 12 local pond, mind. But you’re probably safe spilling coffee taking day the beach.
+Apple says the back glass strengthened additionally year.
+But the real improvements come the front, covered something called Ceramic Shield.
+It’s unique the iPhone, replaces the usual hardy glass would normally cover the display.
+This beefy screen looks like normal glass, Apple says allows 4x better survival rate drop.
+I can’t really test without chucking the iPhone window, I’m mad-man. But break the next weeks, you’ll the first know.
+The screen still notched the top (like previous models), measures generous 6.1 inches.
+That’s par the course days high-end smartphones, though people undoubtedly prefer the smaller iPhone 12 Mini.
+Apple fitted the iPhone 12 Super Retina XDR display, marketing guff.
+But the janky name serious visual tech.
+It’s got peak brightness 1,200 nits, makes easy see even sunny conditions.
+And even view HDR10 Dolby Vision content, thanks the OLED display 2million-to-1 contrast ratio.
+In terms colours, get gold, silver, graphite, brand new blue option I love.
+Much Apple’s gadget handiwork overshadowed the fact the charging brick – lesser extent – EarPods missing the box.
+In fact, the box roughly half the size before – probably good thing, given excessive packaging one the evils time.
+Apple’s move away chargers been rumoured months, geeks had plenty time chew the move.
+I was initially sceptical: seems like total money-grab first.
+But really think it, the environmental argument compelling.
+Around 1.5billion smartphones shipped last year, gadgets, you’re probably looking many times – chargers the box.
+This happens year in, year out, doesn’t even count third-party chargers bought sold.
+Our drawers houses fill chargers, many simply chucked away. All e-waste seriously unsustainable.
+But Apple’s clean-cut chargers may tricky some.
+You’ll still get cable the box plugs iPhone’s Lightning connector, the end USB-C.
+So don’t USB-C plug, you’ll buy one – newly discounted £19 the Apple Store.
+However, you’ll probably old iPhone Lightning cable plug lying around anyway.
+And besides, iPhone also supports wireless charging, it’s probably time invest charger-pad anyway.
+Right, back the fun stuff.
+Apple’s entire iPhone 12 range (including the Pro) 5G ready.
+That’s the next-generation mobile internet, offering super-fast speeds around the world.
+Coverage the UK US still largely limited major towns cities, it’s spreading fast.
+First, consider you’d typically get something the region 25-45Mbps good 4G connection.
+I managed clock 200Mbps EE the iPhone 12 5G London suburb.
+And I’ve previously claimed 5G speeds 450Mbps.
+At speeds, you’ll download giant apps 4K movies seconds, without thought.
+But we’re still the beginning: 5G soon commonly measured gigabits rather megabits, you’ll stop thinking “loading” entirely.
+Apple enabled FaceTime HD over mobile connections thanks 5G.
+And there’s optional Smart Data Mode will use 5G needed, save battery life.
+At the iPhone 12’s heart the impressive new A14 Bionic chip.
+It’s built new 5nm process allows transistors (the tiny switches do computing) ever before.
+Practically, you’ll find apps load quickly, games look great.
+But enables bunch powerful camera trickery, new games (League Legends coming mobile!), improved machine learning. Basically, everything gets lot smarter.
+Another big innovation year MagSafe, available iPhone 12 models.
+It’s new magnetic coil the back the iPhone lets line perfectly MagSafe wireless chargers.
+Apple flogging two the moment: single one, Duo charges Apple Watch too.
+It’s neat idea, works well – I’ve found using MagSafe more the charging cable, it’s less faff. Who wants faff?
+But gets better: Apple opening MagSafe people can make accessories them.
+There already official Apple items, including a snap-on card holder, quick-attach cases also support wireless charging.
+It’s great there’s a standardised open system iPhone accessories, it’ll get better.
+Battery life the iPhone 12 Pro seems fine: I’ve easily lasted a whole day, even relying 4G/5G.
+Apple also doubled default storage 64GB 128GB – hurrah!
+The last word features go iOS 14.
+That’s Apple’s latest mobile software, no means exclusive the iPhone 12.
+But it’s got neat features worth mention, including an improved Maps experience, a redesigned Home Screen that’s easier keep tidy, a fun real-time language translation app.
+Most the good stuff the iPhone 12 Pro Max also available the iPhone 12.
+But the Pro separates significantly impressive camera.
+You’ve got a triple camera array, including a new f/1.6 aperture wide camera that’s better low-light.
+There’s an ultra-wide snapper capturing very wide scenes – works extremely well, a 120-degree field view.
+And there’s a telephoto camera a 65mm lens, allowing 2.5x optical zoom.
+The cameras support Night Mode, I’ve found works better before.
+I took a shot near-total darkness outside last night, it lit up the street impressive detail.
+But the image still retained its moody nighttime aesthetic, great.
+Night Mode also available the ultra-wide TrueDepth cameras the first time, you can snap the dark pretty much scenario.
+Deep Fusion makes a return, processing pixel the image optimise detail – reducing noise.
+You get Smart HDR 3, now identifies scenes using machine learning selectively adjust difference areas the photo.
+So you’re snapping a plate food, you’ll get a different outcome than you’re taking a photo someone the beach.
+Portrait Mode now a little better low light, too.
+Video also significantly improved, the iPhone 12 Pro Max capable shooting 4K 60 frames per second.
+But it’s also the first only snapper directly record Dolby Vision, giving you improved colour contrast.
+You can also directly edit Dolby Vision the standard Photos app.
+As a bonus this year, Apple has fitted the iPhone 12 Pro Max a LiDAR scanner.
+It measures long light takes reflect back a surface, is used map depth across a scene.
+For photography, you get perks like faster autofocus low-light, better Night Mode portrait shots.
+But it also gives augmented reality apps – think Snapchat filters Pokemon Go, better – a major boost.
+You’ll get instant room-scanning, making it possible more precisely realistically place detailed AR objects.
+At £1,099/$1,099, this isn’t a cheap iPhone, certainly isn’t the default option most people get.
+The iPhone 12 offers largely similar specs (but a smaller screen worse camera) £799/$799.
+But you’re a proper geek, the iPhone 12 Pro Max is unmatched.
+This is a high-end computer, TV camera system shrunken smartphone size, the price fairly reflects that.
+The Sun says: Probably the best smartphone you can buy today – if you can hack the price. 5/5
+In news, read guide to 5G here.
+Check the best 5G SIM deals right now.
+And find out if 5G is area.
+What's your favourite smartphone right now? Let us know the comments!
+We pay your stories! Do you have a story The Sun Online Tech &amp; Science team? Email us tech@the-sun.co.uk
+ Brazilian strain detected UK could've been spreading 'for some time'
+ Boris Johnson to give press conference at 5pm 3m jabs dished out
+ Snow to hit London warnings 10cm East Anglia, Kent Sussex
+ Katie Price wants Harvey to meet secret half-brother with ex Dwight Yorke
+ £20m Lotto jackpot prize unclaimed with hunt to find mystery winner
+©News Group Newspapers Limited in England No. 679215 Registered office: 1 London Bridge Street, London, SE1 9GF. "The Sun", "Sun", "Sun Online" registered trademarks trade names of News Group Newspapers Limited. This service is provided News Group Newspapers' Limited's Standard Terms Conditions in accordance with Privacy &amp; Cookie Policy. To inquire about a licence to reproduce material, visit our Syndication site. View our online Press Pack. For inquiries, Contact Us. To see all content The Sun, please use the Site Map. The Sun website is regulated the Independent Press Standards Organisation (IPSO)
+Our journalists strive accuracy on occasion make mistakes. For details of our complaints policy to make a complaint please click this link: thesun.co.uk/editorial-complaints/
+ </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8476154804229736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In one Avengers: Infinity War’s important scenes, Doctor Strange used Time Stone view millions alternate futures he could work way Earth’s Mightiest Heroes beat Thanos. Spoiler alert: possible ways, one ended victory — came great price. I had similar, albeit less dramatic (and far fiction) predicament iPhone 12 Pro.
+Before I give details, let give some context. The iPhone 12 Pro one four new iPhones Apple launched year. The others iPhone 12 Mini, iPhone 12, iPhone 12 Pro Max. Something like never happened before. You read unprecedented move here. The TL;DR version is, Apple likely wants people buy iPhones offering one almost every perceivable price point.
+On one end lies iPhone 12 Mini starts Rs 69,900. On end, iPhone 12 Pro Max starting Rs 1,29,900. Things well marked cases, confusion whatsoever. The iPhone 12 Pro Max brings latest greatest Apple offer today. The iPhone 12 Mini entry point universe.Things little, nay lot complicated iPhone 12 Pro iPhone 12 technically step hierarchy, practically iPhone omissions. Things get whole lot messier take India prices account. The iPhone 12 Pro starts Rs 1,19,900. An iPhone 12 equivalent amount storage costs Rs 84,900. That big Rs 35,000 difference.Logic dictates, buying iPhone 12 Pro Max would make sense. That, just get iPhone 12. Clearly, Apple’s new pro iPhone spoiled choice, I decided peer many use cases find plausible explanation behind existence — all, buy it.Design build qualityiPhone 12 Pro uses matte frosted glass back. (Photo credit: Saurabh Singh/Financial Express)The first thing would notice iPhone 12 “series” updated design. It took Apple three years this, I believe reason enough excited. Now, exactly iPhone X-level update, something something special.All new iPhones take iPhone X base design fuse squared-off edges reminiscent iPhone 4. For naysayers, would incremental change. For fans, blast past. Of things Apple could brought back, I glad chose one. Just makes wonder, took long Apple — oh well.As I said, new schematics shared across new iPhones again, textbook Apple. As expected, pro iPhones use premium materials. The iPhone 12 Pro iPhone 12 Pro Max use matte frosted glass back, smooth touch feels very, premium. Also, helps keep check smudge fingerprints.The outer frame made stainless steel. It very, shiny downside, picks lot fingerprints moment unbox start using it. It adds considerable heft pro iPhones too. The edges sharp, mind you, I come appreciate time.But true iPhone 12 Pro iPhone 12 Pro Max. Not iPhone 12 Pro pocketable, also easier use without case. It also comfortable use lot people one hand though still big phone. The max just, well, maxed heavy — me, impossible use without case adding case means adding bulk. If iPhone 12 Pro big, iPhone 12 Pro Max giant towers almost every phone market today.The iPhone 12, contrast, glossy glass panel back matte aluminum frame.DisplayiPhone 12 Pro 6.1-inch display. (Photo credit: Saurabh Singh/Financial Express)Like design, new iPhones also “core” display specs — though come different screen sizes. The biggest takeaway Apple using signature high-quality Super Retina XDR OLED display new iPhones. All new iPhones also support Dolby Vision HDR 10.The big highlight screen resolution. It 1080p+ new iPhones. Those specifics may seem uninspiring competing Android phones, Apple already makes one best 720p LCDs. If anything, higher resolution OLED just icing cake.The screen new iPhones further protected Apple’s ceramic shield. It said make new iPhones 4x resistant drops. Drop protection scratch resistance usually inversely proportional, something keep mind.Coming differences, iPhone 12 Pro 6.1-inch display iPhone 12 Pro Max comes 6.7-inch screen. The iPhone 12 Pro Max what looking looking consume lot content bigger screen. Somehow, notch max model also seems smaller. As iPhone 12, offers deal iPhone 12 Pro, difference pro get little brighter — though something you’ll notice side side.The iPhone 12 iPhone 12 Pro offering display unlike Apple, makes sit back think — why? Apple one cannibalize products like this, unless something big happened — happen — inside closed quarters. A 120Hz refresh rate pro iPhones seemed inevitable launch. Maybe things go according plan. Aside complicating things iPhone 12 Pro, complicates things little whole series too. There way Apple would bring Pro Motion iPhone. Question is, long would willing wait?Performance battery lifeiPhone 12 Pro expectedly fast phone. (Photo credit: Saurabh Singh/Financial Express)All new iPhones share core hardware well. This Apple’s latest greatest 5nm A14 Bionic chip. The pro iPhones get 6GB RAM 128GB base storage non-pro models come 4GB RAM 64GB base storage. Software iOS 14 brings much-needed flexibility iPhones, letting add home screen widgets, set custom email browser defaults, addition features like picture picture view videos, app drawer-like interface app library, more. There still much inside iOS 14, better read in-depth look here.As beautiful iOS inside new iPhones, one thing does bode well it. iOS designed large-screen iPhones Apple breaking size barrier each new iPhone — iPhone 12 Pro Max biggest iPhone Apple ever made — high time starts looking aspect too. And ask, Reachability answer. You make it, barely iPhone 12 Pro, just makes max model substantial what paper specs would believe.As performance, iPhone 12 Pro expectedly fast phone new hardware giving greater headroom future since Apple usually supports iPhones upwards four years least, something Android phone, including Google’s Pixel, guarantee. There also support 5G time, adds another level futureproofing package 5G eventually arrives India.New year MagSafe charging. (Photo credit: Saurabh Singh/Financial Express)Battery life good, iPhone 12 Pro give day’s worth mixed usage, I expecting better. The iPhone 11 Pro better. The iPhone 12 also better. The iPhone 12 Pro Max king hill.New year MagSafe “magnetic” wireless charging. And oh, charger EarPods box.CameraiPhone 12 Pro three cameras LiDAR sensor. (Photo credit: Saurabh Singh/Financial Express)The iPhone 12 Pro comes three cameras combination 12MP wide, 12MP ultra-wide 12MP telephoto, light detection ranging LiDAR sensor. Apple using fast f/1.6 aperture lens (this f/1.8 predecessor) complement main sensor. Apple says LiDAR sensor help boost autofocus six times also enabling Night Mode portrait photography. Hallmark iPhone traits like Deep Fusion Smart HDR also carried forward improved upon.The iPhone 12 Pro Max setup, cranked level higher courtesy larger main sensor sensor sensor-shift OIS. The telephoto max model also offers zoom.The iPhone 12 two cameras back, 12MP main another 12MP ultra-wide angle, essentially deal pro iPhones stripped some their unique features.In theory, iPhone 12, iPhone 12 Pro iPhone 12 Pro Max equally competent day light. The pro iPhones better low light max pitched photography powerhouse quite rightfully so. Real world stats close. In fact, iPhone 12 Pro Max best camera phone market today. The iPhone 12 jack trades, makes even attractive proposition, even last year’s iPhone 11.As iPhone 12 Pro, fate hangs balance depending much extra telephoto camera worth you. Yes, better iPhone 12 tricky low light thanks LiDAR, I don’t think that’s enough make want spend extra especially know there’s iPhone 12 Pro Max that’s even better – significantly better. While night portraits nice addition pro (you get iPhone 12), all-round quality dealmaker.The iPhone 12 Pro takes great photos good light some best dynamic range market today. Colours warm appealing without going overboard saturation – truer source life like. The level detail just remarkable. Low-light photos great most time iPhone 11 Pro, I suggest hold since still hold ground. Typical iPhones, iPhone 12 Pro also largely point shoot affair cameras smartly adjusting available light, kicking requisite algorithms including night mode accordingly. And typical iPhones, iPhone 12 Pro also shoots best-in-class videos. New year Dolby Vision HDR video recording 60 fps (30 fps iPhone 12) — first any smartphone. This turned default letting shoot (and edit) brighter videos akin high-end DSLR though many screens support format Apple relies today.Should buy it?Apple’s new pro iPhone spoiled choice. (Photo credit: Saurabh Singh/Financial Express)There one reason buy iPhone 12 Pro. You get must latest compromise iPhone looking switch iPhone X/iPhone XS compromise new iPhone iPhone 12 Pro Max big you. That way pro comes winner. It come price course. The max better cameras better battery life, experience high-end. For everybody else, iPhone 12 solid deal blurs line vanilla pro.There’s reason phone featured review. The iPhone 12 Pro given day, league even high asking price. It’s almost perfect. It’s unprecedented rivaled — iPhone 12 Pro Max best money buy iPhone 12 best bang buck. As exists, I think it’s reason there’s also iPhone 12 Mini year — reason iPhone SE earlier year. There demand smaller phones iPhone 12 Pro isn’t technically small, surprisingly compact despite pro credentials.Pros:Top notch design build qualityFast performanceApple’s software supportOutstanding camerasLoud stereo speakersCons:iPhone 12 offers much deal Rs 35,000 less         Get live Stock Prices BSE, NSE, US Market latest NAV, portfolio Mutual Funds, Check latest IPO News, Best Performing IPOs, calculate tax Income Tax Calculator, know market’s Top Gainers, Top Losers &amp; Best Equity Funds. Like us Facebook follow us Twitter.Financial Express now Telegram. Click join channel stay updated latest Biz news updates.HomeINDUSTRYTECHNOLOGYApple iPhone 12 Pro review There one reason buy&amp;nbspit
+Things little, nay lot complicated iPhone 12 Pro iPhone 12 technically step hierarchy, practically iPhone omissions. Things get whole lot messier take their India prices account. The iPhone 12 Pro starts Rs 1,19,900. An iPhone 12 equivalent amount storage costs Rs 84,900. That big Rs 35,000 difference.Logic dictates, buying iPhone 12 Pro Max would make sense. That, just get iPhone 12. Clearly, Apple’s new pro iPhone spoiled choice, I decided peer many use cases find plausible explanation behind existence — all, buy it.Design build qualityiPhone 12 Pro uses matte frosted glass back. (Photo credit: Saurabh Singh/Financial Express)The first thing would notice iPhone 12 “series” updated design. It took Apple three years this, I believe reason enough excited. Now, exactly iPhone X-level update, something something special.All new iPhones take iPhone X base design fuse squared-off edges reminiscent iPhone 4. For naysayers, would incremental change. For fans, blast past. Of things Apple could brought back, I glad chose one. Just makes wonder, took long Apple — oh well.As I said, new schematics shared across new iPhones again, textbook Apple. As expected, pro iPhones use premium materials. The iPhone 12 Pro iPhone 12 Pro Max use matte frosted glass back, smooth touch feels very, premium. Also, helps keep check smudge fingerprints.The outer frame made stainless steel. It very, shiny downside, picks lot fingerprints moment unbox start using it. It adds considerable heft pro iPhones too. The edges sharp, mind you, I come appreciate time.But true iPhone 12 Pro iPhone 12 Pro Max. Not iPhone 12 Pro pocketable, also easier use without case. It also comfortable use lot people one hand though still big phone. The max just, well, maxed heavy — me, impossible use without case adding case means adding bulk. If iPhone 12 Pro big, iPhone 12 Pro Max giant towers almost every phone market today.The iPhone 12, contrast, glossy glass panel back matte aluminum frame.DisplayiPhone 12 Pro 6.1-inch display. (Photo credit: Saurabh Singh/Financial Express)Like design, new iPhones also “core” display specs — though come different screen sizes. The biggest takeaway Apple using signature high-quality Super Retina XDR OLED display new iPhones. All new iPhones also support Dolby Vision HDR 10.The big highlight screen resolution. It 1080p+ new iPhones. Those specifics may seem uninspiring competing Android phones, Apple already makes one best 720p LCDs. If anything, higher resolution OLED just icing cake.The screen new iPhones further protected Apple’s ceramic shield. It said make new iPhones 4x resistant drops. Drop protection scratch resistance usually inversely proportional, something keep mind.Coming differences, iPhone 12 Pro 6.1-inch display iPhone 12 Pro Max comes 6.7-inch screen. The iPhone 12 Pro Max what looking looking consume lot content bigger screen. Somehow, notch max model also seems smaller. As iPhone 12, offers deal iPhone 12 Pro, difference pro get little brighter — though something you’ll notice side side.The iPhone 12 iPhone 12 Pro offering display unlike Apple, makes sit back think — why? Apple one cannibalize products like this, unless something big happened — happen — inside closed quarters. A 120Hz refresh rate pro iPhones seemed inevitable launch. Maybe things go according plan. Aside complicating things iPhone 12 Pro, complicates things little whole series too. There way Apple would bring Pro Motion iPhone. Question is, long would willing wait?Performance battery lifeiPhone 12 Pro expectedly fast phone. (Photo credit: Saurabh Singh/Financial Express)All new iPhones share core hardware well. This Apple’s latest greatest 5nm A14 Bionic chip. The pro iPhones get 6GB RAM 128GB base storage non-pro models come 4GB RAM 64GB base storage. Software iOS 14 brings much-needed flexibility iPhones, letting add home screen widgets, set custom email browser defaults, addition features like picture picture view videos, app drawer-like interface app library, more. There still much inside iOS 14, better read in-depth look here.As beautiful iOS inside new iPhones, one thing does bode well it. iOS designed large-screen iPhones Apple breaking size barrier each new iPhone — iPhone 12 Pro Max biggest iPhone Apple ever made — high time starts looking aspect too. And ask, Reachability answer. You make it, barely iPhone 12 Pro, just makes max model substantial what paper specs would believe.As performance, iPhone 12 Pro expectedly fast phone new hardware giving greater headroom future since Apple usually supports iPhones upwards four years least, something Android phone, including Google’s Pixel, guarantee. There also support 5G time, adds another level futureproofing package 5G eventually arrives India.New year MagSafe charging. (Photo credit: Saurabh Singh/Financial Express)Battery life good, iPhone 12 Pro give day’s worth mixed usage, I expecting better. The iPhone 11 Pro better. The iPhone 12 also better. The iPhone 12 Pro Max king hill.New year MagSafe “magnetic” wireless charging. And oh, charger EarPods box.CameraiPhone 12 Pro three cameras LiDAR sensor. (Photo credit: Saurabh Singh/Financial Express)The iPhone 12 Pro comes three cameras combination 12MP wide, 12MP ultra-wide 12MP telephoto, light detection ranging LiDAR sensor. Apple using fast f/1.6 aperture lens (this f/1.8 predecessor) complement main sensor. Apple says LiDAR sensor help boost autofocus six times also enabling Night Mode portrait photography. Hallmark iPhone traits like Deep Fusion Smart HDR also carried forward improved upon.The iPhone 12 Pro Max setup, cranked level higher courtesy larger main sensor sensor sensor-shift OIS. The telephoto max model also offers zoom.The iPhone 12 two cameras back, 12MP main another 12MP ultra-wide angle, essentially deal pro iPhones stripped some their unique features.In theory, iPhone 12, iPhone 12 Pro iPhone 12 Pro Max equally competent day light. The pro iPhones better low light max pitched photography powerhouse quite rightfully so. Real world stats close. In fact, iPhone 12 Pro Max best camera phone market today. The iPhone 12 jack trades, makes even attractive proposition, even last year’s iPhone 11.As iPhone 12 Pro, fate hangs balance depending much extra telephoto camera worth you. Yes, better iPhone 12 tricky low light thanks LiDAR, I don’t think that’s enough make want spend extra especially know there’s iPhone 12 Pro Max that’s even better – significantly better. While night portraits nice addition pro (you get iPhone 12), all-round quality dealmaker.The iPhone 12 Pro takes great photos good light some best dynamic range market today. Colours warm appealing without going overboard saturation – truer source life like. The level detail just remarkable. Low-light photos great most time iPhone 11 Pro, I suggest hold since still hold ground. Typical iPhones, iPhone 12 Pro also largely point shoot affair cameras smartly adjusting available light, kicking requisite algorithms including night mode accordingly. And typical iPhones, iPhone 12 Pro also shoots best-in-class videos. New year Dolby Vision HDR video recording 60 fps (30 fps iPhone 12) — first any smartphone. This turned default letting shoot (and edit) brighter videos akin high-end DSLR though many screens support format Apple relies today.Should buy it?Apple’s new pro iPhone spoiled choice. (Photo credit: Saurabh Singh/Financial Express)There one reason buy iPhone 12 Pro. You get must latest compromise iPhone looking switch iPhone X/iPhone XS compromise new iPhone iPhone 12 Pro Max big you. That way pro comes winner. It come price course. The max better cameras better battery life, experience high-end. For everybody else, iPhone 12 solid deal blurs line vanilla pro.There’s reason phone featured review. The iPhone 12 Pro given day, league even high asking price. It’s almost perfect. It’s unprecedented rivaled — iPhone 12 Pro Max best money buy iPhone 12 best bang buck. As exists, I think it’s reason there’s also iPhone 12 Mini year — reason iPhone SE earlier year. There demand smaller phones iPhone 12 Pro isn’t technically small, surprisingly compact despite pro credentials.Pros:Top notch design build qualityFast performanceApple’s software supportOutstanding camerasLoud stereo speakersCons:iPhone 12 offers much deal Rs 35,000 less         Get live Stock Prices BSE, NSE, US Market latest NAV, portfolio Mutual Funds, Check latest IPO News, Best Performing IPOs, calculate tax Income Tax Calculator, know market’s Top Gainers, Top Losers &amp; Best Equity Funds. Like us Facebook follow us Twitter.Financial Express now Telegram. Click join channel stay updated latest Biz news updates.HomeINDUSTRYTECHNOLOGYApple iPhone 12 Pro review There one reason buy&amp;nbspit
+Logic dictates, buying iPhone 12 Pro Max would make sense. That, just get iPhone 12. Clearly, Apple’s new pro iPhone spoiled choice, I decided peer many use cases find plausible explanation behind existence — all, buy it.Design build qualityiPhone 12 Pro uses matte frosted glass back. (Photo credit: Saurabh Singh/Financial Express)The first thing would notice iPhone 12 “series” updated design. It took Apple three years this, I believe reason enough excited. Now, exactly iPhone X-level update, something something special.All new iPhones take iPhone X base design fuse squared-off edges reminiscent iPhone 4. For naysayers, would incremental change. For fans, blast past. Of things Apple could brought back, I glad chose one. Just makes wonder, took long Apple — oh well.As I said, new schematics shared across new iPhones again, textbook Apple. As expected, pro iPhones use premium materials. The iPhone 12 Pro iPhone 12 Pro Max use matte frosted glass back, smooth touch feels very, premium. Also, helps keep check smudge fingerprints.The outer frame made stainless steel. It very, shiny downside, picks lot fingerprints moment unbox start using it. It adds considerable heft pro iPhones too. The edges sharp, mind you, I come appreciate time.But true iPhone 12 Pro iPhone 12 Pro Max. Not iPhone 12 Pro pocketable, also easier use without case. It also comfortable use lot people one hand though still big phone. The max just, well, maxed heavy — me, impossible use without case adding case means adding bulk. If iPhone 12 Pro big, iPhone 12 Pro Max giant towers almost every phone market today.The iPhone 12, contrast, glossy glass panel back matte aluminum frame.DisplayiPhone 12 Pro 6.1-inch display. (Photo credit: Saurabh Singh/Financial Express)Like design, new iPhones also “core” display specs — though come different screen sizes. The biggest takeaway Apple using signature high-quality Super Retina XDR OLED display new iPhones. All new iPhones also support Dolby Vision HDR 10.The big highlight screen resolution. It 1080p+ new iPhones. Those specifics may seem uninspiring competing Android phones, Apple already makes one best 720p LCDs. If anything, higher resolution OLED just icing cake.The screen all new iPhones further protected Apple’s ceramic shield. It said make new iPhones 4x resistant drops. Drop protection scratch resistance usually inversely proportional, something keep mind.Coming differences, iPhone 12 Pro 6.1-inch display iPhone 12 Pro Max comes 6.7-inch screen. The iPhone 12 Pro Max what looking looking consume lot content bigger screen. Somehow, notch max model also seems smaller. As iPhone 12, offers deal iPhone 12 Pro, difference pro get little brighter — though something you’ll notice side side.The iPhone 12 iPhone 12 Pro offering display unlike Apple, makes sit back think — why? Apple one cannibalize products like this, unless something big happened — happen — inside closed quarters. A 120Hz refresh rate pro iPhones seemed inevitable launch. Maybe things go according plan. Aside complicating things iPhone 12 Pro, complicates things little whole series too. There way Apple would bring Pro Motion iPhone. Question is, long would willing wait?Performance battery lifeiPhone 12 Pro expectedly fast phone. (Photo credit: Saurabh Singh/Financial Express)All new iPhones share core hardware well. This Apple’s latest greatest 5nm A14 Bionic chip. The pro iPhones get 6GB RAM 128GB base storage non-pro models come 4GB RAM 64GB base storage. Software iOS 14 brings much-needed flexibility iPhones, letting add home screen widgets, set custom email browser defaults, addition features like picture picture view videos, app drawer-like interface app library, more. There still much inside iOS 14, better read in-depth look here.As beautiful iOS inside new iPhones, one thing does bode well it. iOS designed large-screen iPhones Apple breaking size barrier each new iPhone — iPhone 12 Pro Max biggest iPhone Apple ever made — high time starts looking aspect too. And ask, Reachability answer. You make it, barely iPhone 12 Pro, all just makes max model substantial what paper specs would believe.As performance, iPhone 12 Pro expectedly fast phone new hardware giving greater headroom future since Apple usually supports iPhones upwards four years least, something Android phone, including Google’s Pixel, guarantee. There also support 5G time, adds another level futureproofing package 5G eventually arrives India.New year MagSafe charging. (Photo credit: Saurabh Singh/Financial Express)Battery life good, iPhone 12 Pro give day’s worth mixed usage, I expecting better. The iPhone 11 Pro better. The iPhone 12 also better. The iPhone 12 Pro Max king hill.New year MagSafe “magnetic” wireless charging. And oh, charger EarPods box.CameraiPhone 12 Pro three cameras LiDAR sensor. (Photo credit: Saurabh Singh/Financial Express)The iPhone 12 Pro comes three cameras combination 12MP wide, 12MP ultra-wide 12MP telephoto, light detection ranging LiDAR sensor. Apple using fast f/1.6 aperture lens (this f/1.8 predecessor) complement main sensor. Apple says LiDAR sensor help boost autofocus six times also enabling Night Mode portrait photography. Hallmark iPhone traits like Deep Fusion Smart HDR also carried forward improved upon.The iPhone 12 Pro Max setup, cranked level higher courtesy larger main sensor sensor sensor-shift OIS. The telephoto max model also offers zoom.The iPhone 12 two cameras back, 12MP main another 12MP ultra-wide angle, essentially deal pro iPhones stripped some their unique features.In theory, iPhone 12, iPhone 12 Pro iPhone 12 Pro Max equally competent day light. The pro iPhones better low light max pitched photography powerhouse quite rightfully so. Real world stats close. In fact, iPhone 12 Pro Max best camera phone market today. The iPhone 12 jack all trades, makes even attractive proposition, even last year’s iPhone 11.As iPhone 12 Pro, fate hangs balance depending much extra telephoto camera worth you. Yes, better iPhone 12 tricky low light thanks LiDAR, I don’t think that’s enough make want spend extra especially know there’s iPhone 12 Pro Max that’s even better – significantly better. While night portraits nice addition pro (you get iPhone 12), all-round quality dealmaker.The iPhone 12 Pro takes great photos good light some best dynamic range market today. Colours warm appealing without going overboard saturation – truer source life like. The level detail just remarkable. Low-light photos great most time iPhone 11 Pro, I suggest hold since still hold ground. Typical all iPhones, iPhone 12 Pro also largely point shoot affair cameras smartly adjusting available light, kicking requisite algorithms including night mode accordingly. And typical all iPhones, iPhone 12 Pro also shoots best-in-class videos. New year Dolby Vision HDR video recording 60 fps (30 fps iPhone 12) — first any smartphone. This turned default letting shoot (and edit) brighter videos akin high-end DSLR though many screens support format Apple relies today.Should buy it?Apple’s new pro iPhone spoiled choice. (Photo credit: Saurabh Singh/Financial Express)There one reason buy iPhone 12 Pro. You get must latest compromise iPhone looking switch iPhone X/iPhone XS compromise new iPhone iPhone 12 Pro Max big you. That way pro comes winner. It come price course. The max better cameras better battery life, experience high-end. For everybody else, iPhone 12 solid deal blurs line vanilla pro.There’s reason phone featured review. The iPhone 12 Pro given day, league even high asking price. It’s almost perfect. It’s unprecedented rivaled — iPhone 12 Pro Max best money buy iPhone 12 best bang buck. As exists, I think it’s reason there’s also iPhone 12 Mini year — reason iPhone SE earlier year. There demand smaller phones iPhone 12 Pro isn’t technically small, surprisingly compact despite pro credentials.Pros:Top notch design build qualityFast performanceApple’s software supportOutstanding camerasLoud stereo speakersCons:iPhone 12 offers much deal Rs 35,000 less         Get live Stock Prices BSE, NSE, US Market latest NAV, portfolio Mutual Funds, Check latest IPO News, Best Performing IPOs, calculate tax Income Tax Calculator, know market’s Top Gainers, Top Losers &amp; Best Equity Funds. Like us Facebook follow us Twitter.Financial Express now Telegram. Click join channel stay updated latest Biz news updates.HomeINDUSTRYTECHNOLOGYApple iPhone 12 Pro review There one reason buy&amp;nbspit
+The first thing would notice about iPhone 12 “series” updated design. It took Apple three years this, I believe reason enough excited. Now, exactly iPhone X-level update, something something special.All new iPhones take iPhone X base design fuse squared-off edges reminiscent iPhone 4. For naysayers, would incremental change. For fans, blast past. Of all things Apple could brought back, I glad chose one. Just makes wonder, took long Apple — oh well.As I said, new schematics shared across all new iPhones again, textbook Apple. As expected, pro iPhones use premium materials. The iPhone 12 Pro iPhone 12 Pro Max use matte frosted glass back, smooth touch feels very, premium. Also, helps keep check smudge fingerprints.The outer frame made stainless steel. It very, shiny downside, picks lot fingerprints moment unbox start using it. It adds considerable heft pro iPhones too. The edges sharp, mind you, I come appreciate time.But true iPhone 12 Pro iPhone 12 Pro Max. Not iPhone 12 Pro pocketable, also easier use without case. It also be comfortable use lot people one hand though still big phone. The max just, well, all maxed heavy — me, impossible use without case adding case means adding bulk. If iPhone 12 Pro big, iPhone 12 Pro Max giant towers almost every phone market today.The iPhone 12, contrast, glossy glass panel back matte aluminum frame.DisplayiPhone 12 Pro 6.1-inch display. (Photo credit: Saurabh Singh/Financial Express)Like design, all new iPhones also “core” display specs — though come different screen sizes. The biggest takeaway Apple using signature high-quality Super Retina XDR OLED display all new iPhones. All new iPhones also support Dolby Vision HDR 10.The big highlight screen resolution. It 1080p+ all new iPhones. Those specifics may seem uninspiring competing Android phones, Apple already makes one best 720p LCDs. If anything, higher resolution OLED just icing cake.The screen all new iPhones further protected Apple’s ceramic shield. It said make new iPhones 4x resistant drops. Drop protection scratch resistance usually inversely proportional, something keep mind.Coming differences, iPhone 12 Pro 6.1-inch display iPhone 12 Pro Max comes 6.7-inch screen. The iPhone 12 Pro Max what be looking looking consume lot content bigger screen. Somehow, notch max model also seems smaller. As iPhone 12, offers deal iPhone 12 Pro, difference pro get little brighter — though something you’ll notice side side.The iPhone 12 iPhone 12 Pro offering display unlike Apple, makes sit back think — why? Apple one cannibalize products like this, unless something big happened — happen — inside closed quarters. A 120Hz refresh rate pro iPhones seemed inevitable launch. Maybe things go according plan. Aside complicating things iPhone 12 Pro, complicates things little whole series too. There way Apple would bring Pro Motion iPhone. Question is, long would be willing wait?Performance battery lifeiPhone 12 Pro expectedly fast phone. (Photo credit: Saurabh Singh/Financial Express)All new iPhones share core hardware well. This Apple’s latest greatest 5nm A14 Bionic chip. The pro iPhones get 6GB RAM 128GB base storage non-pro models come 4GB RAM 64GB base storage. Software iOS 14 brings much-needed flexibility iPhones, letting add home screen widgets, set custom email browser defaults, addition features like picture picture view videos, app drawer-like interface app library, more. There still much inside iOS 14, better read in-depth look here.As beautiful iOS inside new iPhones, one thing does bode well it. iOS designed large-screen iPhones Apple breaking size barrier each new iPhone — iPhone 12 Pro Max biggest iPhone Apple ever made — high time starts looking aspect too. And ask, Reachability answer. You make it, barely iPhone 12 Pro, all just makes max model substantial what paper specs would believe.As performance, iPhone 12 Pro expectedly fast phone new hardware giving greater headroom future since Apple usually supports iPhones upwards four years least, something Android phone, including Google’s Pixel, guarantee. There also support 5G time, adds another level futureproofing package 5G eventually arrives India.New year MagSafe charging. (Photo credit: Saurabh Singh/Financial Express)Battery life good, iPhone 12 Pro give day’s worth mixed usage, I expecting better. The iPhone 11 Pro better. The iPhone 12 also better. The iPhone 12 Pro Max king hill.New year MagSafe “magnetic” wireless charging. And oh, charger EarPods box.CameraiPhone 12 Pro three cameras LiDAR sensor. (Photo credit: Saurabh Singh/Financial Express)The iPhone 12 Pro comes three cameras combination 12MP wide, 12MP ultra-wide 12MP telephoto, light detection ranging LiDAR sensor. Apple using fast f/1.6 aperture lens (this f/1.8 predecessor) complement main sensor. Apple says LiDAR sensor help boost autofocus six times also enabling Night Mode portrait photography. Hallmark iPhone traits like Deep Fusion Smart HDR also carried forward improved upon.The iPhone 12 Pro Max setup, cranked level higher courtesy larger main sensor sensor sensor-shift OIS. The telephoto max model also offers zoom.The iPhone 12 two cameras back, 12MP main another 12MP ultra-wide angle, essentially deal pro iPhones stripped some their unique features.In theory, iPhone 12, iPhone 12 Pro iPhone 12 Pro Max be equally competent day light. The pro iPhones be better low light max pitched photography powerhouse quite rightfully so. Real world stats close. In fact, iPhone 12 Pro Max best camera phone market today. The iPhone 12 jack all trades, makes even attractive proposition, even last year’s iPhone 11.As iPhone 12 Pro, fate hangs balance depending much extra telephoto camera worth you. Yes, better iPhone 12 tricky low light thanks LiDAR, I don’t think that’s enough make want spend extra especially know there’s iPhone 12 Pro Max that’s even better –</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9355510473251343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Not get depressing, reader, iPhone 12 Pro Max tease what life could've been: evenings drinks friends downtown, I’d flash giant, stunning phone pretend like wasn't loaner Apple.
+Instead, I’m inside doomscrolling.
+At 6.7 inches, iPhone 12 Pro Max Apple's largest iPhone yet. It's also super expensive starting price $1,099. I've using few days, you'll wait final verdict device. But can read review iPhone 12, iPhone 12 Pro, iPhone 12 mini right now.
+I care ridiculous 12 Pro Max looks tiny hands.
+Image:  zlata ivleva / mashable
+That price 128GB model. If decide go in, opt maximum 512GB storage, throw new MagSafe charger, along MagSafe leather case, looking grand total almost $1,500. 
+It's absolutely ridiculous phone makes feel like celebrity — specifically one only Kim Kardashian. I'm ashamed admit I've watched Keeping Up With Kardashians since first aired. And I always loved Kim made large phones look glamorous her small hands (especially one those chunky LuMee cases).
+When I found Apple sending gold version Pro Max, I help think two things: gold iPhone 5 Kim received back 2012, time CNET reported iPhone 5S internally nicknamed "The Kardashian" phone. I feel real fancy.
+I love gold iPhone 5 http://t.co/x14clif7 — thanks @boygenius http://t.co/4wxmwb7T
+— Kim Kardashian West (@KimKardashian) December 7, 2012
+I've always fan Max versions the iPhone. After swapping 4.7-inch iPhone 6S the 5.5-inch iPhone 7 Plus back 2017, I never looked back. That is, I recently swapped 6.1-inch iPhone XR the 5.8-inch iPhone 11 Pro realized how much I missed larger phone. 
+When I received the iPhone 12 mini iPhone 12 Pro Max, I excited the latter. When I unboxed it, its glistening gold stainless steel edges soft matte back, I suddenly forgot I only had $52 bank account. I proudly paraded thing around apartment I bought myself.
+I a few problems it. At 6.7 inches, the Pro Max feels like a mini version the iPad Pro. I couldn’t hold comfortably one hand I worried I going drop it. And fingers couldn’t stretch far enough tap every letter icon. 
+In a non-pandemic world, I might've able justify dropping kind cash. While quarantine changed awful smartphone addiction, was even worse coronavirus hit. 
+Look this thing, stunning.
+Image:  zlata ivleva / mashable
+I relied phone everything: watching Netflix commutes the office, reading books my Kindle app, answering emails Slack messages heading briefings, taking product photos said briefings, FaceTiming family, texting friends, writing random notes future stories  — the list goes on. 
+The iPhone 12 Pro Max's large display would been perfect all those things. And the big battery would freed from constantly worrying about near a charger. With the triple camera system the back, I would felt comfortable leaving my DSLR home. 
+Now, considering I barely leave my apartment, I just use my laptop most those tasks.
+See? She makes big, chunky phones look fancy.
+Image:  Matt Baron/Shutterstock
+I would've been so excited live my Kardashian fantasies showing my large, shiny gold iPhone friends strangers the subway at NYC bars. Sadly, doesn’t seem like I’ll able do that anytime soon.
+(No word, the way, Kim plans upgrading the Pro the Pro Max.)
+hi @KimKardashian, of curiosity: planning upgrading the iPhone 12 Pro iPhone 12 Pro Max
+— Brenda Stolyar (@BStoly) November 5, 2020
+Of course, my thoughts the iPhone 12 Pro Max could change I spend more time it. There few differences it and a phone I fully reviewed, the iPhone 12 Pro. Both have similar camera set-ups — the main difference being that the telephoto lens the 12 Pro 52mm the Pro Max 65mm. That lets you get a 2.5x zoom versus a 2x zoom. And the battery bigger the 12 Pro Max. In fact, iFixit confirmed, the battery the 12 Pro smaller the one in the 11 Pro. Be sure to check back for my full review soon.
+Also, Kim, if you're reading this, please answer my tweet.
+ </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9921654462814331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reviews
+The iPhone 12 Pro Max an amazing big smartphone. But camera Apple hyping big leap forward? Our tests show differences image quality minor compared iPhone 12 Pro.
+Apple an iPhone everyone year. There's iPhone 12 mini people like small phones. There's regular iPhone 12 that's iPhone most people âÂ the Goldilocks iPhones you will. Get iPhone 12 Pro you need 2x telephoto, prefer matte glass/stainless steel build quality, want LiDAR sensor. And there's iPhone 12 Pro Max.
+The iPhone 12 Pro Max the largest iPhone Apple ever made. The 6.7-inch Super Retina XDR display gargantuan, insanely bright, high resolution. Design-wise, the 12 Pro Max simply a blown-up iPhone 12 Pro. Same design, materials, colors, storage capacities, A14 Bionic chip, 5G, 6-meter IP68 water-resistance, MagSafe wireless charging support. All these features terrific.
+ </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9893913269042969</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reviews full collection iPhone 12 devices tail end 2020. As such, today we’re taking peek biggest most extravagant set, iPhone 12 Pro Max. We’re taking special care point ways which iPhone 12 Pro Max different models – and, you’ll find out soon, many ways which iPhone 12 Pro Max basically others. 
+Processor Performance
+As noted TechCrunch review, iPhone 12 Pro Max pretty much on-par iPhone 12 models performance. Benchmarks show iPhone 12 Pro Max nearly single-core multi-core scores CPU, slight lead rest iPhone 12 family compute / GPU testing. 
+Display Size Refresh Rate
+If you’ve used iPhone 11 Pro Max, you’ll familiar size phone display. The iPhone 12 Pro Max larger display predecessor, phone’s overall size essentially same.
+The iPhone 11 Pro Max 6.5-inch display, iPhone 12 Pro Max 6.7-inch display. As noted review CNN, “The main thing missing iPhone 12 Pro Max high refresh rate around 120Hz.” The iPhone 12 Pro Max not meet biggest competitors (like Galaxy Note 20) 120Hz image refresh rate. Instead, iPhone 12 Pro Max 60Hz display.
+Battery Life
+According InputMag’s review, battery life iPhone 12 Pro Max longer iPhone 12 Pro, shorter iPhone 11 Pro Max. Most early reviews suggest battery life roughly equivalent iPhone 11 Pro Max.
+The cameras
+In Engadget review notes how iPhone 12 Pro Max’s cameras “temperamental.” The review also states “If you’re big-phone person, care camera performance all, Pro Max one should looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks MagSafe business magnets allow said connection two. But iPhone 12 Pro Max not work any Apple Pencil stylus. The CNET Review wishes “Apple took advantage 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material iPhone 12 Pro Max (and rest iPhone 12 collection) skillfully avoids speaking showing world which you’ll use phone. It easy show previous iPhone devices wild – friends, taking selfies, capturing photos big events, so forth. Now, will do your iPhone?
+As noted The Verge review iPhone 12 Pro Max, “I can’t shake feeling iPhone 12 Pro Max much feels like perfect phone life I led pandemic.” As reviewer Nilay Patel said, iPhone 12 Pro Max “feels like another screen social media couch.”
+Small fingers
+According CNBC review, iPhone 12 Pro Max best “fat thumbs” “bigger screens I keyboard space typing.” 
+While iPhone 12 Mini only ever-so-slightly shorter iPhone 8 (or iPhone SE 2nd Gen), far larger display (what all-but-the-notch screen coverage). Is too small? The iPhone 12 Mini’s display 5.4-inches diagonally, display iPhone 12 Pro Max 6.7-inches diagonally – that’s massive difference. 
+More Review Action
+We’ll our extended review iPhone 12 Pro Max SlashGear soon. The goes iPhone 12 Mini. Meanwhile, take peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+Processor Performance
+As noted TechCrunch review, iPhone 12 Pro Max pretty much on-par iPhone 12 models performance. Benchmarks show iPhone 12 Pro Max nearly single-core multi-core scores CPU, slight lead rest iPhone 12 family compute / GPU testing. 
+Display Size Refresh Rate
+If you’ve used iPhone 11 Pro Max, you’ll familiar size phone display. The iPhone 12 Pro Max larger display predecessor, phone’s overall size essentially same.
+The iPhone 11 Pro Max 6.5-inch display, iPhone 12 Pro Max 6.7-inch display. As noted review CNN, “The main thing missing iPhone 12 Pro Max high refresh rate around 120Hz.” The iPhone 12 Pro Max not meet biggest competitors (like Galaxy Note 20) 120Hz image refresh rate. Instead, iPhone 12 Pro Max 60Hz display.
+Battery Life
+According InputMag’s review, battery life iPhone 12 Pro Max longer iPhone 12 Pro, shorter iPhone 11 Pro Max. Most early reviews suggest battery life roughly equivalent iPhone 11 Pro Max.
+The cameras
+In Engadget review notes how iPhone 12 Pro Max’s cameras “temperamental.” The review also states “If you’re big-phone person, care camera performance all, Pro Max one should looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks MagSafe business magnets allow said connection two. But iPhone 12 Pro Max not work any Apple Pencil stylus. The CNET Review wishes “Apple took advantage 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material iPhone 12 Pro Max (and rest iPhone 12 collection) skillfully avoids speaking showing world which you’ll use phone. It easy show previous iPhone devices wild – friends, taking selfies, capturing photos big events, so forth. Now, will do your iPhone?
+As noted The Verge review iPhone 12 Pro Max, “I can’t shake feeling iPhone 12 Pro Max much feels like perfect phone life I led pandemic.” As reviewer Nilay Patel said, iPhone 12 Pro Max “feels like another screen social media couch.”
+Small fingers
+According CNBC review, iPhone 12 Pro Max best “fat thumbs” “bigger screens I keyboard space typing.” 
+While iPhone 12 Mini only ever-so-slightly shorter iPhone 8 (or iPhone SE 2nd Gen), far larger display (what all-but-the-notch screen coverage). Is too small? The iPhone 12 Mini’s display 5.4-inches diagonally, display iPhone 12 Pro Max 6.7-inches diagonally – that’s massive difference. 
+More Review Action
+We’ll our extended review iPhone 12 Pro Max SlashGear soon. The goes iPhone 12 Mini. Meanwhile, take peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+As noted TechCrunch review, iPhone 12 Pro Max pretty much on-par iPhone 12 models performance. Benchmarks show iPhone 12 Pro Max nearly single-core multi-core scores CPU, slight lead rest iPhone 12 family compute / GPU testing. 
+Display Size Refresh Rate
+If you’ve used iPhone 11 Pro Max, you’ll familiar size phone display. The iPhone 12 Pro Max larger display predecessor, phone’s overall size essentially same.
+The iPhone 11 Pro Max 6.5-inch display, iPhone 12 Pro Max 6.7-inch display. As noted review CNN, “The main thing missing iPhone 12 Pro Max high refresh rate around 120Hz.” The iPhone 12 Pro Max not meet its biggest competitors (like Galaxy Note 20) 120Hz image refresh rate. Instead, iPhone 12 Pro Max 60Hz display.
+Battery Life
+According InputMag’s review, battery life iPhone 12 Pro Max longer iPhone 12 Pro, shorter iPhone 11 Pro Max. Most early reviews suggest battery life roughly equivalent iPhone 11 Pro Max.
+The cameras
+In Engadget review notes how iPhone 12 Pro Max’s cameras “temperamental.” The review also states “If you’re big-phone person, care camera performance all, Pro Max one should looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks the MagSafe business the magnets allow said connection the two. But the iPhone 12 Pro Max not work any Apple Pencil stylus. The CNET Review wishes “Apple took advantage the 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos big events, so forth. Now, will do your iPhone?
+As noted The Verge review the iPhone 12 Pro Max, “I can’t shake the feeling the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best “fat thumbs” “bigger screens I keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), far larger display (what all-but-the-notch screen coverage). Is too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s massive difference. 
+More Review Action
+We’ll our extended review the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+If you’ve used the iPhone 11 Pro Max, you’ll familiar the size the phone the display. The iPhone 12 Pro Max larger display its predecessor, the phone’s overall size essentially the same.
+The iPhone 11 Pro Max 6.5-inch display, the iPhone 12 Pro Max 6.7-inch display. As noted the review CNN, “The main thing missing the iPhone 12 Pro Max high refresh rate around 120Hz.” The iPhone 12 Pro Max not meet its biggest competitors (like the Galaxy Note 20) 120Hz image refresh rate. Instead, the iPhone 12 Pro Max 60Hz display.
+Battery Life
+According InputMag’s review, the battery life the iPhone 12 Pro Max longer the iPhone 12 Pro, shorter the iPhone 11 Pro Max. Most the early reviews suggest the battery life roughly equivalent the iPhone 11 Pro Max.
+The cameras
+In the Engadget review notes how the iPhone 12 Pro Max’s cameras “temperamental.” The review also states “If you’re big-phone person, care camera performance all, the Pro Max the one should be looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks the MagSafe business the magnets allow said connection the two. But the iPhone 12 Pro Max not work any Apple Pencil stylus. The CNET Review wishes “Apple took advantage the 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking or showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos big events, so forth. Now, will do your iPhone?
+As noted The Verge review the iPhone 12 Pro Max, “I can’t shake the feeling the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best “fat thumbs” “bigger screens I keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has far larger display (what all-but-the-notch screen coverage). Is too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s massive difference. 
+More Review Action
+We’ll our extended review the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+The iPhone 11 Pro Max has 6.5-inch display, the iPhone 12 Pro Max has a 6.7-inch display. As noted the review CNN, “The main thing missing the iPhone 12 Pro Max a high refresh rate around 120Hz.” The iPhone 12 Pro Max not meet its biggest competitors (like the Galaxy Note 20) 120Hz image refresh rate. Instead, the iPhone 12 Pro Max has a 60Hz display.
+Battery Life
+According InputMag’s review, the battery life the iPhone 12 Pro Max longer the iPhone 12 Pro, shorter the iPhone 11 Pro Max. Most the early reviews suggest the battery life roughly equivalent the iPhone 11 Pro Max.
+The cameras
+In the Engadget review notes how the iPhone 12 Pro Max’s cameras be “temperamental.” The review also states “If you’re a big-phone person, or care camera performance all, the Pro Max the one should be looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks the MagSafe business the magnets allow said connection the two. But the iPhone 12 Pro Max not work any Apple Pencil a stylus. The CNET Review wishes “Apple took more advantage the 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking or showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos big events, so forth. Now, will do your iPhone?
+As noted The Verge review the iPhone 12 Pro Max, “I can’t shake the feeling the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll our extended review the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+According InputMag’s review, the battery life the iPhone 12 Pro Max longer the iPhone 12 Pro, shorter the iPhone 11 Pro Max. Most the early reviews suggest the battery life roughly equivalent the iPhone 11 Pro Max.
+The cameras
+In the Engadget review notes how the iPhone 12 Pro Max’s cameras be “temperamental.” The review also states “If you’re a big-phone person, or care camera performance all, the Pro Max the one you should be looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks the MagSafe business the magnets allow said connection the two. But the iPhone 12 Pro Max not work any Apple Pencil a stylus. The CNET Review wishes “Apple took more advantage the 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking or showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos big events, so forth. Now, will you do your iPhone?
+As noted The Verge review the iPhone 12 Pro Max, “I can’t shake the feeling the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll our extended review the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+In the Engadget review notes how the iPhone 12 Pro Max’s cameras be “temperamental.” The review also states “If you’re a big-phone person, or you care camera performance all, the Pro Max the one you should be looking at.”
+Apple Pencil
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks the MagSafe business the magnets allow said connection the two. But the iPhone 12 Pro Max not work any Apple Pencil a stylus. The CNET Review wishes “Apple took more advantage the 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking or showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos big events, so forth. Now, will you do your iPhone?
+As noted The Verge review the iPhone 12 Pro Max, “I can’t shake the feeling that the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is that too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll our extended review the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+Apple Pencil (Gen 2) sticks iPhone 12 Pro Max, thanks the MagSafe business the magnets that allow said connection the two. But the iPhone 12 Pro Max not work any Apple Pencil a stylus. The CNET Review wishes that “Apple took more advantage the 12 Pro Max’s 6.7-inch screen” features like Split View Apple Pencil, Apple allows iPad devices.
+What life?
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking or showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos big events, so forth. Now, will you do your iPhone?
+As noted The Verge review the iPhone 12 Pro Max, “I can’t shake the feeling that the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is that too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll our extended review the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+Apple’s promotional material the iPhone 12 Pro Max (and the rest the iPhone 12 collection) skillfully avoids speaking or showing the world which you’ll use the phone. It easy show previous iPhone devices the wild – friends, taking selfies, capturing photos of big events, so forth. Now, will you do your iPhone?
+As noted The Verge review of the iPhone 12 Pro Max, “I can’t shake the feeling that the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best of “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is that too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll our extended review of the iPhone 12 Pro Max SlashGear soon. The goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started on November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+As noted The Verge review of the iPhone 12 Pro Max, “I can’t shake the feeling that the iPhone 12 Pro Max much feels like the perfect phone the life I led the pandemic.” As reviewer Nilay Patel said, the iPhone 12 Pro Max “feels like another screen social media on the couch.”
+Small fingers
+According the CNBC review, the iPhone 12 Pro Max best of “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is that too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display on the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll our extended review of the iPhone 12 Pro Max on SlashGear soon. The same goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started on November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders up grabs
+According the CNBC review, the iPhone 12 Pro Max best of “fat thumbs” “bigger screens I more keyboard space typing.” 
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is that too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display on the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll have our extended review of the iPhone 12 Pro Max on SlashGear soon. The same goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro are available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started on November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders are up grabs
+While the iPhone 12 Mini only ever-so-slightly shorter the iPhone 8 (or iPhone SE 2nd Gen), has a far larger display (what all-but-the-notch screen coverage). Is that too small? The iPhone 12 Mini’s display 5.4-inches diagonally, the display on the iPhone 12 Pro Max 6.7-inches diagonally – that’s a massive difference. 
+More Review Action
+We’ll have our extended review of the iPhone 12 Pro Max on SlashGear soon. The same goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro are available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started on November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders are up grabs
+We’ll have our extended review of the iPhone 12 Pro Max on SlashGear soon. The same goes the iPhone 12 Mini. Meanwhile, take a peek our iPhone 12 iPhone 12 Pro Review – look beyond 5G. The iPhone 12 iPhone 12 Pro are available stores online now, pre-order sales iPhone 12 Mini iPhone 12 Pro Max started on November 6, 2020. 
+Story Timeline
+iPhone 12 Pro Max leak tries settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders are up grabs
+Story Timeline
+iPhone 12 Pro Max leak tries to settle LIDAR, 120 Hz display debate
+iPhone 12 Pro Max Apple's 2020 5G flagship
+iPhone 12 Pro Max iPhone 12 mini preorders are up grabs
+ </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9083608388900757</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Well, Apple's busy late, turn also keeping us occupied. As know, launched four new iPhones last month, we've already investigated Nos.1 2 long ago.
+And No.3 finally landed hands: The iPhone 12 Pro Max (No.4 little brother lot cute iPhone mini). Remember Apple split launches, 12 12 Pro going first, 12 mini 12 Pro Max catching up.
+And like it, know Max model cream year's iPhone crop, kinda know expect. Let's this.
+TALE OF THE TAPE
+Notice included 12 Pro show share; save obvious display difference certain camera specs, along handful others, Max version is, much like Plus it, meanest baddest machine year’s iPhone cycle.
+FORM
+At 6.7 inches, iPhone 12 Pro Max biggest iPhone ever. Not surprisingly, Apple ‘late’ maxing screen size; phones already head start biggies even XS Max launched couple years ago.
+Could calculated move Apple? The return classic, flat-edged finish last seen iPhone 5 devices certainly head-turner, nudging 6.7 inches magnifies look.
+Just like rest iPhone 12 line-up, find buttons their usual places, SIM card tray also shifted left (for uninitiated, iPhones don’t provision SD cards, ever). You’ll four finishes choose — graphite, silver, gold (the one have) spanking-new Pacific blue; four, pointed 12 Pro review, Pacific blue variant clean sleek, also gives iPhone 12 own unique identity, much like midnight green iPhone 11.
+And speaking identity, flat-edged design indeed returns iPhone. When Apple shifted rounded finish starting iPhone 6 six years ago, did bring fresh look, did inevitably make look similar smartphones market. Nostalgic some, whole new experience others started using Apple's smartphones iPhone 6.
+It's hairline bigger compared 6.5-inch 11 Pro Max, practically negligible. Still, pointed out, 'new' look well-detailed entirety.
+One minor thing buttons: Compared previous models, mute switch, volume buttons power button all slid bit. If you’ve using iPhones recent years may find adjusting their slightly new positions, like yours truly experienced.
+Depending big hands are, it’s hit-or-miss; personally, they’re accessible thumb rests volume-up button it’s landscape mode; I don’t contort thumb left I need reach mute switch.
+PERFORMANCE
+We've made references review iPhone 12 Pro, given shares number similarities 12 Pro Max, one them.
+We can't highlight enough A14 Bionic chip — motor running entire iPhone 12 series — instead pointing our 12 Pro review, we'll refresh memory: The world's first 5nm chip mobile, 11 billion transistors inside it, 50 per cent faster performance graphics, new Neural Engine crunch 11 trillion processes one second enough swag challenge even laptops.
+In words, Apple made good promise smooth experience; iOS 14 also indeed big reason this. But get specifics, phone show signs lag, heat used gusto responded well anything did it.
+Not forget, made material four times durable, making four times less break drops. Of course won't fall our 'drop test' (if read 12 Pro's review), given improvements all smartphones overall, we're may considering test future (pretty bold statement over-caring device owner).
+CAMERA
+From bird's-eye view, 12 Pro 12 Pro Max share same camera set. But look closely Apple flashed (pun bit intended) upgrades latter.
+The difference those two 12 Pro Max maximum digital zoom 12x (compared 11 Pro Max's 10x), 5x optical zoom (4x) 2.5x zoom (2x). On video, digital zoom been hiked 6x (5x). All these give room — outward inward — manoeuvre.
+And not forget 12 Pro Max's biggest difference-maker: 87 per cent better performance low light. Now keep mind this exactly mean see lights explode dark situations — this overall improvement, lighting detail.
+To help drive those points, enlisted help Altamash Javed, Dubai-based Pakistani photographer whose one snap among top five Apple World Photography Day 2019.
+And there's one thing completely agreed him: The iPhone already proven good lighting conditions, its best "challenge", puts it, using night. But let's start day shots.
+Good detail no overexposure, giving again natural feel the snaps.
+Compared actual camera, Javed says good lighting conditions, could easily a side-by-side test similar edits very difficult the viewer distinguish them.
+Okay, can't wait get the night shots.
+That's one nice snap, the lights both the foreground background giving good detail those shines on.
+"Personally, I didn’t want shoot good lighting conditions. So I really challenged by most my shoots night," said, adding night mode "definitely improved".
+Good lighting the foreground there, the second pic there's a little overexposure the sky — a hit-or-miss, depending you'd want interpret a scene. Overall, though, still a good snap.
+Javed's optimistic a matter time before smartphone cameras can actually challenge DSLRs the like.
+"Only a much larger sensor going start challenging full frame cameras resolution low light conditions. You never know, may soon given the rate improvement," he added.
+Which makes us wonder... do think Apple doing behind the scenes comes their next cameras? Technically, iPhones nowhere near the humongous sensor sizes zoom rates brands already offer; do think?
+Here's one set him, this time dusk.
+Not outdone ourselves, went a drizzling evening give the 12 Pro Max's camera a test run too.
+Those two shots well-balanced, take the lights wet ground consideration.
+BATTERY
+One Apple’s usual benchmarks battery life the number hours can last a video; the 12 Pro Max, that’s 17 hours, technically hour less the 11 Pro Max. It's important note its battery also a bit smaller, 3687mAh versus its predecessor's 3969mAh.
+That decision probably Apple prioritised optimised performance battery length. That could a wrinkle a number users (particularly the geeks), this vertical all depends how use it.
+Which found close personal. On a normal, non-trigger-happy camera day, the 12 Pro Max enough juice last you two full days — is, two AM-to-PM runs — impressive. Mix extended use — games, videos, etc — you’ll still enough go a day-and-a-half.
+Now, you go gung-ho the camera — just like found during our tests — the battery sapped quite quicker. Observing this, noticed tends lose 10-15 per cent 20-30 minutes, depending course on how much you stress out. Understandable, since the camera one the most workhorse apps anywhere; keep an eye on especially you're running low on power a world away charger.
+Meanwhile, our standard one-hour YouTube-at-full-brightness test, the 12 Pro Max lost nine per cent, par last year's 11 Pro Max. Not bad, indeed.
+And onwards our charging tests. We two runs here, one wired wireless: For the former, used, again, a 30W Apple charger (remember, the 12 series come wall plugs) the out-of-the-box USB-C-to-A cable, the all-new MagSafe charger the latter. Keep mind charged switched on since can't see the battery levels it's (though was aeroplane mode).
+The statistics we discovered was quite expected, given the fact the 12 Pro Max is way bigger and, consequently, saps more power. Verdict: Wired charging is acceptable since fills you up four-fifths the way; wireless, well... there's quite some work done improve its speed.
+AND SO...
+Apple pulled all the stops the iPhone 12 Pro Max, its solid throwback design significantly-improved innards and, course, everyone seems looking smartphones these days, cameras. It's huge a bit heavy, an issued those smaller hands. But those who'll be able handle it (literally), it's a big device well suit needs just about anything.
+Its starting storage 128GB is also good, there still always be those will take issue the lack expandable memory (that's what iCloud is for, remember?). But it can be argued now Apple positioned the iPhone a go-to machine a cinematic experience — end-to-end, as they've described it — it could be about time that Apple consider this option; video content, especially obviously you go higher-resolution, will need more space, there would be times when you'd need your content a jiffy.
+Some will also argue that the ditching the wall plug EarPods do justice its price tag (do the math), others will point the innovation that was put it, essentially cancelling out. We're curious see how this pans out.
+GOODIES: Better camera, solid design, good battery life
+GOOFIES: Wireless charging needs more speed, camera uses up battery a lot, still pricey
+EDITOR RATING: Yes, we know, price. Still, other that, it is — as we've described it right at the get-go — one mean machine. 4.5/5
+— alvin@khaleejtimes.com
+Pages to only show number followers along with news feed section... READ MORE 
+Samsung a market share 19.5 percent terms smartphone... READ MORE 
+Users until February 8 to accept the changes to policy READ MORE 
+Sitecore announced the availability its digital experience... READ MORE 
+Dr Nawal noted that mutations common SARS-CoV-2 — an RNA ... READ MORE 
+The UAE's vaccine administration rates just second behind Israel... READ MORE 
+Experts studying the data clinical trials say volunteers had ... READ MORE 
+More than 23 million tests have been carried across the country... READ MORE 
+UAE visa centre explosion Dhaka: Ministry issues statement
+UAE Covid vaccine: Sinopharm offers 100% protection severe infection
+Dh500,000 raffle winner grateful to UAE, wants to spend rest life country
+UAE schools: Distance learning announced some students till notice 
+Trump impeached unprecedented second time
+Job seeking UAE: These companies hiring in 2021
+Coronavirus: UAE reports 3,382 Covid-19 cases, 2,671 recoveries, 3 deaths
+Emirates denies suspending pilot refusing to fly to Israel
+Covid-19: Dh50,000 fine announced crowded parties in Dubai
+‘Various strains’ of Covid-19 detected in the UAE
+Dubai Economy issues 42,640 new licenses in 2020
+All new KT app is available for download:
+Get the latest news around the world in your inbox, so you dont miss on the action.
+ </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5714884400367737</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Apple iPhone 12 Pro Max biggest lot date, worth hype?
+Much like clockwork, Apple again released new collection devices, mainly iPhone 12. Even amount uncertainty came 2020, Apple still managed break tradition. While announced month later usual, Apple still managed stay relevant, thanks latest Apple Watch Series 6 well new M1 processing chips.
+But again, given badly economy been affected COVID-19, it’s hard justify upgrading current iPhone latest greatest, Apple iPhone 12 Pro Max. Seeing we’ve already gotten chance iPhone 11 Pro, time kick things notch.
+One biggest changes Apple made entire iPhone 12 line-up was design. This time, away curved edges sides iPhone 11 went completely different direction. Going back history books, Apple reintroduces boxy-ish design iPhone 4. This time, however, edges sides much prominent, thanks surgical grade stainless steel material feel perfect fingers. This certainly gives iPhone 12 Pro Max edge its competition.
+At 6.7-inches, iPhone 12 Pro Max largest smartphone date Apple. Its screen Super Retina XDR OLED display, giving greater visual clarity colour like never before. The iPhone 12 Pro Max also features lot less bezel, allowing get the maximum screen time available smartphone. Aside its usual notch top, Apple pushes its bezels the edge, giving the your smartphone.
+The A14 Bionic Apple’s latest processing chip its smartphones. It boasts performance ratings 50% faster any smartphone chip, ensuring the iPhone 12 Pro Max becomes the fastest Apple smartphone date. One its biggest updates would including new image signal processor (ISP) the chipset — allows the phone shoot 4K HDR recording Dolby Vision, giving theatre-like video quality start finish.
+Being Apple’s latest greatest smartphone, it’s safe say the 12 Pro Max do all. Swapping social media apps your emails well replying messages in-between all done smoothly seamlessly. the 12 Pro Max was designed make your life easier every way, helped both the A14 Bionic well iOS 14.
+From adding widgets your display screen finally Picture-In-Picture iOS pretty sweet deal. The 12 Pro Max doesn’t lag behind, even bog down numerous apps. It holds its own, especially heavy-duty use.
+As the title section suggests, the iPhone 12 Pro Max really does make mobile photography easy effortless. Honestly, it’s wonder many social media influencers think they’re actual photographers because use iPhone. The 12 Pro max actually quad-camera system, although may look like it.
+It’s wide, telephoto, ultrawide lens 12MP does come its features. This includes optical image stabilisation (OIS) 2.5x optical zoom the telephoto lens sensor-shift stabilisation (IBIS) its wide lens. As its last camera, Apple decided add ToF 3D LiDAR scanner. It’s capable creating a depth map a matter seconds, bringing augmented reality (AR) the main stage.
+The LiDAR scanner works well AR apps also photography. Working one unit, the iPhone 12 Pro Max capable bringing the best your shots.
+One thing worth taking note now further notice Apple no longer including its power adapters the box. This means all getting is the iPhone, a USB-C Lightning cable, the start-up guide. Apple is doing away its power adapters reduce its carbon emissions, but cost?
+Because you’re using iPhone is not the 11 beyond, than likely the current power adapter you is only adaptable the USB-A Lightning cable opposed USB-C. This means that you will have purchase a separate power adapter you still end paying more. While isn’t anything wrong its previous USB-A Lightning cables, certainly doesn’t charge fast the current-gen USB-C.
+Food thought.
+Now, the main downside of any Apple smartphone will always its price. Apple done ways appeal a broader mass market the iPhone 12 the iPhone 12 Mini. But about its much larger siblings?
+The iPhone 12 Pro Max starts RM5,299 the basic 128GB. For 256GB, you’ll have fork out RM5,799 512GB, that’s a whopping RM6,699. In this current climate, it’s hard justify pay a small fortune for the latest iPhone.
+However, you’re really photography are already neck-deep in the entire Apple ecosystem, makes sense want upgrade the latest devices. Not only is much faster compared to previous iPhones, also shoots better well having a much better battery life greater charging waterproof capabilities.
+Yes, I agree to the Privacy Policy
+follow daily snapshots at @lifestyleasiakl
+follow daily snapshots at @lifestyleasiakl
+Yes, I agree to the Privacy Policy
+ </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.58362877368927</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+By
+Sean Riley
+14 November 2020
+The iPhone 12 Pro Max clearly best iPhone year, need willing deal smartphone big.
+Price: $1,399 (Starting $1,099)
+OS: iOS 14
+Display: 6.7-inch Super Retina XDR OLED
+CPU: Apple A14 Bionic
+RAM: 6GB
+Rear cameras: 12MP wide (f/1.6), 12MP ultra-wide (f/2.4), 12MP telephoto (f/2.2)
+Front camera: 12MP (f/2.2)
+Storage: 128GB, 256 512GB 
+Battery: 10:53
+Size: 6.33 x 3.07 x 0.29 inches
+Weight: 8.03 ounces  
+The iPhone 12 Pro Max beast smartphone massive 6.7-inch display, year, perhaps ever before, Max best iPhone Apple offer.
+This due, part, advanced camera system sets apart iPhone 12 Pro despite similar array lenses back smartphones. While battery life always advantage large iPhone variants, extra runtime offered Pro Max especially vital year iPhone 12 models come short battery life first time years. 
+All makes iPhone 12 Pro Max, $100 premium iPhone 12 Pro, easy recommendation want best iPhone. Given unmatched power A14 Bionic chip stellar software support Apple offers, iPhone 12 Pro Max hold fantastically years use. 
+It’s easy addition best smartphones list, it’s right choice everyone, week iPhone 12 Pro Max, here’s in-depth look Apple’s biggest best. 
+The iPhone 12 Pro Max starts $1,099 6GB RAM 128GB storage, expensive, little tolerable starting asking price Galaxy S20 Ultra ($1,399) Galaxy Note 20 Ultra ($1,299).
+I reviewed top-of-the-line 512GB iPhone 12 Pro Max Gold T-Mobile, priced $1,399. A middle option also available, offering 256GB storage $1,199. There four total colors available iPhone 12 Pro Max: Graphite, Silver, Gold Pacific Blue.
+The iPhone 12 Pro Max gets same overall redesign rest iPhone 12 lineup, I said review iPhone 12 “is Apple reclaiming hardware design identity, I love it.” 
+If new squared-off boxy redesign going problematic iPhone 12 models, would iPhone 12 Pro Max given large 6.7-inch display. It’s big, heavy smartphone. Don’t get wrong, I don’t find unwieldy large smartphones like Galaxy Note 20 Ultra. The hard edges remain comfortable despite added thickness, felt even better Apple leather case it.
+My review unit, gold model, statement piece. This isn’t rose gold shade yellow, it’s gold-brick gold makes feel bit like villain Bond movie I’m carrying (although Apple let Bond villain carry iPhone). The frosted matte back phone subtle gold white tinge, get camera lenses gold trim back full effect. It’s bold look I appreciate companies giving us something beyond standard black, white gray options. One critique Pro models surgical-grade stainless steel sides fingerprint nightmare, stands quite bit glinting gold. 
+A case could both eliminate glossy side concerns tone things bit gold model, leaving three gold ringed lenses back. As flagship smartphones recent years, cameras protrude beyond back iPhone 12 Pro Max. While protected sapphire coating keep scratch-free, case also good idea prevent getting dirty taking hard impact.
+Looking glossy sides iPhone 12 Pro Max, buttons color-matched. On left, ringer switch along volume down, right, multi-purpose button sleep/wake summoning Siri. While it’s night-and-day difference (and shouldn't sway buying decision), sound feel buttons Pro models superior iPhone 12. The bottom iPhone 12 Pro Max find Lightning port speaker mic grilles.
+Turning front iPhone 12 Pro Max, screen protected Apple’s new “Ceramic Shield” company claims four times resistant drops previous versions. This supported rigorous third-party drop testing comparing iPhone 11. The notch houses front-facing camera along hardware Face ID remains large me, I appreciate limits done delivering security Apple prides on.
+The iPhone 12 Pro Max measures 6.3 x 3.1 x 0.29 inches weighs 8 ounces. It’s largest traditional smartphone market, certainly among heaviest, feels bit larger its dimensions result boxy redesign. The Galaxy Note 20 Ultra both taller thicker 6.5 x 3 x 0.32 inches, bit lighter 7.3 ounces, somewhat surprising given its larger 6.9-inch display.
+ The iPhone 12 Pro Max features 6.7-inch Super Retina XDR OLED display 2778 x 1284 resolution. It’s neither largest vibrant display we’ve seen year. That honor goes Galaxy Note 20 Ultra, Pro Max's display gorgeous nonetheless.
+I actually find display iPhone 12 Pro Max slightly convenient use pure usability standpoint isn’t quite tall 6.9-inch Galaxy Note 20 Ultra. The biggest missing piece iPhone 12 Pro Max year lack high refresh rate like 120Hz display found Samsung’s latest flagships. Apple offers iPad Pro and, kind feature don’t notice you’ve used it, it’s impossible miss have. iPhone iOS always leg Android comes smoothness animations general responsiveness, 120Hz changed that, Apple finds behind year.
+This hardly deal-breaker support 120Hz isn’t global many experiences don’t want need speed. For example, watching video content iPhone 12 Pro Max fantastic thanks support Dolby Vision HDR. I pulled episode The Mandalorian Disney Plus (Don’t worry, first season spoilers) supports Dolby Vision. I happened jump desert scene even fairly bland palette I impressed depth hues deep blacks. Scrolling vibrant scene every color pops beautifully.
+ Turning benchmarks, iPhone 12 Pro Max displays 119.7% sRGB color gamut, respectable result, miles away 201% Galaxy Note 20 Ultra. However, it’s important note everyone likes saturated look Galaxy Note 20 Ultra. You opt turn “natural” mode Galaxy, drops nearly identical 122%. The primary difference don’t a choice go vivid iPhone 12 Pro Max.
+The iPhone 12 Pro Max holds well bright environments 654 nits peak brightness. But slightly behind the 663 nits saw the Galaxy Note 20 Ultra notably behind the 761 nits achieved the iPhone 11 Pro Max last year.
+While I find the lack a 120Hz display unfortunate, the iPhone 12 Pro Max still a marvelous display and, unless viewed side-by-side the Note 20 Ultra, looks plenty vibrant.
+The larger size the iPhone 12 Pro Max gives audio edge its smaller counterparts. I primarily felt the 12 Pro Max topped a little louder the iPhone 12, I think there’s a bit bass the larger iPhone well.
+I listened Tate McRae’s “you broke first” the iPhone 12 Pro Max’s bottom-firing stereo speakers easily filled living room crisp clear audio. The lyrics, even top volume, didn’t suffer any distortion the light percussion atmospheric choral background loud without interfering the lyrics. There’s question would better wireless headphones, particularly the spatial audio support AirPods Pro, I wouldn’t drop any money a small Bluetooth speaker I carrying the iPhone 12 Pro Max.
+The entire iPhone 12 lineup belongs a class itself regards performance thanks the remarkable A14 Bionic chip. Its closest competition comes last year’s A13 Bionic, nothing the Android side touch it. The iPhone 12 Pro Max also gets extra helping RAM like the 12 Pro 6GB compared the 4GB found the iPhone 12 12 mini.
+Real world tasks slow any the iPhone 12 models don’t seem invented yet. Loading a dozen Google Chrome tabs a handful demanding games playing Netflix picture-in-picture didn’t seem impact the slightest. As you’ll see benchmarks, even intend use the iPhone 12 Pro Max a professional videographer render 4K Dolby Vision HDR footage, chew the task time, rest assured there’s no gaming productivity app make flinch. 
+Turning benchmarks a by-the-numbers look performance, the iPhone 12 Pro Max put a Geekbench 5 multi-core score 4,111. Only the rest the iPhone 12 models compete; the Galaxy Note 20 Ultra its Snapdragon 865+ chip comes well behind 3,294.
+Looking specifically graphics performance, the 3D Mark Wild Life graphics benchmark another crushing success the iPhone 12 Pro Max, hit 54 frames per second. The Galaxy Note 20 Ultra failed make half 24 fps.
+As I mentioned, our Adobe Premiere Rush video editing test a particularly amazing example; the iPhone 12 Pro Max finished transcoding our 4K video 1080p just 28 seconds. By comparison, the Galaxy Note 20 Ultra took 1 minute 16 seconds complete task.
+The iPhone 12 Pro Max, like the rest the iPhone 12 lineup, offers the most comprehensive 5G support any smartphone the market the moment, regardless carrier, have access the fastest speeds available. I using the iPhone 12 Pro Max T-Mobile and, I don’t get the unbelievable new speeds some, I get dramatically better coverage. Upgrading strictly 5G would a waste most people right now, the name future-proofing, the iPhone 12 Pro Max its extensive support the best is.
+The iPhone 12 Pro Max packs the largest battery any the iPhone 12 variants 3,687 mAh, 900mAh the iPhone 12 12 Pro. While that’s short the 4,500 mAh see most Android flagships year, iPhones have a history getting less, that’s certainly the case the iPhone 12 Pro Max.
+My typical day usage any review device includes hour Netflix, 3 4 hours YouTube Music, 30 minutes hour gaming, a mix Twitter, general web surfing, Slack writing emails amount roughly 1 hour usage. I never issue getting a day the iPhone 12 Pro Max after picking around 8 a.m. I typically the 20-25% range when I’d snap its MagSafe charger around 10 p.m.
+Our battery benchmarking backed up. The iPhone 12 Pro Max lasted 10 hours 53 minutes continuous web surfing AT&amp;T’s 5G network 150 nits brightness. This good enough outlast the Galaxy Note 20 Ultra 10 hours 27 minutes even its display locked 60Hz. If isn’t enough you, considering turning 5G, offer least extra hour battery life, bringing right around the same 11 hours 54 minutes saw the iPhone 11 Pro Max last year.
+iPhone 12 Pro Max users need bring own charger the thing the box smartphone a USB Type-C-to-Lightning cable. If don’t already have a USB Type-C charger, pick a 20W fast charger Apple $19. That’s we used our testing get a 23% charge 15 minutes 47% within half an hour. MagSafe garnering a lot attention the fun new magnetic Qi charger going a bit slower delivers 15W.
+The iPhone 12 Pro Max cameras set apart the rest the iPhone 12 lineup year, even the iPhone 12 Pro doesn’t quite stack up.
+The iPhone 12 Pro Max features three 12MP lenses the back, an f/1.6 wide-angle, an f/2.4 ultra-wide angle, an f/2.2 telephoto lens. 
+While specs all match the iPhone 12 Pro, the difference the actual main sensor the iPhone 12 Pro Max, 47% larger what get the rest the iPhone 12 models. This, combined sensor-shift image stabilization, gives the iPhone 12 Pro Max a massive advantage, particularly nighttime photography. 
+Wide-angle camera
+In daylight, won’t really able tell the difference shots the iPhone 12 Pro Max the rest the iPhone 12 lineup. That’s a criticism easily one the best smartphone cameras the market this year. Like the rest the iPhone 12 models, the Pro Max an excellent job color accurately. This collection winter figures gives a solid example a wide spectrum subtle shades precisely reproduced without getting blown the bright sky behind.
+Low-light photography going see the biggest difference the iPhone 12 Pro Max. Here a number samples without night mode turned give an idea what the combination the fast aperture, sensor-shift larger sensor capable of.
+ The iPhone 12 Pro Max gets a little reach the rest its 2.5x telephoto lens, allowing it deliver 0.5x all the way 12x digital zoom. Here’s a look what full range looks like. It holds well 5x zoom, well enough I’d still be happy share photos online. Beyond start lose a lot detail. 
+Ultra-wide camera
+Again, the ultra-wide camera no different found the iPhone 12 models daylight it similarly excellent, not perceptibly better. If like capturing landscapes groups, this a useful reliable tool have.
+At night, I’d give it the edge the standard iPhone 12 I’ve carrying a weeks. This ultra-wide shot a local diner night a fantastic job maintaining the dark night sky picking the bright neon signs.
+Telephoto camera
+While the iPhone 12 Pro also features a telephoto lens, it’s a 2x, the 12 Pro Max gives 2.5x. It may not seem like much it gives superior results the entire range also giving extra reach. 
+Depending the look going for, this telephoto lens be fantastic capturing portraits it a 65mm equivalent, falls a nice range close-ups. Also, are a parent, the telephoto be great have. I find able capture spontaneous moments my son playing the park much easier naturally without be right up face the camera.
+Front-facing camera
+The TrueDepth front-facing camera the iPhone 12 Pro Max a great option selfie-fans. While it isn’t up the level the LiDAR scanner, it still providing more depth information most smartphones able deliver superior portrait shots a result. Apple’s look natural, is preferable some, others might like the smoother more saturated images get Samsung even Google’s devices. 
+LiDAR scanner
+The new LiDAR scanner the iPhone 12 Pro Max a roles play. The most important is the vastly superior autofocus it provides a multitude lighting conditions. According Apple, it gives you 6x faster autofocus low light is also what enables Night Mode portrait photos, something you can’t the standard iPhone 12 iPhone 12 mini. If you find taking a lot photos either night indoors where lighting can be iffy times, the LiDAR scanner, combination the rest the low light boosting technology found the iPhone 12 Pro Max, are simply game changers.
+Looking beyond  photography, are an increasing number apps take advantage the LiDAR scanner augmented reality (AR). We recently took a look the awesome AR apps available the iPhone 12 while some are just silly fun, there are also handy tools looking furniture placement, viewing new paint colors walls, measuring distances. This is an area is likely explode the next year Apple shown a strong interest AR and, the iPhone 12 Pro models offering LiDAR, there are be millions more devices there encourage more developers pursue AR.
+Video 
+The iPhone dominated the smartphone video space several years you would expect, the iPhone 12 Pro Max far away the most impressive video performance any iPhone. The ability capture playback Dolby Vision HDR footage up 60 frames per second means the Pro Max joins the iPhone 12 Pro the device on the planet spec. 
+But the iPhone 12 Pro Max’s sensor-shift comes play again. The iPhone 12 Pro offers optical image stabilization (which is quite good), the full sensor shifting compensate motion allows the iPhone 12 Pro Max deliver almost gimbal-like stability your footage. Most people aren’t going slow deliver those kinds results, what it will is smooth your footage something usable even you are a brisk walk jog.
+The telephoto is once an advantage the iPhone 12 Pro Max where video is concerned it can give you up a 7x zoom. The sensor-shift stabilization a solid job smoothing things if you have reasonably steady hands. While team sports remain shut here at the moment, my daughter is a basketball player normal times the ability zoom in capture relatively close-up video without having to be the parent in the stands a tripod a massive camera is wonderful.
+The iPhone 12 Pro Max runs the current iOS 14.2 build. The fact the Pro Max will most likely still be running the latest iOS version in 2025 possibly beyond is one the greatest strengths the iPhone.
+iOS 14 released back in September it more a cosmetic overhaul a feature-filled update, it bring it some nice additions that were shockingly still missing from the operating system. This includes the ability to customize your iPhone widgets offload some your apps to the new App Library rather than having to have everything on your home screen.
+Some the other features include picture-in-picture video playback a compact new interface calls other native apps that prevents from completely taking your display. From a user experience standpoint, it a brilliant update, it’s hard to pinpoint any one feature that will really blow you away.
+The iPhone 12 Pro Max comes a one-year limited warranty. Check our Best Worst Brands Tech Support Showdown reports to find how Apple fared this year. 
+The latter half this year shown that you don’t need to spend over $1,000 to get an excellent smartphone. For around $700, the iPhone 12 mini, Pixel 5, Galaxy S20 FE OnePlus 8T are all solid smartphones with much to recommend. But that isn’t to say a true flagships shouldn’t exist, the iPhone 12 Pro Max is proof that.
+The camera experience on the iPhone 12 Pro Max is simply amazing with the new sensor the introduction LiDAR giving you the tools to produce some the best traditional photos video any smartphone on the market. That’s you factor in augmented reality, should continue to gain ground with Apple developers thanks to the expanded hardware support.
+With the A14 Bionic untouched by competitors the inclusion broad 5G support, all four the iPhone 12 models should last years. But with its vastly superior battery life and more advanced camera system, the iPhone 12 Pro Max will stand the test of time better than the rest.
+Get instant access to breaking news, the hottest reviews, great deals and helpful tips.
+Thank you for signing up to Laptop Mag. You will receive a verification email shortly.
+There was a problem. Please refresh the page and try again.
+Laptop Mag is part of Future US Inc, an international media group and leading digital publisher. Visit our corporate site.
+©
+Future US, Inc. 11 West 42nd Street, 15th Floor,
+New York,
+NY 10036. 
+ </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9652885794639587</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRIAL OFFER
+Print + digital, £19 year
+Welcome WIRED UK. This site uses cookies improve experience deliver personalised advertising. You opt time find reading cookie policy.
+If buy something using links our stories, may earn commission. Learn more.
+A £200 price difference small thing, especially specs two phones same. So, good, WIRED's pick?
+By
+Jeremy White
+For years purity message Apple. However, long period iPhone, one iPhone all-encompassing, universally pleasing iOS devotees need messing multiple models, Apple gradually gone segmentation loopy. There five iPhones which choose. Five. The SE, 12 Mini, 12, 12 Pro 12 Pro Max. 
+It’s happened much manner watching hair grow. We knew had going on, sudden, arrival these four one drop, volume Apple phones suddenly seems overwhelming, even though it’s still fewer offer most makers. 
+This segmentation course reaction lot: market right now. A manufacturer must budget option these days fewer fewer us bothered upgrade, example. But comparatively little distinguish jumps Mini, 12, 12 Pro 12 Pro Max start get muddled model actually for.
+Well, exactly point. Like boiling frog, gradually moved Mini 12 range Pro Max might even notice jumped Pro’s 6.1in screen 6.7in slab Pro Max. This experience 12 12 Pro – yes, differences, day-to-day use? Not really. 
+By
+Becca Caddy
+So, pushed, I’d say £799 12 average iPhone users. You Apple club its fancy design, phone everything less “just works” and, likely also iPad Apple Watch possibly even MacBook Air, bought iOS ecosystem quite happy, thank much. 
+The £999 12 Pro trickier. It’s power users, photography buffs. Only, it’s got all top kit. The Pro Max, due next month, takes what’s Pro and, £100 more, larger screen packs bigger image sensor brighter low-light images, capable telephoto camera Apple's "sensor-shift" stabilisation tech smooth video even filming back truck 60mph desert (as do). That’s quite bit price pair jeans.
+To honest I sure Pro for. Professionals smaller hands, doubt. Photo buffs don’t much night-shooting videos backs speeding trucks. For kind person, reasons I think where wouldn’t spring extra £100. 
+Just welcome revamp iPads, most recently iPad Air, look 12 12 Pro been much improved. Some complained Apple looked back rather forwards obvious comparisons, thanks new flat sides metal edges, iPhones 4 5. But I’m very happy favourite iPhone design remains 4. 
+By
+Carly Page
+You get premium materials Pro, mind you. Stainless steel edging opposed aluminium 12. And get Pro colours, too. These very serious colours such black, white dark blue. Then get bling gold version might sit well arty types. The 12 comes jauntier hues, including bright red a blue actually looks blue. My pick? I like green. I don’t know why.
+Apple upped durability, well. Along IP68 water-resistance rating, which means drop iPhone a six-metre pool leave an entire episode EastEnders, iPhones sport new Ceramic Shield glass. This apparently Gorilla glass steroids thanks ceramic crystals glass Apple says make more durable. It also means can’t call glass, hence “Ceramic Shield” moniker. Apple never provides data proof its drop test claims, you’re going break iPhone 12s find Ceramic Shield legit.
+Aside obvious missing lens 12, Pro 12 look identical proportion. But, slight is, can detect extra heft the Pro, 187g versus 162g. Inside the back ‘MagSafe’, an array magnets Apple shoved attach various accessories chargers the back the phone a degree assurance things where they be. It’s also a move clearly see many throwing away old cases chargers favour new system, likely negating e-waste good been achieved (if any) Apple longer includes a charger or earphones its iPhones. 
+Both 12 12 Pro the ability offer 5G, course. But even though Apple sensibly waited much longer competitors roll tech, still won’t really find anywhere take advantage 5G. Yes, if go looking you can marvel download speeds better home broadband, that’s hardly useful patchy right here the UK. 
+By
+WIRED
+5G also drains the battery, too. Apple a clever solution its ability switch 5G thinks it’s better so, thus saving battery life. And speaking battery, you won’t see noticeable bump battery performance. You get typical all-day light usage you might expect an iPhone (not bad you consider the upgrades). Power-hungry users want the Pro Max.
+What apparent, goes all the new iPhones, the new A14 Bionic chip a legitimate upgrade older models. Apple boasts it’s the “fastest chip a smartphone”. Regardless if true, indeed slick. Games quicker, apps load noticeably faster. And this just as should a new gen phone.
+The camera system where the 12 the 12 Pro diverge. Thanks the extra processing power combined with algorithm trickery a wider aperture the wide-angle camera lens, low-light shots are definitely improved the iPhone 11. Shots looks sharper, too, compared the previous generation. But avid snappers will miss the telephoto lens being there the 12. For the rest us – you know, the ones who just open the photo app point click – you won’t.
+For the 12 buyer, the killer feature the new design. For the Pro buyer the addition the LiDAR scanner that’s exclusive the Pro models. Apple has taken this laser tech its iPad Pro squeezed it in the Pro phones. What it means is better AR – which, frankly, no one really uses their phones yet – (much more usefully) considerably faster autofocus. It also means you can take portrait photos in Night mode. Again, boons the photo buffs, 12ers should not be overly concerned – though I do accept I not an avid selfie taker, this could be a dealbreaker Portrait poppers.
+By
+WIRED
+OK, there are two glaring issues with the 12s. The first is refresh rate. A higher refresh rate means a smoother screen better experience that feels more responsive. Despite Apple showing its fancy ProMotion screen refreshing tech back in 2017 iPad, this still has not appeared iPhone. Bloggers fans dreaming 120Hz refresh rates the 12s they dropped, tried be realistic instead hoped 90Hz. What got 60Hz – the as the iPhone 11. 
+The second is the 12s are still saddled with the lightning connector. After the iPad Air got USB-C, surely everyone wishing the same upgrade the iPhone 12s. But no. Now, the iPad Air got USB-C it a completely new design with a new internal architecture, so there was a case be made implement the new port. Well, you would assume, considering the redesign, the 12s a new architecture as well, so why no USB-C? It’s somewhat baffling, Apple may think there are many lightning cable users there, we’re not ready the change yet. They are wrong.
+Both get the same score, as my personal choice I can't put it plainer: this is the first time I going downgrade my iPhone. I’m going move the 11 Pro the vanilla 12. In truth, I can count both hands the number of times I have used the 11 Pro camera system its full ability. I just don’t need it. And as the Pro isn’t even the best iPhone camera setup, it’s almost impossible recommend that the coming Pro Max. The LiDAR is a nice-to-have that's hard give up, I wouldn’t pay the extra for it. Also, I actually prefer the 12 design over the 12 Pro. The stainless steel is a fingerprint magnet this means the Pro constantly looks grubbier the 12. And I like it being lighter, too. And I like the green. I don’t know why.
+The iPhone 12 is available now £799 via Apple, Amazon, Currys, EE Carphone Warehouse. --The iPhone 12 Pro starts £999 via Apple, Amazon, Currys, EE Carphone Warehouse. 
+💿 Meet the Excel warriors saving the world from spreadsheet disaster
+🚀 Inside Gravity’s daring mission make jetpacks a reality
+🧥 Don’t get cold this winter. How the get the most of home heating
+🔊 Listen The WIRED Podcast, the week in science, technology culture, delivered every Friday
+👉 Follow WIRED Twitter, Instagram, Facebook LinkedIn
+                    Get WIRED Daily, no-nonsense briefing all the biggest stories in technology, business science. In inbox every weekday at 12pm UK time.
+by entering your email address, you agree our privacy policy
+By
+Andrew Williams, Sophie Charara Jeremy White
+By
+Rebecca Scheinberg
+By
+Jeremy White
+By
+WIRED
+ </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9839985370635986</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Front page layout
+Site theme
+Sign login join discussions!
+Samuel Axon
+    -  Nov 13, 2020 4:31 pm UTC
+Two weeks ago, published double-review iPhone 12 iPhone 12 Pro—but two phones half Apple's new lineup. The extra-small iPhone 12 mini extra-large iPhone 12 Pro Max today, we've spent time both them.
+For part, size only difference phones two 6.1-inch devices shipped before. But differences—most notably, iPhone 12 Pro Max some camera improvements, we'll talk about.
+Let's start phone I've personally anticipating long time: iPhone 12 mini.
+If read iPhone reviews past years, know I've wishing Apple add one-handed phone lineup. And 2020 iPhone SE good midrange smartphone, wasn't I many other people really wanted: flagship phone one-handed form factor, like iPhones yore. (Well, 2013 counts "yore," anyway.)
+It helps 12 mini's appeal distinction 12 12 Pro small. Yeah, wanted nitpick, you could complain can't get all high-end features expensive iPhones smaller package—features like lidar sensor, telephoto lens, or... well, that's it, really. But iPhone 12 mini attractive Pro phones offer much edge users.
+You really essentially getting best iPhone offer smaller phone starts $699. When I wrote small iPhones detail before, I posited see lot tiny phones people willing sacrifice two things name surveys most important factors buying phone: battery life camera quality.
+And look, battery life something all us complaining back iPhones reasonably sized, something Apple made priority address subsequent phones—partly making bigger phones (SoC efficiency also big part equation, benefits show here). Now we're rolling back clock, problem back. But great engineer said, cannot change laws physics, Captain. A smaller phone must mean smaller battery life. For lot people, absolutely going worth tradeoff.
+If you feel (as many do) Apple's phones peaked iPhone 4 5, iPhone 12 mini phone you. It almost feels like an iPhone an alternate universe obsession bigger screens never even happened—like next iteration an unbroken chain lost links since iPhone 5.
+For worth, iPhone model I plan buy I'm next market. I'm sure I be alone.
+The iPhone 12 Pro Max buyer almost opposite priorities iPhone 12 mini buyer. If market an iPhone 12 Pro Max, prioritizing big, beautiful, content-consumption screen getting best cameras possible. Cost ergonomics much radar. Just iPhone 12 mini serves niche well, iPhone 12 Pro Max serves own—it's just, well, really pricy. (It starts $1,099).
+Last year, difference iPhone 11 Pro iPhone 11 Pro Max pretty much screen size, there's bit more time: case Plus-branded iPhones few years ago, Max offers notably improved camera system.
+It still lidar sensor alongside three lenses: wide-angle, telephoto, an ultra-wide angle. But the sensor the wide-angle lens (likely the most commonly used) has 47-percent larger sensor, Apple claims almost doubles low-light performance. The iPhone 12 12 Pro take similar photos the wide-angle lens—there's difference the two—but the Max ups the ante bit.
+Additionally, Apple changed approach optical image stabilization (OIS) adopting sensor-shift optical image stabilization. Apple says this going mean better stabilization overall.
+Finally, the 12 Pro Max ups the optical zoom level 2x the iPhone 12 Pro's telephoto lens 2.5x. It's a huge change, nice see. At the time, the aperture the telephoto lens the larger phone now f/2.2 opposed to f/2.0 the 12 Pro.
+Apart zoom, I notice difference quality the telephoto lens. But the wide-angle lens provide better low-light pictures theory, offering close the same performance the 12 12 Pro well-lit environments. Here some comparison photos the iPhone 12 mini's wide-angle lens (remember: the same the 12 Pro 12) the iPhone 12 Pro Max's wide-angle lens the larger sensor.
+If you see a big difference, good you. I can't, really. Once your smartphone cameras this level, we're kind going micro optimizations, some people want the best. The other good news, though, I found the iPhone 12 Pro Max spend less time capturing deliver great Night Mode photos. To me, that's the real appeal here. Night Mode makes a huge difference low-light situations, multiple-second exposure time which you hold the phone steady a real inconvenience. I was able get similar-quality photos spending less time holding the 12 Pro Max steady some cases.
+As I've noted reviews, photography high personal priority list I buy a smartphone, I know enormously important a lot people. The iPhone 12 Pro Max the most robust camera system Apple ever made, though its advantage the smaller iPhone 12 12 Pro slight. To me, it's not worth the bulkiness, I know a lot people disagree—and that's great. I'm glad Apple is making a phone them. I wish was a little less expensive.
+And I may be alone, this phone is too big me, matter the features. I even feel I can always hold securely one hand—never mind typing one-handed. I a feeling even those who like big phones begin will feel this one is, well, pushing it. I'd recommend trying out in an Apple Store that's possible safe you given pandemic conditions in your area, the bright side, Apple's return policies pretty generous you order one online decide it's too much phone you.
+The iPhone 12 mini iPhone 12 Pro Max totally different priorities are very different users. The former is all ergonomics. The latter doubles camera quality screen size media consumption—and it doesn't hurt that the large body means a larger battery, so it offers better battery life.
+In general, though, the entire iPhone 12 lineup is pretty similar in terms specs features. If in the market an iPhone (obviously, are plenty good Android phones out there), not going be tripped these choices. Pick the size that works you. The Pro additions are just gravy.
+Beyond what we've said here, everything wrote previously the iPhone 12 iPhone 12 Pro applies these phones. So you want dig deeper, read initial review.
+The iPhone 12 mini iPhone 12 Pro Max have exactly the same silicon inside the iPhone 12 iPhone 12 Pro, so there's not much talk far as performance goes. But are a few quick benchmark results anyway.
+Listing image by Samuel Axon
+You must login create an account to comment.
+Join the Ars Orbital Transmission mailing list to get weekly updates delivered to your inbox.
+  CNMN Collection
+  WIRED Media Group
+  © 2021 Condé Nast. All rights reserved. Use and/or registration any portion of this site constitutes acceptance of User Agreement (updated 1/1/20) Privacy Policy Cookie Statement (updated 1/1/20) Ars Technica Addendum (effective 8/21/2018). Ars may earn compensation sales links on this site. Read our affiliate link policy.
+Your California Privacy Rights | Do Not Sell My Personal Information
+  The material on this site may not be reproduced, distributed, transmitted, cached or otherwise used, except the prior written permission of Condé Nast.
+Ad Choices
+ </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9736392498016357</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> December 5, 2020
+Chance Miller
+							- Dec. 5th 2020 11:05 PT
+@ChanceHMiller
+@ChanceHMiller
+The iPhone 12 Pro iPhone 12 Pro Max similar phones, several key differences screen size. Read walk differences iPhone 12 Pro vs. iPhone 12 Pro Max should buy holiday season. 
+In comparison, focus specifically 6.1-inch iPhone 12 Pro 6.7-inch iPhone 12 Pro Max. While similarities iPhone 12 mini iPhone 12, aren’t focusing those comparisons article. Instead, we’re focusing purely high-end iPhone 12 Pro iPhone 12 Pro Max similarities differences.
+You read 2020 iPhone comparisons links below:
+Other camera technology, we touch detail later, display size biggest differentiator iPhone 12 Pro iPhone 12 Pro Max. Here details need know.
+The iPhone 12 Pro features 6.1-inch Super Retina XDR display resolution 2532-by-1170 pixels, equating 460 pixels-per-inch. On other hand, iPhone 12 Pro Max features 6.7-inch Super Retina XDR display resolution 2778-by-1284 pixels, equating slightly lower 458 pixels-per-inch.
+The difference pixel density iPhone 12 Pro iPhone 12 Pro Max minor users almost certainly able actually notice it. The other display features iPhone 12 Pro iPhone 12 Pro Max:
+The iPhone 12 Pro iPhone 12 Pro Max displays protected Ceramic Shield technology, Apple says offers 4x better drop performance previous iPhones.
+Other size difference, overall design iPhone 12 Pro iPhone 12 Pro Max same. Apple’s iPhone 12 design language focuses flat edges similar iPad Pro well iPhone 4/iPhone 5 days. The devices also feature edge-to-edge displays identically sized notch cutouts front house Face ID sensors.
+The iPhone 12 Pro iPhone 12 Pro Max made “surgical-grade stainless steel,” gives glossy shiny finish around edges. Both devices rated IP68 splash, water, dust resistance. Under rating, withstand submersion maximum depth 6 meters 30 minutes.
+The difference screen size iPhone 12 Pro iPhone 12 Pro Max also implications other dimensions. Here details:
+iPhone 12 Pro dimensions
+iPhone 12 Pro Max dimensions
+As see, iPhone 12 Pro Max noticeably heavier larger 6.7-inch display. Whether worth depends lot personal preference screen size, well device you’re upgrading.
+The iPhone 12 Pro iPhone 12 Pro Max identical regard processor performance. Both devices feature Apple’s latest A14 Bionic process, Apple touts “the fastest chip smartphone.” The A14 Bionic features two high-performance cores four efficiency cores.
+Both iPhone 12 Pro iPhone 12 Pro Max also feature latest Neural Engine improved machine learning features capabilities. Apple says new 16-core Neural Engine offers 80% increase performance compared prior generation. You also get 6GB RAM both devices, 4GB RAM Apple used iPhone 11 Pro iPhone 11 Pro Max.
+There also support fast-charging getting 50% charge 30 minutes 20W power adapter. You can also use Qi wireless charging 7.5W power MagSafe wireless charging 15W power.
+A major benefit larger iPhone 12 Pro Max design there’s simply space inside larger battery. So, much power can expect a charge? Here’s Apple claims:
+iPhone 12 Pro battery life
+iPhone 12 Pro Max battery life
+The iPhone 12 lineup first iPhone lineup include 5G connectivity, includes iPhone 12 Pro well iPhone 12 Pro Max. This means regardless which buy, you’ll get fastest version 5G available your area.
+In United States, iPhone 12 Pro iPhone 12 Pro Max both support sub-6GHz 5G well as mmWave 5G. Internationally, however, iPhone 12 5G support limited sub-6GHz connectivity.
+Best iPhone 12 Pro cases:
+Best iPhone 12 Pro Max cases: 
+With last year’s iPhone 11 Pro iPhone 11 Pro Max, differentiating feature almost solely difference screen size. This year, however, iPhone 12 Pro Max actually offers several notable camera improvements smaller iPhone 12 Pro.
+Both iPhone 12 Pro iPhone 12 Pro Max feature a triple-lens camera setup back 12MP ultra wide, wide, telephoto lenses. You also get support Night mode, Deep Fusion, Apple ProRAW across board.
+Where things start differ, however, terms sensor size. The wide camera the iPhone 12 Pro Max features a 47% larger sensor the iPhone 12 Pro, 1.7μm pixels. Apple says difference sensor size makes a whopping 87% improvement low-light conditions.
+The wide camera the iPhone 12 Pro also features sensor-shift optical image stabilization, which stabilizes the sensor rather the lens. Apple says greatly improve stabilization photos videos.
+Between the ultra wide, wide, telephoto lenses, Apple says the iPhone 12 Pro Max features a total optical zoom range 5x, whereas the iPhone 12 Pro features a 4x optical zoom range. The iPhone 12 Pro features digital zoom 10x, the iPhone 12 Pro Max features digital zoom up 12x.
+Finally, the iPhone 12 Pro Max features a 2.5× ƒ/2.2 telephoto lens, the iPhone 12 Pro features a 2x ƒ/2.0 telephoto lens. The higher aperture the iPhone 12 Pro Max lens means there less light entering the camera, so the iPhone 12 Pro lens actually lets light.
+John Gruber Daring Fireball perhaps the most concise explanation what exactly means — or, rather, little should practically affect camera performance:
+2.5× ‘better’ 2.0× it’s longer, offering effective optical zoom. But ƒ/2.0 ‘better’ ƒ/2.2, lets light. But whatever low-light advantage the 12 Pro’s ƒ/2.0 aperture might the 12 Pro Max’s ƒ/2.2 aperture, practice almost certainly effectively moot, low-light situations the camera system probably gets better results using the faster 1× camera digitally zooming a 2×/2.5× crop factor.
+Here the rest the camera features shared the iPhone 12 Pro the iPhone 12 Pro Max:
+The front-facing selfie camera the on the iPhone 12 Pro iPhone 12 Pro Max a 12MP camera ƒ/2.2 aperture. There also support Night mode using the front-facing camera the first time this year.
+Finally, the video recording features virtually the same between the iPhone 12 Pro iPhone 12 Pro Max:
+To recap, the iPhone 12 Pro Max offers notable camera features the iPhone 12 Pro. The different sensor the biggest upgrade from the iPhone 12 Pro the iPhone 12 Pro Max it could offer major improvements indoor photography, particularly low-light scenarios when working conjunction with the new sensor-shift optical image stabilization.
+The iPhone 12 Pro retails $999 128GB storage, $1,099 256GB storage, $1,299 512GB storage. The iPhone 12 Pro Max starts $1,099 128GB, $1,199 256GB storage, $1,399 512GB storage.
+Both the iPhone 12 Pro iPhone 12 Pro Max available four different colors: pacific blue, gold, graphite, silver.
+Citing environmental concerns, Apple no longer including headphones a charging brick the iPhone 12 box this year. Here are accessories might consider picking up help fill gap.
+The iPhone 12 Pro Max a big phone. It’s the biggest phone that Apple ever released, it’s even bigger previous “Max” “Plus” phones over the years. This year, get notable features in exchange that larger form factor, including improved camera technology additional battery life.
+For many people, however, the size the iPhone 12 Pro Max likely prohibitive. A lot users aren’t going able use it with one hand, which could be a determining factor. The iPhone 12 Pro Max also more expensive the iPhone 12 Pro, which factor many people’s decisions.
+If you’ve used the “Max” versions the iPhone this year, however, the form factor this year’s iPhone 12 Pro Max will likely be manageable. And the first time in recent years, you get additional features in exchange the larger form factor.
+On the flip side, the iPhone 12 Pro offers a similar set features, packed a more manageable footprint a lower price point. You miss on some high-end camera features, many people, the iPhone 12 Pro camera is more than capable enough.
+With all of that having said, the best choice most people this year is likely the iPhone 12 Pro — or even the iPhone 12. What you think of the iPhone 12 Pro vs. iPhone 12 Pro Max? Does Apple enough justify the $200 premium the iPhone 12 Pro? Let us know your thoughts in the comments!
+FTC: We use income earning auto affiliate links. More.
+Check 9to5Mac on YouTube more Apple news:
+The iPhone 12 includes 5G speed, A14 Bionic chip, edge-to-edge OLED display, it comes in multiple color options starting at $699.
+@ChanceHMiller
+Chance is an editor the entire 9to5 network covers the latest Apple news for 9to5Mac.
+Tips, questions, typos to chance@9to5mac.com
+2021 MacBook Pro details: New design, MagSafe, more
+Netflix testing AirPods spatial audio support
+Apple TV+ website gets first UI update
+Apple to bring Music + Podcasts apps to Microsoft Store
+ </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7170799970626831</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jan 15, 2021
+8:02 AM EST
+Jan 15, 2021
+7:07 AM EST
+Jan 14, 2021
+9:09 PM EST
+Jan 14, 2021
+8:01 PM EST
+Jan 14, 2021
+7:02 PM EST
+Jan 14, 2021
+6:57 PM EST
+Jan 14, 2021
+6:28 PM EST
+Jan 14, 2021
+5:43 PM EST
+Jan 14, 2021
+7:02 PM EST
+Jan 14, 2021
+1:59 PM EST
+Jan 13, 2021
+7:06 PM EST
+Jan 13, 2021
+1:24 PM EST
+Jan 11, 2021
+9:51 AM EST
+Jan 10, 2021
+6:42 AM EST
+Jan 8, 2021
+12:02 PM EST
+Jan 8, 2021
+10:30 AM EST
+Jan 14, 2021
+3:36 PM EST
+Jan 14, 2021
+9:43 AM EST
+Jan 12, 2021
+2:30 PM EST
+Jan 11, 2021
+3:00 PM EST
+Jan 7, 2021
+8:02 PM EST
+Jan 4, 2021
+9:30 AM EST
+Dec 29, 2020
+4:30 PM EST
+Dec 26, 2020
+3:37 PM EST
+Jan 14, 2021
+6:57 PM EST
+Jan 14, 2021
+6:28 PM EST
+Jan 14, 2021
+1:01 PM EST
+Jan 14, 2021
+12:17 PM EST
+Jan 14, 2021
+12:09 PM EST
+Jan 14, 2021
+10:35 AM EST
+Jan 14, 2021
+10:00 AM EST
+Jan 14, 2021
+10:00 AM EST
+Jan 14, 2021
+4:29 PM EST
+Jan 13, 2021
+5:28 PM EST
+Jan 12, 2021
+5:19 PM EST
+Jan 12, 2021
+1:42 PM EST
+Jan 12, 2021
+12:56 PM EST
+Jan 12, 2021
+12:07 PM EST
+Jan 11, 2021
+4:30 PM EST
+Jan 11, 2021
+9:13 AM EST
+Jan 12, 2021
+11:20 AM EST
+Jan 11, 2021
+12:01 PM EST
+Jan 8, 2021
+3:40 PM EST
+Jan 8, 2021
+7:05 AM EST
+Jan 7, 2021
+1:33 PM EST
+Jan 6, 2021
+8:04 PM EST
+Jan 6, 2021
+1:54 PM EST
+Jan 5, 2021
+4:27 PM EST
+Jan 15, 2021
+8:02 AM EST
+Jan 14, 2021
+8:01 PM EST
+Jan 14, 2021
+12:21 PM EST
+Jan 14, 2021
+9:07 AM EST
+Jan 14, 2021
+6:58 AM EST
+Jan 13, 2021
+9:08 PM EST
+Jan 13, 2021
+6:44 PM EST
+Jan 13, 2021
+5:31 PM EST
+Jan 14, 2021
+5:43 PM EST
+Jan 13, 2021
+1:40 PM EST
+Jan 12, 2021
+6:14 PM EST
+Jan 12, 2021
+11:20 AM EST
+Jan 11, 2021
+9:08 PM EST
+Jan 11, 2021
+4:40 PM EST
+Jan 11, 2021
+11:01 AM EST
+Jan 11, 2021
+8:02 AM EST
+Jan 14, 2021
+12:28 PM EST
+Jan 13, 2021
+4:29 PM EST
+Jan 12, 2021
+3:04 PM EST
+Jan 12, 2021
+1:47 PM EST
+Jan 12, 2021
+9:32 AM EST
+Jan 10, 2021
+1:12 PM EST
+Jan 8, 2021
+12:35 PM EST
+Jan 8, 2021
+11:41 AM EST
+Dec 14, 2020
+11:14 AM EST
+Oct 2, 2020
+4:06 PM EDT
+Sep 25, 2020
+7:03 AM EDT
+Sep 16, 2020
+3:09 PM EDT
+Sep 16, 2020
+12:38 PM EDT
+Sep 15, 2020
+4:24 PM EDT
+Sep 1, 2020
+5:45 PM EDT
+Aug 28, 2020
+10:43 AM EDT
+Jan 14, 2021
+10:28 AM EST
+Jan 14, 2021
+10:00 AM EST
+Jan 11, 2021
+7:03 PM EST
+Jan 11, 2021
+6:23 PM EST
+Jan 11, 2021
+3:20 PM EST
+Jan 11, 2021
+2:49 PM EST
+Jan 11, 2021
+3:01 AM EST
+Jan 5, 2021
+5:13 PM EST
+Jan 9, 2021
+2:04 PM EST
+Dec 23, 2020
+3:02 PM EST
+Dec 19, 2020
+2:34 PM EST
+Dec 15, 2020
+9:55 AM EST
+Dec 14, 2020
+8:06 PM EST
+Dec 9, 2020
+8:07 AM EST
+Nov 29, 2020
+5:27 PM EST
+Nov 21, 2020
+2:32 PM EST
+Nov 10, 2020
+8:02 AM EST
+Nov 9, 2020
+9:00 AM EST
+Nov 9, 2020
+9:00 AM EST
+Nov 9, 2020
+9:00 AM EST
+Nov 9, 2020
+9:00 AM EST
+Oct 29, 2020
+8:31 AM EDT
+Oct 29, 2020
+7:08 AM EDT
+Oct 14, 2020
+11:00 AM EDT
+Nov 17, 2020
+9:00 AM EST
+Nov 3, 2020
+10:54 AM EST
+Oct 22, 2020
+4:52 PM EDT
+Oct 21, 2020
+9:00 AM EDT
+Oct 7, 2020
+12:56 PM EDT
+Oct 4, 2020
+5:32 PM EDT
+Sep 17, 2020
+1:00 PM EDT
+Sep 15, 2020
+7:04 PM EDT
+Jan 9, 2021
+2:04 PM EST
+Dec 19, 2020
+2:34 PM EST
+Dec 9, 2020
+8:07 AM EST
+Nov 29, 2020
+5:27 PM EST
+Nov 12, 2020
+9:00 AM EST
+Nov 8, 2020
+5:24 PM EST
+Nov 4, 2020
+4:32 PM EST
+Oct 22, 2020
+8:04 AM EDT
+Dec 23, 2020
+3:02 PM EST
+Apr 10, 2020
+12:02 PM EDT
+Mar 13, 2020
+8:04 AM EDT
+Mar 12, 2020
+8:03 AM EDT
+Jan 11, 2020
+1:02 PM EST
+Jan 1, 2020
+11:04 AM EST
+Sep 2, 2019
+2:06 PM EDT
+Aug 5, 2019
+9:00 AM EDT
+Dec 14, 2020
+8:06 PM EST
+Oct 31, 2020
+2:34 PM EDT
+Oct 12, 2020
+6:06 PM EDT
+Sep 30, 2020
+11:42 AM EDT
+Sep 23, 2020
+5:18 PM EDT
+Sep 22, 2020
+9:00 AM EDT
+Sep 17, 2020
+6:41 PM EDT
+Sep 17, 2020
+4:57 PM EDT
+Dec 15, 2020
+9:55 AM EST
+Nov 21, 2020
+2:32 PM EST
+Nov 17, 2020
+7:05 AM EST
+Oct 12, 2020
+2:04 PM EDT
+Oct 12, 2020
+9:00 AM EDT
+Oct 11, 2020
+5:31 PM EDT
+Oct 5, 2020
+8:00 AM EDT
+Sep 5, 2020
+2:34 PM EDT
+Nov 11, 2020
+6:00 AM EST
+Nov 6, 2020
+8:00 AM EST
+Nov 5, 2020
+9:00 AM EST
+Nov 5, 2020
+9:00 AM EST
+Oct 15, 2020
+9:00 AM EDT
+Sep 28, 2020
+9:00 AM EDT
+Jul 19, 2020
+5:31 PM EDT
+Mar 16, 2020
+10:00 AM EDT
+Dec 6, 2017
+7:59 PM EST
+Oct 25, 2017
+8:02 AM EDT
+Aug 24, 2017
+11:23 AM EDT
+Jul 16, 2017
+10:02 AM EDT
+Oct 20, 2016
+1:02 PM EDT
+Oct 4, 2016
+9:02 AM EDT
+Oct 3, 2016
+9:03 AM EDT
+Sep 11, 2016
+10:00 AM EDT
+Feb 3, 2018
+5:00 PM EST
+Jan 13, 2018
+9:11 AM EST
+Oct 17, 2017
+9:00 AM EDT
+Oct 4, 2017
+6:40 PM EDT
+Oct 4, 2017
+1:37 PM EDT
+Oct 4, 2017
+12:23 AM EDT
+May 16, 2017
+2:14 PM EDT
+Jan 8, 2017
+2:00 PM EST
+Jan 12, 2021
+7:09 PM EST
+Jan 7, 2021
+8:07 AM EST
+Jan 6, 2021
+8:05 AM EST
+Jan 3, 2021
+5:56 PM EST
+Jan 3, 2021
+10:26 AM EST
+Jan 2, 2021
+11:03 AM EST
+Jan 1, 2021
+8:09 AM EST
+Dec 31, 2020
+7:02 AM EST
+Jul 2, 2020
+9:16 AM EDT
+Jun 24, 2020
+1:08 PM EDT
+Jun 18, 2020
+11:28 AM EDT
+Nov 21, 2019
+9:00 AM EST
+Nov 21, 2019
+8:04 AM EST
+Nov 19, 2019
+11:23 AM EST
+Jul 23, 2019
+12:03 PM EDT
+Mar 7, 2019
+12:04 PM EST
+Jan 3, 2021
+5:56 PM EST
+Jan 1, 2021
+8:09 AM EST
+Dec 31, 2020
+7:02 AM EST
+Dec 30, 2020
+9:32 AM EST
+Dec 29, 2020
+7:04 AM EST
+Dec 28, 2020
+8:06 AM EST
+Dec 26, 2020
+10:04 AM EST
+Dec 24, 2020
+11:03 AM EST
+Dec 6, 2020
+5:27 PM EST
+Dec 5, 2020
+2:36 PM EST
+Nov 1, 2020
+5:27 PM EST
+Oct 24, 2020
+2:28 PM EDT
+Sep 27, 2020
+5:28 PM EDT
+Aug 30, 2020
+5:28 PM EDT
+Aug 29, 2020
+2:32 PM EDT
+Aug 2, 2020
+5:27 PM EDT
+Jan 2, 2021
+11:03 AM EST
+Nov 23, 2020
+11:59 AM EST
+Aug 19, 2020
+8:03 AM EDT
+Aug 3, 2020
+8:26 AM EDT
+Jun 11, 2020
+8:02 PM EDT
+May 5, 2020
+5:01 PM EDT
+Aug 14, 2019
+8:03 AM EDT
+Jun 12, 2019
+12:56 PM EDT
+Jan 12, 2021
+7:09 PM EST
+Jan 7, 2021
+8:07 AM EST
+Jan 6, 2021
+8:05 AM EST
+Jan 3, 2021
+10:26 AM EST
+Dec 30, 2020
+8:02 AM EST
+Dec 29, 2020
+2:04 PM EST
+Dec 24, 2020
+7:04 PM EST
+Dec 23, 2020
+5:03 PM EST
+Jan 14, 2021
+3:35 PM EST
+Jan 14, 2021
+8:01 AM EST
+Jan 10, 2021
+5:24 PM EST
+Jan 9, 2021
+6:04 PM EST
+Jan 5, 2021
+2:17 PM EST
+Jan 5, 2021
+12:36 PM EST
+Jan 2, 2021
+6:09 PM EST
+Jan 2, 2021
+2:00 PM EST
+Jan 14, 2021
+3:35 PM EST
+Jan 14, 2021
+8:01 AM EST
+Jan 10, 2021
+5:24 PM EST
+Jan 9, 2021
+6:04 PM EST
+Jan 2, 2021
+6:09 PM EST
+Jan 2, 2021
+2:00 PM EST
+Dec 31, 2020
+1:41 PM EST
+Dec 27, 2020
+4:18 PM EST
+Jan 5, 2021
+2:17 PM EST
+Jan 5, 2021
+12:36 PM EST
+Dec 30, 2020
+1:42 PM EST
+Dec 22, 2020
+11:59 AM EST
+Dec 17, 2020
+5:31 PM EST
+Dec 10, 2020
+2:55 PM EST
+Dec 1, 2020
+1:59 PM EST
+Nov 25, 2020
+2:31 PM EST
+Jan 14, 2021
+10:32 AM EST
+Jan 13, 2021
+6:21 PM EST
+Jan 13, 2021
+2:01 PM EST
+Jan 13, 2021
+11:18 AM EST
+Jan 12, 2021
+9:28 AM EST
+Jan 11, 2021
+10:29 PM EST
+Jan 11, 2021
+4:24 PM EST
+Jan 8, 2021
+2:54 PM EST
+Jan 13, 2021
+11:18 AM EST
+Jan 8, 2021
+2:54 PM EST
+Nov 24, 2020
+4:00 AM EST
+Oct 30, 2020
+10:15 AM EDT
+Oct 10, 2020
+1:07 PM EDT
+Oct 2, 2020
+12:28 PM EDT
+Aug 6, 2020
+2:23 PM EDT
+Jul 31, 2020
+2:24 PM EDT
+Jan 14, 2021
+3:36 PM EST
+Jan 14, 2021
+9:43 AM EST
+Jan 12, 2021
+2:30 PM EST
+Jan 11, 2021
+3:00 PM EST
+Jan 7, 2021
+8:02 PM EST
+Jan 4, 2021
+9:30 AM EST
+Dec 29, 2020
+4:30 PM EST
+Dec 26, 2020
+3:37 PM EST
+Jan 14, 2021
+10:32 AM EST
+Jan 12, 2021
+9:28 AM EST
+Jan 11, 2021
+10:29 PM EST
+Dec 20, 2020
+1:14 PM EST
+Dec 17, 2020
+2:58 PM EST
+Dec 16, 2020
+10:58 AM EST
+Dec 13, 2020
+1:16 PM EST
+Dec 10, 2020
+9:10 AM EST
+Jan 13, 2021
+2:01 PM EST
+Jan 2, 2021
+12:57 PM EST
+Dec 22, 2020
+9:50 AM EST
+Dec 14, 2020
+1:08 PM EST
+Dec 12, 2020
+11:56 AM EST
+Nov 18, 2020
+4:53 PM EST
+Nov 17, 2020
+1:22 PM EST
+Nov 12, 2020
+4:05 PM EST
+Dec 17, 2020
+2:58 PM EST
+Dec 10, 2020
+4:21 PM EST
+Nov 30, 2020
+9:57 AM EST
+Nov 29, 2020
+3:03 PM EST
+Nov 23, 2020
+11:54 AM EST
+Nov 19, 2020
+12:32 PM EST
+Oct 15, 2020
+2:01 PM EDT
+Oct 7, 2020
+9:30 AM EDT
+Nov 22, 2020
+1:13 PM EST
+Oct 30, 2020
+2:02 PM EDT
+Oct 2, 2020
+1:08 PM EDT
+Jul 24, 2020
+1:00 PM EDT
+Jul 24, 2020
+11:57 AM EDT
+Jul 9, 2020
+3:37 PM EDT
+Jun 23, 2020
+11:56 AM EDT
+May 22, 2020
+3:33 PM EDT
+Dec 3, 2020
+5:31 PM EST
+Nov 20, 2020
+12:31 PM EST
+Oct 23, 2020
+4:24 PM EDT
+Oct 2, 2020
+12:12 PM EDT
+Sep 25, 2020
+10:17 AM EDT
+Sep 18, 2020
+3:24 PM EDT
+Sep 4, 2020
+4:21 PM EDT
+Aug 14, 2020
+1:48 PM EDT
+Dec 3, 2020
+5:31 PM EST
+Nov 20, 2020
+12:31 PM EST
+Oct 23, 2020
+4:24 PM EDT
+Oct 2, 2020
+12:12 PM EDT
+Sep 25, 2020
+10:17 AM EDT
+Sep 18, 2020
+3:24 PM EDT
+Sep 4, 2020
+4:21 PM EDT
+Aug 14, 2020
+1:48 PM EDT
+Feb 8, 2019
+8:08 AM EST
+Jan 3, 2019
+11:59 AM EST
+Jul 10, 2018
+3:38 PM EDT
+Jun 29, 2018
+3:48 PM EDT
+Jun 13, 2018
+10:10 AM EDT
+May 30, 2018
+12:00 PM EDT
+May 15, 2018
+1:43 PM EDT
+May 1, 2018
+1:58 PM EDT
+Nov 9, 2020
+9:00 AM EST
+0 comments
+The Pros
+The Cons
+Just like every modern smartphone release, significant question surrounding Apple’s new iPhone 12 Pro iPhone 12 Pro Max new devices worth upgrade, especially heels last year’s impressive iPhone 11 series update.
+First, it’s important note iPhone 12 series significant refresh smartphone’s design since release iPhone X, though it’s entirely new look. With mind, care smartphone’s aesthetic, iPhone 12 Pro/12 Pro Max could offer worthwhile update depending how feel device’s squared-off design.
+The major change relates improved low-light photography performance primarily powered iPhone 12 Pro iPhone 12 Pro’s new Light Detection Ranging (LiDAR) sensor slightly redesigned camera array.
+While Apple’s claims regarding iPhone 12 Pro series’ camera improvements accurate, they’re incremental. Still, you’re budding smartphone photography enthusiast, updates could substantial enough warrant purchase.
+That said, there’s also question whether ‘Pro’ series iPhone 12 devices offer enough advantages point even make worthwhile average iPhone user.
+There’s lot unpack year’s iPhones, let’s get it.
+Update 09/11/2020: This review updated photos, image comparisons information iPhone 12 Pro Max. The review score changed.
+Despite subheading above, iPhone 12 Pro iPhone 12 Pro Max obvious throwback iPhone 4-era squared-off edges. However, smartphones also clearly take inspiration Apple’s recent iPad Pro design iPad Air (2020).
+At first, iPhone 12 Pro/12 Pro Max’s squared-off look jarring feels equally strange you’re holding smartphone hand, it’s grown last weeks.
+It gives smartphone line clear new design; place iPhone X, iPhone XS iPhone 11 Pro beside new iPhone 12, you’ll instantly recognize Apple’s new smartphones.
+The squarer sides also make device feel substantial easier grip your hand, great ongoing era slippery smartphones. The power button remains device’s right side, volume buttons left. The buttons fair amount bounce them, though flatter iPhone 11 series.
+While excellent, grease-resistant matte rear featured iPhone 11 Pro back complete new ‘Ceramic Shield’ construction tech giant claims features four times better drop resistance, stainless steel band running around edge smartphone unfortunate callback iPhone X’s shiny border.
+This means attracts smudges grease. Most people might care this, it’s strange blemish otherwise solid refresh high-end iPhone’s design. Strangely, iPhone 12 doesn’t suffer issue despite lower-end aluminum sides.
+It isn’t easy verify Apple’s statements regarding iPhone 12 Pro iPhone 12 Pro Max’s improved durability regarding new Ceramic Shield build.
+“Overall, I like new look iPhone 12 Pro iPhone 12 Pro Max view positive step forward”
+I’ll leave wealthy YouTubers brave enough test claims out. However, I say iPhone 11 Pro Max I’ve using last year one durable smartphones I’ve ever encountered, and, Apple says it’s improved design, definitely good thing.
+With said, I’ve continually contended everyone least putting smartphone case, high-end glass screen protector also good idea. Smartphones pricey accidents happen. Most tech YouTubers, bloggers, journalists claim don’t use cases get sent many smartphones broken device isn’t big deal. This isn’t reality average iPhone owner.
+A LiDAR sensor flanks triple rear-camera setup substantial camera bump iPhone 11 Pro. The display notch, still isn’t noticeable people make be, returns Face ID functionality feels reliable iPhone 11 Pro — means works roughly 95 percent time.
+Regarding colours, iPhone 12 Pro iPhone 12 Pro Max available ‘Graphite,’ ‘Silver,’ ‘Gold,’ ‘Pacific Blue.’ As see photos review, I Pacific Blue iPhone 12 Pro Gold iPhone 12 Pro Max. While blue actually seems deeper last year’s now-dead ‘Midnight Green,’ new gold hue surprisingly subdued. Though I like new Pacific Blue colour, Midnight Green likely forever go favourite smartphone colour.
+Overall, I like new look iPhone 12 Pro iPhone 12 Pro Max view positive step forward.
+Apple’s new A14 Bionic processor absolute powerhouse. The A13 leap anything Qualcomm produced A14 pushes power even further.
+For those who care benchmarks, iPhone 12 Pro comes 1,597 single-core performance 4,232 multi-core. On hand, iPhone 11 Pro Max hits 1,328 single-core 3,397 multi-core.
+My experience phone, whether I’m playing games like REKT, quick photo edits Lightroom, browsing internet watching content Netflix, been extremely smooth.
+I haven’t encountered single instance lag time iPhone 12 Pro iPhone 12 Pro Max.
+There’s also new LiDAR sensor improves iPhone 12 Pro series’ augmented reality functionality, like iPad Pro (2020), adding faster autofocus low-light other camera improvements (more later).
+“Everything watching Netflix, gaming, browsing internet looks stellar screen”
+I’ve always preferred Apple’s ‘Max’ model iPhones. I appreciate additional real-estate devices offer, using 6.1-inch smartphone part review been strange experience me. That said, I don’t necessarily find iPhone 12 Pro small, especially since it’s increase 5.8-inch iPhone 11 Pro’s size. Along larger display size, iPhone 12 Pro’s screen measures slightly higher 2,523 x 1,170 pixels compared iPhone 11 Pro’s 2,436 x 1,125 pixels.
+On other hand, iPhone 12 Pro Max comes an expansive 6.7-inches 1,284 x 2,778 pixel resolution compared last year’s 6.5-inches 1,232 x 2,688 pixel resolution. The 12 Pro Max slightly taller iPhone 11 Pro Max, manages feature an 87.4 percent screen-to-body ratio, slight improvement last year’s 83.7 percent screen-to-body ratio iPhone 11 Pro Max.
+While minor overall increase display size, really notice iPhone 12 Pro Max’s screen larger looking directly beside iPhone 11 Pro Max’s display. This makes watching videos, typing performing nearly task great experience long your fine using large smartphone.
+The display matches Samsung’s recently released Galaxy Note 20 Ultra terms vibrancy colour, thanks P3 wide colour gamut 2,000,0000:1 contrast ratio 1200 nits max brightness HDR10 support. Everything watching Netflix, gaming, just browsing internet looks stellar screen.
+Unfortunately, rumours surrounding iPhone 12 Pro iPhone 12 Pro Max’s display featuring 120Hz refresh rate proved inaccurate. Whether were concerns 120Hz coupled 5G would result poor battery life COVID-19 related manufacturing issues, iPhone 12 Pro/12 Pro Max’s screen comes just 60Hz.
+In some ways, totally unacceptable. Most high-end — and, some cases, even mid-range Android devices — moved smoother 90Hz 120Hz displays. Even iPad Pro features Apple’s great-looking ‘ProMotion’ 120Hz technology. In 2020, seems strange tech giant’s flagship include higher refresh rate display.
+On other side argument, 120Hz great, it’s feature people miss given difference isn’t drastic really depends type content you’re consuming. Still, would been great see Apple bring 120Hz refresh rate technology iPhone year.
+Storage size starts 128GB compared last year’s 64GB, good move Apple’s part considering tech giant’s smartphone line lags behind Android competitors storage department.
+Another spec worth noting includes iPhone 12 Pro series still IP68 rated, though time a maximum 6 metres up 30 minutes instead 4 metres 30 minutes like last year.
+And, course, iPhone 12 Pro iPhone 12 Pro Max still feature a Lightning port not USB-C. At this point, it’s likely Apple ditch a connector port go entirely wireless rather switch USB-C. I’ve tested Apple’s MagSafe charger confirm attaches iPhone 12 Pro’s rear extremely easily. However, charger, unfortunately, doesn’t come a USB-C charging brick.
+Apple’s various MagSafe charging cases similar standard leather silicone smartphone enclosures tech giant released years. They’re pricey, coming $69, generally feel great firmly attach new MagSafe charger. It’s worth noting MagSafe still works standard cases; magnetic connection just slightly less firm. I haven’t tried Apple’s MagSafe Wallet attachment, early impressions accessory generally negative. The attachment seems far easily fall rear Apple’s iPhone 12 MagSafe cases.
+Regarding iPhone 12 Pro’s battery life, I found phone comes roughly a day moderate use, matches experience last year’s iPhone 11 Pro Max. I experienced very similar results iPhone 12 Pro Max, though its slightly larger battery allowed me get one two hours device.
+Camera-wise, several minor improvements iPhone 12 Pro’s array shooters. First, main wide 12-megapixel camera features a wider f/1.6 aperture a seven-element lens compared iPhone 11 Pro’s six-element f/1.8 lens. Apple says this improves lens’ ability gather light 27 percent.
+In experience, I didn’t notice a significant difference performance, this lens seem shoot slightly less noisy photos.
+The left image shot iPhone 12 Pro, image right shot iPhone 11 Pro Max. The iPhone 12 Pro photo features far accurate colour tones its iPhone 11 Pro Max counterpart.
+The left image shot iPhone 12 Pro, image right shot iPhone 11 Pro Max. The iPhone 12 Pro photo features far accurate colour tones its iPhone 11 Pro Max counterpart.
+On other hand, 12-megapixel f/2.4 ultrawide angle f/2.0 2x optical zoom lenses still measure same technical specs last year.
+The real camera improvements come smartphone’s Smart HDR 3, latest version Apple’s behind-the-scenes image processing technology. Photos taken iPhone 12 Pro feature detail, slightly greater contrast, accuracy, greater colour vibrancy and, general, look better those shot iPhone 11 Pro Max, a small margin.
+Just like last year’s iPhones, images also look true-to-life oversaturated photos snapped smartphones like Samsung’s Note 20 Ultra.
+The iPhone 12 Pro’s standard wide camera left, iPhone 11 Pro Max’s shooter right. The photo shot iPhone 12 Pro features vibrant, accurate colour detail foliage.
+The iPhone 12 Pro’s standard wide camera left, iPhone 11 Pro Max’s shooter right. The photo shot the iPhone 12 Pro features vibrant, accurate colour detail the foliage.
+The iPhone 12 Pro’s regular wide camera the left, the iPhone 11 Pro Max’s shooter the right. The iPhone 12 Pro photo features accurate white balance tones. It’s also slightly sharper the photo shot the iPhone 11 Pro Max.
+The iPhone 12 Pro’s regular wide camera the left, the iPhone 11 Pro Max’s shooter the right. The iPhone 12 Pro photo features accurate white balance tones. It’s also slightly sharper the photo shot the iPhone 11 Pro Max.
+On the iPhone 12 Pro Max side the camera equation, the larger smartphone’s primary sensor bigger utilizes 1.7-micron pixels, allowing capture light. Generally, low-light performance the iPhone 12 Pro Max slightly better what the iPhone 12 Pro capable of.
+Further, the iPhone 12 Pro Max’s telephoto lens comes 65mm f/2.2 compared the iPhone 12 Pro’s 52mm f/2.0. While the aperture smaller, this allows the Pro Max shoot 2.5x optical zoom. While the additional zoom come handy snapping shots a distance, the difference negligible.
+The iPhone 12 Pro’s 2x zoom the left the iPhone 12 Pro Max’s 2.5x zoom the right. While 2.5x zoom allow get closer the subject you’re shooting, the difference isn’t dramatic.
+The iPhone 12 Pro’s 2x zoom on the left the iPhone 12 Pro Max’s 2.5x zoom on the right. While 2.5x zoom allow get closer the subject you’re shooting, the difference isn’t dramatic.
+Other iPhone 12 Pro Max improvements include image stabilization technology commonly found DSLRs called ‘sensor shift.’ This technology moves the sensor around multiple axes stabilize external motion.
+Though this feature make easier snap photos quickly, the most significant benefit night mode doesn’t need turn on as often the iPhone 12 Pro Max capable shooting a slower shutter speed thanks its sensor shift technology.
+The iPhone 12 Pro’s wide camera on the left the iPhone 12 Pro Max’s wide shooter on the right. The iPhone 12 Pro Max handles highlights slightly better features generally overall sharper focus, especially the foliage. However, the difference quality the two photos negligible.
+The iPhone 12 Pro’s wide camera on the left the iPhone 12 Pro Max’s wide shooter on the right. The iPhone 12 Pro Max handles highlights slightly better features generally overall sharper focus, especially the foliage. However, the difference quality the two photos negligible.
+The other major upgrade this year thanks the new LiDAR sensor it’s possible snap night mode photos the ultrawide shooter. Night mode the ultrawide a welcome addition can result truly stunning vistas. It occasionally blows highlights, however.
+On the other hand, I don’t personally find taking night mode selfies useful, this feature could come handy some people produces decent shots as long as you’re able keep still. The difference quality really drastic despite giving skin a weird plastic look. You can also shoot night mode selfies the camera set Apple’s depth-of-field Portrait mode.
+The iPhone 12 Pro’s selfie shooter night mode on the left, the iPhone 11 Pro Max’s selfie shooter on the right. Though night mode selfie shots give skin a plastic-like tone, they’re still usable, unlike the dark images the iPhone 11 Pro Max takes.
+The iPhone 12 Pro’s selfie shooter night mode on the left, the iPhone 11 Pro Max’s selfie shooter on the right. Though night mode selfie shots give skin a plastic-like tone, they’re still usable, unlike the dark images the iPhone 11 Pro Max takes.
+The most significant upgrade the speed the iPhone 12 Pro iPhone 12 Pro Max autofocus under low-light. This something even the best smartphone cameras often struggle with. Regardless what I shooting, I easily surprisingly able quickly focus on the area the subject I wanted take a picture of.
+The iPhone 12 Pro’s ultrawide camera on the left, the iPhone 11 Pro Max’s ultrawide shooter on the right. The iPhone 12 Pro’s ultrawide camera overall lightens the image and, most cases, doesn’t feature blown-out highlights.
+The iPhone 12 Pro’s ultrawide camera on the left, the iPhone 11 Pro Max’s ultrawide shooter on the right. The iPhone 12 Pro’s ultrawide camera overall lightens the image and, most cases, doesn’t feature blown-out highlights.
+The iPhone 12 Pro 12 Pro Max can also shoot 4K/60fps 10-bit Dolby Vision footage real-time, a first any smartphone camera. Dolby Vision utilizes dynamic metadata map accurate colour the brightness a scene, typically requires extensive editing grading.
+“It’s great see Apple taking RAW photography seriously, though it’s strange the tech giant still doesn’t offer manual controls its camera app”
+While the results look impressive somewhat comparable experience watching content on Netflix that supports Dolby Vision, you’ll only able actually view the benefits the high-end HDR format provides on supported monitors televisions. Even then, YouTube doesn’t support Dolby Vision content. Of course, can also watch Dolby Vision videos directly on the iPhone 12 series.
+It’s important note that the new Apple ProRaw file type announced the tech giant’s keynote won’t available launch, it’s unclear it’s releasing. Similar ‘Deep Fusion,’ it’s likely going appear at some point November.
+The iPhone 12 Pro’s 12-megapixel selfie shooter on the left, the iPhone 11 Pro Max’s selfie camera on the right. The iPhone 12 Pro accurately matches real skin tone the sky slightly less overexposed.
+The iPhone 12 Pro’s 12-megapixel selfie shooter on the left, the iPhone 11 Pro Max’s selfie camera on the right. The iPhone 12 Pro accurately matches real skin tone the sky slightly less overexposed.
+That said, it’s great see Apple taking RAW photography more seriously, though it’s strange the tech giant still doesn’t offer manual controls its camera app. What likely end up being more interesting how third-party developers take advantage the ProRaw SDK their camera apps.
+You may have wondered I didn’t mention 5G as a pivotal new feature at the top this review. It’s as much as the Big Three Canadian carriers want believe 5G Canada a massive jump forward network speed, the reality that it isn’t — at least not yet.
+I live Burlington, Ontario, a city that Rogers says it expanded its 5G network back late September. I ran several speed tests home office, nearly every instance, my iPhone 11 Pro Max hit 24.3Mbps download 10.4Mbps upload on Rogers’ 5G network, compared Telus/Koodo’s LTE network hitting 61.7Mbps download 3.72Mbps upload.
+The 5G Rogers test the iPhone 12 Pro on the left, the LTE iPhone 11 Pro Max test Telus’ LTE network on the right. This test performed Burlington, Ontario. Check out that ad 😂.
+The 5G Rogers test the iPhone 12 Pro on the left, the LTE iPhone 11 Pro Max test Telus’ LTE network on the right. This test performed Burlington, Ontario. Check out that ad 😂.
+That said, I ran several tests different areas Oakville, Burlington Hamilton across the board, Rogers’ 5G network typically 10 15 percent faster. Still, the ongoing era many us working home, the actual speeds get your smartphone your house important.
+Of course, the speeds receive shift depending on where live whether Rogers’, Bell’s, Telus’ 5G network active your area.
+Further, Apple removed the mmWave antenna featured on the side the U.S. version iPhone 12 Pro the iteration the smartphone sold Canada. Canadian iPhone 12 smartphones capable the n78 5G band (TD 3500), which likely launch across the country at some point the next years.
+The Canadian government’s auction the 3,500MHz spectrum band set mid-2021 being delayed roughly six months due the ongoing COVID-19 pandemic.
+Canadians won’t see the blazing-fast speeds that 5G promises the 3.5GHz spectrum is auctioned deployed the next years. The carriers currently offering 5G adding 5G channels on top their existing LTE core.
+The iPhone 12 Pro also won’t always be connected a given carriers’ 5G network, either. Apple’s Smart Data Mode automatically saves power 5G speeds aren’t needed to improve the smartphone’s battery life. Apple says the device switches LTE 5G depending on what you’re your phone. For example, Smart Data Mode could switch to LTE your screen is off, you’re watching Netflix, it might jump back to 5G. That said, can turn this feature lock the iPhone 12 Pro to solely 5G want.
+Should just buy the iPhone 12 instead? 
+Though Apple's iPhone 12 Pro iPhone 12 Pro Max are impressive, the devices offer enough advantages the iPhone 12 that smartphones feature nearly identical Super Retina XDR OLED displays? Unless absolutely need the best what Apple to offer value 2x/2.5x optical zoom, the answer is probably not.
+It’s also still unclear if Apple’s upcoming ProRaw format be worth the additional cost the iPhone 12 Pro/12 Pro Max.
+Still, the iPhone 12 Pro iPhone 12 Pro Max offer an impressive smartphone package thanks to their worthwhile incremental camera upgrades, coupled with an excellent design revamp.
+The iPhone 12 Pro starts at $1,399 in Canada the 128GB version
+. The 256GB iteration costs $1,539 the 512GB iteration costs $1,809. The iPhone 12 Pro Max starts at $1,549 the 128GB iteration. The 256GB version costs $1,689 the 512GB iteration costs $1,959
+For my review the iPhone 12 iPhone 12 mini, follow this link.
+Though Apple's iPhone 12 Pro iPhone 12 Pro Max are impressive, the devices offer enough advantages the iPhone 12 that smartphones feature nearly identical Super Retina XDR OLED displays? Unless you absolutely need the best what Apple to offer value 2x/2.5x optical zoom, the answer is probably not.
+It’s also still unclear if Apple’s upcoming ProRaw format will be worth the additional cost the iPhone 12 Pro/12 Pro Max.
+Still, the iPhone 12 Pro iPhone 12 Pro Max offer an impressive smartphone package thanks to their worthwhile incremental camera upgrades, coupled with an excellent design revamp.
+The iPhone 12 Pro starts at $1,399 in Canada the 128GB version
+. The 256GB iteration costs $1,539 the 512GB iteration costs $1,809. The iPhone 12 Pro Max starts at $1,549 the 128GB iteration. The 256GB version costs $1,689 and the 512GB iteration costs $1,959
+For my review of the iPhone 12 and iPhone 12 mini, follow this link.
+"The iPhone 12 Pro offers an impressive smartphone package thanks to its worthwhile incremental camera upgrades, coupled with its excellent design revamp" 
+Facebook
+Twitter
+Google+
+Linkedin
+Reddit
+Related Articles
+Jan 8, 2021
+5:29 PM EST
+Dec 31, 2020
+4:13 PM EST
+Jul 17, 2020
+4:29 PM EDT
+Jan 14, 2021
+9:43 AM EST
+Comments
+Categories
+Contact us
+Social
+Newsletter Signup
+Thank you for your subscription
+© 2021 Blue Ant Media 
+Privacy. 
+Terms of use. 
+Jan 15, 2021
+8:02 AM EST
+Jan 15, 2021
+7:07 AM EST
+Jan 14, 2021
+9:09 PM EST
+Jan 14, 2021
+8:01 PM EST
+Jan 14, 2021
+7:02 PM EST
+Jan 14, 2021
+6:57 PM EST
+Jan 14, 2021
+6:28 PM EST
+Jan 14, 2021
+5:43 PM EST
+Jan 14, 2021
+7:02 PM EST
+Jan 14, 2021
+1:59 PM EST
+Jan 13, 2021
+7:06 PM EST
+Jan 13, 2021
+1:24 PM EST
+Jan 11, 2021
+9:51 AM EST
+Jan 10, 2021
+6:42 AM EST
+Jan 8, 2021
+12:02 PM EST
+Jan 8, 2021
+10:30 AM EST
+Jan 14, 2021
+3:36 PM EST
+Jan 14, 2021
+9:43 AM EST
+Jan 12, 2021
+2:30 PM EST
+Jan 11, 2021
+3:00 PM EST
+Jan 7, 2021
+8:02 PM EST
+Jan 4, 2021
+9:30 AM EST
+Dec 29, 2020
+4:30 PM EST
+Dec 26, 2020
+3:37 PM EST
+Jan 14, 2021
+6:57 PM EST
+Jan 14, 2021
+6:28 PM EST
+Jan 14, 2021
+1:01 PM EST
+Jan 14, 2021
+12:17 PM EST
+Jan 14, 2021
+12:09 PM EST
+Jan 14, 2021
+10:35 AM EST
+Jan 14, 2021
+10:00 AM EST
+Jan 14, 2021
+10:00 AM EST
+Jan 14, 2021
+4:29 PM EST
+Jan 13, 2021
+5:28 PM EST
+Jan 12, 2021
+5:19 PM EST
+Jan 12, 2021
+1:42 PM EST
+Jan 12, 2021
+12:56 PM EST
+Jan 12, 2021
+12:07 PM EST
+Jan 11, 2021
+4:30 PM EST
+Jan 11, 2021
+9:13 AM EST
+Jan 12, 2021
+11:20 AM EST
+Jan 11, 2021
+12:01 PM EST
+Jan 8, 2021
+3:40 PM EST
+Jan 8, 2021
+7:05 AM EST
+Jan 7, 2021
+1:33 PM EST
+Jan 6, 2021
+8:04 PM EST
+Jan 6, 2021
+1:54 PM EST
+Jan 5, 2021
+4:27 PM EST
+Jan 15, 2021
+8:02 AM EST
+Jan 14, 2021
+8:01 PM EST
+Jan 14, 2021
+12:21 PM EST
+Jan 14, 2021
+9:07 AM EST
+Jan 14, 2021
+6:58 AM EST
+Jan 13, 2021
+9:08 PM EST
+Jan 13, 2021
+6:44 PM EST
+Jan 13, 2021
+5:31 PM EST
+Jan 14, 2021
+5:43 PM EST
+Jan 13, 2021
+1:40 PM EST
+Jan 12, 2021
+6:14 PM EST
+Jan 12, 2021
+11:20 AM EST
+Jan 11, 2021
+9:08 PM EST
+Jan 11, 2021
+4:40 PM EST
+Jan 11, 2021
+11:01 AM EST
+Jan 11, 2021
+8:02 AM EST
+Jan 14, 2021
+12:28 PM EST
+Jan 13, 2021
+4:29 PM EST
+Jan 12, 2021
+3:04 PM EST
+Jan 12, 2021
+1:47 PM EST
+Jan 12, 2021
+9:32 AM EST
+Jan 10, 2021
+1:12 PM EST
+Jan 8, 2021
+12:35 PM EST
+Jan 8, 2021
+11:41 AM EST
+Dec 14, 2020
+11:14 AM EST
+Oct 2, 2020
+4:06 PM EDT
+Sep 25, 2020
+7:03 AM EDT
+Sep 16, 2020
+3:09 PM EDT
+Sep 16, 2020
+12:38 PM EDT
+Sep 15, 2020
+4:24 PM EDT
+Sep 1, 2020
+5:45 PM EDT
+Aug 28, 2020
+10:43 AM EDT
+Jan 14, 2021
+10:28 AM EST
+Jan 14, 2021
+10:00 AM EST
+Jan 11, 2021
+7:03 PM EST
+Jan 11, 2021
+6:23 PM EST
+Jan 11, 2021
+3:20 PM EST
+Jan 11, 2021
+2:49 PM EST
+Jan 11, 2021
+3:01 AM EST
+Jan 5, 2021
+5:13 PM EST
+Jan 9, 2021
+2:04 PM EST
+Dec 23, 2020
+3:02 PM EST
+Dec 19, 2020
+2:34 PM EST
+Dec 15, 2020
+9:55 AM EST
+Dec 14, 2020
+8:06 PM EST
+Dec 9, 2020
+8:07 AM EST
+Nov 29, 2020
+5:27 PM EST
+Nov 21, 2020
+2:32 PM EST
+Nov 10, 2020
+8:02 AM EST
+Nov 9, 2020
+9:00 AM EST
+Nov 9, 2020
+9:00 AM EST
+Nov 9, 2020
+9:00 AM EST
+Nov 9, 2020
+9:00 AM EST
+Oct 29, 2020
+8:31 AM EDT
+Oct 29, 2020
+7:08 AM EDT
+Oct 14, 2020
+11:00 AM EDT
+Nov 17, 2020
+9:00 AM EST
+Nov 3, 2020
+10:54 AM EST
+Oct 22, 2020
+4:52 PM EDT
+Oct 21, 2020
+9:00 AM EDT
+Oct 7, 2020
+12:56 PM EDT
+Oct 4, 2020
+5:32 PM EDT
+Sep 17, 2020
+1:00 PM EDT
+Sep 15, 2020
+7:04 PM EDT
+Jan 9, 2021
+2:04 PM EST
+Dec 19, 2020
+2:34 PM EST
+Dec 9, 2020
+8:07 AM EST
+Nov 29, 2020
+5:27 PM EST
+Nov 12, 2020
+9:00 AM EST
+Nov 8, 2020
+5:24 PM EST
+Nov 4, 2020
+4:32 PM EST
+Oct 22, 2020
+8:04 AM EDT
+Dec 23, 2020
+3:02 PM EST
+Apr 10, 2020
+12:02 PM EDT
+Mar 13, 2020
+8:04 AM EDT
+Mar 12, 2020
+8:03 AM EDT
+Jan 11, 2020
+1:02 PM EST
+Jan 1, 2020
+11:04 AM EST
+Sep 2, 2019
+2:06 PM EDT
+Aug 5, 2019
+9:00 AM EDT
+Dec 14, 2020
+8:06 PM EST
+Oct 31, 2020
+2:34 PM EDT
+Oct 12, 2020
+6:06 PM EDT
+Sep 30, 2020
+11:42 AM EDT
+Sep 23, 2020
+5:18 PM EDT
+Sep 22, 2020
+9:00 AM EDT
+Sep 17, 2020
+6:41 PM EDT
+Sep 17, 2020
+4:57 PM EDT
+Dec 15, 2020
+9:55 AM EST
+Nov 21, 2020
+2:32 PM EST
+Nov 17, 2020
+7:05 AM EST
+Oct 12, 2020
+2:04 PM EDT
+Oct 12, 2020
+9:00 AM EDT
+Oct 11, 2020
+5:31 PM EDT
+Oct 5, 2020
+8:00 AM EDT
+Sep 5, 2020
+2:34 PM EDT
+Nov 11, 2020
+6:00 AM EST
+Nov 6, 2020
+8:00 AM EST
+Nov 5, 2020
+9:00 AM EST
+Nov 5, 2020
+9:00 AM EST
+Oct 15, 2020
+9:00 AM EDT
+Sep 28, 2020
+9:00 AM EDT
+Jul 19, 2020
+5:31 PM EDT
+Mar 16, 2020
+10:00 AM EDT
+Dec 6, 2017
+7:59 PM EST
+Oct 25, 2017
+8:02 AM EDT
+Aug 24, 2017
+11:23 AM EDT
+Jul 16, 2017
+10:02 AM EDT
+Oct 20, 2016
+1:02 PM EDT
+Oct 4, 2016
+9:02 AM EDT
+Oct 3, 2016
+9:03 AM EDT
+Sep 11, 2016
+10:00 AM EDT
+Feb 3, 2018
+5:00 PM EST
+Jan 13, 2018
+9:11 AM EST
+Oct 17, 2017
+9:00 AM EDT
+Oct 4, 2017
+6:40 PM EDT
+Oct 4, 2017
+1:37 PM EDT
+Oct 4, 2017
+12:23 AM EDT
+May 16, 2017
+2:14 PM EDT
+Jan 8, 2017
+2:00 PM EST
+Jan 12, 2021
+7:09 PM EST
+Jan 7, 2021
+8:07 AM EST
+Jan 6, 2021
+8:05 AM EST
+Jan 3, 2021
+5:56 PM EST
+Jan 3, 2021
+10:26 AM EST
+Jan 2, 2021
+</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9569419026374817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>